--- a/corpus/train.xlsx
+++ b/corpus/train.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C91"/>
+  <dimension ref="A1:D91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>class</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -451,11 +456,16 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>audi anunció finales agosto entraría fórmula proveedor unidades potencia confirmara octubre unión sauber actual alfa romeoel permitirá sauber actuar socio estratégico equipo audi desarrollando chasis base hinwil suiza unidad potencia gestionada compañía perteneciente grupo volkswagen neuburg alemaniaaudi detalles ampliación instalaciones neuburg cabida proyecto iniciar construcción edificio metros cuadrados albergará bancos pruebas desarrollo unidad potenciael edificio conocido forma ampliación competence centre motorsport inaugurado albergaba proyectos oficiales competición audi campeonato mundo resistencia fórmula rally dakarla ampliación debería terminada trimestre primeras actividades deberían realizarse marzo añocon competence centre motorsport base ideal proyecto fórmula oliver hoffmann miembro consejo administración audi desarrollo técnicoaudi neuburg diseñó principio abordar proyectos exigentes automovilismo previsión dando frutos instalaciones existentes pudimos empezar inmediatamente proyecto fórmula dijola ampliación creará infraestructura necesaria desarrollo unidad potencia plazo ampliación edificio instalación bancos pruebas generación dando equipo desarrollo mejores condiciones posibles éxito máxima categoría automovilismodesde anuncio planes audi llevado cabo campaña contratación personal incorporado empleados fabricante alemán objetivo superar barrera mediados desarrollar unidad potencia serie carreras exigente mundo alemania reto adam baker supervisa planes audi fya equipo instalaciones neuburg an der donau crecer finalizó</t>
+          <t>noviembre garbiñe muguruza alzó ganar wta finals torneo maestras disputan mejores tenistas mundo meses española sombra jugadora campeona roland garros número enlaza temporadas consecutivas despidiéndose torneo ronda domingo apeó kaia kanepi estonia años ranking parezca mentira impuso condición física vencer rival años menor temporada perdido completamente nortemuguruza curso horroroso balance capaz ganar partidos seguidos cirstea brengle doha vencido kasatkina cornet kudermetova ostapenko riske kalinina putintseva trevisan kanepi top venía caer primeras cambio roma rabat perder madrid ronda campaña mediado problema físico planificación respetable dudosa renuncias torneos baja forma gira tierrala derrota parís evento porcentaje victorias jugadoras activo síntoma marca notable estrenos grand slam sirvió afrontar confianza partido empezó perdió puntos continuó racha tantos seguidos acabó fatal perdió gozar bolas manga cederla pese haberse adelantado claramente situación repetida encuentros kanepi ayudó set estrellando bola innumerables red afinó puntería potente físico echando atrás garbiñe agobiada pasar pelota decisiva ventaja kaia convirtió break letal cambio curso encuentro lenguaje corporal denotó angustia negar peleó mantenerse partido juego fe suficiente igualar marcador forzar desempate golpeó arcilla raqueta desastre daña carrera brillante toca reflexionar reencontrarsecon semblante triste llegar lágrimas muguruza ofreció rueda prensa derrota topé rival experimentada empecé par juegos nerviosa conseguí darles vuelta llevarme set dominante set dudé hora cerrar partido sacó tenis logró ponerme tercer set set haberse decantado sensación caraqueña temporada difícil partidos control logrado cerrar complica ganador pienso entrenando duro poniendo jugando torneos tratando cambiar confianza desanimada jugando torneos ponerme situación partido afrontar momentos segura salir victorias escapando daré vuelta continuó</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Deportes_19.txt</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -464,11 +474,16 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>finaliza temporada atp llegan premios otorgan reconocimiento éxitos año premios reparten tenistas entrenador figura fundamental jugadores puedan triunfar máximo nivel nominados encuentran españoles terminado carlos alcaraz rafa nadal número mundocarlos alcaraz año ensueño tenista murciano despegó circuito subió puestos ranking velocidad vértigo joven tenista roto récords año alcaraz logros obtenidos pese precocidad sorprendido amantes deporte grand slam us open masters madrid miami torneos servido alcaraz reconocido mejores tenistas añoes querido reconocer dichos logros atp awards carlos alcaraz lucha obtener galardones reparten premio aparece murciano jugador mejorado año alcaraz comenzó año puesto ranking terminado año número mejoría increíble español entrado historia tenis logrando tenista joven historia alcanzar terminar año número mundoen categoría aparece murciano rafa nadal stefan edberg sportsmanship award premio otorga jugador año empuja máximo nivel profesionalidad integridad compitiendo compañeros espíritu justicia promueve juego pista distintas actividades alcaraz involucra tipo eventos demostrado año esfuerza máximo llegar competir número citas posibles compitió copa davis pese recuperación ganar us open gestos tenistas aparece nominado galardónen tercer premio aparece murciano indirectamente entrenador año mérito alcaraz llegar llegado tenista necesita alguien apoyo temporada obligue partido murciano reconocido numerosas entrevistas llegado entrenador juan carlos ferrero valenciano clave evolución alcaraz esfuerzo mejorar joven tenista reconocido nominado entrenador año</t>
+          <t>haven shepherd milagro mujer catorce meses padres mantenían relación extramatrimonial decidieron acabar vida bebé llamado do thi thuy phuong juntos muertos estremecedora disyuntiva pareja vietnamita siguió plan trazado ató bomba cuerpo sosteniendo brazos pequeña detonó plena destrucción ganó vidahaven do thi thuy phuong sobrevivió milagro puesto explosión lanzó diez metros cabaña vivían padres fallecieron acto fácil salir secuelas físicas emocionales abuela encontró quemaduras metralla cabeza pies destrozados llevó moto hospital gravedad heridas amputaran piernas elevado coste tratamiento pedir ayuda afrontar gastos darla adopciónseis meses pequeña encontró hogar shelly rob shepherd adoptaron vida volvió empezar missouri hermanas chloe haley hannah ivy hermanos sawyer zach bromeaba diciendo niña milagro favorita papá mamá tokyono faltaba razón años viva viva miércoles volverá sumergirse piscina tokyo aquatics centre prueba metros espalda sb culminando sueño lanzando mensaje superación mundo feliz haberme salvado entré shock perdí piernas perdido vida confesó dando lección optimismo descarnadola natación destino coqueteó atletismo destacaba pensó piscina mejorar rendimiento entró juegos tokio expectativa disfrutar plan alguien exprime puedes controlar vida responderás entereza admirablesus cualidades escapan marcas haven trabajado modelo tommy hilfiger experiencia sirvió darse cuerpo perfecto defectos únicos piscina mira jessica long cultiva facetas artísticas pintura lleve tatuado muñeca verbo crear coach ofrece charlas niños acercarles mundo discapacidad idea visitar vietnam volver orígenes ronda cabeza piensa guarda rencor padres biológicos sabido luz oscuridad</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Deportes_51.txt</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -477,11 +492,16 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>australia puertas éxito finales copa davis caer torneo canadá título puesto sequía país copa davis australia gana título derrotase españa preguntan australia torneo copa davis jugado principal raqueta australiana ranking nick kyrgiosmientras canadá logró reunir figuras felix augeraliassime denis shapovalov australia afrontar encuentros individuales alex miñaur thanasi kokkinakis ausencia kyrgiossobre renuncia kyrgios preguntaron capitán australiano lleyton hewitt preguntarle pude convencerle venido equipo podíamos presentar respuesta similar alex miñaur número australiano ausencia kyrgios intente convencerle sersin kyrgios confesó razones acudió finales copa davis publicación instagram usuario preguntó kyrgios jugaba davis australiano corto perezoso respondió ocupado jugar arabia saudi cifrasel viaje kyrgios arabia saudí participar diriyah tennis cup disputará país diciembre competirán jugadores talla stefanos tsitsipas daniil medvedev alexander zverev hará reaparición pistas grave lesión tobillo sufrió semifinales roland garroskyrgios juega torneo individuales abandonase tokio octubre presente thanasi kokkinakis nitto atp finals modalidad dobles previsto jugar torneo exhibición world tnenis league diciembre dubai espera vuelva competir torneo oficial próxima united cup diciembre enero enfrentarse rafa nadal españa australia quedado encuadradas grupo</t>
+          <t>alexander zverev demostró domingo estable jugadores nacidos considerados tenistas nextgen cuya campaña puesta marcha atp alemán años mundo remontó ganar mutua madrid open joven generación matteo berrettini opciones llevarse victoria cayó partido cabía esperar contundencia historia torneo sets minutos federerberdych gracias gobierno españa madrid echamos año hacéis sentir extremadamente bienvenidos seguros campeón felicitó dueño millonario rumano exjugador ion tiriac cumplía añoszverev acumula títulos masters convierte quinto jugador activo djokovic nadal federer murray torneo sascha mérito ganarlo eliminar nishikori evans nadal thiem perder set top berrettini racha conseguido aumentada impuso atp finals batir cilic isner federer djokovic falta ganar grand slam rozó gloria us open thiem matteo debutaba torneo historia italia tenista país llegar evento español vio acababa racha triunfos consecutivos belgrado levantó premiola caja mágica registró entrada semana espectadores techo intensa lluvia exterior cuarto trofeo consecutivo masters negoció nextgen ausencia big three dominaba holgura categoría perdió peso parís medvedev ganó zverev miami hurkacz impuso sinner montecarlo tsitsipas rublev dirá coyuntural tendencia amenaza establecerse definitivamente cronista espectáculo resiente magia federer nadal djokovic tenis quedará futuro astros retiren remedia saques kmh continuos zambombazos recursos reveses cortados dejadas ocasiones dudosamente ejecutados juego entrecortado ritmo escasa emoción allá incertidumbre resultado frecuentes desempates levanta exclamaciones asombro potencia admiraciónasí partido arrancó homenaje previo sanitarios madrileños vivas isabel díaz ayuso presidenta electa comunidad vio alcalde capital josé luis martínez almeida director torneo feliciano lópez set altísimos porcentajes saques llevó berrettini intercambio quiebres punto tirar inicial tiebreak salvó rival doble falta manga zverev quebró servicio transalpino ponerse igualar contienda tercer parcial fallando transalpino forzados desgaste tenis golpeo furibundo aguante teutón experiencia adelantó rotura quinto juego mantuvo distancia victoria cerró resto</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Deportes_15.txt</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -490,11 +510,16 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>alexander zverev demostró domingo estable jugadores nacidos considerados tenistas nextgen cuya campaña puesta marcha atp alemán años mundo remontó ganar mutua madrid open joven generación matteo berrettini opciones llevarse victoria cayó partido cabía esperar contundencia historia torneo sets minutos federerberdych gracias gobierno españa madrid echamos año hacéis sentir extremadamente bienvenidos seguros campeón felicitó dueño millonario rumano exjugador ion tiriac cumplía añoszverev acumula títulos masters convierte quinto jugador activo djokovic nadal federer murray torneo sascha mérito ganarlo eliminar nishikori evans nadal thiem perder set top berrettini racha conseguido aumentada impuso atp finals batir cilic isner federer djokovic falta ganar grand slam rozó gloria us open thiem matteo debutaba torneo historia italia tenista país llegar evento español vio acababa racha triunfos consecutivos belgrado levantó premiola caja mágica registró entrada semana espectadores techo intensa lluvia exterior cuarto trofeo consecutivo masters negoció nextgen ausencia big three dominaba holgura categoría perdió peso parís medvedev ganó zverev miami hurkacz impuso sinner montecarlo tsitsipas rublev dirá coyuntural tendencia amenaza establecerse definitivamente cronista espectáculo resiente magia federer nadal djokovic tenis quedará futuro astros retiren remedia saques kmh continuos zambombazos recursos reveses cortados dejadas ocasiones dudosamente ejecutados juego entrecortado ritmo escasa emoción allá incertidumbre resultado frecuentes desempates levanta exclamaciones asombro potencia admiraciónasí partido arrancó homenaje previo sanitarios madrileños vivas isabel díaz ayuso presidenta electa comunidad vio alcalde capital josé luis martínez almeida director torneo feliciano lópez set altísimos porcentajes saques llevó berrettini intercambio quiebres punto tirar inicial tiebreak salvó rival doble falta manga zverev quebró servicio transalpino ponerse igualar contienda tercer parcial fallando transalpino forzados desgaste tenis golpeo furibundo aguante teutón experiencia adelantó rotura quinto juego mantuvo distancia victoria cerró resto</t>
+          <t>celtics representan ideal equipo sólidos lados pista unidos preparados sufrir campeones campeones potenciales poseen débiles hechos rutina victoria plácida caen adversidades desfila toronto marchado contentos sixers nets aprovecharon raptors escasos personal sufrir celtics aprendido escapando trampas nick nurse salir triunfales reforzados pese llegar perder cuarto juancho hernangómez recuperándose esguince tobillo sufrió orlando magic jugó reaparecer semana boston sufrir jayson tatum encanta alero notara constante escrutinio asigna papel contendiente luka doncic pelea mvp impactante demostración puntos tiros triples rebotes asistencias abundan exhibiciones temporada atrapado complejo entramado táctico nurse pasa jugando alternativas defensivas acabó expresándose libremente diciendo quiso negó tantas estrellas ahogadas garras og anunoby temporada listado james harden donovan mitchell dejounte murray etc zipi zape travesuras mano jaylen brown acabó liberando tantos tiros capturas pases canasta backtoback frío pista dura faltaba alhorford… excusas demostrado marcus smart secretario sociedad tatumbrown necesiten superiores anoche asistencias puntos puntos triples asistencias compañeros tridente vigilados abrirles pista celtics perfectos armónicos tatum brown brillar equipo equipo acude auxilio hacerles brillar ilustrativo expuesto torontolos raptors andaron chiquitas empezaron caer tatum defensas dobles acentuaban esquinas jaylen brown aguantar anunoby chico quitar puesto defensor marcus smart enseñándole surf pantallas vengan seguidas celtics hartaban recursos mesa movimientos rizo nurse blindaban colapsando pintura blake griffin soluciones impecable puntos lanzamientos rebotes asistencias titular ausencia horford robert williams baja atrevió convivir distinto presente glorioso desempeñándose actual función jugador rol rebote pase defensa atreviéndose maravilloso olvidado arte mate homenaje griffin vintagemazzulla quiso ponerse temibles raptors quinteto inicial físico grant williams griffin recibiendo puntos transición boston logró sujetar momentos vs equipo canadiense sobrevivir aciertos flotar fred vanvleet invitándole tomar tiro media distancia bloqueo directo base supo coger caminos allá lanzamiento acabó puntos horroroso tiros campo másmenos equipo entró escena pascal siakam puntos rebotes asistencias sacó relucir faceta simultánea base pívot manejador principal pívot chocando pintura fiable lanzamiento media distancia temeridad llevarle cambiando pick and roll boston jugadas siakam sale ganando raptors buscaron frecuencia atacar jugadores pequeños poste center anunoby puntos éxito propiciar descanso acompañaron gary trent jr puntos scottie barnes celtics mostrando puntos fuertes candidatura lograron escapar espiral tiros fallados pérdidas raptors acaban llevando adversarios casa defensas agobiantes franquicia canadiense estrellas exigen vivan margen balón puso tatum sacando dotes ejecutor catch and shooter finalizando pick and roll continuador compañeros abriéndole pista spacing smart papel anotador puntos mitad grant williams triplista dividiendo penetraciones tatum foco acabó quiso ayudó colapso ataque raptors insistiendo siakam hiciera empezar jugada finalizar sabían celtics cerraron camino aro ayudas registrara tiros boston defensa nba año desnaturaliza tipo temple lee baloncesto camerunés vio allá aro pese compañeros liberados perímetro enmendó parcial raptors tercer cuarto llegaron falta culminar recuperación mejora chicos confían comunicación constante decía modestia entrenador celtics joe mazzulla encuentro pupilos máquina perfecta boston ataque historia nba supieran botón apretar cifras ataque explican aprendizaje jugadores año respondió mazzulla explicar bárbaro rendimiento ofensivo rápido aprendiendo rivales</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Deportes_37.txt</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -503,11 +528,16 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>annus horribilis año terrible emma raducanu circuito femenino tenis tocó martes wta ostrava cayó ronda rusa daria kasatkina derrota campeona us open temporada cerrará victorias lesión muñeca derecha permitirá competir torneos quedan iba jugar semana viene transilvania open clujnapoca torneo anunció jueves baja británica origen rumanoraducanu despide curso balance negativo top perder posiciones año empezó puesto mundo julio agosto finales septiembre tenis vivió repunte seúl jugando retirarse lesión pierna izquierda semifinales pleno partido jelena ostapenkola letona precisamente ejemplos brilló efímero sufrimiento posterior finalizó dominio serena williams grand slams campeona roland garros campaña semifinales wimbledon vuelto acercarse rondas finales major ocurrió sofia kenin ganadora open australia finalista roland garros desaparecida combate bianca andreescu llevó título us open cayó crisis podido salir logrado cuajar vencedora año parís barbora krejcikova consolida elena rybakina ganó meses wimbledon cayó ronda us openel caso raducanu cumplir años prueba estragos causa ocasiones alcanzar altas cotas notoriedad deportiva fama mundial edad temprana caso aprecia problema gestión destacó all england club entrenadores preparó nigel sears sustituyó andrew richardson triunfar york despidió periodo contó español esteban carril emma contrató torben beltz finales abril muchacha puso relación exentrenador angelique kerber puso órdenes técnico federación británica iain bates llamó ruso dimitry tursunov movimiento polémico pleno conflicto rusia ucraniahay gente probablemente cambiado podía quisiera dejarme rodean personas viene pienso adapté deporte quejo iniciar defensa título us open pasó partido cayó francesa cornet rutilante contundente triunfo unidos año balance acumulado resultado citadas semifinales corea sur negativo derrotas primeras cambio tantos torneos caída raducanu jovencísima millonaria contratos wilson nike firmó dior tiffany co british airways evian vodafone visto rentabilizadas aspecto deportivo inversiones recupera raducanu volverá jugar diciembre exhibición mubadala world tennis championship abu dabi enfrentará tunecina ons jabeur</t>
+          <t>gracias fútbol volvernos locos ocasiones punto echártelo cara gracias japónespaña costa ricaalemania muestras grandeza millones aficionados despeguen televisor gracias toca combinación resultados depara clasificación españa octavos aguarda marruecos noche nueve presumía plácida goles doan tanaka punto mandarnos casa havertz encauzó victoria alemania costa rica bola extra campeonato danke kaitodo empezó tranquilo inicio chapeau luis enrique cumplir palabra alinear busquets pese alerta acumulación amarillas encendida salir rodrigo gavi miedo pese arrastrado molestias gesto inicio partido minutos llevaban refleja seleccionador internacionales balón salió banda japón sacara asturiano agitó brazo animando jugadores subir líneas intensificar presióneso mensaje equipo carta rival remite españa sale ganar japón sucedido costa rica alemania pisar firme inicio encontró premio minuto acción desnudó defensa japonesa bastó entrada derecha nico williams estrenaba titular cesión azpilicueta centro morata cabeceara cómodamente área pequeña delantero atlético mojado partidos suma goles roja cifra iguala fernando hierrojapón alteró plan consistía poblar centro campo dejar maeda punta celtic real madrid temporada partido champions jugado glasgow parecía peligrar resultado japón daba sensación esperando españa acariciaba pelota punto alcanzar descanso pases acierto único sobresalto obra gracia unai simón empeño tratar sacar balón jugado regala maeda peaje estilo luis enrique innegociable porteros pies serlo manos soldadoel partido convertido mar calma agitada entradas destiempo jugadores japoneses itakura taniguchi yoshida vieron amarilla españa acaparaba balón japón corría impotencia añadida derrota victoria alemania costa rica dejaba mundialpero cambió comenzar correctos moriyasu decidió entrada mitoma nagatomo descanso declaración intenciones brighton veneno minutos doan aprovechó mala salida balón españa batir unai estirada intentaba digerir revés gol japón redoble tambores recurrir var pase mitoma balón sobrepasó línea fondo rematado tanaka resultado españa llegaba camisa cuellomenos estadio bayt llegaba noticia quería escuchar gol costa rica obra tejeda dejaba roja borde precipicio luis fernando suárez significaría eliminación española mundial agoreros vargas encargó solito tembleque españa gol tico españa mundial minutos gracias gol havertz locos vivían partidos animaban noche jueves imaginado esprint sirvió españa remontara havertz füllkrug firmaran definitivo favor alemania ahuyentaba fantasmas susto viste rojo marroquí</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>0</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Deportes_21.txt</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -516,11 +546,16 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>noviembre garbiñe muguruza alzó ganar wta finals torneo maestras disputan mejores tenistas mundo meses española sombra jugadora campeona roland garros número enlaza temporadas consecutivas despidiéndose torneo ronda domingo apeó kaia kanepi estonia años ranking parezca mentira impuso condición física vencer rival años menor temporada perdido completamente nortemuguruza curso horroroso balance capaz ganar partidos seguidos cirstea brengle doha vencido kasatkina cornet kudermetova ostapenko riske kalinina putintseva trevisan kanepi top venía caer primeras cambio roma rabat perder madrid ronda campaña mediado problema físico planificación respetable dudosa renuncias torneos baja forma gira tierrala derrota parís evento porcentaje victorias jugadoras activo síntoma marca notable estrenos grand slam sirvió afrontar confianza partido empezó perdió puntos continuó racha tantos seguidos acabó fatal perdió gozar bolas manga cederla pese haberse adelantado claramente situación repetida encuentros kanepi ayudó set estrellando bola innumerables red afinó puntería potente físico echando atrás garbiñe agobiada pasar pelota decisiva ventaja kaia convirtió break letal cambio curso encuentro lenguaje corporal denotó angustia negar peleó mantenerse partido juego fe suficiente igualar marcador forzar desempate golpeó arcilla raqueta desastre daña carrera brillante toca reflexionar reencontrarsecon semblante triste llegar lágrimas muguruza ofreció rueda prensa derrota topé rival experimentada empecé par juegos nerviosa conseguí darles vuelta llevarme set dominante set dudé hora cerrar partido sacó tenis logró ponerme tercer set set haberse decantado sensación caraqueña temporada difícil partidos control logrado cerrar complica ganador pienso entrenando duro poniendo jugando torneos tratando cambiar confianza desanimada jugando torneos ponerme situación partido afrontar momentos segura salir victorias escapando daré vuelta continuó</t>
+          <t>vinculante pese sutil prosa gastan supervisores financieros opinión bce impuesto banca planteado gobierno desnuda tributo concepción mejorable opiniones supervisor entenderlas responsabilidad pasa funcionamiento sector bancario consideraciones entiende bce recuerde ocasiones manifestado aplicar impuestos banca fines generales enmienda cuyos argumentos contraponerse consideraciones política económica bce aconseja análisis exahustivo pros contras impuestofue anuncio presidente gobierno principales citas políticas año debate nación golpes efecto políticos orden efectos económicos exigen cuidado detalles tributo conociendo semanas posterioresa nivel técnico dudas bce razonadas aplica ingresos precisamente motivación mueve legislador pedir contribución extraordinaria –el fantasma recesión– debería mover bancos dotar provisiones adicionales fisco hora determinar carga tributaria impuesto pesará accionistas bancos prudentes menosel bce enmienda exigencia impuesto traslade precio deberán vigilar cnmc banco españa declaración intenciones choca realidad principal factor determina precio competencia bancos capacidad elevar margen harán impuesto éleste año beneficio banca rondará millones euros gracias alza euríbor aprieta familias gobierno capacidad aplicar modificar impuestos venia aritmética parlamentaria tribunales elige exime mínima rendición cuentas diseño puesta marcha tributo dejado desear ilustra finalmente diferencia política políticas país impuestos convertido vía lograr titulares minutos prime time zascas redes sociales</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Politica_2.txt</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -529,11 +564,16 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>gracias fútbol volvernos locos ocasiones punto echártelo cara gracias japónespaña costa ricaalemania muestras grandeza millones aficionados despeguen televisor gracias toca combinación resultados depara clasificación españa octavos aguarda marruecos noche nueve presumía plácida goles doan tanaka punto mandarnos casa havertz encauzó victoria alemania costa rica bola extra campeonato danke kaitodo empezó tranquilo inicio chapeau luis enrique cumplir palabra alinear busquets pese alerta acumulación amarillas encendida salir rodrigo gavi miedo pese arrastrado molestias gesto inicio partido minutos llevaban refleja seleccionador internacionales balón salió banda japón sacara asturiano agitó brazo animando jugadores subir líneas intensificar presióneso mensaje equipo carta rival remite españa sale ganar japón sucedido costa rica alemania pisar firme inicio encontró premio minuto acción desnudó defensa japonesa bastó entrada derecha nico williams estrenaba titular cesión azpilicueta centro morata cabeceara cómodamente área pequeña delantero atlético mojado partidos suma goles roja cifra iguala fernando hierrojapón alteró plan consistía poblar centro campo dejar maeda punta celtic real madrid temporada partido champions jugado glasgow parecía peligrar resultado japón daba sensación esperando españa acariciaba pelota punto alcanzar descanso pases acierto único sobresalto obra gracia unai simón empeño tratar sacar balón jugado regala maeda peaje estilo luis enrique innegociable porteros pies serlo manos soldadoel partido convertido mar calma agitada entradas destiempo jugadores japoneses itakura taniguchi yoshida vieron amarilla españa acaparaba balón japón corría impotencia añadida derrota victoria alemania costa rica dejaba mundialpero cambió comenzar correctos moriyasu decidió entrada mitoma nagatomo descanso declaración intenciones brighton veneno minutos doan aprovechó mala salida balón españa batir unai estirada intentaba digerir revés gol japón redoble tambores recurrir var pase mitoma balón sobrepasó línea fondo rematado tanaka resultado españa llegaba camisa cuellomenos estadio bayt llegaba noticia quería escuchar gol costa rica obra tejeda dejaba roja borde precipicio luis fernando suárez significaría eliminación española mundial agoreros vargas encargó solito tembleque españa gol tico ¿españa mundial minutos gracias gol havertz locos vivían partidos animaban noche jueves imaginado esprint sirvió españa remontara havertz füllkrug firmaran definitivo favor alemania ahuyentaba fantasmas susto viste rojo marroquí</t>
+          <t>líder norcoreano kim jongun decidido acelerar proceso aperturismo comenzó principios año anunció disposición negociar salida pacífica tensión implica existencia arsenal nuclear anunciado secretario mike pompeo gira región encuentro domingo kim comprometió permitir visita inspectores internacionales confirmar desmantelamiento instalaciones nucleares punggyeri dinamitadas mayola oferta percibida gesto voluntad relanzar negociaciones unidos pyongyang espera cambio gesto reciprocidad traducirse cumbre donald trump futuro próximopompeo cumbre pyongyang discutió producirá verificación desmantelamiento infraestructuras militares concesión norcoreana cumbre presidente sureño moon jaein kim comprometió destruir central yongbyon centro pruebas motores cohetes washington adopte medidas similares alusión firma paz alivio sanciones internacionales impuestas corea norteademás secretario mostró confiado cumbre kim trump produzca corto plazo agenda kim jongun apretada próximas semanas comunicado presidente surcoreano moon jaein gabinete homólogo norteño preparando visita líder chino xi jinping pyongyang viajar rusia entrevistarse vladimir putinen caso dirigente chino xi jinping visitado corea norte vicepresidente chino recibido ocasiones líder norcoreano moscú padrino décadas régimen comunista ejercido papel primordial acontecimientos península mantiene activa influencia hora apoyar sanciones respaldar solución dialogada resulta natural kim viaje finales año capital rusa contexto visitas internacionales realizando principios añoel viernes portavoz senado ruso valentina matviyenko visitó corea sur adelantó interlocutores preparativos viaje kim marcha única cumbre regional vista posibilidad cumbre norte japón permanece abierta confió moon citado agencia estatal yonhap creando orden península coreana llevará orden noreste asia moon debemos esforzarnos cooperar países concernidosese orden parejo normalización relaciones pyongyang washington carrera obstáculos vuelve vivir tiempos optimistas viaje pompeo creado atmósfera condiciones celebrar cumbre norte unidos próximamente confirmó surcoreanomoon detalles duda nivel conocimiento consagrado aliado kim proceso distensión punto mantener cumbres intercoreanas lanzado medidas conjuntas militares diplomáticas económicas destinadas resolver división península coreana responsables acordaron cumbre celebrada ciudad fronteriza panmunjom terminar contencioso enfrenta norte sur guerra corea moon caracterizado habilidad política hora limar asperezas lograr concesiones satisfagan partesproductivo maravillosoel presidente sureño pronunció recibir anoche mike pompeo casa azul presidencia surcoreana secretario norteamericano aterrizó seúl procedente pyongyang llevó cabo cuarta visita oficial diferencia tercer viaje pompeo kim siquiera dignó recibirle dictador asiático ofreció trato privilegiado encuentro kim mostró confiado desarrollo favorable circunstancias extremada confianza recíproca donald trump informado agencia central noticias korea kcna siglas ingléskim tachar encuentro pompeo productivo maravilloso explicaba agencia entusiasta artículo contrasta tono semanas reproches mutuos enturbiaban relaciones bilaterales parecían alejar solución negociadahoy washington lamenta reticencias pyongyang hora definir calendario desnuclearización corea norte supedita medidas recíprocas eeuu lentitud hora desvelar lista instalaciones nucleares cerrar pyongyang vuelve referirse métodos mafiosos fustigó verano interlocutor pompeo ambas partes parecen comprometidas mantener encuentro alto nivel punto kim jongun agradeció trump esfuerzos sinceros progresos aplicación singapur solicitó pompeo enviase saludos trumptras visitar japón corea norte corea sur secretario finaliza gira china recibido contraparte ministro exteriores consejero wang yi encuentro caracterizado tensión fruto guerra comercial estadounidense escalado constantemente tensión comercial china adoptado serie acciones tema taiwán dañan derechos china criticado fundamento políticas internas externas china wang conferencia prensa creemos ataque directo confianza mutua ensombrece relaciones exigimos contraparte estadounidense detenga tipo acciones</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Politica_42.txt</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -542,11 +582,16 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>anduva vive duelo urgencia mirandés necesita sumar puntos frente albacete abandonar zona descenso partido directo ascom victoria garantizado discípulos joseba etxeberria vieron frenada racha partidos seguidos perder caer mínima oviedo remate palos equipo rojillo tartiere pobre bagaje buscar permanencia categoría platael preparador guipuzcoano incidiendo contundentes área rival esperaba impaciencia vuelta titularidad raúl garcía haro máximo artillero jabatos dianas delantero catalán participar juego marcar diferencias punta ataque recuperado lesión etxeberria confía plenamente desgaste provoca defensa contrariaapenas esperan cambios once mirandesista alfonso herrero asentado palos prados oriol rey centro campo principal duda lateral derecho veremos finalmente técnico rojillo sitúa raúl parra recuperarse edema óseo fémur apostando centrocampista juanlu posición extremo jofre entra convocatoria caen nico javi serrano santospor albacete seguir alejándose zona peligro sábado busca anduva triunfo permitir dormir playoff importante victoria racing santander conjunto manchego paso gigante acerque permanencia ganando mirandés rubén albés plantilla disponible lesionados johannesson javi jiménez portugués reymao quedado convocatoria decisión técnica técnico gallego recupera hombres importantes riki boyomo álvaro rodríguez apuntan titulares once equipo blanco visitante curso sumado puntos casilleroclaves partidoverticalidad equipo rojillo necesita buscar ahínco portería contraria jugadores victoriauno equipos revelación albacete regreso fútbol profesional protagonizando inicio temporada puesto conseguido sumar puntosbalón parado acciones estrategia faltas esquina claves mirandés acertado facetabuen visitante equipo blanco sumado puntos domicilio rival incómodo equipos juegan localesases seguirherrero portero rojillo encuentro transmite seguridad palos resto compañerosmaikel mesa centrocampista canario exjugador mirandés fijo rubén albés cuadro manchego suma goles temporadaaltas bajasmirandés simón moreno continúa recuperándose grave lesión santos nico serrano javi serrano perderán duelo albacete jofre entran convocatoriaalbacete javi jiménez johannesson bajas lesión albés recupera boyomo álvaro rodríguez rikideclaraciones previasjoseba etxeberria entrenador mirandés semana exigente entrenamientos volvemos jugar casa objetivo debemos fuertes anduva naturalidad seguir mejorando carrera fondo laliga smartbank problemas eficacia partidosel inicio temporada albacete resultados juego equipo intenso cómodo ritmos altos respetamos rival plantearnos allá partidorubén albés entrenador albacete posibilidad introducir cambios dependerá ocurra anduva martes encuentro mercado invierno pienso pierdo pasará futuroel mirandés rival exigente minimizar errores portería tratan imprimir ritmo alto raúl acertando convierte rival difícil victoria dejaremos diferencia importante puntos</t>
+          <t>cáncer próstata tumores diagnosticados mundo año españa estima afectará hombres cifras informe sociedad española oncología médica seom problemas próstata relacionados aparición cáncer afecta conocida hiperplasia prostática benigna riesgo cáncer próstata provoca obstrucción afecta considerablemente flujo orinacuando síntomas leves tratamiento frecuente suele medicamentos síntomas tolerables hombres afección aliviarse paso signos enfermedad aumento frecuencia urinaria imposibilidad vaciar vejiga completo goteo orinarel tratamiento farmacológico consiste alfabloquantes efectos secundarios provocan hipotensión pérdida libido eyaculación retrógrada semen redirige vegija salir uretra casos afirma carlos suárez fonseca grupo urología avanzada complejo hospitalario ruber juan bravo madrid motivo incorporado tratamientos avanzados hiperplasia benigna próstata enucleación prostática láser holmio holep siglas inglésel doctor eduardo martín jefe servicio urología complejo hospitalario ruber juan bravo reconoce principales ventajas ofrece técnica permite tratamiento próstatas tamaños necesidad incisiones externas holep ofrece mejores resultados técnicas próstatas procesamiento mínimamente invasivo paciente uretra incorporación complejo hospitalario ruber juan bravo destaca quirúrgico menor evita reintervenciones crecimiento tejido residual encontrar técnicasademás menor riesgo sangrado importante holep caracteriza precoz recuperación permite rápido alivio síntomas urinarios tejido responsable síntomas hiperplasia benigna próstata conoce adenoma tejido prostático crece uretra provocar tipo incisión forma láser separa tejido enucleado cápsula prostática succiona instrumento llamado morcelador adenomalas técnicas tradicionales alcanzan holep reducción tejido prostático glándula prostática queda vacía queda formada únicamente cápsula éxito tratamiento láser superior anteriormente conocido capacidad corte coagulación permite extraer tejido crecido próstata intacto totalidad explica josé ángel gómez pascual urólogo hospital quirónsalud málaga cuentan láser generaciónno láser utilizado tratamiento hiperplasia benigna próstata enucleación prostática láser holmio capaz análisis patológico tejido eliminado descartar existencia cáncer casos material analizado tumoral importante detalle pase desapercibido advierte doctor gómezademás técnica complejo hospitalario ruber juan bravo técnica mínimamente invasiva realiza abordaje transuretral sistema reciente holep sistema revolucionado cirugía próstata técnica rezum inyecta vapor agua lóbulos prostáticos máxima presión separan vasos sanguíneos provoca muerte celular tejido prostáticocon paso reduce tamaño próstata cuerpo elimina forma natural tejido necrosado técnica logra alivio inmediato síntomas harían cirugías convencionales tejido tarda meses desaparecer dependerá tamaño próstataaunque recurrir tipo técnicas especialistas recomiendan revisiones anuales años enfermedad padecen varones mayores años alcanza caso mayores</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Salud_58.txt</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -555,11 +600,16 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>mes debutó titular manchester united octubre encuentro europa league frente sheriff tiraspol alejandro garnacho empezó mostrar calidad técnica evidentes asistió ocasiones jueves ayudar superar aston villa copa liga domingo saltó césped tramo encuentro frente fulham premier league terminó decidiéndolocon pared christian eriksen borde área pugnando cuerpo cuerpo par imponiéndose marcando suspiro disparo cruzado garnacho nacido madrid internacional argentina años hambre éxitos partido fulham compañeros comentaristas fútbol inglés auguraron futuro lenguaje corporal louis saha exdelantero united retransmisión sky sports pasó pelota quiso vuelta actitud necesita área calma confianza agresividad necesita seguir trabajando duro cristiano carrera garnacho equilibrio correcto carrerava estrella mundo pies jamie redknapp exinternacional inglés rotundo saha sky sports confianza domina pie izquierdo derecho técnica talento argentina pregunten mundial semana mundiales disputar delantesu actitud bruno fernandes destacó declaraciones posteriores juego craven cottage gusta banquillo joven actitud perfecta actitud sale banquillo fantástica merece oportunidades jugar consiguiendo goles recompensaademás luso capitán reds harry maguire catalogó actuación garnacho victoria united redes sociales gol especial talento especial compañero defensa lisandro martínez reconoció feliz vos hermanito elogios terminaron diego dalot definió garnachinho amad diallo rindió ′ ¡qúe jugador</t>
+          <t>agencia española medicamentos productos sanitarios aemps dependiente ministerio sanidad suspendido autorización comercialización medicamentos administración intranasal contienen calcitonina usados tratar osteoporosis publicado restricciones preparados inyectables indicados problemas óseosesta decisión toma consonancia decisión comisión europea medida solicitado actualización ficha técnica prospecto preparados inyectables calcitonina conocerse datos procedentes ensayos clínicos indican ligero incremento riesgo tumores asociado tratamientos prolongados hormona inhibe resorción óseapor dada existencia alternativas terapéuticas suspende comercialización solución pulverización intranasal únicamente indicada tratamiento osteoporosis postmenopáusica reducir riesgo fracturas vertebralesel mes julio espera decisión comisión europea atendiendo recomendaciones comité científico agencia europea medicamentos chmp desaconsejaba tratamientos prolongados recomendación mantiene caso preparados inyectables asimismo aemps recomendó iniciasen tratamientos indicación osteoporosis procediese revisión tratamientos curso valorando posibles alternativas terapéuticasla aemps solicitado prescriban dispensen preparados calcitonina intranasal devolución existencias disponibles oficinas farmacia almacenes distribución llevará cabo canales habitualeslos medicamentos calcitonina suspendido autorización comercialización calcitonina almirall unidades solución pulverización nasal calcitonina hubber unidades solución pulverización nasal envase unidosis calcitonina hubber unidades solución pulverización nasal multidosis osteobion unidades solución pulverización nasal calsynar unidades solución pulverización nasal miacalcic unidades solución pulverización nasal oseototal unidades solución pulverización nasal ospor unidades solución pulverización nasalen preparados calcitonina inyectable informa utilizarse periodos cortos dosis mínima eficaz indicaciones autorizadas prevención pérdida aguda masa ósea debida inmovilización repentina tratamiento enfermedad paget utilizar tratamientos alternativos resultado ineficaces tratamiento hipercalcemia cáncerla agencia española recuerda prevención pérdida aguda masa ósea debida inmovilización repentina caso pacientes fracturas osteoporóticas recientes recomienda dosis uidía ui semanas exceder semanas tratamientopara tratamiento enfermedad paget tratamiento prolongarse meses circunstancias excepcionales riesgo fractura patológica inminente prolongarse máximo recomendado mesespor aemps actualizando fichas técnicas prospectos preparados inyectables calcitonina asimismo recuerda sospechas reacciones adversas notificar centros autonómicos farmacovigilancia</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Salud_42.txt</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -568,11 +618,16 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>alavés abandonó farolillo rojo gracias victoria temporada babazorras ganaron betis puntos descenso empezar cogerle pulso liga granadilla rompió mala racha partidos ganar venciendo valencia llegaba alza gracias mari joséalavés betisiñigo juaristi conseguido cambiar cara alavés babazorras sumen victoria temporada paso abandonar farolillo rojo retorna alhama cayó real madrid vitorianas reaccionado mano técnico vio empezar partido locales adelantaron sanadri asistencia ane miren pase muerte alas babazorras quitado presión obligó béticas paso francis díaz pasan derrota copera granada cortado racha verdiblanca parecía mejorada victorias seguidas derbilas francis clarísima tablas testarazo quiles larguero balón ángela sosa locales auñón recuperó encontró ane miren ganó nana definió alto malena gol tranquilidad banazorras querían partido escapase betis paso gracias cambios mejoró prestaciones centro ángela sosa encontró dorine mandó balón fondo red betis volcó alavés defendía uñas dientes resultado esperando sentenciar larqué volvió firmar partido desesperar béticas descuento aby manou acababa salir remató gol asistencia sanadri parecía juego inicio jugada victoria importantísima alavés sale descenso coge aire retoma sensacionesreal sociedad levante planasla real sociedad ganó levante planas continuar lucha champions partido marcado expulsión nuria garrote descanso txuriurdin quintas punto champions natalia arroyo empezaron intención control juego costaba daño bacic minuto ′ franssi internaba área nuria garrote agarró evitar mano mano colegiada penalti mostró amarilla garrote conjunto catalán quedaba diez descanso veía amaiur convertía pena máxima txuriurdintras reanudación real dueña partido tocaba mandaba necesitaba gol sentencia llegar botas franssi tiro área alto cecilia marcos guilly amaiur encontrase jensen pusiera mirari tercer donostiarras victoria seguir pensando championsgranadilla valenciacuatro partidos granadilla volvió ganar sufriendo puntos gloria valencia pasaba forma tinerfeñas colocan décimas dejan valencianas séptimas partido empezó locales señalaron penalti fiamma cogió responsabilidad encontró parada noelia ramos mantenía encuentro daba varapalo andrea estebanel granadilla intentaba activa koko incombustible mari josé tinerfeña precisamente abrió marcador córner pisco rechazó guardamenta valenciana veterana delantera empalmó área gol daba aire locales obligaba valencianas preparadora bastantes cambios metió arsenal anita marcos alguacil dinamitar partido granadilla iba opción llevó puntos oxígeno confianza josé herrera</t>
+          <t>personas mayores años presentan enfermedad encías gingivitis periodontitis principal causa pérdida dientes adultos oms figura sexta patología crónica mundo cariessin mitad población adulta europea incluyendo alemania españa francia italia reino unido indica estudio presentado mes junio españa porcentaje desconocimiento alcanza observa ignorancia desciende niveles educativos socioeconómicos altosestá justificado empezar explicando diferencian dolencias citadas gingivitis inflamación encías provocada mayoría casos bacterias periodontitis genera pérdida hueso dientes población adulta padece infección inmunoinflamatoria causada bacterias sufre forma avanzada severaque media población ignore periodontitis deja sorprender afecta función masticatoria pérdida inicial dientes posteriores empeora aspecto estético síntomas recesiones pérdidas encía dientes desplazamiento comprometen sonrisa reducen autoestimapero consecuencias salud nivel inflamación crónica limita encías trasciende resto cuerpola evidencia científica especialmente años siglo constata pacientes periodontitis avanzada poseen riesgo elevado padecer enfermedades sistémicas importantes infarto agudo miocardio diabetes dificulta control neumonía aspirativa eleva probabilidades mujeres embarazadas parto prematuro recientemente lista aumentado demostrado asociaciones hipertensión alzhéimer tipo cánceren refiere diabetes periodontitis avanzada aumenta resistencia insulina provoca manejo enfermedad genera aumento niveles proteína reactiva marcador inflamación tensión arterial indican riesgo sufrir accidentes cardiovascularesrespecto moderada asociación alzhéimer importante detecta existencia porphyromonas gingivalis principal bacteria periodontitis cerebro asimismo observado elevada continuada presencia microorganismo fundamental desarrollo progresión dolencia fusobacterium nucleatum incrementar riesgo padecer cáncer gastrointestinal</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Salud_4.txt</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -581,11 +636,16 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>españa reina mundo selección sub conquistó mundial consecutivo mantener hegemonía imponer dictadura rojita campeona sub sub planetaria intenso complicado españa superó colombia gracias gol guzmán puerta minutos finales olían penaltis rojita marcó gol definitivo daba título planetariokenio gonzalo salió corrales amezaga acompañando carla camacho vicky lópez libertad medular barcelona jugadora vigilada rojita linda caicedo peligro cafeteras minutos colombianas salieron mordiendo presionando caicedo activa rodríguez probar sofía obús falta meta sacó seguridad minuto españa asentarse balón dominando correr cafeteras ′ españa probó luisa zapatazo área kenio siguiendo plan perfección presión alta pérdida balón dominio estéril superar entramado defensivo colombiano fácil conectaban vicky carla podían llegar claridad inmediaciones área luisa natalia intentó colombia caicedo internada izquierda peligro sensación paniagua peligrosas partido dominado españa ′ punto llegar gol falta sacó vicky artero tocó centro balón paseó línea gol entrase librán intentó mejores minutos españa descuento mitad artero remate blocó segura luisacon empate ciento posesión minutos españa salió mitad idea empezar internada amezaga sirvió librán llegando atrás tiró rechace balón alojó red colegiada var revisarlo toma asegurar diera mano diera interpretó rechace brazo librán cadera gol anulado seguía gol animó cafeteras noquedas españa veía colombia balón llegadas pasaba intensa batalla balón choques golpes ritmo ocasiones intensidad movió banquillo kenio oxígeno olaya noe alguacil vicky derecha forma conectar caicedo conducto cafeteras daño susto cuerpo ′ salida sofía chocó viancha balón salió tiro franco área colombiana céspedllegaba tramo partido españa desenvuelve salieron martret partido campo velocidad funcionó internada real madrid derecha centró barcelona remate tocó guzmán balón entró llorando portería luisa gol éxtasis quedaba colombia pudiera forzar penaltis apareció vicky espacios jugada hilada centro campo martret mandó balón palo acto seguido vicky encontró larguero jugada personal minutos descuento eternos colombia empujando llegando españa achicando balonescon pitido desbordó alegría grupo amigas historia españa gana mundial sub seguido selección logrado mantiene hegemonía categorías inferiores conquistar mundial sub mes españa reina mundo</t>
+          <t>dominio an san título mete gazoz categoría masculina reflexionamos momentos memorables tiro arco tokio recapitulamos medallas echamos vistazo viene parís liderada brillante an san república corea repite arrasada oros río juegos olímpicos tokio ganado oros posibles río arqueros república corea ganaron competición equipos mixtos camino oros tokiopero hombres pudieron llegar semifinales competición individual mete gazoz llevó oro dándole turquía medalla tiro arcola juventud definitivamente predominó juegos medallista oro individual londres oh jinhyek ganó oro equipos años edadsigue leyendo momentos memorables recapitulación ganadores medallas perder vista parís mejores momentos tiro arco tokio momentos destacados juegos olímpicos tokio celebrados república corea oro equipos mixtosel oro tiro arco decidirse equipos mixtoscon hombre mujer equipo lanzando flechas set competición podía poderosos coreanos destronados llevarse oros río sucediócon promedio edad años an san kim je deok llegaron cómodas victorias bangladesh india méxicolos países bajos demostrarían considerablemente duros gabriela schloesser steve wijler llevaron set ponerse ventaja favoritos vinieron atrás an cerrar set empatando juego wijler flecha set puso ventaja república corea equipos rendimiento cuarto set neerlandeses dando logrando puntoskim an primeras flechas kim encontró centro nuevamente necesitando nueve dividir puntos set llevarse título olímpicofiel estilo an tomó apuntando nueve asegurar victoria oro olímpicoen enfrentamiento bronce luis álvarez recuperó set ayudar méxico ganarle turquíaálvarez alejandra valencia puntuaron tercer set superaron mete gazoz yasemin anagoz lograr medalla tiro arco país aida román mariana avitia llevaron plata bronce individual londres eventos equipos entraron programa juegos olímpicos seúl mujeres corea sur derrotadaslo alguien londres república popular china perdió puntoluego ganar ventaja ronda clasificación an jang minhee kang chaeyoung italia cuartos finaligualaron tercer set bielorrusia jang flecha volvieron despiadadas finalcontra roc coreanas obtuvieron puntos rivales quedándose punto distancialos siguientes sets parejos república corea llevándoselos lograr nueve oros nueve eventos femeninos racha actual victorias larga equipo juegos olímpicoslo impresionante logro particular tiradoras debut juegosa bielorrusia negó medalla olímpica tiro arco perder alemania equipo femenino corea tokioequipo femenino corea tokio getty images sangre fría an san logra triplete únicohabiendo ganado oros juegos an san logró tercero evento individual femeninoestuvo fácil joven años única coreana semifinales ganar tiros flecha semifinales finaldespués superar octavos cerrado duelo japonesa hayakama ren an superó fácilmente india número mundo deepika kumari vino triunfo semifinales mackenzie browntras fallar tiro an sets perfectos ponerse ventaja estadounidense vino atrás perfecto empatar convirtió parecido duelo pistoleros expertosconforme aumentaba tensión ritmo cardíaco an pasaba latidos minuto brown rondaban quinto set brown necesitaba tiro ganar flecha zona significó tiros flechaan tiró circulo central brown logrando nueveal equipos individual vio corea enfrentar comité olímpico ruso elena osipova venció kang chaeyoung cuartos único obstáculo an historiafue duelo lleno suspenso tiradoras dividiendo set an lograra puntos ponerse ventaja osipova empezando ganando tercer set cuarto acercándose oroaún enfrentándose derrota pulso cardíaco an mantuvo latidos minuto osipova joven coreana frialdad persona cerrar quinto set forzar desempate flechaa magnitud situación ambas arqueras capaces reírse bromear entrenadores tiro flecha importante vidasan semifinal exterior círculo dando rival años oportunidadosipova darle girar entrenador sonreír ampliamente an dando corea sur octavo oro individual nueve juegos olímpicosan convirtió heroína nacional noche mañana éxito recibido aclamación universalsu corte pelo corto atrajo críticas internet tierra natal acusándola feminista odia hombreseso respuesta mujeres mundo cortaran pelo solidaridad publicaron twitter hashtag womenshortcutcampaign campaña mujeres pelo corto versión coreano 여성숏컷 an respondió pregunta instagram diciendo corte pelo cómodoademás ganar medallas oro an empezado saberlo movimiento impulsar lucha equidad género república corealos coreanos superan anfitriones camino oro equiposcorea ganado competiciones masculinas juegos anfitriones acaban apuesta oro semifinalesjapón perdía empezar cuarto set puntuación forzaron desempate flecha unocorea tiró medallista oro río kim woojin dándole nueve japonés kawata yuki borde ponerse ventajaluego medallista oro equipos mixtos años kim je deok posición cercana centro blanco furukawa takaharu dando tensión palpable equipos empatados faltando flechael campeón individual londres años jinhyek zona flecha joven compañero equipo obligaba japón perder duelotodo redujo flecha muto hiroki darle república corea victoria margen reducidojapón disputó tiro flecha bronce muto círculo central flecha certamen llevarse medalla equipos masculinos países bajosluego susto semifinales república corea imperiosa china taipéiincluso llevaron cabo set perfecto torneo ponerse cerrar convincente triunfo oh kim woojin llevaron medalla oro joven kim je deokluego finalizar alto ronda clasificación masculina esperanzas kim je deok igualar triplete an desvanecieron perder alemán florian unruh dieciseisavos finaloh jinhyek eliminado manos indio atanu das dejando kim woojin único coreano avanzó cuartos finalel campeón mundo años enfrentó tang chihchun china taipéi verse caras equiposesta coreano perdió tang dando quinto set necesitando avanzar evitó república corea volviera arrasar oros ríoel esfuerzo tang vano perder semifinales italiano mauro nespoli furukawa takaharu duelo medalla broncela nespoli mete gazozel joven turco mostrado destreza situaciones presión terminando esperanza número brady ellison puntuación perfecta puntos quinto set nerviosos cuartos finalen semifinal furukawa gazoz volvió ponerse ventaja cerro puerta oponente quinto set perfecto ganar mostró compostura dividirse sets nespolien quinto set crucial gazoz tiró nueve vino nespoli turco alcanzaran llevarse títuloel parecido harry potter familiar celebración esconderrevelarpuño cerrado campeón olímpicoluego temprana salida debut olímpico río joven años declaró medios podio tokio optimista redes sociales publicar tuit traduce trabajaré fuerte regresaré medalla oro tokio gazoz entrenado meticulosamente niño arquero campeónluego terminar cuarto juegos olímpicos juventud nanjing representó turquía juegos europeos río año decisivo llevándose oro juegos mediterráneos ganar copa mundo berlín premio europeo sofíasin asegurar juegos olímpicos junio ganó torneo clasificación europea territorio local antalyamientras muestran nerviosos competición gazoz simplemente sonríe tensión punto altogazoz reuters imagina olímpica preparando arco tipo sonríe oreja oreja debo medalla sonrisatodos atletas tácticas gusta gritar gusta esperar permitido mantener rivales nerviosos feliz demostrar tranquilo estoyel arquero años tartamudea admite persona nerviosa mayoría cuerda arco manohasta logre lema redes sociales río hizoun vistazooh jinhyek cerró magnífica carrera oro juegos olímpicos tokio ganó doble oro equipos campeonato mundial juvenil tiro arco campeones an san mete gazoz nacieransu londres venció furukawa takaharu llevarse oro individualtres campeón mundo equipos masculinos medallista oro equipos mixtos oh subcampeón mundialesganó títulos individuales copa mundo tiro arco juegos asiáticos territorio local icheonahora años retira deporte convirtiendo jóvenesel torneo oh terminó manos atanu das perdería furukawa veterano japonés llevara bronce agregándolo prueba equipos tokiofurukawa llegué parís tratará competir sextos juegos olímpicosalguien sjef den berg retiró deporte añosvan den berg cuarto río perdiendo brady ellison duelo bronce llevarse plata juegos europeos arquero neerlandés disfrutó éxito competiciones equipos mixtos ganando plata campeonato mundial territorio local oro copa mundo mayo lausanaen julio página world archery veo joven disfruta tiro quiero volver tirar encanta gente quiera haga biencon años respectivamente probable an san mete gazoz parís defender títuloshabiendo competiciones lugares equipo república corea an probar valía siguientes juegos olímpicosninguna mujer ganado oro individual tiro arco juzgando forma tokio an oportunidad historiasu compañero equipo mixto kim je deok años visto esperanza medalla parísmarlyse hourtou chad debut olímpico cortesía invitación tripartita causo sensación puntos set duelo ronda eventual medallista oro an sanla joven años perdió tiró clasificación años entrenamiento veamos sorpresa paríspara anfitriones lisa barbelin campeona europea actual perdió mexicana equipo mixto ganador bronce alejandra valencia octavos finaltiene años espera contendiente medalla terreno localy barbelin compañía parís iban bariteaud caroline lopez recientemente coronadas campeonas mundo sublisa barbelin tokiolisa barbelin tokio getty imagescuándo repeticiones tiro arco página olympicscomaquí respuesta olympicscomtokyoreplayscuándo compiten mejores arquerosel campeonato mundial tiro arco yankton dakota sur unidos septiembrese espera nombres brady ellison lei chienying defendiendo títulos individualeschina taipéi sorprendió república corea equipos femeninos años campeonas olímpicas querrán revanchalos hombres buscarán mejorar bronce china llevó orolos atletas yankton copa mundo llevará cabo septiembre concluyendo temporada</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>0</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Deportes_47.txt</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -594,11 +654,16 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>español fernando alonso mclaren autódromo hermanos rodríguez ciudad méxico disputará semana decimonovena prueba mundial fórmula ofrece retos distintos circuitos asegurar afición mexicana mejores temporadael año autódromo hermanos rodríguez incógnitas información rendirían coches circuito reconfigurado ofrece retos distintos circuitos necesitas encontrar compromiso carga aerodinámica rectas rápidas equilibrio enrevesada zona estadio altitud afecta rendimiento alonso declaraciones facilitadas equiposerá difícil juntar elementos sacar máximo vuelta ganas comporta paquete año añadióel autódromo hermanos rodríguez circuito ubicado macrocomplejo deportivo ciudad deportiva magdalena mixiuhca sureste ciudad méxico centro par kilómetros aeropuertoel año afición méxico mejores temporada equipo ganas volver circuito famosofernando alonsopiloto mclarenpara bicampeón mundial español afición mexicana marca diferencia año afición méxico mejores temporada equipo ganas volver circuito famoso ambiente crea afición especial piloto año sigo recordando mejores momentos temporada experiencia explicódado carrera exigente coche espero podamos fiabilidad resultado aprovechando increíble apoyo afición finalizó alonso</t>
+          <t>españaserbia duelo típico semifinales valencia llegado escalón partido directo ascom equipos jugaron puesto eurobasket belgrado juegos río europeo francia triunfo selección españa afronta partido miedo suelo calificarlo lucas mondelo serbia debería miedo sienta victoria españolas enfrentado ocasiones perdiómontenegro independizó serbia baloncesto femenino balcanes andaba boyante tope desintegración yugoslavia plata mundial puesto europeo mundiales juegos equipo floreció irrupción generación colgó oro eurobasket bronce olímpico año ríomarina maljkovic hija legendario boza asumió riendas equipo año metió serbia semifinales europeas hito selección contaba años subiría alto podio hungría equipo jugadoras retarán españa mvp ana dabovic sonja petrovic vasic jelena milovanovic brooks casada dajana butulija nevena jovanovic sasa cadjo maljkovic tomó respiro serbia metió cruce cuartos regresó equipo colgó bronce europeosonja vasic pondrá punto carrera deportiva juegos tokio principal referente puntos selección presume contar grandísimas tiradoras vasic cadjo llevan triples cambio ana dabovic importantísima éxitos anteriores serbia echado dejar hueco nacionalizada yvonne anderson base reyer venecia tantos serbia ataque eurobasket puntos españa banquillo corto españolel tiro exterior cuentas pendientes selección eurobasket convertido mejores armas destacada aspecto acierto incorporaciones maite cazorla maría conde sentado españa moviendo balón bases pista partido asistencias reparte semifinal anticipada equipos corazón eurobasket</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>0</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Deportes_35.txt</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -607,11 +672,16 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>raptors masai ujiri nick nurse gerente entrenador intentaron reinventar baloncesto moderno convirtieron toronto franquicia liderando deporte aposicional fluido jugadores cumplían parámetro común aleros altos envergadura capacidad generarse tiro defender posiciones intercambiar defensivamente jugadores polivalentes físicamente parecidos masai ujiri tipo definidoen plantilla actual diez jugadores metros centímetros orden altura og anunoby otto porter jr precious achiuwa thaddeus young khem birch pascal siakam juancho hernangómez dalano banton chris boucher scottie barnes ponerlo jugadores metros malachi flynn fred vanvleet gary trent jr rookie christian kolokodesde salida jonas valanciunas cambio marc gasol catalán serge ibaka año toronto referencia interior apostaron reforzar alas eligiendo barnes trayendo thad porter jr juancho problema nba ritmo rápido anotaciones altas triples aparecido generación interiores forward raptors indefendible nick nurse empezando marcha atrás proyectosiakam necesita compañía pintura raptorsdesde temporada interiores españoles pascal siakam convirtió titular equipo año jugó minutos cifra subió año ambas ocasiones raptors mejores camerunés pívot año pese seguido jugando minutos referencia interior toronto puntos rival posesiones siakam pívotel camerunés jugando nivel all star rendimiento llegando referencia interior mejores alineaciones jugadores raptors temporada siakam pista orden achiuwa boucher koloko birch net rating jugado minutos power forward cifra alta carrera partidos nurse decidido apostar interior siakam dejar gary trent jr sexto hombre raptorsdesde principio temporada planteado debate especialmente destrozo joel embiid ronda pasados playoffs opción original achiuwa lesiones nivel koloko titularidad sanos raptors vanvleet anunoby defensores posiciones capaz detener pívots rivales embiid nikola jokic giannis antetokounmpo rivales conferencia tendencia moviéndose nbamilwaukee campeón temporadas juega brook lopez giannis boston sano usará horford rob williams cleveland pareja evan mobley jarrett allen lista abierto polivalente capaz defender exterior rival fuerte atlético siakam defender pintura necesita pareja baile evitar situaciones vucevic embiid paschall jokic myles turner demarcus cousins metieron diez puntos tirando temporada bajas lesión ausencias enfermedad jugadores adaptándose sistema nick nurse jugado minutos pívot pista achiuwa boucher birch koloko thad young tendencia aleros multifuncionales menor cuestiona proyecto raptors presente siakam futuro scottie barnes piezas parecidaseso quita nurse siga usando quinteto favorito gary trent interior turno cerrando partidos siakam barnes anunoby vanvleet mejores hombres pista hora pegarse pívot rival siakam raptors necesitan músculo altura</t>
+          <t>carrera salvaje caeleb dressel confirmó rey piscina juegos olímpicos seguramente gane oros categoría masculina quedan estilos libre ganó semifinal minutos oro marposa firmar repóquer tokio fiasco relevo mixto acabó mañana sábado unidos quintaera difícil llenar mitad vacío dejado michael phelps comparativas meritorio ganó medallas oro río janeiro tiburón baltimore escribe página importante deporte mundialdressel batió récord mundo centésimas impuesto mundiales corea prueba mano mano húngaro kristof milak nadador destinado heredar cetro resto nadadores incluido guatemalteco luis carlos martínez centroamericano llegaba olímpica vieron estela ambosel americano apareció pañuelo lucido presencias piscina azul estampado vacas pertenecía profesora matemáticas instituto falleció cáncer pecho acudir poyetes librando batalla psicológica milak esperaba poyete interpretar agua combate fascinantela estrella hombro aguila símbolo país tatuado emergió posición metro brazada poderosa distanció cuerpo milak perdía centésimas voltear dressel tocado pared marca formidable phelps pekín comparar milak bañador intacto metió velocidad másnoe ponti broncefue logró vuelta suficiente arrebatar dressel medallas cotizadas natación mundial momentos magiar rebajó récord olímpico impuesto flamante campeón eliminatorias puso tope continental eón bronce suizo noe ponti superó ruso minakov</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>0</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Deportes_57.txt</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -620,11 +690,16 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jimmy butler heat equipo brindis obviedades sirve titular dejar spoelstra equipo temible parecido espartano butler regresaba partidos problema rodilla convirtiendo acción importante minutos finales prórroga heat ganaron garden celtics perdían octubre derrota partidos verdes extraordinarios humanosbutler diferencia sustancial repetición revancha acabara signo contrario partido ligero ofensivo miércoles batalla parecida tremenda serie decidió representante finales salsa butler acabó puntos rebotes momentos calientes bam adebayo sumó puntos rebotes acabó duelo tremendo estrellas cara perro jaylen brown réplicas flojo jayson tatum tiros venía reforzar candidatura mvp puntos heat guerrerosquienes pensaran cetlics iban perder jamás seguramente reafirmaron canastón butler horford siguió falta segundos triple tablero brown logo resurrección graznido vida locales prórrogas temporada tiraron acostumbran torno triples apilaron pérdidas facilitaron puntos heat necesario baño autoestima butler adebayo jugaron nivel lowry puntos asistencias tyler herro sixers aguantan ritmo grizzliesdespués perder forma estrepitosa cleveland sixers intentaron memphis pudieron sumar vuelven rondar punto recuperar james harden tyrese maxey tardará volver diferencia partido ohio pelearon convirtieron cuarto falta minutos acabó quedándose corto lavó cara equipo impulsado joel embiid puntos rebotes asistencias inicio tobias harris cuarto grizzlies tomaron mando sensaciones marcador ja morant jugó acabó puntos tiros jaren jackson jr sumó rebotes tapones actividad frontcourt rebotes tapones tennessee decisiva puntos rebotes asistencias tapones steven adams brandon clarke asistencias par triples anotados santi aldama jugó partido grizzlies cuartos oeste partidos cabeza pese altibajos baja duración desmond banelos cavaliers ascienden esteen jornada perdieron celtics bucks cosa rara cavs zancadita partido wisconsin victoria permitir sorpresas orlando magic derrotas seguidas récord nba florida siguen lastrados bajas faltaban wendell carter jr jalen suggs chuma okeke gary harris mo bamba jonathan isaac… número draft paolo banchero nivel puntos rebotes asistencias temporada volverá reconstrucción ojos draft orlando proceso duro cavs felices pista ganaron jugaron jarrett allen donovan mitchell anotó puntos minutos darius garland dirigió asistencias evan mobley rival apocado kevin love volvió lesión cavs mantienen mejores equipos realidaduna noche trae hawkslos hawks cuartos noche fantástica ganaron forma convincente gallos oeste denver nuggets pese jugaron trae young john collins deandre hunter pese nuggets espabilaron tercer cuarto convirtieron nikola jokic anotó puntos acabó rebotes asistencias jamal murray sumó asistencias nuggets descolgaron definitivamente minutos sometido presión dejounte murray puntos asistencias puntos rookie aj griffin tiros jugadores dobles figuras anotación hawks colectivos duros mantienen mejores conferencia nuggets segundos oeste desperdiciaron ocasión propicia sumar victoriaa pacers duro oesteduelo revelaciones salt lake city equipos profunda reconstrucción esperaba carrera victor wembanyama positivo duelo utah jazz indiana pacers perdido partidos oeste evitaron pleno patinazos remontada milagrosa cuarto lakers partido pérdidas jazz eficaces lados pista escaparon acierto ofensivo tramos defensa golpearon pacers empataron abrió brecha bestial lauri markkanen partido puntos rebotes jordan clarkson puntos asistencias collin sexton manejaron dirección sufre mike conley banquillo sumaron beasley pívot rookie kessler hallazgo puntos tiros campo rebotes tapones pacers haliburton puntos asistencias pérdidas mathurin wizards pierden mil ocasiones ganarcinco derrotas partidos wizards vuelven negativo ocasiones romper mala racha charlotte hornets sumaron séptima victoria toque poltergeist puntos ventaja tercer cuarto llegaron sirve parcial locales anotaron marcador puso falta minutos movió wizards perdieron ataques tomar mando bradley beal apiló minuto pérdidas tiro fallado canasta ganadora hornets volado tiros salvaron pelos rozier sumó puntos oubre pj washington asistencias wizards puntos rebotes asistencias beal porzingis puntos kuzma capital jugaron engancharon partido quintetos control rebote quedaron cortos</t>
+          <t>ocultó enfermedad datos tipo leucemia concha garcía campoy recibió pasos seguidos médicos terrible periodista indican debió leucemias graveslos tratamientos sometida presentadora habituales erradicar leucemia casos intervalo años caso pasaron meses completar opciones terapéuticas enfermedaden enero campoy anunció enfermedad twitter sometió quimioterapia eliminar células defectuosas originan enfermedad pacientes responden tratamiento casos leucemia aparece despuésel paso tratar recaída trasplante médula médula ósea enfermo responsable producción células malignas destruye medicamentos sustituye médula sana términos generales suele utilizar médula paciente trasplante recurre donante compatible enfermedad probablemente volvería aparecer médula compatible opta autotrasplante caso periodista ocurrió tenor josé carreras caso funcionó cambio pasó campoyel eslabón tratamiento trasplante alogénico trasplante persona ideal recibir médula hermano alguien compatible terapia idónea exenta riesgos mortalidad tóxica procedimiento caso trasplante alogénico torno ó aumentar función aparición paciente revisiones literatura médicasi donante compatible recurrir pasó caso campoy trasplante células cordón umbilicala tipo trasplantes ocurrir reacción injerto huesped células trasplantadas rechazan organismo reacción violenta combate fármacos tóxicosaunque médico presentadora compañero profesión manuel campo vidal señalado precisamente medicamentos generado fallo hepático destrucción masiva hígado producirse rápidamente casos transcurso proceso lento plantear trasplante hígado fracaso hepático podido derivar consecuencia infección pacientes suelen riesgos contraer patologías infecciosas reciben fármacos inmunosupresorescuando hígado deja cumplir funciones deja depurar sustancias fabricar componentes necesarios coagulación conllevar deterioro cognitivo denominado encefalopatía hepática termine coma finalmente paciente fallezca falta componentes coagulación complicaciones graves hemorragia</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Salud_43.txt</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -633,11 +708,16 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>españaserbia duelo típico semifinales valencia llegado escalón partido directo ascom equipos jugaron puesto eurobasket belgrado juegos río europeo francia triunfo selección españa afronta partido miedo suelo calificarlo lucas mondelo serbia debería miedo sienta victoria españolas enfrentado ocasiones perdiómontenegro independizó serbia baloncesto femenino balcanes andaba boyante tope desintegración yugoslavia plata mundial puesto europeo mundiales juegos equipo floreció irrupción generación colgó oro eurobasket bronce olímpico año ríomarina maljkovic hija legendario boza asumió riendas equipo año metió serbia semifinales europeas hito selección contaba años subiría alto podio hungría equipo jugadoras retarán españa mvp ana dabovic sonja petrovic vasic jelena milovanovic brooks casada dajana butulija nevena jovanovic sasa cadjo maljkovic tomó respiro serbia metió cruce cuartos regresó equipo colgó bronce europeosonja vasic pondrá punto carrera deportiva juegos tokio principal referente puntos selección presume contar grandísimas tiradoras vasic cadjo llevan triples cambio ana dabovic importantísima éxitos anteriores serbia echado dejar hueco nacionalizada yvonne anderson base reyer venecia tantos serbia ataque eurobasket puntos españa banquillo corto españolel tiro exterior cuentas pendientes selección eurobasket convertido mejores armas destacada aspecto acierto incorporaciones maite cazorla maría conde sentado españa moviendo balón bases pista partido asistencias reparte semifinal anticipada equipos corazón eurobasket</t>
+          <t>clasificar tiro arco parís sistema clasificación juegos olímpicos explicadola competición tiro arco parís contará hombres mujeres cantidad juegos olímpicos atlanta competirán pruebas incluyendo equipos mixtos continuación encontrarás necesitas número atletas estrellas seguir camino clasificación tiro arco presente ocasiones juegos olímpicos parís san luis londres amberes reintroducirse múnich deporte permitir participación mujeres juegos olímpicos pruebas femeninas presentaron juegos olímpicos pruebas equipos equipos mixtos añadieron programas olímpicos seúl tokio respectivamente competición parís contará pruebasla república corea dominado escena olímpica tiro arco equipo femenino permanecido invicto ganando nueve títulos consecutivospero juegos olímpicos deparado sorpresas descubre desafiar formidables arqueras equipo coreano conoce proceso clasificación tiro arco continuación récords olímpicos república corea tiro arco femeninocuántos arqueros competirán parís arqueros competirán parís hombres mujeres exactamente número anteriores ediciones juegos olímpicos cifra incluye cuotas país anfitrión género plazas universalidad génerohabrá máximo atletas género competiciones individuales compite respectiva prueba equipos caso contrario máximo atleta competirá prueba individualcuáles requisitos arqueros puedan optar cuotapara participar parís arqueros alcanzado puntuación mínima clasificación mqs siglas inglés julio campeonato mundial tiro arco junio nombre evento registrado mundial tiro arco wa siglas ingléshombres puntos flechas distancia mmujeres puntos flechas distancia mel comité ejecutivo world archery wa tomará decisión elegibilidad atleta alcanzado mqs evento registrado wa demostrar alcanzado mqs proceso completará junio camino clasificación parís país anfitrión francia recibirá cuotas género condición inscriba atletas género campeonato mundo tiro arco comisión tripartita decidirá plazas universalidad género cons elegibles presentar solicitudes plazas universalidad octubre enero continuación plazas cuota restantes distribuirán métodoslos cons equipos clasificados género competición equipos campeonato mundo tiro arco wac siglas inglés obtendrán plazas cuotacampeonatos continentales asia europa américa equipos género nueve hombres nueve mujereslos cons equipo clasificado género campeonato continental cc obtendrán plazas cuota atletas cons área continental definida competir ccla clasificación competición equipos torneo continental clasificación cqt siglas inglés utilizará asignar siguientes plazas cuota equipostorneo clasificación equipos equipos género nueve hombres nueve mujeresel torneo clasificación equipos ftqt siglas inglés evento independiente evento clasificación mundial separado celebrado prueba copa mundo cons equipos clasificados género ftqt obtendrán plazas cuotael ftqt abierto cons clasificado equipo campeonato mundial tiro arco torneo clasificación continental celebrará periodo clasificaciónlos equipos clasificados refieren equipos ganadores oro plata bronce ftqtsi cons obtuvieron plazas cuota ftqt obtenido plaza cuota competición individual plaza cuota individual añadirá lista plazas cuota disponibles torneo clasificación individual mundial véase clasificación individual abajolista clasificación mundial equipos equipos género hombres mujeresse asignarán plazas equipo equipos clasificado clasificado lista clasificación mundial equipos tiro arco wa fecha confirmar incluyendo resultados lista clasificación mundial ftqtclasificación equipos mixtos atletas génerojuegos continentales europa áfrica américa oceanía asia equipos cuotas génerolos cons equipo mixto clasificado competición continental equipos mixtos obtendrán plazas cuota hombres mujeressi país anfitrión ganador competición equipos mixtos juegos europeos equipo clasificado obtendrá cuota equipo mixtosustitución clasificaciones juegos continentalessi prueba equipos mixtos figura programa juegos continentales gc siglas inglés plazas cuota sexo continente correspondiente añadirán lista plazas cuota disponibles torneo clasificación individual mundial véase clasificación individual abajono sistema específico adicional prueba equipos mixtoslos equipos mixtos clasificados ronda clasificación juegos olímpicos entrarán competición equipos mixtos juegos olímpicos mejores puntuaciones masculinas femeninas países atletas géneros utilizarán determinar clasificación empate puesto realizará desempate determinar equipo clasificadoclasificación individual atletas génerocampeonato mundial tiro arco atletas génerose asignarán plazas cuota cons atletas clasificados cons clasificado competición equipos máximo plaza cuota consi asignar plazas añadirán torneo clasificación finaljuegos continentales asia europa américa atletas génerolos cons atletas clasificados cons juegos continentales cg siglas inglés obtendrán plaza cuota género correspondiente obtener plaza cuota género cgsi obtenido plazas cuota género producirá reasignación define continuaciónsi atleta país anfitrión atletas clasificados competición individual juegos europeos atleta clasificado obtendrá plaza cuota correspondientetorneos clasificación continental diez atletas géneroun torneo clasificación continental cqt siglas inglés evento independiente evento clasificación mundial separado celebrado campeonatos continentales cqt combinarse juegos continentalessi obtiene plaza cuota mundial tiro arco juegos continentales atleta género competir cqtlos atletas cons área continental definida competir cqtantes diciembre wa identificará cqt continente clasificación competición individual juego cqt utilizará distribuir siguientes plazas cuota individualtorneo clasificación mundial individual atletas géneroun torneo clasificación mundial individual fiqt evento independiente evento clasificación mundial separado celebrado prueba copa mundo cons atletas clasificados género fiqt obtendrán plaza cuotala fiqt abierta cons obtenido plaza cuota género eventos clasificación previos celebrará periodo clasificacióncada obtener plaza cuota género fiqtel torneo celebrará conjuntamente torneo copa mundo tiro arco evitar costes adicionales consasociaciones miembroen caso fiqt cumpla criterios validez world archery remitirá sección reasignación plazas clasificación utilizadas sección fiqt utilizará asignar plazascuál formato calendario competición tiro arco parís atleta equipo acumule puntos puntos set gana partido pasa ronda perdedores quedan eliminados formato continúa finalen parís pruebas medallas tiro arco tokio individual flechas set femenino masculinoequipo flechas set femenino masculinoprueba mixta flechas setla competición tiro arco comenzará ronda clasificación individual julio ceremonia apertura juegos olímpicos competición julio agosto invalidesleer juegos olímpicos parís calendario olímpico publicadoleer entradas juegos olímpicos novedadesarqueros seguir parís equipo república corea volvió demostrar clase tokio ganar medallas oro juego esperan comenzar parís décimo oro prueba femenina equipos repartan primeras medallas tiro arco invalidesen prueba individual femenina triple medallista oro an san favorita superar pruebas nacionales coreanas rivales medallista oro equipos tokio kang chae youngen competición individual masculina mete gazoz convirtió arquero turco subir podio juegos olímpicos ganó oro juegos olímpicos probable vencer kim woojin retener título número mundo guiara equipo masculino coreano doble oro espera equipo número mundo medallista plata tokio chinese taipéi vuelva disputar medallas parísaunque an san kor kim je deok kor coronaron campeones olímpicos prueba equipos mixtos dúo consiguió medalla temporada equipo unidos actual número mundo intentará volver podio parís marcharse tokio ganar medalla méxico lograr presea bronce casoalejandra valencia atletas seguir ciclo parís anunciado irá ocasión título único deseo oro parís recientemente afición</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>0</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Deportes_45.txt</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -646,11 +726,16 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>celtics representan ideal equipo sólidos lados pista unidos preparados sufrir campeones campeones potenciales poseen débiles hechos rutina victoria plácida caen adversidades desfila toronto marchado contentos sixers nets aprovecharon raptors escasos personal sufrir celtics aprendido escapando trampas nick nurse salir triunfales reforzados pese llegar perder cuarto juancho hernangómez recuperándose esguince tobillo sufrió orlando magic jugó reaparecer semana boston sufrir jayson tatum encanta alero notara constante escrutinio asigna papel contendiente luka doncic pelea mvp impactante demostración puntos tiros triples rebotes asistencias abundan exhibiciones temporada atrapado complejo entramado táctico nurse pasa jugando alternativas defensivas acabó expresándose libremente diciendo quiso negó tantas estrellas ahogadas garras og anunoby temporada listado james harden donovan mitchell dejounte murray etc zipi zape travesuras mano jaylen brown acabó liberando tantos tiros capturas pases canasta backtoback frío pista dura faltaba alhorford… excusas demostrado marcus smart secretario sociedad tatumbrown necesiten superiores anoche asistencias puntos puntos triples asistencias compañeros tridente vigilados abrirles pista celtics perfectos armónicos tatum brown brillar equipo equipo acude auxilio hacerles brillar ilustrativo expuesto torontolos raptors andaron chiquitas empezaron caer tatum defensas dobles acentuaban esquinas jaylen brown aguantar anunoby chico quitar puesto defensor marcus smart enseñándole surf pantallas vengan seguidas celtics hartaban recursos mesa movimientos rizo nurse blindaban colapsando pintura blake griffin soluciones impecable puntos lanzamientos rebotes asistencias titular ausencia horford robert williams baja atrevió convivir distinto presente glorioso desempeñándose actual función jugador rol rebote pase defensa atreviéndose maravilloso olvidado arte mate homenaje griffin vintagemazzulla quiso ponerse temibles raptors quinteto inicial físico grant williams griffin recibiendo puntos transición boston logró sujetar momentos vs equipo canadiense sobrevivir aciertos flotar fred vanvleet invitándole tomar tiro media distancia bloqueo directo base supo coger caminos allá lanzamiento acabó puntos horroroso tiros campo másmenos equipo entró escena pascal siakam puntos rebotes asistencias sacó relucir faceta simultánea base pívot manejador principal pívot chocando pintura fiable lanzamiento media distancia temeridad llevarle cambiando pick and roll boston jugadas siakam sale ganando raptors buscaron frecuencia atacar jugadores pequeños poste center anunoby puntos éxito propiciar descanso acompañaron gary trent jr puntos scottie barnes celtics mostrando puntos fuertes candidatura lograron escapar espiral tiros fallados pérdidas raptors acaban llevando adversarios casa defensas agobiantes franquicia canadiense estrellas exigen vivan margen balón puso tatum sacando dotes ejecutor catch and shooter finalizando pick and roll continuador compañeros abriéndole pista spacing smart papel anotador puntos mitad grant williams triplista dividiendo penetraciones tatum foco acabó quiso ayudó colapso ataque raptors insistiendo siakam hiciera empezar jugada finalizar sabían celtics cerraron camino aro ayudas registrara tiros boston defensa nba año desnaturaliza tipo temple lee baloncesto camerunés vio allá aro pese compañeros liberados perímetro enmendó parcial raptors tercer cuarto llegaron falta culminar recuperación ¿la mejora chicos confían comunicación constante decía modestia entrenador celtics joe mazzulla encuentro pupilos máquina perfecta boston ataque historia nba supieran botón apretar cifras ataque explican aprendizaje jugadores año respondió mazzulla explicar bárbaro rendimiento ofensivo rápido aprendiendo rivales</t>
+          <t>sonaron alertas aéreas partes ucrania autoridades instaron civiles refugiarse ucranianos golpeado primeroel jefe fuerzas aéreas ucranianas confirmó mañana rusia lanzando oleada misiles suelo ucraniano incursión aérea ucrania territorio ruso audaz fechatras guardar silencio rusia finalmente reconoció trataba ataque ucraniano alcance ministerio defensa ruso confirmó nota drones ucranianos volaban baja altura interceptados defensa aérea fuerzas aeroespaciales rusas resultado caída explosión aeródromos rusos restos aviones tripulados superficie casco aviones rusos resultó levemente dañada nota ministerio ministerio ruso admite militares rusos encontraban aeródromo resultaron muertos militares resultaron heridos trasladados instituciones médicas brindó asistencia médica necesaria añade comunicadoeste aeródromo saratov situado kilómetros ucrania medios rusos canales astra baza dron explotó plena pista imágenes satélite compartidas gobierno ucraniano alineaban bombarderos listos participar ejecutivo ruso insiste llamar operación militar especiallos drones adentraron cielos rusos noche golpear despegan bombarderos destruyendo ciudades ucranianas destacado asesor presidente ucraniano mijailo podoliak insinuaba mañana kiev ataque tierra redonda descubrió galileo astronomía estudiaba kremlin dando preferencia astrólogos corte contrario sabrían lanza espacio aéreo países objetos voladores desconocidos regresarán punto partida escribió twitter consejeroel gobierno ucraniano suele ambiguo ataques fronteras agosto aviones combate rusos destruidos explosiones base aérea rusa costa suroeste crimea península ucraniana anexionada rusia ucrania atacó puente crimeaatacar nuncala base engels kilómetros sureste moscú kilómetros separan frontera ucraniana distancia grande armamento utilizado ucrania fechael ataque produce empresa estatal ucraniana ukroboronprom anunciase llevado cabo serie pruebas exitosas avión tripulado alcance kilómetros dron ucraniano transportar kilos explosivos prometimos construirlo finalice año tratando cumplir promesa portavoz ukroboronprom natalia sadrusia guerra casa roman busargin gobernador región saratov emitió comunicado instando residentes mantener calma noticia fuerte explosión base aérea difundió redes sociales dimitri peskov portavoz kremlin confirmó presidente vladimir putin puesto noticias agencia noticias estatal rusa tassel punto partida bombasla elección base casual engels bases bombarderos estratégicos acogen bombarderos nucleares rusia región amur lejano oriente ruso explosiones funcionarios ucranianos docena bombarderos rusos despegado base aérea engels rumbo ucrania lanzaron misiles destruir infraestructura civilesta ataques rusos mataron personas destruyendo casas sureste provocando cortes energía autoridades kirilo timoshenko subdirector oficina presidencial misiles alcanzado edificios zaporiyia región situada sureste imágenes confirmadas circularon redes sociales mostraban humaredas sur kiev cercanías planta energía suministro agua región odesa detuvo estaciones bombeo líneas reserva quedaron energía pasó mikolaiv región vecinacombates estelos combates norma país víctimas zonas ocupadas edificios residenciales instituto estatal donbas región oriental lugansk alcanzados lunes fuego ucraniano matando nueve personas gobernador impuesto rusia región agencia noticias estatal rusa tass instalaciones utilizadas albergar refugiados trabajadores construcción funcionario impuesto autoridades rusasambos bandos ucrania informaron bajas ataques noche kryvyi rih ciudades sur ucrania cohetes rusos mataron persona hirieron medianoche región sureña jersón ucrania obligó fuerzas rusas retirarse río mes gobernador yaroslav yanushevych bombardeos rusos matado personas</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Politica_39.txt</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -659,11 +744,16 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>imparables arrolladoras indestructibles aplastantes ¿imbatibles seguramente unidos regaló exhibición ejercicio superioridad absoluta selección serbia campeona eurobasket valencia oposición partido asemejó labor gestión acelerar desacelerar continuo comprobando rival obrando consecuencia aires dream team escenario grito autoridad eligió guion acción golpes continuos principio podía anticipar aportaron apagaron puntos rebotes brittney griner breanna stewart tantos chelsea gray séptimas finales consecutivas bolsillo directas oro francia japón encuentran fórmula magistralestados unidos equipo especule necesita arrolla minuto riesgo supone seguridad tomarlo aplasta dominio innato difícilmente igualable martillear necesario descanso stanley sumaban triples sue bird inmaculada líder pista resto pesadilla pintura serbia gigante engulle jugada jugada piedad puntos estadounidenses zona serbios daban fe juego interior rebote ofensivo único abría vías anotación maljkovic imprecisas balón manos tiros campo triple misión imposible equipo natural roza perfección apartadosy rozó divirtió diana taurasi cuyos trucos pierden eternidad inventando pista años busca pase estético gesto técnico galería espíritu joven don genialidad stewart dirección canasta culminaba tabla balón llegaba rastro estelar pase taurasi daba vuelta grados baile público gradas levantado oh absoluto onomatopeya definir partidos selección tranquilidad diana reducir mínimo exponente atisbo riesgo inicio tercer cuarto salida bloqueo recibió golpe costado volvió disputar minuto decidido espalda diferencia llegado puntos cronómetro concedió minuto gloria rivales única resistencia serbia yvonne anderson puntos escolta nivel mejores anotadoras estadounidenses superaron número picos talento dispersos ocasión demanda tejido compacto alternativas anotación repartida jugadoras diez puntos roles asimilados letales mundo francia japón intentarán sobrevivir</t>
+          <t>victor orban sale húngaro líder polémico conflictivo unión europea marcado protagoniza deriva autoritaria iliberal palabras vladimir putin hostil ucrania veteranos seno consejo europeo jugar cartas martes ecofin reunión ministros finanzas visto forzado posponer discusión aprobación cuestiones clave presión veto húngaro paquete ayuda financiera kiev millones euros posición común tipo único tasa multinacionales decisiones referidas precisamente hungría fondos comunitarios bruselas congelarleorban años poniendo palos ruedas comunitarias bloqueando impidiendo decenas comunicados condenas política exteriores china israel rusia país pegas puesto sanciones moscú invasión único unión ratificado entrada suecia finlandia otan mezclando habilidad dosieres afectan directamente importan europa públicamente sostiene jamás vinculado ambas cosashace comisión europa luz verde plan recuperación húngaro único país pendiente arriesgaba perder acceso millones desbloqueaba año bruselas condicionado desembolso cumplimiento superhitos especiales simultáneamente comisión recomendado ministros congelen millones euros fondos cohesión activar llamado mecanismo derecho permite precisamente incumple sistemáticamente normas comunesel ecofin debía decidir martes cortar fondos decidido fórmula escogida parche truco ganar abaratar factura ministros pedido comisión europea haga evaluación actualizada sostiene budapest fecha corte usó comisión producido avances reales creen actualiza fecha semana empezar rebajar cuantía fondos congelar bajaría identificado momentouna haga informe probablemente semana ministros deberían valorarlo previsible orban siga diciendo desproporcionado excesivo pelota quedaría tejado consejo europeo jefes gobierno ven bruselas mes ecofin justo estudiando probable videoconferencia ocurra caso hungría mantiene veto millones ucrania tipo común gravamen multinacionales tiempoorban razones afecta kiev prioridad unión afinidad moscú dependencia energética hidrocarburos hungría roce ucrania años minoría magiar país cuyos derechos orban respetan tercero puro interés veto mano fuerte partida piensa venderla baratael ministro francés bruno maire saluda alemán christian lindner martes ecofinel ministro francés bruno maire saluda alemán christian lindner martes ecofinkenzo tribouillardafpla ue busca alternativas ayudar ucrania delicado frío daño necesidades financieras altísimas comisario johannes hanh responsable presupuestos unión explicado martes buscando alternativas legales presupuesto disposición enviar fondos kiev opción miembros aumenten garantías proporcionan comisión endeude lento casos requiere trámites parlamentos nacionales podido adoptar paquete totalidad desanimaremos ministro finanzas checo zbynk stanjura función responsable temporal reunión ministros finanzas ambición empezar desembolsos ucrania enero añadióla negociación máximo nivel emmanuel macron olaf scholz aprovechado cumbre informal celebra albania hablar tema orban hungría insiste vetando favor paquete ayuda macrofinanciera hungría segura aprobará prometido sesión parlamentaria aprobará entrada países nórdicos otanla semana viene oportunidad budapest sartén mango hungría necesita urgencia fondos europeos millones congelados gobierno apruebe reformas pendientes garantice independencia instituciones tribunales esenciales economía tocada crisis energética inflación expira plazo contemplado reglamento fondos next generation ue visto plan re recuperación húngaro arriesgan perder calendario apretado ego riesgo cestatodo mundo unión entiende queda precio millones euros congelarse budapest corrija deficiencias ministros margen cambios reales semanas ue derecho política líderes deciden semana viene promesas esfuerzos orban suficientes basta desbloquear titubearán precedente quedado sellado próximas difícil castigar incumple sistemáticamente</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Politica_38.txt</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -672,11 +762,16 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>miguel alvariño plata copa mundo coronar sensacional gallego cedido recurvo tiaxcala conquistar plata supone undécima medalla internacional añomiguel alvariño resultados nombres deporte español reivindicó domingo copa mundo tiro arco disputada tiaxcala méxico arquero gallego colgó medalla plata ampliar colección medallas extiende once clave internacional añoalvariño alcanzó competición disputada sábado domingo cita acudían mejores temporada disciplinas tiro arco nivel individual cabeza serie consiguió victorias cedió favorito coreano kim woojinalvariño debutó victoria cuartos brasileño marcus dalmeida logró vencer semifinales turco mete gazoz citó woojin superó comodidad cuartos mexicano jesús flores semifinales compatriota coreano kim ke deok opción woojin arquero español derrotó coreano llevó tirada español aumentó rentas dieces nuevamente nueves alvariño respondió miguel aumentó rendimiento tirada wookin empató asiático ganó cuarta alcanzar superar puntos daban victoriaa llevarse triunfo alvariño consiguió undécima medalla temporada clave internacional copa mundo conseguido nivel individual oro antalya plata bronces gwangju medellín equipos plata medellín bronce gwangju nivel masculino plata parís nivel mixto añadido oro individual plata equipos masculinos campeonato europa medallas restantes llegaron plata equipos masculinos bronce equipos mixtos juegos mediterráneos orán</t>
+          <t>gasly sumó puntos cualquiera anteriores temporadas completas terminando noveno campeonato unidadesaunque gasly repetir sorprendente victoria monza francés consiguió podio azerbaiyán top carreras vio bandera cuadrosalphatauri perdió frente alpine lucha quinto puesto campeonato constructores terminando puntosgasly difícil diferencia pequeña equipos larga temporada sentía animado rendimiento alphatauri campañalo conseguido equipo miramos años anteriores alphatauri toro rosso increíble gaslyasí orgulloso chicos esperanzado año demostrado año rendir niveles altosaunque gasly creía superara temporada diciendo superar sensación victoria oportunidad luchar regularmente líderes media ferrari mclaren mantenido motivadocomo temporada completa carreras debo disfruté gaslyllegar semana carreras sabiendo vas luchar puntos vas luchar ferrari mclaren emoción diferentedebo encantado año realmente espero año vienealpine consiguió distanciarse alphatauri lucha quinto puesto finales año impulsado podio fernando alonso quinto puesto esteban ocon qatar ocon consiguió sorprendente victoria equipo hungría sumado puntos importantes quinto lugargasly bromeó diciendo pena saquemos resultado año elogió alpine trabajocreo podríamos terminado quintos gaslysigo orgulloso conseguido conseguido puntos sucede alpha tauri disfrutado temporadasé año cuentas contento visto equipo rendir esperanzas año viene</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>0</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Deportes_9.txt</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -685,11 +780,16 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>federación española tiro arco rfeta refrendó sábado pese lamentar profundamente situación creada arquero miguel alvariño inicialmente adjudicó plaza olímpica decisión volver juego billete obtenido españa modalidad individual juegos tokio real federación tiro arco lamentamos profundamente situación creada motivo decisión comisión técnico rfeta obligación velar intereses deportistas rfeta refrendar dicha decisión federación comunicadoen federación española tiro arco recordó plaza individual españa logró gracias tercer puesto alcanzado pablo acha juegos europeos minsk nominal pertenece rfeta federación establece criterios determinar ocupa dicha plaza federación principal objetivo conformar equipo fuerte mayores opciones triunfo creemos residen competiciones equipos línea actuación mueve comisión técnica velar arqueros ocupen plazas olímpicas forma demuestren año disputan juegos olímpicos rfetauna decisión provocó críticas arquero miguel alvariño puesto manos abogados decisión federación revocarle plaza individual adjudicado inicialmente mes febrero juegos tokio lograr puesto proceso selectivo fijado rfeta período federación española tiro arco justificó decisión volver juego plaza individual coherencia criteriossi pablo acha consiguió plaza junio podía garantizar forma julio debíamos tratar garantizar equipo preolímpico equipos obviar criterio miguel alvariño obtuvo puesto sistema selección febrero forma julio cometer acto injusticia deportistas asimismo rfeta decisión argumenta cuestiones meramente deportivasademás querer representante objetiva demuestre mejores condiciones año celebren juegos olímpicos olvidar objetivo principal federación obtener clasificación olímpica equipos dichas plazas pondrán juego año vieneen rfeta decisión revocar plaza concedida inicialmente miguel alvariño cuestiona rendimiento arquero gallego duda cuestiones personales índole venido manifestando decisión atenta principios deportivos básicos designios comité olímpico internacional directrices comité olímpico español comunicados emitidos organismos atletas clasificados tokio mantienen plaza referencia plazas conseguidas individual asignadas nominalmente deportista federacióna rfeta confirmó comité olímpico español listado definitivo representantes acudirían tokio listado provisional formado diez deportistas hombres mujeres técnicos federación española tiro arco lamentó pidió disculpas haberse puesto contacto directa miguel alvariño carácter previo inmediatamente comunicado contábamos semana tratar conjunta situación hechos precipitado esperábamos federación comunicado rfeta confía situación solucione favorable partes implicadas unidos fuertes deporte merece hablemos bondades proezas deportistas concluyó federación</t>
+          <t>australiano acordó separación anticipada mclaren año asociación diera resultados esperabandespués sopesar opciones ricciardo finalmente aceptó convertirse tercer piloto red bull próxima temporada mente volver competir completo cuestionado ricciardo tomado camino mantenerse ambiente paddock ceo mclaren brown cree red bull ofrecerle oportunidad inmediata demostrar necesita ganar fbrown cita nyck vries desempeñó piloto reserva mercedes sustituto alex albon williams gp italia consiguió asiento titular alphatauri mira pasó nyck sesión brown convirtió propiedad calienteasí tipos red bull pudiera correr razón ricciardo subiera llevara coche cambiar abrir cerrar ojospreguntado motorsportcom posibilidad disputar carrera red bull perspectivas ocupado asiento completo haas brown difícil vas haas vences kevin magnussen forma volver radarla piloto red bull contagie covid coche ganador salga ganar carrera vuelva parrilla difícil oportunidadbrown sorprendió ricciardo captado equipos disponibleme sorprende equipos buscaban pilotos seleccionaran equipos interesado conducir seleccionadopero seguir juego ganó monza año victorias carreras ganadas capaces desbloquearlo esperemos ambiente desbloquee gustaría daniel parrilla</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>0</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Deportes_7.txt</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -698,11 +798,16 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>clasificar tiro arco parís sistema clasificación juegos olímpicos explicadola competición tiro arco parís contará hombres mujeres cantidad juegos olímpicos atlanta competirán pruebas incluyendo equipos mixtos continuación encontrarás necesitas número atletas estrellas seguir camino clasificación tiro arco presente ocasiones juegos olímpicos parís san luis londres amberes reintroducirse múnich deporte permitir participación mujeres juegos olímpicos pruebas femeninas presentaron juegos olímpicos pruebas equipos equipos mixtos añadieron programas olímpicos seúl tokio respectivamente competición parís contará pruebasla república corea dominado escena olímpica tiro arco equipo femenino permanecido invicto ganando nueve títulos consecutivospero juegos olímpicos deparado sorpresas descubre desafiar formidables arqueras equipo coreano conoce proceso clasificación tiro arco continuación récords olímpicos república corea tiro arco femenino¿cuántos arqueros competirán parís arqueros competirán parís hombres mujeres exactamente número anteriores ediciones juegos olímpicos cifra incluye cuotas país anfitrión género plazas universalidad génerohabrá máximo atletas género competiciones individuales compite respectiva prueba equipos caso contrario máximo atleta competirá prueba individual¿cuáles requisitos arqueros puedan optar cuotapara participar parís arqueros alcanzado puntuación mínima clasificación mqs siglas inglés julio campeonato mundial tiro arco junio nombre evento registrado mundial tiro arco wa siglas ingléshombres puntos flechas distancia mmujeres puntos flechas distancia mel comité ejecutivo world archery wa tomará decisión elegibilidad atleta alcanzado mqs evento registrado wa demostrar alcanzado mqs proceso completará junio ¿cuál camino clasificación parís país anfitrión francia recibirá cuotas género condición inscriba atletas género campeonato mundo tiro arco comisión tripartita decidirá plazas universalidad género cons elegibles presentar solicitudes plazas universalidad octubre enero continuación plazas cuota restantes distribuirán métodoslos cons equipos clasificados género competición equipos campeonato mundo tiro arco wac siglas inglés obtendrán plazas cuotacampeonatos continentales asia europa américa equipos género nueve hombres nueve mujereslos cons equipo clasificado género campeonato continental cc obtendrán plazas cuota atletas cons área continental definida competir ccla clasificación competición equipos torneo continental clasificación cqt siglas inglés utilizará asignar siguientes plazas cuota equipostorneo clasificación equipos equipos género nueve hombres nueve mujeresel torneo clasificación equipos ftqt siglas inglés evento independiente evento clasificación mundial separado celebrado prueba copa mundo cons equipos clasificados género ftqt obtendrán plazas cuotael ftqt abierto cons clasificado equipo campeonato mundial tiro arco torneo clasificación continental celebrará periodo clasificaciónlos equipos clasificados refieren equipos ganadores oro plata bronce ftqtsi cons obtuvieron plazas cuota ftqt obtenido plaza cuota competición individual plaza cuota individual añadirá lista plazas cuota disponibles torneo clasificación individual mundial véase clasificación individual abajolista clasificación mundial equipos equipos género hombres mujeresse asignarán plazas equipo equipos clasificado clasificado lista clasificación mundial equipos tiro arco wa fecha confirmar incluyendo resultados lista clasificación mundial ftqtclasificación equipos mixtos atletas génerojuegos continentales europa áfrica américa oceanía asia equipos cuotas génerolos cons equipo mixto clasificado competición continental equipos mixtos obtendrán plazas cuota hombres mujeressi país anfitrión ganador competición equipos mixtos juegos europeos equipo clasificado obtendrá cuota equipo mixtosustitución clasificaciones juegos continentalessi prueba equipos mixtos figura programa juegos continentales gc siglas inglés plazas cuota sexo continente correspondiente añadirán lista plazas cuota disponibles torneo clasificación individual mundial véase clasificación individual abajono sistema específico adicional prueba equipos mixtoslos equipos mixtos clasificados ronda clasificación juegos olímpicos entrarán competición equipos mixtos juegos olímpicos mejores puntuaciones masculinas femeninas países atletas géneros utilizarán determinar clasificación empate puesto realizará desempate determinar equipo clasificadoclasificación individual atletas génerocampeonato mundial tiro arco atletas génerose asignarán plazas cuota cons atletas clasificados cons clasificado competición equipos máximo plaza cuota consi asignar plazas añadirán torneo clasificación finaljuegos continentales asia europa américa atletas génerolos cons atletas clasificados cons juegos continentales cg siglas inglés obtendrán plaza cuota género correspondiente obtener plaza cuota género cgsi obtenido plazas cuota género producirá reasignación define continuaciónsi atleta país anfitrión atletas clasificados competición individual juegos europeos atleta clasificado obtendrá plaza cuota correspondientetorneos clasificación continental diez atletas géneroun torneo clasificación continental cqt siglas inglés evento independiente evento clasificación mundial separado celebrado campeonatos continentales cqt combinarse juegos continentalessi obtiene plaza cuota mundial tiro arco juegos continentales atleta género competir cqtlos atletas cons área continental definida competir cqtantes diciembre wa identificará cqt continente clasificación competición individual juego cqt utilizará distribuir siguientes plazas cuota individualtorneo clasificación mundial individual atletas géneroun torneo clasificación mundial individual fiqt evento independiente evento clasificación mundial separado celebrado prueba copa mundo cons atletas clasificados género fiqt obtendrán plaza cuotala fiqt abierta cons obtenido plaza cuota género eventos clasificación previos celebrará periodo clasificacióncada obtener plaza cuota género fiqtel torneo celebrará conjuntamente torneo copa mundo tiro arco evitar costes adicionales consasociaciones miembroen caso fiqt cumpla criterios validez world archery remitirá sección reasignación plazas clasificación utilizadas sección fiqt utilizará asignar plazas¿cuál formato calendario competición tiro arco parís atleta equipo acumule puntos puntos set gana partido pasa ronda perdedores quedan eliminados formato continúa finalen parís pruebas medallas tiro arco tokio individual flechas set femenino masculinoequipo flechas set femenino masculinoprueba mixta flechas setla competición tiro arco comenzará ronda clasificación individual julio ceremonia apertura juegos olímpicos competición julio agosto invalidesleer juegos olímpicos parís calendario olímpico publicadoleer entradas juegos olímpicos novedadesarqueros seguir parís equipo república corea volvió demostrar clase tokio ganar medallas oro juego esperan comenzar parís décimo oro prueba femenina equipos repartan primeras medallas tiro arco invalidesen prueba individual femenina triple medallista oro an san favorita superar pruebas nacionales coreanas rivales medallista oro equipos tokio kang chae youngen competición individual masculina mete gazoz convirtió arquero turco subir podio juegos olímpicos ganó oro juegos olímpicos probable vencer kim woojin retener título número mundo guiara equipo masculino coreano doble oro espera equipo número mundo medallista plata tokio chinese taipéi vuelva disputar medallas parísaunque an san kor kim je deok kor coronaron campeones olímpicos prueba equipos mixtos dúo consiguió medalla temporada equipo unidos actual número mundo intentará volver podio parís marcharse tokio ganar medalla méxico lograr presea bronce casoalejandra valencia atletas seguir ciclo parís anunciado irá ocasión título único deseo oro parís recientemente afición</t>
+          <t>grave acusación lanzada ministra igualdad pp acusó fomentar cultura violación consiguió manifiesto grieta espacio confederal unidas podemosel clima parlamentario sosiega atemperarse tormenta arrecia alentada formaciones extremas congreso peculiaridad sentada gobierno semana diputada vox desató tempestad descalificando irene montero único mérito estudiado profundidad pablo iglesias ministra igualdad decidió transformarse víctima agresora acusando pp promover cultura violaciónentre episodios diferencia sustancial ocasión montero obtuvo respaldo cerrado recibió reproche latir soterradamente escaños morados alineados vicepresidenta yolanda díaz grave acusación lanzada partido oposición consiguió manifiesto grieta bandos encabezan espacio confederal evidencia soledad montero arropada ministra asuntos sociales ione belarra gobiernola titular igualdad reconvenida presidenta congreso meritxell batet usual dada sintonía ideológica suele existir preside cámara ejecutivo batet protesta escándalo unánime acusación montero provocó bancada pp reclamó ministra contención expresiones enturbiar convivencia sede parlamentariamontero respuesta pregunta diputada popular belén hoyo instándola rectificar ley agarró campañas publicidad comunidad madrid xunta galicia violencia género acusar populares promover cultura violación citadas campañas incluyen mensajes frases debería pasar pasa vigila copa salgas nochedespués reproche mano ministra justicia pilar llop portavoz grupo socialista patxi lópez recordó partido popular formaciones firmantes pacto violencia género votó favor ley nombre decirse precisó fomente tipo cultura mujeres instarle seguir avanzando igualdad opinó palabras ministra mejores lamentó precisamente semana sufrió agresividad verbal juegue estoen secretaria igualdad psoe andrea fernández dudó criticar expresiones gruesas proferidas montero españa merece aludiendo espectáculo vivido cámara semana martes diputada vox refirió socios filoetarras gobiernotensión crecienteel episodio protagonizado irene montero elevado tensión vive gobierno semanas proyectos ley promovidos ministerio igualdada problemas suscitados seno feminismo socialista contenido conocida ley trans venido sumar efectos nocivos revisiones baja condenas agresores sexuales excarcelaciones entrada vigor provocado llamada ley norma pese evidentes defectos jurídicos ejecutivo resiste rectificar excusa estudiarse detenimiento pronunciamiento tribunal supremo aplicaciónpero intervención irene montero generó malestar filas socio mayoritario gobierno partido minoritario coalición provocó divisiónla ministra derechos sociales secretaria ione belarra situó inmediatamente número secretaria agenda lilith verstrynge secretaria organización partido morado ambas forman círculo afín irene montero distanciado vicepresidenta ministra yolanda díazde miembros espacio confederal díaz produjo inmediato evitar apoyar expresamente titular igualdadasí diputados destacados formación enrique santiago secretario pce predecesor cargo verstrynge diputada comú podem aina vidal optaron limitarse señalar irresponsabilidad insensatez campañas publicitarias violencia género desplegadas madrid galicia defender existencia concepto científico cultura violación evitaron secundar acusación montero popularesmáxima gravedadlas reacciones palabras ministra igualdad cayeron jornada torrente portavoz pp congreso cuca gamarra pidió palabra pleno montero hablara expresar enérgica portesta pasillos advirtió límite opinión insulto ministra reviste máxima gravedad alguien sentado consejo ministros boca gobiernotambién líder pp alberto núñez feijóo pronunció reprocando gobierno hooligan política española feijóo volvió pedir dimisión ministra reclamándole asuma responsabilidad recoja despacho efectos perniciosos ley diputada pp marta gonzález mantuvo debate ministra justicia pilar llop precisamente ley recalcó irene montero supuesta víctima violencia política agresorala líder ciudadanos inés arrimadas amplió crítica psoe convertir congreso expulsan llamas filoterrorista bildu permite ministra acuse oposición promover cultura violación vergüenza zanjó</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Politica_3.txt</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -711,11 +816,16 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>dominio an san título mete gazoz categoría masculina reflexionamos momentos memorables tiro arco tokio recapitulamos medallas echamos vistazo viene parís liderada brillante an san república corea repite arrasada oros río juegos olímpicos tokio ganado oros posibles río arqueros república corea ganaron competición equipos mixtos camino oros tokiopero hombres pudieron llegar semifinales competición individual mete gazoz llevó oro dándole turquía medalla tiro arcola juventud definitivamente predominó juegos medallista oro individual londres oh jinhyek ganó oro equipos años edadsigue leyendo momentos memorables recapitulación ganadores medallas perder vista parís mejores momentos tiro arco tokio momentos destacados juegos olímpicos tokio celebrados república corea oro equipos mixtosel oro tiro arco decidirse equipos mixtoscon hombre mujer equipo lanzando flechas set competición podía poderosos coreanos destronados llevarse oros río sucediócon promedio edad años an san kim je deok llegaron cómodas victorias bangladesh india méxicolos países bajos demostrarían considerablemente duros gabriela schloesser steve wijler llevaron set ponerse ventaja favoritos vinieron atrás an cerrar set empatando juego wijler flecha set puso ventaja república corea equipos rendimiento cuarto set neerlandeses dando logrando puntoskim an primeras flechas kim encontró centro nuevamente necesitando nueve dividir puntos set llevarse título olímpicofiel estilo an tomó apuntando nueve asegurar victoria oro olímpicoen enfrentamiento bronce luis álvarez recuperó set ayudar méxico ganarle turquíaálvarez alejandra valencia puntuaron tercer set superaron mete gazoz yasemin anagoz lograr medalla tiro arco país aida román mariana avitia llevaron plata bronce individual londres eventos equipos entraron programa juegos olímpicos seúl mujeres corea sur derrotadaslo alguien londres república popular china perdió puntoluego ganar ventaja ronda clasificación an jang minhee kang chaeyoung italia cuartos finaligualaron tercer set bielorrusia jang flecha volvieron despiadadas finalcontra roc coreanas obtuvieron puntos rivales quedándose punto distancialos siguientes sets parejos república corea llevándoselos lograr nueve oros nueve eventos femeninos racha actual victorias larga equipo juegos olímpicoslo impresionante logro particular tiradoras debut juegosa bielorrusia negó medalla olímpica tiro arco perder alemania equipo femenino corea tokioequipo femenino corea tokio getty images sangre fría an san logra triplete únicohabiendo ganado oros juegos an san logró tercero evento individual femeninoestuvo fácil joven años única coreana semifinales ganar tiros flecha semifinales finaldespués superar octavos cerrado duelo japonesa hayakama ren an superó fácilmente india número mundo deepika kumari vino triunfo semifinales mackenzie browntras fallar tiro an sets perfectos ponerse ventaja estadounidense vino atrás perfecto empatar convirtió parecido duelo pistoleros expertosconforme aumentaba tensión ritmo cardíaco an pasaba latidos minuto brown rondaban quinto set brown necesitaba tiro ganar flecha zona significó tiros flechaan tiró circulo central brown logrando nueveal equipos individual vio corea enfrentar comité olímpico ruso elena osipova venció kang chaeyoung cuartos único obstáculo an historiafue duelo lleno suspenso tiradoras dividiendo set an lograra puntos ponerse ventaja osipova empezando ganando tercer set cuarto acercándose oroaún enfrentándose derrota pulso cardíaco an mantuvo latidos minuto osipova joven coreana frialdad persona cerrar quinto set forzar desempate flechaa magnitud situación ambas arqueras capaces reírse bromear entrenadores tiro flecha importante vidasan semifinal exterior círculo dando rival años oportunidadosipova darle girar entrenador sonreír ampliamente an dando corea sur octavo oro individual nueve juegos olímpicosan convirtió heroína nacional noche mañana éxito recibido aclamación universalsu corte pelo corto atrajo críticas internet tierra natal acusándola feminista odia hombreseso respuesta mujeres mundo cortaran pelo solidaridad publicaron twitter hashtag womenshortcutcampaign campaña mujeres pelo corto versión coreano 여성숏컷 an respondió pregunta instagram diciendo corte pelo cómodoademás ganar medallas oro an empezado saberlo movimiento impulsar lucha equidad género república corealos coreanos superan anfitriones camino oro equiposcorea ganado competiciones masculinas juegos anfitriones acaban apuesta oro semifinalesjapón perdía empezar cuarto set puntuación forzaron desempate flecha unocorea tiró medallista oro río kim woojin dándole nueve japonés kawata yuki borde ponerse ventajaluego medallista oro equipos mixtos años kim je deok posición cercana centro blanco furukawa takaharu dando tensión palpable equipos empatados faltando flechael campeón individual londres años jinhyek zona flecha joven compañero equipo obligaba japón perder duelotodo redujo flecha muto hiroki darle república corea victoria margen reducidojapón disputó tiro flecha bronce muto círculo central flecha certamen llevarse medalla equipos masculinos países bajosluego susto semifinales república corea imperiosa china taipéiincluso llevaron cabo set perfecto torneo ponerse cerrar convincente triunfo oh kim woojin llevaron medalla oro joven kim je deokluego finalizar alto ronda clasificación masculina esperanzas kim je deok igualar triplete an desvanecieron perder alemán florian unruh dieciseisavos finaloh jinhyek eliminado manos indio atanu das dejando kim woojin único coreano avanzó cuartos finalel campeón mundo años enfrentó tang chihchun china taipéi verse caras equiposesta coreano perdió tang dando quinto set necesitando avanzar evitó república corea volviera arrasar oros ríoel esfuerzo tang vano perder semifinales italiano mauro nespoli furukawa takaharu duelo medalla broncela nespoli mete gazozel joven turco mostrado destreza situaciones presión terminando esperanza número brady ellison puntuación perfecta puntos quinto set nerviosos cuartos finalen semifinal furukawa gazoz volvió ponerse ventaja cerro puerta oponente quinto set perfecto ganar mostró compostura dividirse sets nespolien quinto set crucial gazoz tiró nueve vino nespoli turco alcanzaran llevarse títuloel parecido harry potter familiar celebración esconderrevelarpuño cerrado campeón olímpicoluego temprana salida debut olímpico río joven años declaró medios podio tokio optimista redes sociales publicar tuit traduce trabajaré fuerte regresaré medalla oro tokio gazoz entrenado meticulosamente niño arquero campeónluego terminar cuarto juegos olímpicos juventud nanjing representó turquía juegos europeos río año decisivo llevándose oro juegos mediterráneos ganar copa mundo berlín premio europeo sofíasin asegurar juegos olímpicos junio ganó torneo clasificación europea territorio local antalyamientras muestran nerviosos competición gazoz simplemente sonríe tensión punto altogazoz reuters imagina olímpica preparando arco tipo sonríe oreja oreja debo medalla sonrisatodos atletas tácticas gusta gritar gusta esperar permitido mantener rivales nerviosos feliz demostrar tranquilo estoyel arquero años tartamudea admite persona nerviosa mayoría cuerda arco manohasta logre lema redes sociales río hizoun vistazooh jinhyek cerró magnífica carrera oro juegos olímpicos tokio ganó doble oro equipos campeonato mundial juvenil tiro arco campeones an san mete gazoz nacieransu londres venció furukawa takaharu llevarse oro individualtres campeón mundo equipos masculinos medallista oro equipos mixtos oh subcampeón mundialesganó títulos individuales copa mundo tiro arco juegos asiáticos territorio local icheonahora años retira deporte convirtiendo jóvenesel torneo oh terminó manos atanu das perdería furukawa veterano japonés llevara bronce agregándolo prueba equipos tokiofurukawa llegué parís tratará competir sextos juegos olímpicosalguien sjef den berg retiró deporte añosvan den berg cuarto río perdiendo brady ellison duelo bronce llevarse plata juegos europeos arquero neerlandés disfrutó éxito competiciones equipos mixtos ganando plata campeonato mundial territorio local oro copa mundo mayo lausanaen julio página world archery veo joven disfruta tiro quiero volver tirar encanta gente quiera haga biencon años respectivamente probable an san mete gazoz parís defender títuloshabiendo competiciones lugares equipo república corea an probar valía siguientes juegos olímpicosninguna mujer ganado oro individual tiro arco juzgando forma tokio an oportunidad historiasu compañero equipo mixto kim je deok años visto esperanza medalla parísmarlyse hourtou chad debut olímpico cortesía invitación tripartita causo sensación puntos set duelo ronda eventual medallista oro an sanla joven años perdió tiró clasificación años entrenamiento veamos sorpresa paríspara anfitriones lisa barbelin campeona europea actual perdió mexicana equipo mixto ganador bronce alejandra valencia octavos finaltiene años espera contendiente medalla terreno localy barbelin compañía parís iban bariteaud caroline lopez recientemente coronadas campeonas mundo sublisa barbelin tokiolisa barbelin tokio getty imagescuándo repeticiones tiro arco página olympicscomaquí respuesta olympicscomtokyoreplays¿cuándo compiten mejores arquerosel campeonato mundial tiro arco yankton dakota sur unidos septiembrese espera nombres brady ellison lei chienying defendiendo títulos individualeschina taipéi sorprendió república corea equipos femeninos años campeonas olímpicas querrán revanchalos hombres buscarán mejorar bronce china llevó orolos atletas yankton copa mundo llevará cabo septiembre concluyendo temporada</t>
+          <t>récord millones niños recibieron dosis vacuna sarampión millones niños recibieron dosis millones recibieron dosis publicación conjunta organización mundial salud oms centros control prevención enfermedades cdc unidosese déficit cobertura vacunación sarampión disminuido constantemente comienzo covid millones dosis vacunas sarampión pospusieron perdieron retrasos relacionados pandemia campañas inmunización paíseseste descenso inmunización supone importante retroceso avance mundial consecución mantenimiento eliminación sarampión deja millones niños expuestos infecciónen estima nueve millones casos muertes sarampión mundo veintidós países experimentaron brotes perturbadoresla agencia onu asegura disminución cobertura vacunal debilitamiento vigilancia sarampión continuas interrupciones retrasos actividades inmunización covid persistencia brotes sarampión amenaza inminente regiones mundola paradoja pandemia vacunas covid desarrollaron récord desplegaron campaña vacunación historia programas inmunización rutinarios vieron gravemente perturbados millones niños quedaron recibir vacunas salvan vidas enfermedades mortales sarampión doctor tedros adhanom ghebreyesus director organización mundial saludvolver marcha programas inmunización absolutamente crítico estadística informe niño riesgo contraer enfermedad prevenible añadióel sarampión virus humanos contagiosos prevenir completo vacunaciónsin necesita cobertura niños dosis vacunas crear inmunidad grupo permita proteger comunidades lograr eliminación sarampiónel mundo niños reciben dosis vacuna sarampión niños reciben segundaestas tasas bajas cobertura mundial dosis vacuna sarampión cobertura varía paísel sarampión amenaza virus propagarse rápidamente múltiples comunidades fronteras internacionalesninguna región logrado mantener eliminación sarampión diez países previamente erradicado vuelto experimentar brotes vuelto restablecer transmisiónel número récord niños susceptibles sarampión muestra profundo daño sufrido sistemas inmunización pandemia covid directora centros control prevención enfermedades doctora rochelle walenskyy brotes sarampión producen actualidad ilustran precisamente debilidades programas inmunización obstante funcionarios salud pública utilizar respuesta brotes identificar comunidades riesgo comprender causas falta vacunación ayudar ofrecer soluciones adaptadas localmente garantizar vacunas disponibles mundo agencia onu estandounidense instan acción coordinada colaboración socios nivel mundial regional nacional local priorizar esfuerzos búsqueda inmunización niños desprotegidostambién recomiendad mitigar riesgo brotes países inviertan sistemas vigilancia sólidos</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Salud_50.txt</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -724,11 +834,16 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>federación española tiro arco reaccionó rapidez visión semana país cayera alarma deporte iba echando cierre golpe clausura pabellones gimnasios piscinas tiradores técnicos volaban rumbo turquía seguir entrenando reunimos consejo superior deportes decidimos adelantar viaje previsto marzo explica rubén montes director técnico equipo nacional tiro arcoatrás resto modalidades espera permiso especial mantener preparación españa cita año apague llama olímpica continuar entrenando apunta montes federación internacional recordó insistencia coi japón salvar juegossólo logrado exiliarse deporte español dejaron atrás mascarillas incertidumbre contagios aislarse reductos libres coronavirus iban quedando europa mancha terminado llegando turquía suspender vuelos destinos españa cerró fronteras grecia bulgaria frenar pandemia provocado territorio centenar casos fallecido suspendió prueba copa mundo semana autorizado entrenar relata montes pendientes restricciones gobierno erdogan prepara instaurar paísprolongar estanciahasta equipo español solitario campo cercano hotel enclave turístico otomano orillas mediterráneo cierran federación turca invitado unirnos concentración hora aseguran seguir entrenando pase pase director técnicoel plan inicial equipo antalya abril españa habilitara entrenar volveríamos intentaríamos continuar ayuden federación gasto supone pide montes mirando instancias superiores deporte nacional gimnastas nadadores tirador arco seco domicilio practicar allá ejercicios físicos haría falta techo alto parapeto casa distancia adecuada detalla montes especialidad precisión nervios congelados consiste acertar diana situada metroslos arqueros españoles sesión on line psicólogola aparente calma turca relajado arqueros tranquilo pasara tomando medidas precaución recuerda miguel alvariño único plaza garantizada juegos tokio categoría femenina equipos juego evitar espacios cerrados acuden caminando minibús centro entrenamiento viajaron equipos protección mascarilla gel desinfectante llevan consigohablamos familia tranquiliza centremos entrenar preocuparnos comenta alvariño tardes conectan españa pantalla pegan sesiones on line psicólogo car pablo río carolina marín medallistas olímpicos deportistas duros mentalmente tiro arco exige rendir presión controlando agentes externos llevando situación afirma director técnico</t>
+          <t>ansiedad respuesta fisiológica cognitiva conductual organismo experimentan serie síntomas físicos aumento tasa cardiaca sudoración cognitivos preocupaciones conductuales representan evitación determinadas situaciones resultan amenazantes provocar aparición síntomas acabamos comentar ansiedadpero pregunta ataque suele referencia psicología psiquiatría llama ataque pánico clasificaciones antiguas conocidos crisis angustia conocen ataques ansiedad empezar importante señalar afección llega considerarse trastorno ansiedad sufren personas población vida crisis pasa personas sufriendoun ataque pánico aparición súbita serie síntomas comunes aumento frecuencia cardiaca sudoración mareo sensación ahogo presión pecho produce síntoma cognitivo creencia pasando malo dando ataque corazón presencia inminente muerte ocurre forma rápida duración corta suele alcanzar pico máximo minutos remitelos síntomas fisiológicos producen ataque pánico realmente respuesta alarma organismo normalmente debería desencadenarse peligro ineludible síntomas preparan cuerpo reaccionar evitar peligro luchando huyendo respuesta orgánica adaptativa históricamente servido humano protegerseel problema ataques pánico organismo desencadena respuesta inapropiado falsa alarma activa mecanismo peligro real vista exposición estresores cotidianos crónicos exceso exceso responsabilidades dificultades económicas etc aumentar niveles ansiedad provoca presenten nervios personas den vueltas ideas preocupación logre descanso sueño interrumpa noche descansar niveles altos ansiedad sistema alarma active ausencia peligro real aparezca denominado ataque pánicoel principal problema ataques pánico interpretación síntomas físicos persona experimentando cree peligrosos ocasionar muerte persona capaz cuestionar interpretaciones erróneas consciente realmente síntomas peligrosos provocar muerte presión pecho sufriendo infarto simplemente presión muscular sintomatología física remite</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Salud_1.txt</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -737,11 +852,16 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>batalla título fórmula estallado fuerza aspirantes lewis hamilton max verstappen enfrentado temporada silverstone piloto red bull sufrió fuerte accidente toque vuelta movimiento sancionó piloto casael semana monza volvieron culpa recayó verstappen supuso penalización puestos parrilla salida próxima carrera gp rusiaante situaciones bicampeón mundo mika hakkinen muestra preocupación situación escalar superar seguridad establecida fórmula colisión lewis hamilton max verstappen haberse evitado pilotos compiten trofeo suelen acabar peleando trozo asfalto concluye hakkinen columna casa apuestas unibetel bicampeón mclaren apuntó optaría estrategia recurrir ceder ofrecer resultado esperadomis antiguos rivales ayrton senna michael schumacher involucrados colisiones polémicas opinión evitar centrarse victorias golpea pasar oponente acabar coche dañado turno sufrir chocar ofrece seguridadel finlandés experiencia optaría enfoque aceptar puedes ganar carreras tercer puesto resultado importante ganar título mundialque resultados decidan mundialhakkinen espera batalla pista continúe incidentes silverstone max suerte resultar herido colisión lewis domingo vimos lewis salvado halo escandinavolos accidentes potencialmente graves carreras preocupante debería sentada seguridad debemos caer autocomplacenciaes fantástico seguir campeonato año reñido gustaría max lewis dando vuelta gustaría verlos terminar carreras podio resultados decidan campeonato mundo número accidentes</t>
+          <t>reina muerto años reciente aniversario llegada trono isabel ii falleció residencia veraniega castillo balmoral escocia arropada familia cercana hijo carlos sucede rey años nombre carlos iii banderas reino unido ondearán media asta diez duelo nacional funeralla muerte reina meses celebración nacional jubileo platino creado sensación profundo desconsuelo británicos grave crisis política económica atraviesa país acto oficial monarca precisamente encargo gobierno premier liz truss aceptar dimisión boris johnsonel fallecimiento monarca produce cabo año muerte marido felipe edimburgo pese continuar meses intensa actividad reina pasó noche hospital síntomas agotamiento salud volvió entoncessuspendió meses apariciones públicas febrero contrajo covid empezó problemas movilidad apoyada sistemáticamente bastón recuperó justo fastos jubileo platino doble aparición balcón palacio buckingham residencia oficial trasladada castillo windsormuere reina isabel ii añosvídeo mundosu hijo carlos ocupó mes mayo apertura sesiones parlamentarias empezó hablarse comonarquía reparto papeles isabel ii recalcó repetidamente intención abdicar permanecer trono facultades físicas mentales permitieranla temida operación puente londres diseñada calcular milímetro protocolo muerte reina puso marcha acto liz truss comunicó noticia nación carlos dará discurso rey actos sucederán diez funeralla confirmación muerte breves comunicados palacio buckingham reina muerto apaciblemente balmoral rey carlos reina camilla seguirán balmoral noche volverán londres mañanacarlos despachará vienes calidad rey ministra liz truss cabo estreno downing street féretro reina seguirá balmoral sábado traslado palacio holyrood edimburgo británicos rendirle homenaje domingo catedral st giles milla real capital escocesa traslado londres tren especialel funeral celebrará cabo diez muerte abadía westminster seguido procesión castillo windsor enterrada cripta capilla san jorge marido felipe edimburgo fallecido abril mundo shock devastados noticia declaró liz truss reina roca construido moderno reino unido país gracias dijohoy corona pasa mil años monarca jefe rey carlos iii truss familia rey unimos duelo madre ofrecemos lealtad devoción ofreció isabel ii deja legado conocida isabelina ¡dios salve reyal cabo rey carlos pública declaración muerte querida madre majestad reina supone tristezas miembros familia lamentamos profundamente pérdida querida soberana amada madre</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Politica_44.txt</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -750,11 +870,16 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>haven shepherd milagro mujer catorce meses padres mantenían relación extramatrimonial decidieron acabar vida bebé llamado do thi thuy phuong juntos muertos estremecedora disyuntiva pareja vietnamita siguió plan trazado ató bomba cuerpo sosteniendo brazos pequeña detonó plena destrucción ganó vidahaven do thi thuy phuong sobrevivió milagro puesto explosión lanzó diez metros cabaña vivían padres fallecieron acto fácil salir secuelas físicas emocionales abuela encontró quemaduras metralla cabeza pies destrozados llevó moto hospital gravedad heridas amputaran piernas elevado coste tratamiento pedir ayuda afrontar gastos darla adopciónseis meses pequeña encontró hogar shelly rob shepherd adoptaron vida volvió empezar missouri hermanas chloe haley hannah ivy hermanos sawyer zach bromeaba diciendo niña milagro favorita papá mamá tokyono faltaba razón años viva viva miércoles volverá sumergirse piscina tokyo aquatics centre prueba metros espalda sb culminando sueño lanzando mensaje superación mundo feliz haberme salvado entré shock perdí piernas perdido vida confesó dando lección optimismo descarnadola natación destino coqueteó atletismo destacaba pensó piscina mejorar rendimiento entró juegos tokio expectativa disfrutar plan alguien exprime puedes controlar vida responderás entereza admirablesus cualidades escapan marcas haven trabajado modelo tommy hilfiger experiencia sirvió darse cuerpo perfecto defectos únicos piscina mira jessica long cultiva facetas artísticas pintura lleve tatuado muñeca verbo crear coach ofrece charlas niños acercarles mundo discapacidad idea visitar vietnam volver orígenes ronda cabeza piensa guarda rencor padres biológicos sabido luz oscuridad</t>
+          <t>india recibe mañana presidente unidos barack obama dará tratamiento precedentes gobernante estadounidense viaje consolida política exterior india carácter prioritario delhi otorga relación washingtonobama llega india mes hiciera presidente ruso vladimir putin ministro indio narendra modi cerró importantes acuerdos materia nuclear reafirmó rusia socio importante defensala india pretende convencer inversores estadounidenses apuesten sector nuclear años preeminencia capital ruso área vital seguir creciendo necesita apoyo eeuu admitida organismos internacionales energía atómicamodi busca llegada mayo aliados estratégicos exterior propósito reunió septiembre obama washington camino impulsado relaciones países asiaobama tratamiento precedentes gobernante estadounidense jefe país invitado desfile república india jornada conmemora aniversario constitución portavoz ministerio exteriores indio syed akbaruddin viceconsejero seguridad nacional eeuu ben rhodes reiterado semana alto componente simbólico presencia obama lunes desfileel gobernante unidos principal exportador armas mundo verá desfile militar fuerzas armadas india importador armamento planetala visita obama plagada reuniones modi viene precedida conversaciones contrarreloj energía nuclear países cerrar firmado delhila seguridad zona clave lucha terrorismo yihadista asunto central agenda dirigentes mayores democracias mundoel inquilino casa blanca acude país poblado mundo mercado creciente cientos millones consumidores acompañado secretaria comercio penny pritzker plena vorágine iniciativas políticas modi atraer inversores extranjerosla relación comercial bilateral multiplicado millones dólares anuales reunión septiembre planteó objetivo quintuplicarla nuevoobama llegará acompañado esposa michelle actos memorial mahatma gandhi reunirse almorzar modi espera comparecencia prensa asistir cena oficial presidente indio pranab mukherjeeel desfile militar ocupará mañana lunes medidas seguridad extremas obama espacios abiertos suele habitual actosel gobierno indio pedido ciudadanos alerten posibles terroristas bombas pájaros pudieran entorpecer acrobacias aéreas desfilela jornada concluirá reunión dirigentes empresarios paísesla estancia concluirá martes intervención presidente programa radio modi conferencia conjunta personasbarack obama presidente estadounidense acudir ocasiones india ocasión visitar taj mahal considerado maravillas mundo programa contempla gobernante optar salir directamente delhi rumbo arabia saudí</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Politica_34.txt</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -763,11 +888,16 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>teresa perales recupera luxación vuelve diplomasla nadadora sufrió lesión hombro izquierdo mayo estrenó juegos diplomas metros libres relevo metros libresno obstáculo frene siquiera lesión teresa perales sufrió luxación hombro izquierdo europeo madeira mayo parecía sueño tokio disipaba meses nadando brazo punto oficializaban nombres representantes juegos aragonesa confesaba difícil verla finalsin teresa rindió erre erre car sierra nevada mes rumbo tierras niponas probó quitarse cabestrillo nadar brazos sensaciones tiempos corroboró tokyo aquatics centre participó finales metros libres relevo mixto metros libres firmando quintos puestos diplomasme encuentro currado muchísimo contenta llegado mentir llegué soñar poquito viendo venía mes empecé nadar brazos izquierdo guerra vuelva paso quirófano nadadora años consciente conseguido rozando milagro compitiendo disfrutado salido sonriendo especialmente nerviosa merecía ganas másla flamante premio princesa asturias deporte atesora medallas juegos paralímpicos ido ganando confianza movimientos probado viraje fuerte competición movimientos peligrosos brazo izquierdo mañana vi mantenía sitio tirado miedo cuerpo aguante parada tocar agua mes pico quince nadé brazo duro podido contenta icónica sirena volverá piscina lunes</t>
+          <t>deja sorprendernos capacidad personas soportar adversidad infortunio soportarlo pasara hundiría moriría frases pensado razonamos situación perdido hijo conviven dura enfermedad afrontan pareja violenta educan adolescentes irresponsables pierden deja pareja sufren políticos frecuentes reprimendas insultos alcanzan familia relevantes ejemploslo infortunio alcanza personalmente morimos aprendemos soportarlo naturaleza evolución biológica programado sobrevivir vida deja cambiarla principal poderosa capacidad cerebro mente humana razonar reducir sentimientos negativos proponernos metas objetivos enraizados situación vivimos palabras resistiraun constatamos personas resisten malestar estrés provocan adversidades sufre recupera personas acusan tardan estabilizar físico mental víctima circunstancia anteriormente mencionadas referirse capacidad recuperación personas psicología asumido término resiliencia tomado física ingenieríaen origen término refiere capacidad material cuerpo físico recuperar normal sufrido presión mecánica doblado modificado goma material resiliente doblamos vuelve normal metales contrario presentan menor resiliencia grados psicología persona resiliencia resiliente capaz superar prontitud situación adversa evitando ansiedad depresión volviendo físico mental normalesas diferencias resiliencia personas vienen determinadas factores genéticos educativos huella dejan individuo experiencias personales resiliencia condicionada experiencia estresante contexto particular individuo afronta tratado grupo investigadores instituto neurociencias departamento psicología universidad princeton new jersey eeuu experimento ratones cuyos resultados recientemente publicados prestigiosa revista natureaunque objetarse resultados observado humanos demostrada conservación mecanismos fisiológicos evolución mamíferos sospechar darse especie camino explicar personas capaces afrontar resistir situaciones generalmente estresantes miedo enfermedad oficios empresario educador político</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Salud_5.txt</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -776,11 +906,16 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>paula otero cuarta ángela martínez sexta colaron fiesta emulando mítica canción mecano emperatriz simona quadarella amagó récord europa actuación abre par par puertas futuro nadadoras nacidas margen mejora capacidad enormeestoy contenta cuarto puesto podio comtemplaba año europeo júnior hice bajando marca absolutas increíble guay italianas españolas pequeñas contenta salido paula oterocon puesto sexta contenta regular carrera dura larga centrame aguas abiertas piscina ángela martínezademás relevo mixto × libre octavo europa récord españa luis domínguez sergio celis lidón muñoz carmen weiler tope fijado comenzó jessica vall nadaba quinta consecutiva metros braza salía calle mantuvo posición carrera hectómetro temporada regalo esfuerzo dulce sexta jessica esperar ciclo olímpico quédese dato apreciado lector oro suiza mamie vale actual récord españa jess londres esoturno lidón muñoz apretada castellonense calle semifinal busca complicado top libre intentarlo jornada relevo × libre mixto tela… queda reserva peleó relevo acabo octavo cayendo nochearbidel gonzález puso turbo mariposa puertas europea absoluta éxito joven décimas corte seguir creciendo joanllu pons pesó marca eliminatorias mañana historial merece créditomientras mariposa femeninos alba vázquez mireia belmonte calles exteriores podían progresar complicada continental comentamos pons vale obviamente mireia merece reconocmiento increíble carrera deportiva sensaciones competición parecía imposible arrancó entrenamientos febrero mireia belmonte campeona olímpica río espalda retospara relevo titular récord españa puesto paula ángela titular natatorio alcanzaron techo podio firmado priori quadarellaita myhalyvarihun caramignoliita aparato</t>
+          <t>federación española tiro arco rfeta refrendó sábado pese lamentar profundamente situación creada arquero miguel alvariño inicialmente adjudicó plaza olímpica decisión volver juego billete obtenido españa modalidad individual juegos tokio real federación tiro arco lamentamos profundamente situación creada motivo decisión comisión técnico rfeta obligación velar intereses deportistas rfeta refrendar dicha decisión federación comunicadoen federación española tiro arco recordó plaza individual españa logró gracias tercer puesto alcanzado pablo acha juegos europeos minsk nominal pertenece rfeta federación establece criterios determinar ocupa dicha plaza federación principal objetivo conformar equipo fuerte mayores opciones triunfo creemos residen competiciones equipos línea actuación mueve comisión técnica velar arqueros ocupen plazas olímpicas forma demuestren año disputan juegos olímpicos rfetauna decisión provocó críticas arquero miguel alvariño puesto manos abogados decisión federación revocarle plaza individual adjudicado inicialmente mes febrero juegos tokio lograr puesto proceso selectivo fijado rfeta período federación española tiro arco justificó decisión volver juego plaza individual coherencia criteriossi pablo acha consiguió plaza junio podía garantizar forma julio debíamos tratar garantizar equipo preolímpico equipos obviar criterio miguel alvariño obtuvo puesto sistema selección febrero forma julio cometer acto injusticia deportistas asimismo rfeta decisión argumenta cuestiones meramente deportivasademás querer representante objetiva demuestre mejores condiciones año celebren juegos olímpicos olvidar objetivo principal federación obtener clasificación olímpica equipos dichas plazas pondrán juego año vieneen rfeta decisión revocar plaza concedida inicialmente miguel alvariño cuestiona rendimiento arquero gallego duda cuestiones personales índole venido manifestando decisión atenta principios deportivos básicos designios comité olímpico internacional directrices comité olímpico español comunicados emitidos organismos atletas clasificados tokio mantienen plaza referencia plazas conseguidas individual asignadas nominalmente deportista federacióna rfeta confirmó comité olímpico español listado definitivo representantes acudirían tokio listado provisional formado diez deportistas hombres mujeres técnicos federación española tiro arco lamentó pidió disculpas haberse puesto contacto directa miguel alvariño carácter previo inmediatamente comunicado contábamos semana tratar conjunta situación hechos precipitado esperábamos federación comunicado rfeta confía situación solucione favorable partes implicadas unidos fuertes deporte merece hablemos bondades proezas deportistas concluyó federación</t>
         </is>
       </c>
       <c r="C27" t="n">
         <v>0</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Deportes_43.txt</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -789,11 +924,16 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>carrera salvaje caeleb dressel confirmó rey piscina juegos olímpicos seguramente gane oros categoría masculina quedan estilos libre ganó semifinal minutos oro marposa firmar repóquer tokio fiasco relevo mixto acabó mañana sábado unidos quintaera difícil llenar mitad vacío dejado michael phelps comparativas meritorio ganó medallas oro río janeiro tiburón baltimore escribe página importante deporte mundialdressel batió récord mundo centésimas impuesto mundiales corea prueba mano mano húngaro kristof milak nadador destinado heredar cetro resto nadadores incluido guatemalteco luis carlos martínez centroamericano llegaba olímpica vieron estela ambosel americano apareció pañuelo lucido presencias piscina azul estampado vacas pertenecía profesora matemáticas instituto falleció cáncer pecho acudir poyetes librando batalla psicológica milak esperaba poyete interpretar agua combate fascinantela estrella hombro aguila símbolo país tatuado emergió posición metro brazada poderosa distanció cuerpo milak perdía centésimas voltear dressel tocado pared marca formidable phelps pekín comparar milak bañador intacto metió velocidad másnoe ponti broncefue logró vuelta suficiente arrebatar dressel medallas cotizadas natación mundial momentos magiar rebajó récord olímpico impuesto flamante campeón eliminatorias puso tope continental eón bronce suizo noe ponti superó ruso minakov</t>
+          <t>audi anunció finales agosto entraría fórmula proveedor unidades potencia confirmara octubre unión sauber actual alfa romeoel permitirá sauber actuar socio estratégico equipo audi desarrollando chasis base hinwil suiza unidad potencia gestionada compañía perteneciente grupo volkswagen neuburg alemaniaaudi detalles ampliación instalaciones neuburg cabida proyecto iniciar construcción edificio metros cuadrados albergará bancos pruebas desarrollo unidad potenciael edificio conocido forma ampliación competence centre motorsport inaugurado albergaba proyectos oficiales competición audi campeonato mundo resistencia fórmula rally dakarla ampliación debería terminada trimestre primeras actividades deberían realizarse marzo añocon competence centre motorsport base ideal proyecto fórmula oliver hoffmann miembro consejo administración audi desarrollo técnicoaudi neuburg diseñó principio abordar proyectos exigentes automovilismo previsión dando frutos instalaciones existentes pudimos empezar inmediatamente proyecto fórmula dijola ampliación creará infraestructura necesaria desarrollo unidad potencia plazo ampliación edificio instalación bancos pruebas generación dando equipo desarrollo mejores condiciones posibles éxito máxima categoría automovilismodesde anuncio planes audi llevado cabo campaña contratación personal incorporado empleados fabricante alemán objetivo superar barrera mediados desarrollar unidad potencia serie carreras exigente mundo alemania reto adam baker supervisa planes audi fya equipo instalaciones neuburg an der donau crecer finalizó</t>
         </is>
       </c>
       <c r="C28" t="n">
         <v>0</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Deportes_1.txt</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -802,11 +942,16 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>lamento hugo gonzález semifinal estiloskatie ledecky pierde gana llora minutoscaeleb dressel explosión velocidad abrir bocahugo gonzález estilos encontrar semifinales sensaciones progresar aquatics centre tokio español acabó sexto parciales auguraban entrar mejores contrario series llevaron espalda debía obtener plaza campeón europalos juegos entorno distinto competencia emociones clasificados semifinal empezar europeo chino estadounidense japonés shun wang nadó hugo gonzález serie quedarse centésimas entrar veterano laszlo cseh añosno excusas español claramente decepcionado perdí décimas recuperé sentí anteriores prosiguió dejar duda inquietante micrófonos cadena cope espero carrera juegos ayudas becas determinan puestos estilos hándicap español alcanzó espaldauna distancia dueñoa años gonzález ve ciclo olímpico plenitud conduce parís explosión acaba producirse título medallas europeo budapest deberá definir diseñar preparación nadador canoe modificó programa entrenarse unidos hugo concede importancia capital progresiónlas malas sensaciones evidentes semifinal cambió respiración obtener mejores referencias remontar teoría fuertes braza libre octavo paso mariposa mejoró sexta plaza siguientes tiempos paso hacían temer lento acreditado oro continental mayo récord nacional repetirlo opciones podio estilos abiertos tokio prueba campeón especialidad chase kalisz entrara michael phelps ryan lochte espera dueñosorpresa espaldaa mala noticia natación española soñaba medalla mallorquín precedió años nico garcía adelantado progresión finalista joven espalda masculinas especialidad representante español destacarel nadador gredos resignó acumular experiencia debut olímpico semifinal bocado décimas marca dejarla tercero administrar fuerzas especialmente tercer exprimir energía restante remontar puesto marca nacional conseguida bañador textil próxima madrugada éxito nadador futuro mejorar tiempos señalado clave citas justo falló hugo gonzálezla alcanzarla jessica vall catalana concluyó sexta semifinal braza serie años ciclo olímpico toca espera mireia belmonte líder natación española claroscuros</t>
+          <t>ministro japón naoto kan influyente parlamentario ichiro ozawa presentado miércoles candidaturas presidencia gubernamental partido democrático pd cuyo titular jefe ejecutivo nipónozawa años despojar kan puesto desempeña junio elección interna celebrarán septiembre militantes pd cuyo resultado reñidoeste miércoles comienza campaña proceso electoral interno partido presentación ambas candidaturas secreto voces ozawa conocido japón shogun señor feudal sombra reiterase retiraríakan pedido presentara elección provocar cisma político país suma ministros años logró convencer ozawa reunión celebrada martes tardelos sondeos opinión señalan japoneses favorables kan permanezca puesto dependerá elección interna partido quinta japón septiembre sistema político japón presidente partido gobernante ministro cuya elección refrendada dieta parlamentocinco jefes gobierno añosdesde septiembre japón jefes gobierno durado año yukio hatoyama designado urnas agosto elección interna partido poderlos analistas japoneses creen lucha presidencia pd dura atreven pronosticar resultado depender facción liderada hatoyama apostado públicamente ozawaichiro ozawa políticos poderosos japón representante vieja guardia aparato pd conocido manejos bambalinas sobrenombre shogun sombrareconocido artífice victoria electoral pd puso décadas gobierno partido liberal demócrata pld ozawa cambiado ocasiones partido investigado ocasiones financiación ilegalun militantes partido democrático elegirán septiembre presidente comicios internos controlarán parlamentarios fuerza políticadesde septiembre japón jefes gobierno partido liberal democrático shinzo abe yasuo fukuda taro aso pd yukio hatoyama naoto kan</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Politica_40.txt</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -815,11 +960,16 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>australiano acordó separación anticipada mclaren año asociación diera resultados esperabandespués sopesar opciones ricciardo finalmente aceptó convertirse tercer piloto red bull próxima temporada mente volver competir completo cuestionado ricciardo tomado camino mantenerse ambiente paddock ceo mclaren brown cree red bull ofrecerle oportunidad inmediata demostrar necesita ganar fbrown cita nyck vries desempeñó piloto reserva mercedes sustituto alex albon williams gp italia consiguió asiento titular alphatauri mira pasó nyck sesión brown convirtió propiedad calienteasí tipos red bull pudiera correr razón ricciardo subiera llevara coche cambiar abrir cerrar ojospreguntado motorsportcom posibilidad disputar carrera red bull perspectivas ocupado asiento completo haas brown difícil vas haas vences kevin magnussen forma volver radarla piloto red bull contagie covid coche ganador salga ganar carrera vuelva parrilla difícil oportunidadbrown sorprendió ricciardo captado equipos disponibleme sorprende equipos buscaban pilotos seleccionaran equipos interesado conducir seleccionadopero seguir juego ganó monza año victorias carreras ganadas capaces desbloquearlo esperemos ambiente desbloquee gustaría daniel parrilla</t>
+          <t>organización mundial salud oms recomendó miércoles vacuna malaria niños viven regiones alto riesgo transmisión enfermedad áfrica subsaharianala vacuna desarrollada áfrica científicos africanos inmunización enfermedad parasitaria viral elaboración tomó añosel director agencia onu calificó histórico afirmando deseada inmunización segura salvar vidasesta esperada vacuna malaria representa avance ciencia salud infantil control malaria vacuna herramientas existentes prevenir enfermedad salvar decenas miles vidas jóvenes año tedros adhanom ghebreyesus conferencia prensa ginebrainformó recomendación viene programa piloto años niños ghana kenya malawi países agradeció participación ensayostedros destacó programa mostró inocuidad vacuna detuvo pese pandemia coviddel programa continuó aprendimos vacuna segura reduce significativamente casos malaria grave peligro muerte estimamos costo asequibleal referencia avances logrados lucha paludismo subrayó decesos disminuido mitad padecimiento eliminado lugares nivel global progreso estancado nivel inaceptablemente alto recalcóla malaria paludismo enfermedad transmitida mosquito año afecta millones personas causa muertes tercios niños africanos menores añostedros enfatizó pese llegada vacuna gente bajar guardiaesta herramienta poderosa vacunas covid única herramienta vacunación malaria reemplaza reduce necesidad medidas incluidos mosquiteros atención médica fiebre enfatizóel responsable oms advirtió paso dirección correcta queda camino recorreresta vacuna regalo mundo sentirá áfrica carga malaria apuntóel desarrollo inmunización apoyo farmacéutica glaxosmithkline fundación bill and melinda gates gavi alianza vacunas actoresen conferencia prensa participaron expertos oms sumaron doctor tedros resaltando inocuidad vacunacon efectos secundarios observados indicaron benignos citando niños fiebrepor agregaron determinado necesaria dosis refuerzo requiere observacióncoincidieron vacuna abre puerta elaboración otrassabemos vacunas desarrollo apuntó doctor alejandro cravioto presidente grupo estratégico expertos inmunización organización mundial salud encargado analizar procesos emitir recomendaciones vacunascravioto positivo proyectos vacuna lleven cabo llegado grupo evaluar fases desarrollo recomendarlaslos científicos hincapié importancia única vacuna malaria manufacture distintos lugares suficiente abasto acotaronel entusiasmo generado vacuna mantiene nivel contar fondos necesarios beneficios verdaderamente masivosel director programa global malaria oms meses críticos definir mecanismos financiamiento garanticen capacidad producción existente niños puedan vacunadosse requerirán recursos financieros oportunidad mostrar éxito vacuna malaria oportunidad solidaridad mundial generen recursos aseguren niños africanos beneficiarse vacuna hagan futuro lejano puntualizó pedro alonso</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Salud_56.txt</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -828,11 +978,16 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>gasly sumó puntos cualquiera anteriores temporadas completas terminando noveno campeonato unidadesaunque gasly repetir sorprendente victoria monza francés consiguió podio azerbaiyán top carreras vio bandera cuadrosalphatauri perdió frente alpine lucha quinto puesto campeonato constructores terminando puntosgasly difícil diferencia pequeña equipos larga temporada sentía animado rendimiento alphatauri campañalo conseguido equipo miramos años anteriores alphatauri toro rosso increíble gaslyasí orgulloso chicos esperanzado año demostrado año rendir niveles altosaunque gasly creía superara temporada diciendo superar sensación victoria oportunidad luchar regularmente líderes media ferrari mclaren mantenido motivadocomo temporada completa carreras debo disfruté gaslyllegar semana carreras sabiendo vas luchar puntos vas luchar ferrari mclaren emoción diferentedebo encantado año realmente espero año vienealpine consiguió distanciarse alphatauri lucha quinto puesto finales año impulsado podio fernando alonso quinto puesto esteban ocon qatar ocon consiguió sorprendente victoria equipo hungría sumado puntos importantes quinto lugargasly bromeó diciendo pena saquemos resultado año elogió alpine trabajocreo podríamos terminado quintos gaslysigo orgulloso conseguido conseguido puntos sucede alpha tauri disfrutado temporadasé año cuentas contento visto equipo rendir esperanzas año viene</t>
+          <t>ministro interior fernando grandemarlaska respecta situación cataluña soluciones política judicial cruzarse nuncaen entrevista publica domingo diario país titular interior declara problema político catalán comunidad solución política resolver generar ambiente tranquilidad marco constitucional satisfacción conjunto involucrados mantiene hechos naturaleza delictiva corresponde justicia cosa ámbito actuación quedar caminos distintos cruzarse explica titular interiora añade prisión provisional medida excepcionalísima aplicación determina juez tribunal competentepreguntado juez ve delito rebelión procés grandemarlaska responde decidir tribunal competenteasimismo manifiesta confianza mossos desquadra máximasobre palabras delgadosobre explicaciones recibido ministra justicia dolores delgado relación conversación mantuvo excomisario josé manuel villarejo grandemarlaska responde hablado públicolo importante hechos actitudes conociendo compañera sentí ofendido agregael ministro declara constancia filtraciones provengan excomisario villarejo gusta imputaciones datos contenido filtraciones forma difunde medios creados profeso voluntad intoxicar estadono elemento grupo personas relacionadas relacionadas presente riesgo instituciones explica cloacas estadosobre palabras carmen calvoen entrevista interrogado palabras vicepresidenta gobierno carmen calvo torno regular libertad expresión ministro interior responde libertad expresión base derecho entendemos actualidad movimientos preocupantes quieren perturbarlamuchos ámbito digital convertido voceros llega finalidad preguntatambién pronuncia asaltos vallas ceuta melilla entiende ataque violento frontera consecuencia legal</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Politica_15.txt</t>
+        </is>
       </c>
     </row>
     <row r="32">
@@ -841,11 +996,16 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ministerio inclusión seguridad social migraciones dirige ministro josé luis escrivá vuelto convocar patronal sindicatos seguir negociando fase reforma pensiones reunión lunes gobierno difícil lograr respaldo agentes sociales reforma rechazo frontal despertado propuesta escriva ampliar años periodo cálculo base reguladora pensión posibilidad eliminar peores mensualidadesde máximos líderes cc oo unai sordo ugt pepe álvarez apresuraron negar rotundamente vayan siquiera sentarse negociar propuesta gobierno garantías político permita aprobar propuesta parlamento parecido indicaron flanco empresarial patronal visto malos ojos ampliación periodo cómputo pensión propuesta presentar gobiernos ppasí sordo sindicato labor hablar medida consenso político suficiente negociar previamente consenso político líder cc oo acto seguido actualidad mayoría parlamentaria suficiente propuesta salir congreso diputadospor secretario ugt reconoció posibilidad llegar fase reforma pensiones dificultades fase mostró profunda decepción desacuerdo ugt propuesta ejecutivo conocida lunes ejecutivo empeñado aumentar años calcular pensiones solución contrario álvarez criticó propuesta gubernamental recoge reivindicaciones sindicales premiar carreras largas cotizaciónpor empresarios considerado fórmula cálculo pensión evolucionar carrera laboral vicesecretaria ejecutiva asociación autónomos ata principales organizaciones ceoe celia ferrero pese ampliación beneficiaría expulsados mercado laboral años carrera profesional problema forma propuesta ampliar periodo cómputo base reguladora recomendaciones pacto toledoeste argumento usados sindicato cc oo exigir político previo sentarse siquiera negociar definitiva interlocutores sociales quieren ocurrir reforma laboral rechazada congreso equivocación diputado pp pese fruto socialahora escrivá pactó bruselasa finales ministro seguridad social josé luis escrivá difundió ministerios económicos documento pactado bruselas elevar periodo cálculo pensión años supondría recortar pensiones levantó ampollas gobierno unidas sindicatos finalmente documento enviado bruselas compromiso rebajó concreción siguió recogiendo españa ampliaría periodo escrivá negó saciedad propuesta existido secretario seguridad social borja suárez reconoció propuesta sacada manga compromiso adquirido bruselas plan recuperación</t>
+          <t>anduva vive duelo urgencia mirandés necesita sumar puntos frente albacete abandonar zona descenso partido directo ascom victoria garantizado discípulos joseba etxeberria vieron frenada racha partidos seguidos perder caer mínima oviedo remate palos equipo rojillo tartiere pobre bagaje buscar permanencia categoría platael preparador guipuzcoano incidiendo contundentes área rival esperaba impaciencia vuelta titularidad raúl garcía haro máximo artillero jabatos dianas delantero catalán participar juego marcar diferencias punta ataque recuperado lesión etxeberria confía plenamente desgaste provoca defensa contrariaapenas esperan cambios once mirandesista alfonso herrero asentado palos prados oriol rey centro campo principal duda lateral derecho veremos finalmente técnico rojillo sitúa raúl parra recuperarse edema óseo fémur apostando centrocampista juanlu posición extremo jofre entra convocatoria caen nico javi serrano santospor albacete seguir alejándose zona peligro sábado busca anduva triunfo permitir dormir playoff importante victoria racing santander conjunto manchego paso gigante acerque permanencia ganando mirandés rubén albés plantilla disponible lesionados johannesson javi jiménez portugués reymao quedado convocatoria decisión técnica técnico gallego recupera hombres importantes riki boyomo álvaro rodríguez apuntan titulares once equipo blanco visitante curso sumado puntos casilleroclaves partidoverticalidad equipo rojillo necesita buscar ahínco portería contraria jugadores victoriauno equipos revelación albacete regreso fútbol profesional protagonizando inicio temporada puesto conseguido sumar puntosbalón parado acciones estrategia faltas esquina claves mirandés acertado facetabuen visitante equipo blanco sumado puntos domicilio rival incómodo equipos juegan localesases seguirherrero portero rojillo encuentro transmite seguridad palos resto compañerosmaikel mesa centrocampista canario exjugador mirandés fijo rubén albés cuadro manchego suma goles temporadaaltas bajasmirandés simón moreno continúa recuperándose grave lesión santos nico serrano javi serrano perderán duelo albacete jofre entran convocatoriaalbacete javi jiménez johannesson bajas lesión albés recupera boyomo álvaro rodríguez rikideclaraciones previasjoseba etxeberria entrenador mirandés semana exigente entrenamientos volvemos jugar casa objetivo debemos fuertes anduva naturalidad seguir mejorando carrera fondo laliga smartbank problemas eficacia partidosel inicio temporada albacete resultados juego equipo intenso cómodo ritmos altos respetamos rival plantearnos allá partidorubén albés entrenador albacete posibilidad introducir cambios dependerá ocurra anduva martes encuentro mercado invierno pienso pierdo pasará futuroel mirandés rival exigente minimizar errores portería tratan imprimir ritmo alto raúl acertando convierte rival difícil victoria dejaremos diferencia importante puntos</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Deportes_23.txt</t>
+        </is>
       </c>
     </row>
     <row r="33">
@@ -854,11 +1014,16 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pp pedirá comparecencias documentación reunión comisión parlamentaria investiga atentados secretario pp ángel acebes explicado partido pretende trabajos prosigan agote investigación resto partidos prefiere pasar redactar conclusioneslos grupos parlamentarios decidir comisión continúa definitivamente cierra partidos pp mostrado claramente partidarios concluir trabajos comisión comparecencias semana presidente gobierno representantes víctimassegún informado elmundoes fuentes pp escrito incluye comparecencias solicitadas anterioridad celebrado petición declaren miembros fuerzas seguridad asturias guardia jesús campillo agente grabó cinta cancienes cofidente lavandero alertaba red tráfico explosivos asturias capitán marful comandante jambrino teniente coronel fernando aldea comisario policía avilés responsable operación pípol jefe superior policía asturias juan carreteroademás pp solicita testifiquen comisión confidentes francisco javier villazón lavandera josé ignacio fernández díaz nayo denunció existencia zulo explosivos habilitado antonio toro emilio suárez trashorras peticiones testimonios completan subsecretaria ministerio interior soledad lópez fernández conocida opinión juez descoordinación atención víctimasrespecto documentación pp solicita sumario sometida secreto judicial informe relaciones etarras islamistas cárceles aludido ofrecido presidente gobierno josé luis rodríguez zapatero comparecencia diciembretambién pide informes cni ofrecidos zapatero autoría atentados investigaciones escrito solicitud ministro interior comisaría información documentación utilizada jefe ejecutivo citada sesión parlamentariadiversa documentación operaciones policiales denominadas serpiente pipol informes relacionados investigaciones control explosivos asturias encuentran peticiones pp traducción cinta coránica encontrada furgoneta abandonada alcalá henares marzotodas solicitudes hechas pp comisión responden secretario pp ángel acebes calificó declaraciones congreso necesidad aclarar incógnitas interrogantesla operación pípol llevó cabo julio diversas localidades asturianas permitió desarticulación red traficantes drogas integrada personas presuntamente formaban antonio toro cuñado emilio suárez trashorras arrestados imputados traficar presuntamente explosivos usaron atentadosen agosto investigaciones denominada operación serpiente llamada enmarca club nocturno gijón habitualmente cita delincuentes manejan serpientes espectáculos striptease confidente francisco javier villazón lavandera alias lavandero guardia civil diversas actividades toro trashorras relacionadas venta explosivos escala confesión grabada jesús campillo veiga guardia civil información cinta</t>
+          <t>organización mundial salud oms anunció lunes viruela mono denominará mpox raíz informes lenguaje racista estigmatizante rodea nombre enfermedadla decisión produce serie consultas expertos mundo agencia onu indicado términos utilizarán simultáneamente año elimine nombre viruela monoesto sirve mitigar preocupaciones planteadas expertos confusión causada cambio nombre brote mundial oms comunicadola viruela mono enfermedad vírica rara zonas selva tropical áfrica central occidental año surgido brotes partes mundo mediados noviembre extendía países casos confirmados laboratorios registrado muertescuando brote actual extendió diversas zonas mundo organización mundial salud recibió denuncias lenguaje racista estigmatizante produjo internet entornos comunidadesen reuniones públicas privadas personas países plantearon preocupación pidieron organización propusiera camino cambiar nombre agenciael nombre viruela mono años descubriera virus causa enfermedad monos cautivosesto agencia onu publicara mejores prácticas nombrar enfermedades directrices recomiendan nombres enfermedades tratar minimizar impactos negativos innecesarios comercio viajes turismo bienestar animalestambién evitar ofender grupo cultural social nacional regional profesional étnicola oms asigna nombres enfermedades excepcionalmente existentes proceso consultivose invitó expertos médicos científicos representantes autoridades gubernamentales países público presentar sugerenciasa consultas discusiones posteriores director organización tedros adhanom ghebreyesus agencia recomendado adopción sinónimo mpoxpara cambio nombre justificación idoneidad científica alcance actual pronunciación facilidad idiomas ausencia referencias geográficas zoológicas facilidad recuperación información científica históricala oms adoptará término mpox comunicaciones anima seguir</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Salud_49.txt</t>
+        </is>
       </c>
     </row>
     <row r="34">
@@ -867,11 +1032,16 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>gobierno vetado tramitación proposición ley psoe suprimir tasas judiciales alegando aprobación haría perder millones euros año mesa congreso votos pp ciudadanos aceptado veto decimoséptimo presenta ejecutivo legislatura iniciativa llegará debatirsela propuesta psoe pretendía eximir pago tasas judiciales entidades fines lucrativos supuestos excepcionales entender mantener pagos supone debilitamiento mecanismo valer derechos constitucionales estatutarios papel entidades vitalen escrito veto acceso europa press gobierno replica ampliar exenciones pago tasas provocaría minoración recaudación anual concretamente pérdida aproximada millones euros anuales millones supone recaudación totalel ejecutivo añade recaudación tasas judiciales forma presupuesto ingresos reducirse conllevaría desequilibrio gastos ingresos efecto directo déficit públicorecuerda iniciativa psoe fija enero fecha entrada vigor presupuestos vigentes prorrogados hacienda resuelve permiso tramitar iniciativa provoca disminución ingresos presupuestarios previstosel escrito veto decimoséptimo registrado gobierno llegado martes mesa congreso aceptado mayoría pp ciudadanos explicaciones ejecutivo psoe unidos votado pedían ignorar vetose cuarta iniciativa oposición supresión tasas judiciales viene vetando gobierno une similares unidos ciudadanos grupo mixto casos mesa congreso acabado aceptando argumentos gobiernode vetos presentado gobierno congreso rechazado relativos iniciativas psoe paralizar ley orgánica mejora calidad enseñanza lomce igualar condiciones laborales trabajadores subcontratasambas iniciativas podido seguir tramitación superaron votación pleno congreso toma consideración gobierno mantenido disconformidad apunta acabará presentando conflicto atribuciones tribunal constitucional</t>
+          <t>rescate grecia finalmente consumado probable descorche champán cancillería alemana naturalmentees difícil encontrar abismo grande retórica oficial rescate ayuda grecia corriente fondo real triunfo político angela merkel costa grecia trabajadores europeos valores tradicionales uniónlos efectos ayuda grecia terribles causa estupefacción seguir leyendo ayuda triunfo solidaridad europea sintetiza andreu missé editorial número alternativas económicas puestos causar escalofríos años ayuda troika salarios grecia reducido pensiones consumo producto interior bruto caído cifra guerras paro acerca mundo rescate empeorará cuadro acompañado urgentemente quita impagable deudasin sufrimiento balde servido entronizar angela merkel emperadora uela mandataria ordoliberal máxima crisis oportunidad conseguido tormenta eurozona desatada atenas avances frentes político económico liderazgo partido capital alemánen años sangre sudor lágrimas clases populares griegas merkel conseguido pasar rescate ayuda acreedores –y particular bancos alemanes recuperen capital prestado irresponsablemente años burbuja tópico griego manirroto incapaz gestionar seriamente semejante caudal ayuda realidad sucesivos rescates ido dirigiendo directamente pago acreedoresantes crisis unión europea club guardaba formas decisiones tomaban ocasiones esbozaba núcleo duro potencias clave proyecto europeo francia alemania quedado manda merkel realidad desnuda especialmente sonrojante françois hollande cuyo papel comparsa asestado durísimo golpe proyecto europeo imaginario alternativa progresista margen maniobra presidente potencia europea francia apaga vámonosel triunfo merkel –y alexis tsipras colocado frontispicio ue siglas fetiche margaret thatcher tina there is alternative castellano alternativa sueño thatcher convertido finalmente realidad discípula formada paradójicamente partido stalinista europa occidentalesta música sobras conocida pista baile semana conclusión formal tramo rescate coincidido concatenación noticias ponen evidencia corriente real fondo –los avances merkel cháchara ayuda greciael lunes instituto halle investigación económica sede berlín presentaba estudio muestra crisis euro práctica beneficio millones euros alemania podido financiarse coste entorno volátil precario emisión deuda alemana atrae imán mercados buscan seguridad permite presten dinero gratisel financial times dedicaba gráfico portada correlación cotización euro exportaciones alemanas correlación evidente caída euro corresponde aumento exportaciones alemanas evidentemente tramo enésima crisis griega hundido cotización euro situarla paridad dólar disparado exportaciones alemanas semestre subido relación periodo récordy suficiente financial times daba miserias partido socialdemócrata alemán spd socio gobierno merkel teoría principal alternativa histórico partido emblema socialdemocracia europea bajas intención voto puntos partido canciller derrotismo absoluto extendido filas incluida direccióncon crisis griega euro merkel humillado francia entronizada emperadora ue asegurado bancos alemanes cobren debían griegos ahorrado millones euros financiarse mercados coste colocado exportaciones alemanas cifras récord hundido principales rivales políticos alemania europa cuelga cartel alternativala crisis remite significa</t>
         </is>
       </c>
       <c r="C34" t="n">
         <v>2</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Politica_35.txt</t>
+        </is>
       </c>
     </row>
     <row r="35">
@@ -880,11 +1050,16 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>psoe exige explicaciones ministro josé ignacio wert considerado preciso revisar sistema universitario becas wert otorgan función rentas rendimiento académico alumno declaraciones creado rechazo oposiciónpara socialistas paso atrás elpluralcom portavoz educación congreso secretario educación mario bedera ve indicios retorno épocas pasadasp ¿por afirman paso atrásr teoría beca premio derecho sustentar partido popular desigualdad desintegrar cohesión social clara involución significa paso atrás años vuelven sistema paternalistap ¿qué cambiar gobierno aznar planteaba equis millones becas criterios renta académicos subían nivel número peticiones presentadas hicimos cambiar método estableciendo principio límite presupuestario número becas solicitadas umbral requerido año planteamos becas derecho establecimos umbrales renta existía derecho beca exigían criterios académicos mantener becap crisis económica ¿qué ocurriór años crisis chicos encontraron situación precisar becas seguir estudios aumentar presupuesto año alcanzamos millones euros becas hablamos becas bachillerato fp enseñanzas artísticas universidadp ¿qué situación chico cuya familia pagar estudiospues inferioridad condiciones abrir abanico puedan puedan pagarse estudios quieren primar excelencia pp revisar sistema pedir calificaciones altas contemplar umbral socioeconómico imaginemos chaval ayudar familia dispone estudiar frente situación familiar dedicarse exclusivamente estudios partimos base injustap ¿pierden interés estudiarpues olvidar efecto incentivación becas incentivan afán estudiar difícil obtenerlas igualdad supone desalentar chavales pp becar puedan prepararse crear becas selectivas dividirán sociedad promocionar familias costear estudios hijos estudiaran pagar demás… buscarse vidap ¿qué plantearán ministrovamos preguntarle wert cree becas derecho avisaremos vigilantes cantidad becas concederán beligerantes cumpla igualdad oportunidades</t>
+          <t>años toma posesión presidente populista méxico vuelto avivar ardiente base políticaaunque constitución méxico impide presentarse reelección presidente andrés manuel lópez obrador conocido acrónimo amlo decidido candidato partido continúe movimiento llevó ofreció impresionante demostración fuerza política movimiento sacar cientos miles simpatizantes calles ciudad méxico marcha culminó discurso céntrica plaza zócalo capitalson años gente quería expresarlo manifiestan tema presidente rueda prensa lunes cuéntanos demostración fuerza política produce crítico lópez obrador gobierno enfrenta crecientes críticas organizaciones derechos humanos oposición luchas intestinas partido gobernante morena mantiene alto índice aprobación sucesor inspirar fervor similar amlo políticos populares polarizadores historia méxicola oposición existepor lópez obrador asumió cargo oposición mexicana encontrado finalmente equilibrio años desorden unido propuesta presidente reformar sistema electoral país iniciativa detractores califican ataque democracia méxicoa principios mes decenas miles personas participaron marcha ciudad méxico defensa instituto nacional electoral probablemente marcha oposición presidente asumió cargo duro reproche afirmaciones adversarios pequeña élitefue clara señal oposición fragmentada tony payan doctor ciencias políticas experto política mexicana instituto baker universidad rice gente idea clara país sistema electoral libre justoel presidente partidarios afirmado marcha domingo reacción marcha oposición celebración logros cargoel presidente méxico andrés manuel lópez obrador zócalo ciudad méxico noviembre mario guzmánefeel propósito celebrar años gobierno allan pozos ayudó movilizar manifestantes bastión morena iztapalapa barrio clase trabajadora capital confrontar derecha mensaje contentos gobierno tenemosla marcha ambiente festivo recordaba carnaval simpatizantes vitoreando presidente bandas mariachis cantando serenata lópez obrador vestido sencilla camisa blanca rodeado multitud fervientes admiradoressin críticos consideran descarada maniobra política participantes trasladados autobús país administraciones locales políticos partido presidencial morena movimiento regeneración nacional promesa amlo gastaría peso dinero público marchaelizabeth garcía vilchis responsable redes sociales oficina prensa presidente rechazó tales afirmaciones considerarlas racistas insultantes seguidores presidente pertenecen mayoría clase trabajadora méxicoa favor presidentepara analistas acusaciones dinero público utiliza apoyar presidente partido remontan época autocrática partido revolucionario institucional pri gobernó méxico forma ininterrumpida años año décadas presidentes pri llevaban autobuses llenos gente marchas ciudad méxico promesa comida dinero utilizaban poderosos sindicatos país aumentar participaciónmorena tomado tradición política mexicana enterrarla corregirla mantenido forma política genaro lozano politólogo columnista periódico conservador reforma prometieron forma política fracasadosin allá cuestionable política partidista analistas afirman marchas gobierno oposición muestra profunda polarización méxico aumentar elección lópez obrador división presidente partido tratado fomentar aprovecharen años méxico transitado camino polarización fuerte explica lozano clivaje fuerte méxico izquierda derecha favor presidente</t>
         </is>
       </c>
       <c r="C35" t="n">
         <v>2</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Politica_32.txt</t>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -893,11 +1068,16 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>falta metodología científica perspectiva género única razón mujer sufre discriminación vacunación coronavirus puesto manifiesto invisibilidad cuerpo mujer medicina informe farmacovigilancia agencia española medicamentos productos sanitarios señala mujeres notificado efectos secundarios vacuna estudios centrados cuerpo femenino único campo mujer discriminada salud sexual menstrual centros atención primaria educación afectivosexual definitiva perspectiva género aspectos sociales médicos culturaleslas responsables igualdad psoe madrid comunidad madrid lorena morales beatriz gimeno loreto arenillas respectivamente atendido elpluralcom hablar carencias sociedad dominada patriarcado gobiernos reniegan feminismo caso isabel díaz ayusolas mujeres importábamos problemas mujeres tabú cuerpo femenino remarca lorena morales responsable igualdad psoe comunidad madrid comunidad madrileña tipo atención específica salud sexual menstrual reproductiva única comunidad gratuidad acceso píldora anticonceptivos modernos educación igualdad afectivosexual herramienta luchar violencia género cambio regiones tasa interrupciones voluntarias embarazo presenta experimentado aumento preocupante violencia sexual aumento violencia sexual medicina centrada hombrela mayoría estudios farmacológicos salud vacunas… cuerpos masculinos muestra reciente vacunas coronavirus estudiantes estudian sucede cuerpos masculinos femeninos infarto síntomas distintos hombres mujeres repitiendo partes síntomas masculinos explica beatriz gimeno responsable área igualdad exdirectora instituto mujermorales allá medicina centrada hombre machismo patriarcado estructuras vista menstruación menopausia climaterio siguen tabú medicina atención mujeres colegios edad adulta hablar funcionamiento cuerpo mujer mujeres hable cuerpos allá cuerpo sexual deseo pasa llegamos menopausia pasa cambios hormonales climaterio órganos genitales… añadeuna vista semejante ofrece loreto arenillas portavoz madrid comisión mujer cuyo grupo político presentado proposición ley solicitar gobierno realice estudio farmacovigilancia posibles efectos secundarios vacunas coronavirus salud mujeres problema estructural sesgo masculino sociedad mirada excesivamente masculina sociedadpolítica antifeministadesde medicina incorpora atención mujeres diferencias biológicas presentan prestando atención adecuada mitad ciudadanía educación educa niños niñas perspectiva género imposible erradicar violencia sexual machista tipos violenciasen gobierno isabel díaz ayuso comunidad madrid claras deficiencias notable desinterés desigualdad sucesivos gobiernos pp ido cerrando centros planificación familiar puso marcha psoe queda centro planificación familiar comunidad madrid puntilla año alcalde almeida cerró fines semana único centro atención sexual juventud precisamente semana suelen surgir problemas explica moralesel componente salud sexual reproductiva contempla ley aborto comunidades autónomas desarrollar competentes sanidad educación desoído equipo ayuso plan aprobó reconocía gratuidad píldora anticonceptivos modernos aprobar formalmente aplicado avanzado plan aplicado denuncia moralesno atención salud sexual centros atención primaria salud menstrual completamente desatendido niñas entiende menstruación ciclos… deterioro grande necesidad perspectiva género aspectos sociales médicos culturales comenta loreto arenillas beatriz gimeno añade comunidad madrid política haga perspectiva género poniendo comisión fomentar natalidad anunciado ayuso llena hombresayuso gobierno política antifeminista olviden feminismo antifeminista activa vox juega antifeminista asegura diputada podemospero comunidad madrid destinó igualdad dinero correspondía pacto violencia género consejería hacienda madrileña destinado consejería políticas sociales millones euros gobierno central transfirió madrid política violencia machista ayuso recortado mitad inversión políticas igualdad violencia machista añosel tabú menstruaciónson años tabú menstruación utilizado ejercer violencia desigualdad mujeres visto signo vida gimeno regla menopausia climaterio consecuencias parto incontinencia urinaria parto comenta morales arenillas remata niñas entienden menstruación ciclos siguen pasando tampones compresas escondidasla menstruación común mujeres vidas tema escabroso hora hablar anuncios publicitarios compresas siguen mostrando sangre azul sangre menstrual diese asco mujeres esconden hora pedir sacar tampón compresason mujeres problemas acceder productos higiene femenina acogidos iva impuesto tomarse café bar cine pobreza menstrual alcanza mujeres comunidad madrid razón madrid plantear gratuidad productos necesiten disponibles edificios públicos formación mónica garcía proposición ley salud menstrual proponen implementar línea educativo acabar tabús estigmala importancia educaciónla educación aspecto fundamental crear conciencia avanzar sociedad igualitaria afecta igualdad relacionado educación perspectiva género falta educación violencias desigualdad social brecha salarial brecha cuidados cuerpo mujer incorporado experimentación…por educación afectivosexual pilar lucha violencia género impartir niveles educativos adaptaciones edades ayuda explicación procesos transcendentales tales construcción identidad género relaciones afectivas sociedad diputadas consultadas coinciden educación fundamental igualdaden cambio comunidad madrid impulsa tipo educación comentan morales arenillas años taller educación igualdad incluía pequeña educación afectivosexual impartió meses alumnadogimeno contundente educación afectivosexual fundamental combatir desigualdad violencia cambiamos hombres ejercen violencia políticas públicas hagamos mujeres acabar violencia políticas conseguiremos proteger ayudar víctimas hombres cambia leyes cambia educación niños adolescentes forma cambia sociedaden ayuso fijado prioridad natalidad discurso pleno investidura natalidad criterio morales aspectos prioridad natalidad prioridad igualdad hombres mujeres impulsar tipo medidas conciliación ayudarán mujeres madres libertad ayudas conciliar flexibilicen condiciones laborales ayudas niños requieren educación especial necesidad atención temprana empezar apoyar mujeres niños sentencia</t>
+          <t>fronteras personas participaron saltoun centenar inmigrantes logra entrar melillaproceden fundamentalmente mali guinea conakryen producido intentos salto personas entraron españauno subsaharianos operado fractura tibia peronéunos inmigrantes permanecido encaramados valla horasvea álbum imágenes salto vallainmigrantes encaramados valla melilla martes foto stringer reuters vídeo atlasagenciasmadridactualizado inmigrantes entrado españa forma irregular saltar valla fronteriza separa enclave español melilla marruecoslos indocumentados formaban grupo amplio personas intentado traspasar frontera informado subdelegación gobierno español comunicadola tentativa protagonizada inmigrantes fundamentalmente procedentes mali guinea conakry valido garfios tornillos zapatos superar valla fronterizalas fuerzas seguridad marroquíes intentado frenar grupo dificultades tratarse zona pobladala carretera circunvalación discurre paralela perímetro fronterizo cortada tramo encontraban encaramados inmigrantes puesto fronterizo barrio chino permanecido cerradolos efectivos unidades comandancia melilla reforzados módulos ars colocado escaleras convencer migrantes descendieran alambrada desistieran empeño entrar españatras personas permanecían sentadas vallas cedido presión descendido posteriormente inmigrantes restaban descendido vallael grupo logrado pisar suelo español dirigido centro estancia temporal inmigrantes ceti ciudad melilla recibido gritos júbilo tradicional bosa bosaa puertas centro inmigrantes descalzado zapatos llevaban incrustados tornillos entregado vigilantes seguridad garfios caseros superado vallauno subsaharianos trasladado centro hospitalario pisar melilla fractura tibia peroné operado subdelegación gobiernoun año presión migratoriala presión migratoria especialmente intensa año enclaves ceuta melillaen intentos entrada irregular inmigrantes consiguieron saltar doble vallael gobierno mariano rajoy orden reforzar verja puntos perímetro reclamó apoyo unión europea ue frente situación</t>
         </is>
       </c>
       <c r="C36" t="n">
         <v>2</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Politica_43.txt</t>
+        </is>
       </c>
     </row>
     <row r="37">
@@ -906,11 +1086,16 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>andalucía convertido rompeolas clima entendimiento haberse instalado psoe pp despeñaperros productiva inercia pactos permitido desbloquear investidura rajoy subir salario mínimo interprofesional frenar implantación lomce garantizar aprobación cuentas asturias rompe llega comunidad andaluza psoe encontrado ciudadanos socio incondicional permite ignorar sistemáticamente llegue resto oposición derecha izquierdael pacto psoecs fraguado finalmente rodillo parlamentario laminado partido popular izquierda unida introducir tipo enmienda presupuesto andalucía sesión pleno presupuestos celebrada jueves consumado venía pronosticando meses partido socialista ciudadanos anunciaran alcanzado marco luz verde cuentas ejercicio suma votos psoe cs rechazado jornadas pleno sistemáticamente bloque bloque sección sección mil enmiendas presentadas resto partidos representación cámarasusana díaz lanza mensajes ciudadanía adversarios pese gobernar minoría ejecutivo sabido encontrar fórmula garantiza ansiada estabilidad política frente antipp andalucíay izquierda unida acusan susana díaz conseguido estabilidad costa sacrificar políticas sociales izquierdas negociación ciudadanos jacta enmiendas carga fiscal andaluces livianalos portavoces parlamentarios pp iu rechazado presupuestos regresivos revertir recortes educación sanidad ahondar desigualdad andaluces resto españoles informa efecon andalucía convierte jueves comunidad autónoma disponer visto parlamento cuentas ascienden millones euros segundos presupuestos legislatura presidencia susana díazla consejera andaluza hacienda administración pública maría jesús montero defendido proyecto sirve afianzar recuperación económica crecimiento andalucía ciudadanos comunidad noten personaen cuentas destaca partida millones euros educación supone incremento ciento presente ejerciciola sanidad partida presupuestaria peso millones euros asignados incremento ciento recogido políticas sociales millones euros destinados apartado subraya incremento gasto sostener políticas dependencia objetivo gobierno andaluz aumentar gasto conjunto legislaturala consejera hacienda destacado millones euros destinarán fomento subida cientoen apartado administración pública subraya compromiso recuperar jornada semanales funcionarios aplicará forma uniforme inmediata colectivos devolución ciento paga extra subida salarial proyecto millones euros destinan pago deuda inversión pública incrementa ascendiendo millones euros</t>
+          <t>batalla título fórmula estallado fuerza aspirantes lewis hamilton max verstappen enfrentado temporada silverstone piloto red bull sufrió fuerte accidente toque vuelta movimiento sancionó piloto casael semana monza volvieron culpa recayó verstappen supuso penalización puestos parrilla salida próxima carrera gp rusiaante situaciones bicampeón mundo mika hakkinen muestra preocupación situación escalar superar seguridad establecida fórmula colisión lewis hamilton max verstappen haberse evitado pilotos compiten trofeo suelen acabar peleando trozo asfalto concluye hakkinen columna casa apuestas unibetel bicampeón mclaren apuntó optaría estrategia recurrir ceder ofrecer resultado esperadomis antiguos rivales ayrton senna michael schumacher involucrados colisiones polémicas opinión evitar centrarse victorias golpea pasar oponente acabar coche dañado turno sufrir chocar ofrece seguridadel finlandés experiencia optaría enfoque aceptar puedes ganar carreras tercer puesto resultado importante ganar título mundialque resultados decidan mundialhakkinen espera batalla pista continúe incidentes silverstone max suerte resultar herido colisión lewis domingo vimos lewis salvado halo escandinavolos accidentes potencialmente graves carreras preocupante debería sentada seguridad debemos caer autocomplacenciaes fantástico seguir campeonato año reñido gustaría max lewis dando vuelta gustaría verlos terminar carreras podio resultados decidan campeonato mundo número accidentes</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Deportes_5.txt</t>
+        </is>
       </c>
     </row>
     <row r="38">
@@ -919,11 +1104,16 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ministro interior fernando grandemarlaska respecta situación cataluña soluciones política judicial cruzarse nuncaen entrevista publica domingo diario país titular interior declara problema político catalán comunidad solución política resolver generar ambiente tranquilidad marco constitucional satisfacción conjunto involucrados mantiene hechos naturaleza delictiva corresponde justicia cosa ámbito actuación quedar caminos distintos cruzarse explica titular interiora añade prisión provisional medida excepcionalísima aplicación determina juez tribunal competentepreguntado juez ve delito rebelión procés grandemarlaska responde decidir tribunal competenteasimismo manifiesta confianza mossos desquadra máximasobre palabras delgadosobre explicaciones recibido ministra justicia dolores delgado relación conversación mantuvo excomisario josé manuel villarejo grandemarlaska responde hablado públicolo importante hechos actitudes conociendo compañera sentí ofendido agregael ministro declara constancia filtraciones provengan excomisario villarejo gusta imputaciones datos contenido filtraciones forma difunde medios creados profeso voluntad intoxicar estadono elemento grupo personas relacionadas relacionadas presente riesgo instituciones explica cloacas estadosobre palabras carmen calvoen entrevista interrogado palabras vicepresidenta gobierno carmen calvo torno regular libertad expresión ministro interior responde libertad expresión base derecho entendemos actualidad movimientos preocupantes quieren perturbarlamuchos ámbito digital convertido voceros llega ¿con finalidad ¿quiénes preguntatambién pronuncia asaltos vallas ceuta melilla entiende ataque violento frontera consecuencia legal</t>
+          <t>ministerio inclusión seguridad social migraciones dirige ministro josé luis escrivá vuelto convocar patronal sindicatos seguir negociando fase reforma pensiones reunión lunes gobierno difícil lograr respaldo agentes sociales reforma rechazo frontal despertado propuesta escriva ampliar años periodo cálculo base reguladora pensión posibilidad eliminar peores mensualidadesde máximos líderes cc oo unai sordo ugt pepe álvarez apresuraron negar rotundamente vayan siquiera sentarse negociar propuesta gobierno garantías político permita aprobar propuesta parlamento parecido indicaron flanco empresarial patronal visto malos ojos ampliación periodo cómputo pensión propuesta presentar gobiernos ppasí sordo sindicato labor hablar medida consenso político suficiente negociar previamente consenso político líder cc oo acto seguido actualidad mayoría parlamentaria suficiente propuesta salir congreso diputadospor secretario ugt reconoció posibilidad llegar fase reforma pensiones dificultades fase mostró profunda decepción desacuerdo ugt propuesta ejecutivo conocida lunes ejecutivo empeñado aumentar años calcular pensiones solución contrario álvarez criticó propuesta gubernamental recoge reivindicaciones sindicales premiar carreras largas cotizaciónpor empresarios considerado fórmula cálculo pensión evolucionar carrera laboral vicesecretaria ejecutiva asociación autónomos ata principales organizaciones ceoe celia ferrero pese ampliación beneficiaría expulsados mercado laboral años carrera profesional problema forma propuesta ampliar periodo cómputo base reguladora recomendaciones pacto toledoeste argumento usados sindicato cc oo exigir político previo sentarse siquiera negociar definitiva interlocutores sociales quieren ocurrir reforma laboral rechazada congreso equivocación diputado pp pese fruto socialahora escrivá pactó bruselasa finales ministro seguridad social josé luis escrivá difundió ministerios económicos documento pactado bruselas elevar periodo cálculo pensión años supondría recortar pensiones levantó ampollas gobierno unidas sindicatos finalmente documento enviado bruselas compromiso rebajó concreción siguió recogiendo españa ampliaría periodo escrivá negó saciedad propuesta existido secretario seguridad social borja suárez reconoció propuesta sacada manga compromiso adquirido bruselas plan recuperación</t>
         </is>
       </c>
       <c r="C38" t="n">
         <v>2</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Politica_1.txt</t>
+        </is>
       </c>
     </row>
     <row r="39">
@@ -932,11 +1122,16 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>vinculante pese sutil prosa gastan supervisores financieros opinión bce impuesto banca planteado gobierno desnuda tributo concepción mejorable opiniones supervisor entenderlas responsabilidad pasa funcionamiento sector bancario consideraciones entiende bce recuerde ocasiones manifestado aplicar impuestos banca fines generales enmienda cuyos argumentos contraponerse consideraciones política económica bce aconseja análisis exahustivo pros contras impuestofue anuncio presidente gobierno principales citas políticas año debate nación golpes efecto políticos orden efectos económicos exigen cuidado detalles tributo conociendo semanas posterioresa nivel técnico dudas bce razonadas aplica ingresos precisamente motivación mueve legislador pedir contribución extraordinaria –el fantasma recesión– debería mover bancos dotar provisiones adicionales fisco hora determinar carga tributaria impuesto pesará accionistas bancos prudentes menosel bce enmienda exigencia impuesto traslade precio deberán vigilar cnmc banco españa declaración intenciones choca realidad principal factor determina precio competencia bancos capacidad elevar margen harán impuesto éleste año beneficio banca rondará millones euros gracias alza euríbor aprieta familias gobierno capacidad aplicar modificar impuestos venia aritmética parlamentaria tribunales elige exime mínima rendición cuentas diseño puesta marcha tributo dejado desear ilustra finalmente diferencia política políticas país impuestos convertido vía lograr titulares minutos prime time zascas redes sociales</t>
+          <t>líder oposición laborista keir starmer anticipado renegociará brexit llega ministro ocasiones volver ue significa volver mercado único unión aduanera recalcó starmer discurso patronal británica premier rishi sunak rechazara foro modelo suizoel líder laborista contrario brexit zanjada polémica renegociación salida ue revelaciones the sunday times alegando gobierno sunak baraja posibilidad relación fricciones comerciales estilo mantiene suiza acceso selectivo mercado único pemitiendo libertad movimientosyo voté brexit brexit brexit suponer beneficios oportunidades país empezando control apropiado inmigración declaró sunak discurso confederación industria británica cbi rechazó inequívocamente posibilidad renegociación bruselas pese lamento común empresarios falta mano obra sectores alimentación transporte sanidad hosteleríalas intervenciones sunak starmer precedida amplio debate entrada reino unido recesión contribución brexit problemas económicos enfrenta país peores condiciones miembros mayoría socios europeosel gobernador banco inglaterra andrew bailey alimentó polémica recientes declaraciones cargo público neutral brexit neutral hora efectos económicos pillado sopresa secretario tesoro jeremy hunt contrario salida ue puso guardia ala euroescéptica partido advirtiendo necesidad fricciones comerciales bruselasespero gobierno piense marcha planes advirtió negociador brexit david frost respuesta fulminante sunak recalcando gobierno intención perseguir relación ue suponga alineamiento reglas comunitariasel modelo suizosuiza miembro mantiene acceso selectivo mercado único integrada unión aduanera acepta principio libertad movientos jurisdicción tribunal europeo justicia áreas limitadas relación bruselas regulada acuerdos bilaterales servido eliminar barreras comercialesla posición starmerrestaurar estabilidad principal alegado líder laborista hora justicar decisión reabrir caja pandora brexit starmer reconocido actual situación funcionando empresas exportaciones crecimiento insistió solución lograr actuales acuerdos funcionen partido laborista aventaja partido conservador puntos batacazo liz truss pese ligera recuperación rishi sunakla opinión públicael sondeo yougov refleja diferencia años defensores detractores brexit alturas salida ue decisión equivocada frente sostiene decisión correcta años miles británicos manifestaron octubre national rejoin march decisión starmer cuestionar brexit creado divisiones partido laborista partido liberal demócrata partidario integrarse mercado único vista impacto económicolos empresarioseste brexit queríamos lamentado simon wolfson director ejecutivo multinacional moda next miembro conservador cámara lores necesitamos aproximación totalmente inmigración económicamente productiva línea pronunciado tony darker director ejecutivo cbi pidiendo políticos aproximación pragmática abrir mano inmigración frente falta mano obra estrangulando economíalos mediosthe financial times rompió moldes mes documental the brexit effect how leaving the eu hit the uk presitigioso diario económico años existido conspiración política silencio impacto real brexit salido flote desastroso minipresupuesto liz truss decenas empresarios abiertamente coste salida ue enmascarado pandemia guerra ucrania oficina responsabilidad presupuesto brexit significativo impacto adverso caída flujo comercial ue reducción prevista plazo productividad análisis bloomberg barreras comerciales creadas brexit contribuido aumento precio comida agravado crisis coste vida</t>
         </is>
       </c>
       <c r="C39" t="n">
         <v>2</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Politica_45.txt</t>
+        </is>
       </c>
     </row>
     <row r="40">
@@ -945,11 +1140,16 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>grave acusación lanzada ministra igualdad pp acusó fomentar cultura violación consiguió manifiesto grieta espacio confederal unidas podemosel clima parlamentario sosiega atemperarse tormenta arrecia alentada formaciones extremas congreso peculiaridad sentada gobierno semana diputada vox desató tempestad descalificando irene montero único mérito estudiado profundidad pablo iglesias ministra igualdad decidió transformarse víctima agresora acusando pp promover cultura violaciónentre episodios diferencia sustancial ocasión montero obtuvo respaldo cerrado recibió reproche latir soterradamente escaños morados alineados vicepresidenta yolanda díaz grave acusación lanzada partido oposición consiguió manifiesto grieta bandos encabezan espacio confederal evidencia soledad montero arropada ministra asuntos sociales ione belarra gobiernola titular igualdad reconvenida presidenta congreso meritxell batet usual dada sintonía ideológica suele existir preside cámara ejecutivo batet protesta escándalo unánime acusación montero provocó bancada pp reclamó ministra contención expresiones enturbiar convivencia sede parlamentariamontero respuesta pregunta diputada popular belén hoyo instándola rectificar ley agarró campañas publicidad comunidad madrid xunta galicia violencia género acusar populares promover cultura violación citadas campañas incluyen mensajes frases debería pasar pasa vigila copa salgas nochedespués reproche mano ministra justicia pilar llop portavoz grupo socialista patxi lópez recordó partido popular formaciones firmantes pacto violencia género votó favor ley nombre decirse precisó fomente tipo cultura mujeres instarle seguir avanzando igualdad opinó palabras ministra mejores lamentó precisamente semana sufrió agresividad verbal juegue estoen secretaria igualdad psoe andrea fernández dudó criticar expresiones gruesas proferidas montero españa merece aludiendo espectáculo vivido cámara semana martes diputada vox refirió socios filoetarras gobiernotensión crecienteel episodio protagonizado irene montero elevado tensión vive gobierno semanas proyectos ley promovidos ministerio igualdada problemas suscitados seno feminismo socialista contenido conocida ley trans venido sumar efectos nocivos revisiones baja condenas agresores sexuales excarcelaciones entrada vigor provocado llamada ley norma pese evidentes defectos jurídicos ejecutivo resiste rectificar excusa estudiarse detenimiento pronunciamiento tribunal supremo aplicaciónpero intervención irene montero generó malestar filas socio mayoritario gobierno partido minoritario coalición provocó divisiónla ministra derechos sociales secretaria ione belarra situó inmediatamente número secretaria agenda lilith verstrynge secretaria organización partido morado ambas forman círculo afín irene montero distanciado vicepresidenta ministra yolanda díazde miembros espacio confederal díaz produjo inmediato evitar apoyar expresamente titular igualdadasí diputados destacados formación enrique santiago secretario pce predecesor cargo verstrynge diputada comú podem aina vidal optaron limitarse señalar irresponsabilidad insensatez campañas publicitarias violencia género desplegadas madrid galicia defender existencia concepto científico cultura violación evitaron secundar acusación montero popularesmáxima gravedadlas reacciones palabras ministra igualdad cayeron jornada torrente portavoz pp congreso cuca gamarra pidió palabra pleno montero hablara expresar enérgica portesta pasillos advirtió límite opinión insulto ministra reviste máxima gravedad alguien sentado consejo ministros boca gobiernotambién líder pp alberto núñez feijóo pronunció reprocando gobierno hooligan política española feijóo volvió pedir dimisión ministra reclamándole asuma responsabilidad recoja despacho efectos perniciosos ley diputada pp marta gonzález mantuvo debate ministra justicia pilar llop precisamente ley recalcó irene montero supuesta víctima violencia política agresorala líder ciudadanos inés arrimadas amplió crítica psoe convertir congreso expulsan llamas filoterrorista bildu permite ministra acuse oposición promover cultura violación vergüenza zanjó</t>
+          <t>san josé oct efe presidente costa rica rodrigo chaves miércoles evalúa aplicar verdaderos cambios política migratoria seguido históricamente país aumenta ayuda internacional contexto flujos migrantes mayoría venezolanoschaves conferencia prensa semanal posterior consejo gobierno consultas socios aliados internacionales explorar aplicación políticas migratorias supondrían verdaderos cambios política seguido costa rica añosla decisión tomemos depender socios internacionales dispuestos colaborarnos costo enorme asumido sociedad costarricense años generosa receptiva gente necesidad problema internacional comiendo manifestóel presidente anunciar cambios política esperará respuestas socios internacionales identificó contará apoyo elloschaves miércoles preocupación anuncio recientemente autoridades panamá acerca impedirán ingreso costa rica migrantes venezolanos cuenten visanos preocupó muchísimo anuncio panamá evaluando costa rica cerrar frontera sur personas visa costarricense declaró presidente chavesel mandatario costa rica implementando plan atención humanitaria transporte autobuses zonas cercanas frontera nicaragua migrantes venezolanos ingresan panamála directora migración marlen luna reportes venezolanos rechazados panamá frontera migrantes costa rica fluyendo norte pese anuncio unidos endurecer requisitos ingresoel flujo sur frontera panamá norte frontera nicaragua disminuido esperamos tomar medidas radicales lunala funcionaria evaluará situación determinará necesario aplicar medidas desincentivar llegada permanencia venezolanos costa ricadatos presentados gobierno costarricense indican migrantes ingresando panamá venezolanos calcula cruzando frontera migrantesel venezolanos permanecen costa rica siguen camino enfrenta problemas económicos logísticos salud obliga quedarse datos gubernamentalesmuchos venezolanos observan diversas comunidades país tratando recolectar dinero recibiendo ayuda humanitaria organizaciones gubernamentales</t>
         </is>
       </c>
       <c r="C40" t="n">
         <v>2</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Politica_33.txt</t>
+        </is>
       </c>
     </row>
     <row r="41">
@@ -958,11 +1158,16 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>campaña maratoniana elecciones mitad mandato entra martes recta votantes georgia decidirán escaño senado unidos terminarán darle forma próxima fase presidencia joe bidensegún encuestas actual senador demócrata raphael warnock ligera ventaja rival republicano polémica estrella fútbol americano herschel walker gana warnock demócratas escaños senado mayoría sólida cámara senado dividido partes iguales voto desempate recae vicepresidenta kamala harrises años pelea senado pasa vuelta georgia candidatos consiguiera mayoría necesaria elecciones reglas aplican georgia muestra signos fatiga electoral autoridades números récord participación voto correolos demócratas georgia país disminuido intensidad apoyo warnock celebrado concierto dave matthews band acto campaña actrices tessa thompson america ferrera mitin jeannie mai jenkins daniel dae kim dirigido comunidad asiáticoestadounidense estadoel senador demócrata georgia raphael warnock jueves jessica mcgowanefeepawarnock pastor antigua iglesia martin luther king cerró semana mitin atlanta liderado barack obama estrella partido deciros aflojar presidente subirse escenario vítores cánticos deciros desconectar darnos satisfechos llegar línea meta podéis hicisteis antesel acto parecía sermón iglesia baptista multitud vitoreaba frase pronunciaba presidente respondía sur profundo país georgia suele llamar cinturón biblia devoción religiosa habitantesen campaña legislativas obama mostrado liberado incisivo socarrón destripando republicanos forma demócratas permitir señor walker hablado temas importancia gente georgia hombre lobo vampiro candidato republicano debate debo confesar años crecípor caso preguntando señor walker decidió quería hombre lobo perfecto concierne quiera senador unidos añadióun clavecon florida teñida rojo republicano georgia perfila disputa importantes país victoria biden obtuvo presidente donald trump georgia decisiva ascenso casa blanca warnock compañero demócrata jon ossoff lograron escaños senado vuelta electoral definió control demócrata cámaraobama elogió capacidad georgianos decidir panorama político nacional enumerando logros posteriores gasto infraestructuras leyes seguridad armas recortes precio medicinas receta inversión récord energías limpias ocurrió gracias georgia necesitamos volváis hacerlos demócratas confían intervención obama anime bases partidoestoy preparada llevo campaña comienzo elecciones campaña telefónica estudiante ashley davis asistentes mitin discurso animado parar juego georgia preparada demostrado fuerza cuentaa diferencia obama biden mantenido margen temores significar lastre warnock intención ayudar campaña estrategia demostró eficacia elecciones mitad mandato resultados demócratas superaron expectativasel presidente sumó viernes campaña llamadas telefónicas pedir voto warnock organizada hermandad internacional trabajadores electricidad boston massachusetts biden distinción importante candidato demócrata walker referéndum warnock elección elección hombres merece senado unidos falta veracidad persona decente honorableun polémico candidato republicanolos republicanos georgia ganaron papeletas votaban elecciones noviembre gobernador brian kemp reelegido apoya walker jugador fútbol americano haga victoria elecciones alto nivel participación votantes republicanospero walker demostrado razones entusiasmo demócrata respalda trump pedigrí político serie declaraciones ¿no daría vergüenza herschel walker senador pregunta panfleto enviado partido demócrata hogares georgiaa campaña mujeres acusaron walker abusado pagado abortos actual postura antiaborto supuestos tiempos enfrentado acusaciones mantener residencia principal texas georgia walker desmentido acusacionesel candidato republicano senado herschel walker loganville georgia domingo jim scalzoefeepaen elecciones noviembre warnock superó ligeramente walker votos frente republicano encuesta emerson college pollingthe hill warnock apoyo votantes georgia walker indecisossegún encuestador escritor john zogby warnock ganado impulso noviembre votantes afroamericanos parecen animados herschel walkerwalker lidiar serie problemas noviembre gestionado zogby siquiera ayuda kemp importante… instancia electores votan quiera gobernador diga votar candidatoel control senadolos demócratas garantizado control senado años mayoría dependiera vicepresidenta escaños aceleraría proceso confirmación cargos administrativos judiciales biden serviría colchón presidente caso demócrata rompa disciplina voto demócratas lograrían escaños recursos financieros comités senado presidentes comités necesitarían republicanos emitir citaciones obliguen declarar testigos investigacionessiempre situación necesitamos paridad comités importante simplemente número biden periodistas díassegún director centro política universidad virginia larry sabato distinción importante demócratas obtendrían mayoría comités nombramientos tribunales saldrán rapidísimo partido mayoría clara senado acceso hemiciclo fácil mirar cantidad senadores viejos queda libre escaño gente molesta biden acabar votando republicanos cualquiera indecisos</t>
+          <t>aprobado definitivamente apunta directiva europea dará luz verde venta cigarrillos electrónicos territorio europeo acaso lobbies industria tabaquera recelosos continúan desplegando armas asegurar dicha autorización llega puerto publicación trabajos teoría avalan beneficios producto difundido páginas revista plos onesegún estudio personas deja fumar gracias cigarrillos electrónicos año prolongó investigación grupo científicos universidad catania italia reunió fumadores intención abandonar hábito simplemente curiosidad producto electrónico parecido cigarrillo tradicional querían probarlo aseguran responsables artículose dividió grupos utilizaba ecigarrillos mg nicotina fumaba cigarrillos electrónicos mg recibieron cartuchos producto electrónico nicotina usado dosis altas nicotina fumar comparación grupo consumieron nicotinaaunque grupo control personas librado adicción investigadores creen dispositivo dejado fumar cabo año resultados afirma principal autor riccardo polosa demuestran importante abandono tabaco significativa reducción consumo participantes grupos redujeron mitad número cigarrillos agrega polosa traduce riesgos saludsin hallazgos comunidad científica debatiendo beneficios producto electrónico realmente estudios firmes serios demuestren ventajas importante seguridad señala francisco rodríguez lozano presidente comité nacional prevención tabaquismo cnptuna investigación publicada revista científica prestigiosa cirugía torácica chest describía lesiones pulmonares relacionadas ecigarrillo llevan nicotina etiquetados regulados afectan salud consumidor deberían autorizarse información seguridad argumenta experto españolel problema agrega intereses eeuu empresas tabaco tradicional empezando introducirse mundo cigarrillos electrónicos aparecen anuncios televisión nombres parecidos marcas habituales propaganda cigarro tradicional electrónico</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Salud_44.txt</t>
+        </is>
       </c>
     </row>
     <row r="42">
@@ -971,11 +1176,16 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>años toma posesión presidente populista méxico vuelto avivar ardiente base políticaaunque constitución méxico impide presentarse reelección presidente andrés manuel lópez obrador conocido acrónimo amlo decidido candidato partido continúe movimiento llevó ofreció impresionante demostración fuerza política movimiento sacar cientos miles simpatizantes calles ciudad méxico marcha culminó discurso céntrica plaza zócalo capitalson años gente quería expresarlo manifiestan tema presidente rueda prensa lunes cuéntanos demostración fuerza política produce crítico lópez obrador gobierno enfrenta crecientes críticas organizaciones derechos humanos oposición luchas intestinas partido gobernante morena mantiene alto índice aprobación sucesor inspirar fervor similar amlo políticos populares polarizadores historia méxicola oposición existepor lópez obrador asumió cargo oposición mexicana encontrado finalmente equilibrio años desorden unido propuesta presidente reformar sistema electoral país iniciativa detractores califican ataque democracia méxicoa principios mes decenas miles personas participaron marcha ciudad méxico defensa instituto nacional electoral probablemente marcha oposición presidente asumió cargo duro reproche afirmaciones adversarios pequeña élitefue clara señal oposición fragmentada tony payan doctor ciencias políticas experto política mexicana instituto baker universidad rice gente idea clara país sistema electoral libre justoel presidente partidarios afirmado marcha domingo reacción marcha oposición celebración logros cargoel presidente méxico andrés manuel lópez obrador zócalo ciudad méxico noviembre mario guzmánefeel propósito celebrar años gobierno allan pozos ayudó movilizar manifestantes bastión morena iztapalapa barrio clase trabajadora capital confrontar derecha mensaje contentos gobierno tenemosla marcha ambiente festivo recordaba carnaval simpatizantes vitoreando presidente bandas mariachis cantando serenata lópez obrador vestido sencilla camisa blanca rodeado multitud fervientes admiradoressin críticos consideran descarada maniobra política participantes trasladados autobús país administraciones locales políticos partido presidencial morena movimiento regeneración nacional promesa amlo gastaría peso dinero público marchaelizabeth garcía vilchis responsable redes sociales oficina prensa presidente rechazó tales afirmaciones considerarlas racistas insultantes seguidores presidente pertenecen mayoría clase trabajadora méxicoa favor presidentepara analistas acusaciones dinero público utiliza apoyar presidente partido remontan época autocrática partido revolucionario institucional pri gobernó méxico forma ininterrumpida años año décadas presidentes pri llevaban autobuses llenos gente marchas ciudad méxico promesa comida dinero utilizaban poderosos sindicatos país aumentar participaciónmorena tomado tradición política mexicana enterrarla corregirla mantenido forma política genaro lozano politólogo columnista periódico conservador reforma prometieron forma política fracasadosin allá cuestionable política partidista analistas afirman marchas gobierno oposición muestra profunda polarización méxico aumentar elección lópez obrador división presidente partido tratado fomentar aprovecharen años méxico transitado camino polarización fuerte explica lozano clivaje fuerte méxico izquierda derecha favor presidente</t>
+          <t>guerra virus inmunodeficiencia humano vih historia éxito encontrado cura tratamientos antirretrovirales logrado mantenerlo raya diagnóstico infección vih deje sentencia muerte firmaba remedio años ochenta tratan pacientes viven mundo batallando erradicar virus diagnosticar tratar planeta triunfo parcial virus abierto años melón médicos pacientes envejecimiento supervivientes peaje convivir vih vejez prematura avisan expertos riesgo enfermedades tumores problemas neurológicos salud mental sufrimos personas recorrido aparte depresión ansiedad recorrido deterioro cognitivo pérdidas memoria pasa años pasar enumera carlos lópez años vih profesionales reclaman recursos psicosociales pacientes urgen formación generaciones sanitarios pesa carga viral mochila dolencias asociadas arrastra vihlópez conoció infección años describiesen casos unidos shock importante diagnóstico vih significaba ibas morir recuerda años oscuros incertidumbre estigma terror sabía temía medicación época azidotimidina tóxica rememora lópez efectos secundarios devastadores sabía hacía daño medicación virus gente dejaba tomarla ponía destrozaba estómago provocaba náuseas efectos nivel psíquico desorientación pérdidas memoriaen combinación tratamientos antirretrovirales tar eficaces agresivos carga viral negativizaba podía transmitir virus salud mejoraba gracias medicamentos apunta lópez personas infectadas época sobrevivido sombra vih larga carga viral adviertelos expertos coinciden acortando mínimo brecha esperanza vida infectados vih población envejecimiento prematuro personas vih causa virus factores adelanten años problemas salud asociados edad comunidad científica apunta repiten vih patrones producen envejecimiento fisiológico vejez natural causa agresiones paso especie inflamación persistente organismo alteración sistema inmune envejece capaz responder eficacia ataques externos vih virus circulando provoca inflamación carga viral controle virus seguir activándose reservorios infecte célula provocar inflamación obliga mantener activo forma crónica sistema inmune procesos cambios bacterias intestino paso bacterias torrente sanguíneo provocar inflamación persistente</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Salud_2.txt</t>
+        </is>
       </c>
     </row>
     <row r="43">
@@ -984,11 +1194,16 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>san josé oct efe presidente costa rica rodrigo chaves miércoles evalúa aplicar verdaderos cambios política migratoria seguido históricamente país aumenta ayuda internacional contexto flujos migrantes mayoría venezolanoschaves conferencia prensa semanal posterior consejo gobierno consultas socios aliados internacionales explorar aplicación políticas migratorias supondrían verdaderos cambios política seguido costa rica añosla decisión tomemos depender socios internacionales dispuestos colaborarnos costo enorme asumido sociedad costarricense años generosa receptiva gente necesidad problema internacional comiendo manifestóel presidente anunciar cambios política esperará respuestas socios internacionales identificó contará apoyo elloschaves miércoles preocupación anuncio recientemente autoridades panamá acerca impedirán ingreso costa rica migrantes venezolanos cuenten visanos preocupó muchísimo anuncio panamá evaluando costa rica cerrar frontera sur personas visa costarricense declaró presidente chavesel mandatario costa rica implementando plan atención humanitaria transporte autobuses zonas cercanas frontera nicaragua migrantes venezolanos ingresan panamála directora migración marlen luna reportes venezolanos rechazados panamá frontera migrantes costa rica fluyendo norte pese anuncio unidos endurecer requisitos ingresoel flujo sur frontera panamá norte frontera nicaragua disminuido esperamos tomar medidas radicales lunala funcionaria evaluará situación determinará necesario aplicar medidas desincentivar llegada permanencia venezolanos costa ricadatos presentados gobierno costarricense indican migrantes ingresando panamá venezolanos calcula cruzando frontera migrantesel venezolanos permanecen costa rica siguen camino enfrenta problemas económicos logísticos salud obliga quedarse datos gubernamentalesmuchos venezolanos observan diversas comunidades país tratando recolectar dinero recibiendo ayuda humanitaria organizaciones gubernamentales</t>
+          <t>mes debutó titular manchester united octubre encuentro europa league frente sheriff tiraspol alejandro garnacho empezó mostrar calidad técnica evidentes asistió ocasiones jueves ayudar superar aston villa copa liga domingo saltó césped tramo encuentro frente fulham premier league terminó decidiéndolocon pared christian eriksen borde área pugnando cuerpo cuerpo par imponiéndose marcando suspiro disparo cruzado garnacho nacido madrid internacional argentina años hambre éxitos partido fulham compañeros comentaristas fútbol inglés auguraron futuro lenguaje corporal louis saha exdelantero united retransmisión sky sports pasó pelota quiso vuelta actitud necesita área calma confianza agresividad necesita seguir trabajando duro cristiano carrera garnacho equilibrio correcto carrerava estrella mundo pies jamie redknapp exinternacional inglés rotundo saha sky sports confianza domina pie izquierdo derecho técnica talento argentina pregunten mundial semana mundiales disputar delantesu actitud bruno fernandes destacó declaraciones posteriores juego craven cottage gusta banquillo joven actitud perfecta actitud sale banquillo fantástica merece oportunidades jugar consiguiendo goles recompensaademás luso capitán reds harry maguire catalogó actuación garnacho victoria united redes sociales gol especial talento especial compañero defensa lisandro martínez reconoció feliz vos hermanito elogios terminaron diego dalot definió garnachinho amad diallo rindió ′ ¡qúe jugador</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Deportes_25.txt</t>
+        </is>
       </c>
     </row>
     <row r="44">
@@ -997,11 +1212,16 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>india recibe mañana presidente unidos barack obama dará tratamiento precedentes gobernante estadounidense viaje consolida política exterior india carácter prioritario delhi otorga relación washingtonobama llega india mes hiciera presidente ruso vladimir putin ministro indio narendra modi cerró importantes acuerdos materia nuclear reafirmó rusia socio importante defensala india pretende convencer inversores estadounidenses apuesten sector nuclear años preeminencia capital ruso área vital seguir creciendo necesita apoyo eeuu admitida organismos internacionales energía atómicamodi busca llegada mayo aliados estratégicos exterior propósito reunió septiembre obama washington camino impulsado relaciones países asiaobama tratamiento precedentes gobernante estadounidense jefe país invitado desfile república india jornada conmemora aniversario constitución portavoz ministerio exteriores indio syed akbaruddin viceconsejero seguridad nacional eeuu ben rhodes reiterado semana alto componente simbólico presencia obama lunes desfileel gobernante unidos principal exportador armas mundo verá desfile militar fuerzas armadas india importador armamento planetala visita obama plagada reuniones modi viene precedida conversaciones contrarreloj energía nuclear países cerrar firmado delhila seguridad zona clave lucha terrorismo yihadista asunto central agenda dirigentes mayores democracias mundoel inquilino casa blanca acude país poblado mundo mercado creciente cientos millones consumidores acompañado secretaria comercio penny pritzker plena vorágine iniciativas políticas modi atraer inversores extranjerosla relación comercial bilateral multiplicado millones dólares anuales reunión septiembre planteó objetivo quintuplicarla nuevoobama llegará acompañado esposa michelle actos memorial mahatma gandhi reunirse almorzar modi espera comparecencia prensa asistir cena oficial presidente indio pranab mukherjeeel desfile militar ocupará mañana lunes medidas seguridad extremas obama espacios abiertos suele habitual actosel gobierno indio pedido ciudadanos alerten posibles terroristas bombas pájaros pudieran entorpecer acrobacias aéreas desfilela jornada concluirá reunión dirigentes empresarios paísesla estancia concluirá martes intervención presidente programa radio modi conferencia conjunta personasbarack obama presidente estadounidense acudir ocasiones india ocasión visitar taj mahal considerado maravillas mundo programa contempla gobernante optar salir directamente delhi rumbo arabia saudí</t>
+          <t>resolución tramitación ley trans motivo principales incendios gobierno coalición diferencias psoe unidas mantienen libre autodeterminación género menores puedan cambiar voluntad nombre sexo dni quedado aparcada semanas socios coalición semanas margen cede posiciones socialistas mantienen enmiendas insisten refuerzan seguridad jurídica norma certeza pp vox recurrirán tribunal constitucional up rechaza modificar texto consejo ministros aprobó verano ambas fuerzas consensuaron remitirlo parlamentola expectación rodeado ponencia comisión igualdad celebrado sesión control gobierno cámara baja durado media corresponde resultado sesión falta acercamiento psoe up propiciado socios apuren plazos enmiendas continúan vivas trabajaremos cara comisión afirmado andrea fernández secretaria igualdad socialistas alusión enmiendas menores reversibilidad violencia intragéneropor socialistas retiran enmiendas up reitera norma saldrá recorte salido compromiso comisión igualdad acabe año ley sofía castañón unidas salida posición clara trámite parlamentario sirva mejorar ley caso retroceder consejo ministros compromiso seguir llevando remarcadopara ley choque socios ejecutivo resolverse socialistas mantienen vivas enmiendas exigir menores años cambio sexo registro requiera autorización judicial meses afirmaron tocarían up erc pnv eh bildu país suman votos niegan aceptarla única vía psoe apoyo populares supondría rechazo automático up aliados investidura ley quedar pausa forma indefinida psoe afirmar contemplaba presentar enmiendas autodeterminación género país adelantase estudiando plena bronca interna sectores feministas lgtbi partido finalmente hizosegún socialista andrea fernández ponencia trámite ordinario tranquilo vox venido dinamitar ponencia resto partidos trabajado normalidad enmiendas llegado dictamen prácticamente grupos parlamentarios pp vox comisión seguir trabajando enmiendas quedado vivas valoradoviolencia intragénero límites reversivilidadlas enmiendas psoe cuentan respaldo necesario versa autodeterminación menores eliminar concepto violencia intragénero miembros pareja sexo género exista analogía violencia machista cuestión reversibilidad cambio registral alguien cambiado sexo registro volver caso arrepienta cambie opinión texto ley libertad cambios reversión tercero recuperación sexo figuraba requiera aprobación judicial ley jurisdicción voluntaria psoe propone cambio necesario paso judicialpor miércoles aprobado enmiendas contando socialistas debatirán comisión igualdad semana diciembre producirá comparecencias expertos personal sanitario personas trans unidades género hospitales organizaciones feministas fuentes presentes daría calendario marcado gobierno cuyas previsiones idea norma apruebe añoeste martes patxi lópez alusión calendario legislación pendiente gobierno limita área igualdad creemos ley lgtbiq ley trans pleno semana diciembre aborto semana bienestar animal decreto hipotecas parando montón negociaciones abiertas portavoz socialistasin carmen calvoel contexto fácil ponencia empezó presidenta carmen calvo frecuente sucede ponencia ley norma generado batalla política torno ministerio igualdad rebajas penas excarcelaciones agresores entrada vigoruna batalla avivada mañana sesión control ministra irene montero respondió ataque pp vox acusaron ejercer violencia política norma promueven cultura violación bancada derecha tomó insulto presidenta congreso socialista meritxell batet pidió titular igualdad contención expresiones enturbiar convivencia cámara cultura violación concepto acuñado década teoriza creencias estereotipos conductas machistas generan alimentan idea mujeres cuerpos propiedad hombrecon eco mañana portavoces igualdad distintos partidos ponentes ley trans comisión reunieron cerrar flecos cerraron fuentes comisión ánimo negociador mayoría grupos</t>
         </is>
       </c>
       <c r="C44" t="n">
         <v>2</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Politica_8.txt</t>
+        </is>
       </c>
     </row>
     <row r="45">
@@ -1010,11 +1230,16 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>rescate grecia finalmente consumado probable descorche champán cancillería alemana naturalmentees difícil encontrar abismo grande retórica oficial rescate ayuda grecia corriente fondo real triunfo político angela merkel costa grecia trabajadores europeos valores tradicionales uniónlos efectos ayuda grecia terribles causa estupefacción seguir leyendo ayuda triunfo solidaridad europea sintetiza andreu missé editorial número alternativas económicas puestos causar escalofríos años ayuda troika salarios grecia reducido pensiones consumo producto interior bruto caído cifra guerras paro acerca mundo rescate empeorará cuadro acompañado urgentemente quita impagable deudasin sufrimiento balde servido entronizar angela merkel emperadora uela mandataria ordoliberal máxima crisis oportunidad conseguido tormenta eurozona desatada atenas avances frentes político económico liderazgo partido capital alemánen años sangre sudor lágrimas clases populares griegas merkel conseguido pasar rescate ayuda acreedores –y particular bancos alemanes recuperen capital prestado irresponsablemente años burbuja tópico griego manirroto incapaz gestionar seriamente semejante caudal ayuda realidad sucesivos rescates ido dirigiendo directamente pago acreedoresantes crisis unión europea club guardaba formas decisiones tomaban ocasiones esbozaba núcleo duro potencias clave proyecto europeo francia alemania quedado manda merkel realidad desnuda especialmente sonrojante françois hollande cuyo papel comparsa asestado durísimo golpe proyecto europeo imaginario alternativa progresista margen maniobra presidente potencia europea francia apaga vámonosel triunfo merkel –y alexis tsipras colocado frontispicio ue siglas fetiche margaret thatcher tina there is alternative castellano alternativa sueño thatcher convertido finalmente realidad discípula formada paradójicamente partido stalinista europa occidentalesta música sobras conocida pista baile semana conclusión formal tramo rescate coincidido concatenación noticias ponen evidencia corriente real fondo –los avances merkel cháchara ayuda greciael lunes instituto halle investigación económica sede berlín presentaba estudio muestra crisis euro práctica beneficio millones euros alemania podido financiarse coste entorno volátil precario emisión deuda alemana atrae imán mercados buscan seguridad permite presten dinero gratisel financial times dedicaba gráfico portada correlación cotización euro exportaciones alemanas correlación evidente caída euro corresponde aumento exportaciones alemanas evidentemente tramo enésima crisis griega hundido cotización euro situarla paridad dólar disparado exportaciones alemanas semestre subido relación periodo récordy suficiente financial times daba miserias partido socialdemócrata alemán spd socio gobierno merkel teoría principal alternativa histórico partido emblema socialdemocracia europea bajas intención voto puntos partido canciller derrotismo absoluto extendido filas incluida direccióncon crisis griega euro merkel humillado francia entronizada emperadora ue asegurado bancos alemanes cobren debían griegos ahorrado millones euros financiarse mercados coste colocado exportaciones alemanas cifras récord hundido principales rivales políticos alemania europa cuelga cartel alternativala crisis remite significa</t>
+          <t>miguel alvariño plata copa mundo coronar sensacional gallego cedido recurvo tiaxcala conquistar plata supone undécima medalla internacional añomiguel alvariño resultados nombres deporte español reivindicó domingo copa mundo tiro arco disputada tiaxcala méxico arquero gallego colgó medalla plata ampliar colección medallas extiende once clave internacional añoalvariño alcanzó competición disputada sábado domingo cita acudían mejores temporada disciplinas tiro arco nivel individual cabeza serie consiguió victorias cedió favorito coreano kim woojinalvariño debutó victoria cuartos brasileño marcus dalmeida logró vencer semifinales turco mete gazoz citó woojin superó comodidad cuartos mexicano jesús flores semifinales compatriota coreano kim ke deok opción woojin arquero español derrotó coreano llevó tirada español aumentó rentas dieces nuevamente nueves alvariño respondió miguel aumentó rendimiento tirada wookin empató asiático ganó cuarta alcanzar superar puntos daban victoriaa llevarse triunfo alvariño consiguió undécima medalla temporada clave internacional copa mundo conseguido nivel individual oro antalya plata bronces gwangju medellín equipos plata medellín bronce gwangju nivel masculino plata parís nivel mixto añadido oro individual plata equipos masculinos campeonato europa medallas restantes llegaron plata equipos masculinos bronce equipos mixtos juegos mediterráneos orán</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Deportes_41.txt</t>
+        </is>
       </c>
     </row>
     <row r="46">
@@ -1023,11 +1248,16 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>tregua israel movimiento islamista hamás gobierna franja gaza cumple año residentes territorio palestino cambiado situación continúa desesperadael alto fuego logrado mediación egipcia puso cruenta guerra comprometió israel alivio bloqueo expansión zona permite pesca millas entrada materias primas construcción industria agriculturatambién negociaciones mediación cairo construcción puerto aeropuerto enclave costerosin percepción franja cambiado difíciles condiciones vida continúan férreo bloqueo israelí apoyado egipto mantienela reconstrucción comenzado barrios enteros gaza shuhaiya permanecen llenos escombrosaquí vida gaza insoportable interminable sitio israelí impuesto nueve años falta electricidad tasas pobreza desempleo creciendo quejó efe hasan ahmad parado años gaza capitalla población vive prisión aislada abandonada mundo persona hundida busca rama paja océano sobrevivir añade pesimistahamás asegura llevando cabo negociaciones indirectas israel ayuda exenviado cuarteto paz oriente ministro británico tony blair lograr alto fuego plazo incluiría pasaje marítimo gaza chipre noticia autoridades israelíes desmentido logrado generar esperanza franjasegún datos ministerio sanidad gaza guerra año atrás gazatíes muertos heridos tercios mujeres niños israelí murieron soldados civilesademás territorio sufrió grave destrucción casas totalmente destrozadas daños distinta consideración año personas siguen desplazadas hogaresal capital barrio tufah kilómetros frontera israel levantaba casa um mohamed saudí cincuenta años madre hijos pisos piedra convirtieron escombros alcanzados misiles israelíesnos costó treinta años pudimos construir casa convirtió montaña cascotes lamenta efe mujer explica tanques israelíes dispararon azar casas barrioen tufah tanques aviación israelíes destruyeron casashasta cambiado casa reconstruida prometieron queja um mohamed añade escapar vivimos meses escuelas refugiaron desplazados alquilamos pequeño apartamento gaza capitaltodos ministerio vivienda controlado hamás prometen donación kuwait llegar reconstruir casas lamenta promesas concreten hechosen octubre donantes internacionales reunieron cairo conferencia comprometieron entregar millones dólares reconstrucción gaza secretario onu ban kimoon visitó franja anunció comienzo reconstrucción mes levantado casalos gazatíes culpan consideran lento humillante mecanismo reconstrucción acordado israel onu entender permite acelerar procesopero culpan división hamás movimiento nacionalista fatah gobierna cisjordania difícil transferencia fondos internacionales negociaciones entrada materialesel analista político gazatí talal oukal advierte bloqueo continua división palestina temer establezca entidad aislada mine sueño establecer palestino independiente acusa israel separar gaza resto palestinala solución problemas franja habitantes bloqueo israelí desunión política palestina vista</t>
+          <t>órgano función cuerpo tratase piezas puzle caso riñones encargan eliminar desechos exceso líquidos encuentran organismo proceso conoce filtración glomerular falla provocar insuficiencia renal crónica enfermedad afecta población adulta españa mayores años estudio epidemiológico insuficiencia renal españa epircela insuficiencia renal crónica ocurre riñones pierden repentina capacidad filtrar desechos sangre filtración acumulan niveles nocivos deshechos llegar desequilibrar composición química sangrese enfermedad desarrolla regla suele gravedad patología dependerá salud paciente persona padece anomalía llegar recuperar función renal normalaunque personas hospitalizadas situación reversible insuficiencia renal aguda fatal requiere tratamiento intensivo trate evitar mayoría síntomas presentan enfermedadhay enfermedades duda afectan género margen explican cuestiones biológicas patologías pudiendo presentarse géneros aparecen hombres mujeres dimorfismo sexual insuficiencia renal cuya recuperación machos hembrasun reciente estudio publicado revista cell reports planteado posibilidad nrf aproveche terapéuticamente inhibir enfermedad proteína demuestra resiliencia femenina insuficiencia renal epirce reflejaba diferencia géneros insuficiencia renal crónica frecuente varones mujeres respectivamenteeste dimorfismo sexual explica covid acabado vida hombres mujeres hipótesis expertos apuntaban fumar hombres propensos lavarse manos allá cuestiones puramente biológicas caso insuficiencia renal causa cuente amplio consenso científico expresidente asociación renal europea siglas inglés ziad massy reconocía podía especular acerca razonesel registro coincidía datos epirce pacientes produjo reemplazo renal hombres tratamiento aplica enfermedad etapa terminal estudio planteaba efectos dañinos testosterona función renal disminuya rápidamente hombres mujeresel diagnóstico insuficiencia renal aguda resulta complejo determinadas ocasiones provoque señal alerta única forma detectar enfermedad pruebas laboratorio realicen motivos médicos advierten posibles síntomas patología disminución volumen orina excretadola retención líquidos provoca insuficiencia renal afectar piernas tobillos pies produzcan hinchazones síntomas falta aire acompañada desorientación fatiga pacienteconforme función renal disminuye persona sienta cansada problemas dormir noche dolor localiza articulaciones encontrar zonas cercanas pecholos síntomas insuficiencia renal comienzan lentamente paciente nota inmediato deberá pendiente insuficiencia renal aguda llegar provocar convulsiones coma</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Salud_57.txt</t>
+        </is>
       </c>
     </row>
     <row r="47">
@@ -1036,11 +1266,16 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>chino wang jianping subjefe antiguo comandante policía armada investigado aceptación sobornos convierte altos cargos militares activo sucumbir campaña anticorrupción emprendida gobierno comunistasegún confirmó jueves portavoz ministerio defensa china yang yujun wang únicamente sospechoso recibido sobornos investigación llevada cabo ejército chinocon anuncio confirmaba información publicada agosto diario hongkonés south china morning post adelantó uniformado detenido mujer secretaria violar disciplina partido comunista chino pcch eufemismo empleado casos corrupción rumores torno figura crecido semanas raíz ausencia plenario celebrado octubre acontecimientos públicoscon arresto wang convierte activo investigado presidente xi jinping lanzó campaña anticorrupción llevado escrutinio millón miembros formación comunistalucha personalcomo líder ejército millones soldados xi lucha problema estamento militar prioridades colaboradores consideran lacra calado llegar socavar capacidad país librar guerra pekín proyectando fuerza influencia regiónen comparencia yang años ejército aplicado férrea normativas anticorrupción conducido procesamiento prominentes oficiales esforzamos práctica sistema atreva caer corrupción corromper construir fuerzas armadas fuertes declaróentre wang comandó policía armada fuerza paramilitar régimen trabajó estrecha colaboración todopoderoso zhou yongkang zar seguridad china xi cayó desgracia condenado cadena perpetua julio influyente estamento militar testigo condenaba cadena perpetua aceptar sobornos retirado guo boxiong vicepresidente comisión militar central máximo organismo militar país guo pasó responsable ejército alto rango condenado prisión chinamomento decisivoxu caihou vicepresidente comisión época guo investigado corrupción detenido año espera juicio falleció víctima cáncer procesado tercer arrestado anuncio tian xiusi comisario fuerzas aéreas ejército liberación popular chino aprehendido juliode partido comunista lucha corrupción país llegado decisivo conseguido importantes logros espera año siga dando resultados campaña goza amplia popularidad ciudadanos chinos observadores apuntan presidente utilizando librarse posibles rivales políticosen años registrado enormes progresos mejorado confianza pública campaña gobernar estrictamente partido luchar corrupción xinhua comunicado publicado miércoles cierre reunión celebrada buró político comité central pcch presidida xi corrupción existente debería reducida aumento contenidohoy temida comisión central control disciplinario pcch informaba procesamiento antiguos jefes espionaje viceministro seguridad pública ma jian acusado aceptar sobornos abuso interferir aplicación ley</t>
+          <t>pp pedirá comparecencias documentación reunión comisión parlamentaria investiga atentados secretario pp ángel acebes explicado partido pretende trabajos prosigan agote investigación resto partidos prefiere pasar redactar conclusioneslos grupos parlamentarios decidir comisión continúa definitivamente cierra partidos pp mostrado claramente partidarios concluir trabajos comisión comparecencias semana presidente gobierno representantes víctimassegún informado elmundoes fuentes pp escrito incluye comparecencias solicitadas anterioridad celebrado petición declaren miembros fuerzas seguridad asturias guardia jesús campillo agente grabó cinta cancienes cofidente lavandero alertaba red tráfico explosivos asturias capitán marful comandante jambrino teniente coronel fernando aldea comisario policía avilés responsable operación pípol jefe superior policía asturias juan carreteroademás pp solicita testifiquen comisión confidentes francisco javier villazón lavandera josé ignacio fernández díaz nayo denunció existencia zulo explosivos habilitado antonio toro emilio suárez trashorras peticiones testimonios completan subsecretaria ministerio interior soledad lópez fernández conocida opinión juez descoordinación atención víctimasrespecto documentación pp solicita sumario sometida secreto judicial informe relaciones etarras islamistas cárceles aludido ofrecido presidente gobierno josé luis rodríguez zapatero comparecencia diciembretambién pide informes cni ofrecidos zapatero autoría atentados investigaciones escrito solicitud ministro interior comisaría información documentación utilizada jefe ejecutivo citada sesión parlamentariadiversa documentación operaciones policiales denominadas serpiente pipol informes relacionados investigaciones control explosivos asturias encuentran peticiones pp traducción cinta coránica encontrada furgoneta abandonada alcalá henares marzotodas solicitudes hechas pp comisión responden secretario pp ángel acebes calificó declaraciones congreso necesidad aclarar incógnitas interrogantesla operación pípol llevó cabo julio diversas localidades asturianas permitió desarticulación red traficantes drogas integrada personas presuntamente formaban antonio toro cuñado emilio suárez trashorras arrestados imputados traficar presuntamente explosivos usaron atentadosen agosto investigaciones denominada operación serpiente llamada enmarca club nocturno gijón habitualmente cita delincuentes manejan serpientes espectáculos striptease confidente francisco javier villazón lavandera alias lavandero guardia civil diversas actividades toro trashorras relacionadas venta explosivos escala confesión grabada jesús campillo veiga guardia civil información cinta</t>
         </is>
       </c>
       <c r="C47" t="n">
         <v>2</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Politica_10.txt</t>
+        </is>
       </c>
     </row>
     <row r="48">
@@ -1049,11 +1284,16 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>victor orban sale húngaro líder polémico conflictivo unión europea marcado protagoniza deriva autoritaria iliberal palabras vladimir putin hostil ucrania veteranos seno consejo europeo jugar cartas martes ecofin reunión ministros finanzas visto forzado posponer discusión aprobación cuestiones clave presión veto húngaro paquete ayuda financiera kiev millones euros posición común tipo único tasa multinacionales decisiones referidas precisamente hungría fondos comunitarios bruselas congelarleorban años poniendo palos ruedas comunitarias bloqueando impidiendo decenas comunicados condenas política exteriores china israel rusia país pegas puesto sanciones moscú invasión único unión ratificado entrada suecia finlandia otan mezclando habilidad dosieres afectan directamente importan europa públicamente sostiene jamás vinculado ambas cosashace comisión europa luz verde plan recuperación húngaro único país pendiente arriesgaba perder acceso millones desbloqueaba año bruselas condicionado desembolso cumplimiento superhitos especiales simultáneamente comisión recomendado ministros congelen millones euros fondos cohesión activar llamado mecanismo derecho permite precisamente incumple sistemáticamente normas comunesel ecofin debía decidir martes cortar fondos decidido fórmula escogida parche truco ganar abaratar factura ministros pedido comisión europea haga evaluación actualizada sostiene budapest fecha corte usó comisión producido avances reales creen actualiza fecha semana empezar rebajar cuantía fondos congelar bajaría identificado momentouna haga informe probablemente semana ministros deberían valorarlo previsible orban siga diciendo desproporcionado excesivo pelota quedaría tejado consejo europeo jefes gobierno ven bruselas mes ecofin justo estudiando probable videoconferencia ocurra caso hungría mantiene veto millones ucrania tipo común gravamen multinacionales tiempoorban razones afecta kiev prioridad unión afinidad moscú dependencia energética hidrocarburos hungría roce ucrania años minoría magiar país cuyos derechos orban respetan tercero puro interés veto mano fuerte partida piensa venderla baratael ministro francés bruno maire saluda alemán christian lindner martes ecofinel ministro francés bruno maire saluda alemán christian lindner martes ecofinkenzo tribouillardafpla ue busca alternativas ayudar ucrania delicado frío daño necesidades financieras altísimas comisario johannes hanh responsable presupuestos unión explicado martes buscando alternativas legales presupuesto disposición enviar fondos kiev opción miembros aumenten garantías proporcionan comisión endeude lento casos requiere trámites parlamentos nacionales podido adoptar paquete totalidad desanimaremos ministro finanzas checo zbynk stanjura función responsable temporal reunión ministros finanzas ambición empezar desembolsos ucrania enero añadióla negociación máximo nivel emmanuel macron olaf scholz aprovechado cumbre informal celebra albania hablar tema orban hungría insiste vetando favor paquete ayuda macrofinanciera hungría segura aprobará prometido sesión parlamentaria aprobará entrada países nórdicos otanla semana viene oportunidad budapest sartén mango hungría necesita urgencia fondos europeos millones congelados gobierno apruebe reformas pendientes garantice independencia instituciones tribunales esenciales economía tocada crisis energética inflación expira plazo contemplado reglamento fondos next generation ue visto plan re recuperación húngaro arriesgan perder calendario apretado ego riesgo cestatodo mundo unión entiende queda precio millones euros congelarse budapest corrija deficiencias ministros margen cambios reales semanas ue derecho política líderes deciden semana viene promesas esfuerzos orban suficientes basta desbloquear titubearán precedente quedado sellado próximas difícil castigar incumple sistemáticamente</t>
+          <t>psoe exige explicaciones ministro josé ignacio wert considerado preciso revisar sistema universitario becas wert otorgan función rentas rendimiento académico alumno declaraciones creado rechazo oposiciónpara socialistas paso atrás elpluralcom portavoz educación congreso secretario educación mario bedera ve indicios retorno épocas pasadasp afirman paso atrásr teoría beca premio derecho sustentar partido popular desigualdad desintegrar cohesión social clara involución significa paso atrás años vuelven sistema paternalistap cambiar gobierno aznar planteaba equis millones becas criterios renta académicos subían nivel número peticiones presentadas hicimos cambiar método estableciendo principio límite presupuestario número becas solicitadas umbral requerido año planteamos becas derecho establecimos umbrales renta existía derecho beca exigían criterios académicos mantener becap crisis económica ocurriór años crisis chicos encontraron situación precisar becas seguir estudios aumentar presupuesto año alcanzamos millones euros becas hablamos becas bachillerato fp enseñanzas artísticas universidadp situación chico cuya familia pagar estudiospues inferioridad condiciones abrir abanico puedan puedan pagarse estudios quieren primar excelencia pp revisar sistema pedir calificaciones altas contemplar umbral socioeconómico imaginemos chaval ayudar familia dispone estudiar frente situación familiar dedicarse exclusivamente estudios partimos base injustap pierden interés estudiarpues olvidar efecto incentivación becas incentivan afán estudiar difícil obtenerlas igualdad supone desalentar chavales pp becar puedan prepararse crear becas selectivas dividirán sociedad promocionar familias costear estudios hijos estudiaran pagar demás… buscarse vidap plantearán ministrovamos preguntarle wert cree becas derecho avisaremos vigilantes cantidad becas concederán beligerantes cumpla igualdad oportunidades</t>
         </is>
       </c>
       <c r="C48" t="n">
         <v>2</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Politica_12.txt</t>
+        </is>
       </c>
     </row>
     <row r="49">
@@ -1062,11 +1302,16 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>sonaron alertas aéreas partes ucrania autoridades instaron civiles refugiarse ucranianos golpeado primeroel jefe fuerzas aéreas ucranianas confirmó mañana rusia lanzando oleada misiles suelo ucraniano incursión aérea ucrania territorio ruso audaz fechatras guardar silencio rusia finalmente reconoció trataba ataque ucraniano alcance ministerio defensa ruso confirmó nota drones ucranianos volaban baja altura interceptados defensa aérea fuerzas aeroespaciales rusas resultado caída explosión aeródromos rusos restos aviones tripulados superficie casco aviones rusos resultó levemente dañada nota ministerio ministerio ruso admite militares rusos encontraban aeródromo resultaron muertos militares resultaron heridos trasladados instituciones médicas brindó asistencia médica necesaria añade comunicadoeste aeródromo saratov situado kilómetros ucrania medios rusos canales astra baza dron explotó plena pista imágenes satélite compartidas gobierno ucraniano alineaban bombarderos listos participar ejecutivo ruso insiste llamar operación militar especiallos drones adentraron cielos rusos noche golpear despegan bombarderos destruyendo ciudades ucranianas destacado asesor presidente ucraniano mijailo podoliak insinuaba mañana kiev ataque tierra redonda descubrió galileo astronomía estudiaba kremlin dando preferencia astrólogos corte contrario sabrían lanza espacio aéreo países objetos voladores desconocidos regresarán punto partida escribió twitter consejeroel gobierno ucraniano suele ambiguo ataques fronteras agosto aviones combate rusos destruidos explosiones base aérea rusa costa suroeste crimea península ucraniana anexionada rusia ucrania atacó puente crimeaatacar nuncala base engels kilómetros sureste moscú kilómetros separan frontera ucraniana distancia grande armamento utilizado ucrania fechael ataque produce empresa estatal ucraniana ukroboronprom anunciase llevado cabo serie pruebas exitosas avión tripulado alcance kilómetros dron ucraniano transportar kilos explosivos prometimos construirlo finalice año tratando cumplir promesa portavoz ukroboronprom natalia sadrusia guerra casa roman busargin gobernador región saratov emitió comunicado instando residentes mantener calma noticia fuerte explosión base aérea difundió redes sociales dimitri peskov portavoz kremlin confirmó presidente vladimir putin puesto noticias agencia noticias estatal rusa tassel punto partida bombasla elección base casual engels bases bombarderos estratégicos acogen bombarderos nucleares rusia región amur lejano oriente ruso explosiones funcionarios ucranianos docena bombarderos rusos despegado base aérea engels rumbo ucrania lanzaron misiles destruir infraestructura civilesta ataques rusos mataron personas destruyendo casas sureste provocando cortes energía autoridades kirilo timoshenko subdirector oficina presidencial misiles alcanzado edificios zaporiyia región situada sureste imágenes confirmadas circularon redes sociales mostraban humaredas sur kiev cercanías planta energía suministro agua región odesa detuvo estaciones bombeo líneas reserva quedaron energía pasó mikolaiv región vecinacombates estelos combates norma país víctimas zonas ocupadas edificios residenciales instituto estatal donbas región oriental lugansk alcanzados lunes fuego ucraniano matando nueve personas gobernador impuesto rusia región agencia noticias estatal rusa tass instalaciones utilizadas albergar refugiados trabajadores construcción funcionario impuesto autoridades rusasambos bandos ucrania informaron bajas ataques noche kryvyi rih ciudades sur ucrania cohetes rusos mataron persona hirieron medianoche región sureña jersón ucrania obligó fuerzas rusas retirarse río mes gobernador yaroslav yanushevych bombardeos rusos matado personas</t>
+          <t>empieza funcionar pp estrategia adelantar elecciones castilla león cortar paso españa vaciada desactivar amenaza arrebatarle votos escaños precipitado plazos electorales presentarse imposibilidad madurado proyecto llevado principales asociaciones león zamora paso renunciar presentarse comicios autonómicos febrerola consecuencia directa decisiones españa vaciada complicado cumplir objetivo presentar listas electorales provincias castilla león lógicamente proyecto debilitado contaría opciones irrumpir peso cortesdesde coordinadora estatal españa vaciada renuncia alcanzar objetivo presentes nueve provincias recalcan seguirán trabajando intensamente enero vence plazo registrar oficialmente candidaturas antoja difícil cambio opinión león zamoraasimismo alturas decidido pasar provincias valladolid segovia ávila asociaciones vinculadas españa vaciada tomado decisión firme aseguradas listas electorales soria burgos salamanca palenciacomo publicó mundo causas peso convencieron alfonso fernández mañueco propiciar adelanto cortar paso españa vaciada consolidarse cogiera vuelo actor tablero pp conscientes movimiento social listo mes enero iban avanzar trabajos punto herramienta iba salto política nacional autonómica municipalproceso aceleradouna convocatoria rápida sucedido cogido pie cambiado obligación acelerar proceso fiestas navideñas sexta ola coronavirus dificultades provocado celebrar reuniones agilizar decisiones plazos candidaturas hechas registradas enero quedando remedio correr velocidad provincias asociaciones plurales rigen cúpulas disciplinas sucede partido paso exige altas dosis consenso significa diálogode plataformas debate avanzado internamente rápidas decidir evidente soria ¡ya anunció intenciones anuncio mañueco seguida puso recoger firmas constituir agrupación electores soria siguieron burgos salamanca palencia</t>
         </is>
       </c>
       <c r="C49" t="n">
         <v>2</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Politica_5.txt</t>
+        </is>
       </c>
     </row>
     <row r="50">
@@ -1075,11 +1320,16 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>gonzález defiende unidad españa espera crisis quede atrás gonzález confía año corrupción desaparecerá vida públicael presidente comunidad madrid ignacio gonzález defiende unidad país igualdad españoles mensaje felicitación año confía crisis quede definitivamente atrás corrupción desaparezca vida públicaignacio gonzález público página web comunidad madrid mensaje felicitación año torre reloj real casa correos sede gobierno regional azoteas edificios puerta sol espaldasgonzález comienza mensaje repasando momentos difíciles vividos crisis golpea familias casos corrupción desafíos soberanistas mantienen posturas secesionistasrecuerda momentos año acaba relevo tranquilo ejemplar frente jefatura garantiza continuidad corona estabilidad sistema democráticotodavía gente pasando recuperación llegado región llegado mundo admitepero prosigue presidente cifras indican madrid mejorando dato significativo meses consecutivos creando afirmaensalza sanidad madrileña vuelto reconocida españa prueba superado éxito reconocido mundo caso contagio ébola producía áfricalos esfuerzos madrileños dando frutos seguir mejorando seguiré trabajando madrid siga liderando recuperación añade convencido año noche comienza recuperación llegará madrileñosdeseo año dejemos crisis definitivamente atrás año corrupción desaparezca vida pública año comienza españoles unamos afrontar juntos desafíos futuro afirmagonzález asegura seguir preocupación propuestas secesionistas atentan unidad nación igualdad españoles manifiesta firme compromiso madrid constitución unidad españa democracia soberanía nacionalmi deseo españa fuerte madrid siga mejorando disfrutemos mejores oportunidades dedicaré esfuerzos año comienza insiste mensaje termina deseando año</t>
+          <t>español fernando alonso mclaren autódromo hermanos rodríguez ciudad méxico disputará semana decimonovena prueba mundial fórmula ofrece retos distintos circuitos asegurar afición mexicana mejores temporadael año autódromo hermanos rodríguez incógnitas información rendirían coches circuito reconfigurado ofrece retos distintos circuitos necesitas encontrar compromiso carga aerodinámica rectas rápidas equilibrio enrevesada zona estadio altitud afecta rendimiento alonso declaraciones facilitadas equiposerá difícil juntar elementos sacar máximo vuelta ganas comporta paquete año añadióel autódromo hermanos rodríguez circuito ubicado macrocomplejo deportivo ciudad deportiva magdalena mixiuhca sureste ciudad méxico centro par kilómetros aeropuertoel año afición méxico mejores temporada equipo ganas volver circuito famosofernando alonsopiloto mclarenpara bicampeón mundial español afición mexicana marca diferencia año afición méxico mejores temporada equipo ganas volver circuito famoso ambiente crea afición especial piloto año sigo recordando mejores momentos temporada experiencia explicódado carrera exigente coche espero podamos fiabilidad resultado aprovechando increíble apoyo afición finalizó alonso</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Deportes_3.txt</t>
+        </is>
       </c>
     </row>
     <row r="51">
@@ -1088,11 +1338,16 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ministro japón naoto kan influyente parlamentario ichiro ozawa presentado miércoles candidaturas presidencia gubernamental partido democrático pd cuyo titular jefe ejecutivo nipónozawa años despojar kan puesto desempeña junio elección interna celebrarán septiembre militantes pd cuyo resultado reñidoeste miércoles comienza campaña proceso electoral interno partido presentación ambas candidaturas secreto voces ozawa conocido japón shogun señor feudal sombra reiterase retiraríakan pedido presentara elección provocar cisma político país suma ministros años logró convencer ozawa reunión celebrada martes tardelos sondeos opinión señalan japoneses favorables kan permanezca puesto dependerá elección interna partido quinta japón septiembre sistema político japón presidente partido gobernante ministro cuya elección refrendada dieta parlamentocinco jefes gobierno añosdesde septiembre japón jefes gobierno durado año yukio hatoyama designado urnas agosto elección interna partido poderlos analistas japoneses creen lucha presidencia pd dura atreven pronosticar resultado depender facción liderada hatoyama apostado públicamente ozawaichiro ozawa políticos poderosos japón representante vieja guardia aparato pd conocido manejos bambalinas sobrenombre shogun sombrareconocido artífice victoria electoral pd puso décadas gobierno partido liberal demócrata pld ozawa cambiado ocasiones partido investigado ocasiones financiación ilegalun militantes partido democrático elegirán septiembre presidente comicios internos controlarán parlamentarios fuerza políticadesde septiembre japón jefes gobierno partido liberal democrático shinzo abe yasuo fukuda taro aso pd yukio hatoyama naoto kan</t>
+          <t>federación española tiro arco reaccionó rapidez visión semana país cayera alarma deporte iba echando cierre golpe clausura pabellones gimnasios piscinas tiradores técnicos volaban rumbo turquía seguir entrenando reunimos consejo superior deportes decidimos adelantar viaje previsto marzo explica rubén montes director técnico equipo nacional tiro arcoatrás resto modalidades espera permiso especial mantener preparación españa cita año apague llama olímpica continuar entrenando apunta montes federación internacional recordó insistencia coi japón salvar juegossólo logrado exiliarse deporte español dejaron atrás mascarillas incertidumbre contagios aislarse reductos libres coronavirus iban quedando europa mancha terminado llegando turquía suspender vuelos destinos españa cerró fronteras grecia bulgaria frenar pandemia provocado territorio centenar casos fallecido suspendió prueba copa mundo semana autorizado entrenar relata montes pendientes restricciones gobierno erdogan prepara instaurar paísprolongar estanciahasta equipo español solitario campo cercano hotel enclave turístico otomano orillas mediterráneo cierran federación turca invitado unirnos concentración hora aseguran seguir entrenando pase pase director técnicoel plan inicial equipo antalya abril españa habilitara entrenar volveríamos intentaríamos continuar ayuden federación gasto supone pide montes mirando instancias superiores deporte nacional gimnastas nadadores tirador arco seco domicilio practicar allá ejercicios físicos haría falta techo alto parapeto casa distancia adecuada detalla montes especialidad precisión nervios congelados consiste acertar diana situada metroslos arqueros españoles sesión on line psicólogola aparente calma turca relajado arqueros tranquilo pasara tomando medidas precaución recuerda miguel alvariño único plaza garantizada juegos tokio categoría femenina equipos juego evitar espacios cerrados acuden caminando minibús centro entrenamiento viajaron equipos protección mascarilla gel desinfectante llevan consigohablamos familia tranquiliza centremos entrenar preocuparnos comenta alvariño tardes conectan españa pantalla pegan sesiones on line psicólogo car pablo río carolina marín medallistas olímpicos deportistas duros mentalmente tiro arco exige rendir presión controlando agentes externos llevando situación afirma director técnico</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Deportes_49.txt</t>
+        </is>
       </c>
     </row>
     <row r="52">
@@ -1101,11 +1356,16 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>kim jongun recuperó atención desarrollo arsenal militar corea norte asistir ensayo arma táctica ultramoderna difundió viernes agencia oficial país semeja explícito gesto desencanto pyongyang parálisis sumido proceso negociación unidossin pyongyang anunció deportación estadounidense arrestado mes octubre entrar ilegalmente país china gesto inusual asiático exigido visita altos dignatarios eeuu libertad presos nacionalidad incluido caso reos estadounidenses entregó secretario mike pompeo mes mayoambas decisiones parecen constituir cuidada coreografía política régimen norcoreano oculta desencanto negativa washington flexibilizar clausurar definitivamente diálogo adversarioaunque agencia kcna dato tipo arma prueba instalaciones academia ciencia defensa institución contribuyó fabricación misiles intercontinentales hwasong hwasongsegún agencia yonhap citó fuentes estamento militar surcoreano tratarse modelo artillería alcancela agencia oficial norcoreana máximo dirigente agradeció emocionado científicos participado desarrollo sistema armamento sirve muestra región rápido crecimiento capacidades defensivas arma objetivos prioritarios padre kim jongillas palabras kim jongun constituyen giro dialéctica pyongyang parecía abandonado tono militarista principios año mandatario decidió centrarse progreso económico dejar visitas instalaciones militares alusiones tono bélicohace jornadas diario japonés choson sinbo vinculado pyongyang recordó negociación nación basa principio acción simultánea fases implicaría entender destrucción centro pruebas nucleares cese ensayos misiles turno estadounidense concesión significativawashington suspensión maniobras militares suele ejército corea sur cumplido protocoloel alto cargo norcoreano ministerio asuntos exteriores volvió repetir tesis insistir mejora relaciones sanciones incompatibles funcionario advertir eeuu comportándose forma arrogante cambiar postura corea norte replantearse regreso llamada política byungjin siguió basada desarrollo mutuo programa nuclear misiles progreso económicocorea norte canceló encuentro debía mantener york delegación alto nivel país secretario eeuu mike pompeo pensaba debía antesala encuentro presidente donald trump kim jongunesa cita esperaba registrara presente año quedado relegada año viene aclaró vicepresidente estadounidense mike pence entrevista televisivaes absolutamente imperativo salga próxima cumbre plan identificar armamento cuestión lugares desarrolla permita inspección instalaciones establezca plan desmantelar armas nucleares resultados número trumppence reiteró implemente hipotético plan washington mantendrá presión sancionesel estancamiento conversaciones norcoreanos estadounidenses ralentizando dinámica aproximación mantenía seúl pyongyang visita kim jongun capital surcoreana prevista año concretarse proyectos colaboración desarrollo líneas férreas carreteras país norteñoel presidente surcoreano moon jaein principal valedor estrategia acercamiento vecino continúa apostando intercambio cultural deportivo ve atrapado estricto marco establecen sanciones internacionales</t>
+          <t>secretaria organización psoea susana díaz calificado bofetada gobierno español pp anuncie recurso inconstitucionalidad decisión parlamento andaluz considerar incompatible cargo alcalde parlamentario autonómicoen declaraciones periodistas díaz subrayado pp injusta compatibilidad adoptada socialistas recordado galicia limitación recurre aprobó gobierno ppdíaz culpado presidente español mariano rajoy recurso tomado conformidad presidente pp andaluz javier arenas criticado identifica andaluces cuestiona decisiones parlamento cree representante digno comunidadha agregado gravísimo frente mano tendida presidente josé antonio griñán psoe pidiendo conferencia presidentes juntos lealtad gobierno español responda disminución fondo compensación cifrado millones eurosesa disminución inversiones aprobadas compensar aumento población andaluza afectará metros sevilla málaga obras díazrespecto posibilidad eliminar transferencias andalucía comunidades anuncio gobierno rectificó díaz sabía trataba broma gusto desliz cometido ejecutivo novatono quiero pensar esperando tomar decisión tipo pasen elecciones autonómicas marzo díaz indicar socialistas vigilantes eliminen transferencias incluidas estatuto respaldadas congreso senadopor díaz calificado fraude electoral decisiones económicas adoptadas consejo ministro pp negaron mes</t>
         </is>
       </c>
       <c r="C52" t="n">
         <v>2</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Politica_6.txt</t>
+        </is>
       </c>
     </row>
     <row r="53">
@@ -1114,11 +1374,16 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>líder norcoreano kim jongun decidido acelerar proceso aperturismo comenzó principios año anunció disposición negociar salida pacífica tensión implica existencia arsenal nuclear anunciado secretario mike pompeo gira región encuentro domingo kim comprometió permitir visita inspectores internacionales confirmar desmantelamiento instalaciones nucleares punggyeri dinamitadas mayola oferta percibida gesto voluntad relanzar negociaciones unidos pyongyang espera cambio gesto reciprocidad traducirse cumbre donald trump futuro próximopompeo cumbre pyongyang discutió producirá verificación desmantelamiento infraestructuras militares concesión norcoreana cumbre presidente sureño moon jaein kim comprometió destruir central yongbyon centro pruebas motores cohetes washington adopte medidas similares alusión firma paz alivio sanciones internacionales impuestas corea norteademás secretario mostró confiado cumbre kim trump produzca corto plazo agenda kim jongun apretada próximas semanas comunicado presidente surcoreano moon jaein gabinete homólogo norteño preparando visita líder chino xi jinping pyongyang viajar rusia entrevistarse vladimir putinen caso dirigente chino xi jinping visitado corea norte vicepresidente chino recibido ocasiones líder norcoreano moscú padrino décadas régimen comunista ejercido papel primordial acontecimientos península mantiene activa influencia hora apoyar sanciones respaldar solución dialogada resulta natural kim viaje finales año capital rusa contexto visitas internacionales realizando principios añoel viernes portavoz senado ruso valentina matviyenko visitó corea sur adelantó interlocutores preparativos viaje kim marcha única cumbre regional vista posibilidad cumbre norte japón permanece abierta confió moon citado agencia estatal yonhap creando orden península coreana llevará orden noreste asia moon debemos esforzarnos cooperar países concernidosese orden parejo normalización relaciones pyongyang washington carrera obstáculos vuelve vivir tiempos optimistas viaje pompeo creado atmósfera condiciones celebrar cumbre norte unidos próximamente confirmó surcoreanomoon detalles duda nivel conocimiento consagrado aliado kim proceso distensión punto mantener cumbres intercoreanas lanzado medidas conjuntas militares diplomáticas económicas destinadas resolver división península coreana responsables acordaron cumbre celebrada ciudad fronteriza panmunjom terminar contencioso enfrenta norte sur guerra corea moon caracterizado habilidad política hora limar asperezas lograr concesiones satisfagan partesproductivo maravillosoel presidente sureño pronunció recibir anoche mike pompeo casa azul presidencia surcoreana secretario norteamericano aterrizó seúl procedente pyongyang llevó cabo cuarta visita oficial diferencia tercer viaje pompeo kim siquiera dignó recibirle dictador asiático ofreció trato privilegiado encuentro kim mostró confiado desarrollo favorable circunstancias extremada confianza recíproca donald trump informado agencia central noticias korea kcna siglas ingléskim tachar encuentro pompeo productivo maravilloso explicaba agencia entusiasta artículo contrasta tono semanas reproches mutuos enturbiaban relaciones bilaterales parecían alejar solución negociadahoy washington lamenta reticencias pyongyang hora definir calendario desnuclearización corea norte supedita medidas recíprocas eeuu lentitud hora desvelar lista instalaciones nucleares cerrar pyongyang vuelve referirse métodos mafiosos fustigó verano interlocutor pompeo ambas partes parecen comprometidas mantener encuentro alto nivel punto kim jongun agradeció trump esfuerzos sinceros progresos aplicación singapur solicitó pompeo enviase saludos trumptras visitar japón corea norte corea sur secretario finaliza gira china recibido contraparte ministro exteriores consejero wang yi encuentro caracterizado tensión fruto guerra comercial estadounidense escalado constantemente tensión comercial china adoptado serie acciones tema taiwán dañan derechos china criticado fundamento políticas internas externas china wang conferencia prensa creemos ataque directo confianza mutua ensombrece relaciones exigimos contraparte estadounidense detenga tipo acciones</t>
+          <t>lamento hugo gonzález semifinal estiloskatie ledecky pierde gana llora minutoscaeleb dressel explosión velocidad abrir bocahugo gonzález estilos encontrar semifinales sensaciones progresar aquatics centre tokio español acabó sexto parciales auguraban entrar mejores contrario series llevaron espalda debía obtener plaza campeón europalos juegos entorno distinto competencia emociones clasificados semifinal empezar europeo chino estadounidense japonés shun wang nadó hugo gonzález serie quedarse centésimas entrar veterano laszlo cseh añosno excusas español claramente decepcionado perdí décimas recuperé sentí anteriores prosiguió dejar duda inquietante micrófonos cadena cope espero carrera juegos ayudas becas determinan puestos estilos hándicap español alcanzó espaldauna distancia dueñoa años gonzález ve ciclo olímpico plenitud conduce parís explosión acaba producirse título medallas europeo budapest deberá definir diseñar preparación nadador canoe modificó programa entrenarse unidos hugo concede importancia capital progresiónlas malas sensaciones evidentes semifinal cambió respiración obtener mejores referencias remontar teoría fuertes braza libre octavo paso mariposa mejoró sexta plaza siguientes tiempos paso hacían temer lento acreditado oro continental mayo récord nacional repetirlo opciones podio estilos abiertos tokio prueba campeón especialidad chase kalisz entrara michael phelps ryan lochte espera dueñosorpresa espaldaa mala noticia natación española soñaba medalla mallorquín precedió años nico garcía adelantado progresión finalista joven espalda masculinas especialidad representante español destacarel nadador gredos resignó acumular experiencia debut olímpico semifinal bocado décimas marca dejarla tercero administrar fuerzas especialmente tercer exprimir energía restante remontar puesto marca nacional conseguida bañador textil próxima madrugada éxito nadador futuro mejorar tiempos señalado clave citas justo falló hugo gonzálezla alcanzarla jessica vall catalana concluyó sexta semifinal braza serie años ciclo olímpico toca espera mireia belmonte líder natación española claroscuros</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Deportes_59.txt</t>
+        </is>
       </c>
     </row>
     <row r="54">
@@ -1127,11 +1392,16 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>fronteras personas participaron saltoun centenar inmigrantes logra entrar melillaproceden fundamentalmente mali guinea conakryen producido intentos salto personas entraron españauno subsaharianos operado fractura tibia peronéunos inmigrantes permanecido encaramados valla horasvea álbum imágenes salto vallainmigrantes encaramados valla melilla martes foto stringer reuters vídeo atlasagenciasmadridactualizado inmigrantes entrado españa forma irregular saltar valla fronteriza separa enclave español melilla marruecoslos indocumentados formaban grupo amplio personas intentado traspasar frontera informado subdelegación gobierno español comunicadola tentativa protagonizada inmigrantes fundamentalmente procedentes mali guinea conakry valido garfios tornillos zapatos superar valla fronterizalas fuerzas seguridad marroquíes intentado frenar grupo dificultades tratarse zona pobladala carretera circunvalación discurre paralela perímetro fronterizo cortada tramo encontraban encaramados inmigrantes puesto fronterizo barrio chino permanecido cerradolos efectivos unidades comandancia melilla reforzados módulos ars colocado escaleras convencer migrantes descendieran alambrada desistieran empeño entrar españatras personas permanecían sentadas vallas cedido presión descendido posteriormente inmigrantes restaban descendido vallael grupo logrado pisar suelo español dirigido centro estancia temporal inmigrantes ceti ciudad melilla recibido gritos júbilo tradicional bosa bosaa puertas centro inmigrantes descalzado zapatos llevaban incrustados tornillos entregado vigilantes seguridad garfios caseros superado vallauno subsaharianos trasladado centro hospitalario pisar melilla fractura tibia peroné operado subdelegación gobiernoun año presión migratoriala presión migratoria especialmente intensa año enclaves ceuta melillaen intentos entrada irregular inmigrantes consiguieron saltar doble vallael gobierno mariano rajoy orden reforzar verja puntos perímetro reclamó apoyo unión europea ue frente situación</t>
+          <t>finaliza temporada atp llegan premios otorgan reconocimiento éxitos año premios reparten tenistas entrenador figura fundamental jugadores puedan triunfar máximo nivel nominados encuentran españoles terminado carlos alcaraz rafa nadal número mundocarlos alcaraz año ensueño tenista murciano despegó circuito subió puestos ranking velocidad vértigo joven tenista roto récords año alcaraz logros obtenidos pese precocidad sorprendido amantes deporte grand slam us open masters madrid miami torneos servido alcaraz reconocido mejores tenistas añoes querido reconocer dichos logros atp awards carlos alcaraz lucha obtener galardones reparten premio aparece murciano jugador mejorado año alcaraz comenzó año puesto ranking terminado año número mejoría increíble español entrado historia tenis logrando tenista joven historia alcanzar terminar año número mundoen categoría aparece murciano rafa nadal stefan edberg sportsmanship award premio otorga jugador año empuja máximo nivel profesionalidad integridad compitiendo compañeros espíritu justicia promueve juego pista distintas actividades alcaraz involucra tipo eventos demostrado año esfuerza máximo llegar competir número citas posibles compitió copa davis pese recuperación ganar us open gestos tenistas aparece nominado galardónen tercer premio aparece murciano indirectamente entrenador año mérito alcaraz llegar llegado tenista necesita alguien apoyo temporada obligue partido murciano reconocido numerosas entrevistas llegado entrenador juan carlos ferrero valenciano clave evolución alcaraz esfuerzo mejorar joven tenista reconocido nominado entrenador año</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Deportes_11.txt</t>
+        </is>
       </c>
     </row>
     <row r="55">
@@ -1140,11 +1410,16 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>reina muerto años reciente aniversario llegada trono isabel ii falleció residencia veraniega castillo balmoral escocia arropada familia cercana hijo carlos sucede rey años nombre carlos iii banderas reino unido ondearán media asta diez duelo nacional funeralla muerte reina meses celebración nacional jubileo platino creado sensación profundo desconsuelo británicos grave crisis política económica atraviesa país acto oficial monarca precisamente encargo gobierno premier liz truss aceptar dimisión boris johnsonel fallecimiento monarca produce cabo año muerte marido felipe edimburgo pese continuar meses intensa actividad reina pasó noche hospital síntomas agotamiento salud volvió entoncessuspendió meses apariciones públicas febrero contrajo covid empezó problemas movilidad apoyada sistemáticamente bastón recuperó justo fastos jubileo platino doble aparición balcón palacio buckingham residencia oficial trasladada castillo windsormuere reina isabel ii añosvídeo mundosu hijo carlos ocupó mes mayo apertura sesiones parlamentarias empezó hablarse comonarquía reparto papeles isabel ii recalcó repetidamente intención abdicar permanecer trono facultades físicas mentales permitieranla temida operación puente londres diseñada calcular milímetro protocolo muerte reina puso marcha acto liz truss comunicó noticia nación carlos dará discurso rey actos sucederán diez funeralla confirmación muerte breves comunicados palacio buckingham reina muerto apaciblemente balmoral rey carlos reina camilla seguirán balmoral noche volverán londres mañanacarlos despachará vienes calidad rey ministra liz truss cabo estreno downing street féretro reina seguirá balmoral sábado traslado palacio holyrood edimburgo británicos rendirle homenaje domingo catedral st giles milla real capital escocesa traslado londres tren especialel funeral celebrará cabo diez muerte abadía westminster seguido procesión castillo windsor enterrada cripta capilla san jorge marido felipe edimburgo fallecido abril mundo shock devastados noticia declaró liz truss reina roca construido moderno reino unido país gracias dijohoy corona pasa mil años monarca jefe rey carlos iii truss familia rey unimos duelo madre ofrecemos lealtad devoción ofreció isabel ii deja legado conocida isabelina ¡dios salve reyal cabo rey carlos pública declaración muerte querida madre majestad reina supone tristezas miembros familia lamentamos profundamente pérdida querida soberana amada madre</t>
+          <t>actividad física mejora salud física mental social bienestar ayuda prevenir enfermedades reduce carga sistemas salud responsables organización mundial salud evitar millones muertes año población mundial activalos responsables agencia onu aseguran cifras actividad física considerar componente bonito incluir política públicay añaden práctica deporte componente esencial salud credo organización mundial salud lograr poblaciones sanas planeta saludable resumen velar actividad física imprescindiblesin personas viven zonas acceso espacios puedan caminar correr bicicleta actividades físicas forma segura opciones desarrollado satisfacer necesidades adultos mayores personas discapacidadlas estadísticas muestran adultos mundo realiza actividad física suficiente permita aprovechar beneficios revelan países mujeres grupos étnicos minoritarios comunidades desfavorecidas personas discapacidades enfermedades crónicas probabilidades permanecer inactivaspor mujeres activas hombres diferencia nivel mundial hombres frente mujeres países renta alta inactivos comparación renta media renta baja directrices organización mundial salud recomiendan mundo activo regularidad obtener beneficios salud mental física adultos minutos actividad aeróbica moderada vigorosa semana media minutos niños adolescenteslos niveles inactividad adolescentes alarmantes cuartas partes observan directrices proporción mayoría países muchachas propensas inactividad muchachosla pandemia covid puesto manifiesto desigualdades existentes agravándolas personas comunidades vulnerables responsables organización mundial salud recuerdan demasiadas personas viven comunidades calles inseguras peatones ciclistas acceso deficiente espacios públicos abiertos programas instalaciones inasequibles ejercicios practicar deportesesto injusto cambiar aseguranpor agencia onu pedido responsables toma decisiones sectores salud deporte educación transporte aumenten urgentemente oferta programas servicios inclusivos entornos seguros promuevan actividad física comunidadesen documento promocionar práctica ejercicio físico titulado juego limpio crear sólido sistema actividad física personas activas expertos salud pública oms explican lograrse objetivohay necesidad urgente ofrecer personas mejores oportunidades vida activa saludable actualidad posibilidades personas participen actividad física desiguales injustas desigualdad empeorar pandemia covid señalado doctora zsuzsanna jakab directora adjunta organización motivo presentación documento</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Salud_55.txt</t>
+        </is>
       </c>
     </row>
     <row r="56">
@@ -1153,11 +1428,16 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>líder oposición laborista keir starmer anticipado renegociará brexit llega ministro ocasiones volver ue significa volver mercado único unión aduanera recalcó starmer discurso patronal británica premier rishi sunak rechazara foro modelo suizoel líder laborista contrario brexit zanjada polémica renegociación salida ue revelaciones the sunday times alegando gobierno sunak baraja posibilidad relación fricciones comerciales estilo mantiene suiza acceso selectivo mercado único pemitiendo libertad movimientosyo voté brexit brexit brexit suponer beneficios oportunidades país empezando control apropiado inmigración declaró sunak discurso confederación industria británica cbi rechazó inequívocamente posibilidad renegociación bruselas pese lamento común empresarios falta mano obra sectores alimentación transporte sanidad hosteleríalas intervenciones sunak starmer precedida amplio debate entrada reino unido recesión contribución brexit problemas económicos enfrenta país peores condiciones miembros mayoría socios europeosel gobernador banco inglaterra andrew bailey alimentó polémica recientes declaraciones cargo público neutral brexit neutral hora efectos económicos pillado sopresa secretario tesoro jeremy hunt contrario salida ue puso guardia ala euroescéptica partido advirtiendo necesidad fricciones comerciales bruselasespero gobierno piense marcha planes advirtió negociador brexit david frost respuesta fulminante sunak recalcando gobierno intención perseguir relación ue suponga alineamiento reglas comunitariasel modelo suizosuiza miembro mantiene acceso selectivo mercado único integrada unión aduanera acepta principio libertad movientos jurisdicción tribunal europeo justicia áreas limitadas relación bruselas regulada acuerdos bilaterales servido eliminar barreras comercialesla posición starmerrestaurar estabilidad principal alegado líder laborista hora justicar decisión reabrir caja pandora brexit starmer reconocido actual situación funcionando empresas exportaciones crecimiento insistió solución lograr actuales acuerdos funcionen partido laborista aventaja partido conservador puntos batacazo liz truss pese ligera recuperación rishi sunakla opinión públicael sondeo yougov refleja diferencia años defensores detractores brexit alturas salida ue decisión equivocada frente sostiene decisión correcta años miles británicos manifestaron octubre national rejoin march decisión starmer cuestionar brexit creado divisiones partido laborista partido liberal demócrata partidario integrarse mercado único vista impacto económicolos empresarioseste brexit queríamos lamentado simon wolfson director ejecutivo multinacional moda next miembro conservador cámara lores necesitamos aproximación totalmente inmigración económicamente productiva línea pronunciado tony darker director ejecutivo cbi pidiendo políticos aproximación pragmática abrir mano inmigración frente falta mano obra estrangulando economíalos mediosthe financial times rompió moldes mes documental the brexit effect how leaving the eu hit the uk presitigioso diario económico años existido conspiración política silencio impacto real brexit salido flote desastroso minipresupuesto liz truss decenas empresarios abiertamente coste salida ue enmascarado pandemia guerra ucrania oficina responsabilidad presupuesto brexit significativo impacto adverso caída flujo comercial ue reducción prevista plazo productividad análisis bloomberg barreras comerciales creadas brexit contribuido aumento precio comida agravado crisis coste vida</t>
+          <t>visitado centros tratamiento cólera barrios afectados puerto príncipe visto escenas desgarradoras niños desnutridos difícil introducirles catéter brazos piernas adultos claramente enfermoslo impresionó inmediato intenso olor cloro desinfectante utiliza esterilizar entorno inmediato claramente señal centro dirigido profesionales sanitarios prevenir tratar enfermedad vi personal limpiar continuamente suelo superficies asegurarse bacteria cólera propagarse másme impresionó conmovió profundamente compromiso dedicación trabajadores sanitarios conocido personas inspiradoras encarnan alto profesionalismo demostrado humanidad enorme empatía pacientes tratamiento haitianos uniendo superar difícil momentohasta aumento casos cólera gradual viendo aumento preocupante situación vuelto difícil importante recordar cólera mortal prevenible tratable rapidez esencial contener brote salvar vidas respuesta sanidad pública autoridades haitianas ong locales internacionales apoyo onu inmediata decisiva escasez agua potable combustible necesario suministrar energía instalaciones sanitarias permitir personal trabajarse crearon rápidamente centros tratamiento cólera atender enfermos haitianos vivido cólera conocimientos experiencia valiosos evitar brote salga manoslos mensajes salud pública ministerio salud radio mensajes texto onu apoya subrayan importancia medidas preventivas lavado manos desinfecciónla imposibilidad gente mueva libremente especialmente capital puerto príncipe situación inseguridad imperante falta combustible contribuido contener propagación inseguridad complicado respuesta cóleradesde brote onu haití socios nacionales internacionales trabajado ministerio saludla organización panamericana salud ops apoyado socios abrir centros tratamiento cólera estableciendo puntos rehidratación oral especialmente comunidades difícil acceso tratar casos leves remitir centros hospitalización prestado asistencia formar trabajadores sanitarios comunitarios trabajadores cruciales comunidades aisladas violencia bandas armadasel fondo naciones unidas infancia organización internacional migraciones oim apoyando autoridades haitianas organizaciones aliadas cloro tabletas purificar agua kits higiene suministros médicos sales rehidratación oral unicef socios desplegando clínicas móviles salud cité soleil barrio afectado capitalla situación humanitaria haití desesperada cólera desafíos urgentes aumento hambre enfrentan demasiados haitianos preocupaciones frente programa mundial alimentos reanudado distribución alimentos cité soleil llegando personas vulnerables mediados octubre</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Salud_52.txt</t>
+        </is>
       </c>
     </row>
     <row r="57">
@@ -1166,11 +1446,16 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>empieza funcionar pp estrategia adelantar elecciones castilla león cortar paso españa vaciada desactivar amenaza arrebatarle votos escaños precipitado plazos electorales presentarse imposibilidad madurado proyecto llevado principales asociaciones león zamora paso renunciar presentarse comicios autonómicos febrerola consecuencia directa decisiones españa vaciada complicado cumplir objetivo presentar listas electorales provincias castilla león lógicamente proyecto debilitado contaría opciones irrumpir peso cortesdesde coordinadora estatal españa vaciada renuncia alcanzar objetivo presentes nueve provincias recalcan seguirán trabajando intensamente enero vence plazo registrar oficialmente candidaturas antoja difícil cambio opinión león zamoraasimismo alturas decidido pasar provincias valladolid segovia ávila asociaciones vinculadas españa vaciada tomado decisión firme aseguradas listas electorales soria burgos salamanca palenciacomo publicó mundo causas peso convencieron alfonso fernández mañueco propiciar adelanto cortar paso españa vaciada consolidarse cogiera vuelo actor tablero pp conscientes movimiento social listo mes enero iban avanzar trabajos punto herramienta iba salto política nacional autonómica municipalproceso aceleradouna convocatoria rápida sucedido cogido pie cambiado obligación acelerar proceso fiestas navideñas sexta ola coronavirus dificultades provocado celebrar reuniones agilizar decisiones plazos candidaturas hechas registradas enero quedando remedio correr velocidad provincias asociaciones plurales rigen cúpulas disciplinas sucede partido paso exige altas dosis consenso significa diálogode plataformas debate avanzado internamente rápidas decidir evidente soria ¡ya anunció intenciones anuncio mañueco seguida puso recoger firmas constituir agrupación electores soria siguieron burgos salamanca palencia</t>
+          <t>gonzález defiende unidad españa espera crisis quede atrás gonzález confía año corrupción desaparecerá vida públicael presidente comunidad madrid ignacio gonzález defiende unidad país igualdad españoles mensaje felicitación año confía crisis quede definitivamente atrás corrupción desaparezca vida públicaignacio gonzález público página web comunidad madrid mensaje felicitación año torre reloj real casa correos sede gobierno regional azoteas edificios puerta sol espaldasgonzález comienza mensaje repasando momentos difíciles vividos crisis golpea familias casos corrupción desafíos soberanistas mantienen posturas secesionistasrecuerda momentos año acaba relevo tranquilo ejemplar frente jefatura garantiza continuidad corona estabilidad sistema democráticotodavía gente pasando recuperación llegado región llegado mundo admitepero prosigue presidente cifras indican madrid mejorando dato significativo meses consecutivos creando afirmaensalza sanidad madrileña vuelto reconocida españa prueba superado éxito reconocido mundo caso contagio ébola producía áfricalos esfuerzos madrileños dando frutos seguir mejorando seguiré trabajando madrid siga liderando recuperación añade convencido año noche comienza recuperación llegará madrileñosdeseo año dejemos crisis definitivamente atrás año corrupción desaparezca vida pública año comienza españoles unamos afrontar juntos desafíos futuro afirmagonzález asegura seguir preocupación propuestas secesionistas atentan unidad nación igualdad españoles manifiesta firme compromiso madrid constitución unidad españa democracia soberanía nacionalmi deseo españa fuerte madrid siga mejorando disfrutemos mejores oportunidades dedicaré esfuerzos año comienza insiste mensaje termina deseando año</t>
         </is>
       </c>
       <c r="C57" t="n">
         <v>2</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Politica_4.txt</t>
+        </is>
       </c>
     </row>
     <row r="58">
@@ -1179,11 +1464,16 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>secretaria organización psoea susana díaz calificado bofetada gobierno español pp anuncie recurso inconstitucionalidad decisión parlamento andaluz considerar incompatible cargo alcalde parlamentario autonómicoen declaraciones periodistas díaz subrayado pp injusta compatibilidad adoptada socialistas recordado galicia limitación recurre aprobó gobierno ppdíaz culpado presidente español mariano rajoy recurso tomado conformidad presidente pp andaluz javier arenas criticado identifica andaluces cuestiona decisiones parlamento cree representante digno comunidadha agregado gravísimo frente mano tendida presidente josé antonio griñán psoe pidiendo conferencia presidentes juntos lealtad gobierno español responda disminución fondo compensación cifrado millones eurosesa disminución inversiones aprobadas compensar aumento población andaluza afectará metros sevilla málaga obras díazrespecto posibilidad eliminar transferencias andalucía comunidades anuncio gobierno rectificó díaz sabía trataba broma gusto desliz cometido ejecutivo novatono quiero pensar esperando tomar decisión tipo pasen elecciones autonómicas marzo díaz indicar socialistas vigilantes eliminen transferencias incluidas estatuto respaldadas congreso senadopor díaz calificado fraude electoral decisiones económicas adoptadas consejo ministro pp negaron mes</t>
+          <t>erróneo antibióticos problemas graves enfrenta sanidad datos dejan dudas diez españoles guardan antibiótico sobra tratamiento utilizarlo caso urgencia revela análisis observatorio tendencias cofares titulado abuso antibióticos peligro resistencia bacterianaesta conclusión pone manifiesto tipo fármacos únicamente tomarse prescripción médica siguiendo indicaciones específicas profesional sanitario contribuyendo resistencia antimicrobianos ram análisis elaborado motivo semana mundial concienciación antimicrobianos iniciativa organización mundial salud año celebra noviembre lema prevengamos juntos resistencia antimicrobianospara desarrollo observatorio tendencias cofares análisis evolución demanda farmacias medicamentos antibióticos años investigación sociológica descubrir conocimiento población española relación antibióticos resistencia bacteriana resultados obtenidos desprende tercio población española desconoce resistencia bacteriana antibióticos paralelo preguntados impacto porcentaje similar resta importancia resistencia problema grave cambio problema serio salud púbica graves consecuencias análisis refleja mitad españoles consumido meses población joven señala haberlo porcentaje respecta percepción población resistencia encuestados antibiótico efecto mayoría opina cuerpo habituado antibióticos actuales preparados frente bacterias restante creen antibióticos efecto reconoce toma siguiendo pauta estricta médico farmacéuticoa mayoría encuestados farmacéutico profesional sanitario clave resolver preguntas medicamentos antibióticos concreto recurre dudas respectoeste baladí calcula murieron millones personas mundo infecciones resistentes antibióticos prevé cifra multiplique diez determina observatorio tendencias años previos irrupción pandemia covid existía patrón estacional demanda antibióticos contemplaba volúmenes significativos doce meses año máximos absolutos relativos estaciones otoño invierno patrón vio alterado temporada registrarse significativa disminución demanda consecuencia llegada pandemia correspondientes medidas protección instauradas confinamiento domiciliario distancia social sistemático mascarilla higiene manos relajación restricciones vuelve aparecer otoño patrón similar prepandémico alcanzar fecha niveles demanda comportamiento nivel nacional replica comunidades</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Salud_48.txt</t>
+        </is>
       </c>
     </row>
     <row r="59">
@@ -1192,11 +1482,16 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>juntero bildu bizkaia asier vega afirmado formación seguirá pidiendo representación real consejo administración kutxabank niega juego sucio intereses políticos partidistassegún indicado rueda prensa convocada postura rubricado pnv pp citado consejo preguntas periodistas seguir pidiendo correspondees triste pedir realmente corresponde representación real mesa juego sucio intereses políticos partidistas niega apartar asegurado vegapara petición bildu utilizará foros posibles evidentemente reivindicar corresponde indicado juntero vizcaíno apoderada bizkaia zurine gaintzadurante comparecencia representantes bildu leído comunicado formación bizkaia indicado reunión kutxabank coalición recibió noticia esperaba consejo administración banco quedará manos pnv ppel pnv dispuesto pactar cualquierasegún pnv dispuesto pactar cualquiera mantener cuota resultados elecciones mayo vuelto mirar intereses derecha comido pastelbildu bizkaia asegurado formación dispuesta negociar llegar composición consejo administración pnv vuelto espalda pueblo desea merece pactado derecha españolasabemos pnv acostumbrado gestionar años cambiado resulta vergonzoso reduzcan número consejeros kutxabank miembros seguir gestionando podersegún afirmado bildu bizkaia problema reparto consejeros responda situación política territorio problema sabiendo situación económica crítica vivimos den prioridad intereses partidistas olviden necesidades sociedadpara bildu bizkaia juego sucio pnv quedado hora renovar asamblea bbk ayuntamientos bizkaia votar consejeros pnv llevado votaciones pleno municipios mayoría absoluta evitado nombramiento personas interesanparece pnv bizkaia sabin etxea sinónimos suficiente dejar mesa juntas generales bizkaia bildu bbk kutxabank esconde pnv sospechamos perder centímetro amoldarse tiempos prefiere aplicar antiguas recetas concluido</t>
+          <t>alima inspira profundamente respiración alima moviliza músculos cuerpo inspiración tomar máximo aire gestos batalla ganada aliento oxígeno prepararse inspiración batalla muerte asfixia bronquiolitis acecha robando aire cerrando vías respiratorias respiración dibujan costillas pecho muestra esfuerzo músculos abrir caja torácica expandir máximo pulmones alima meses vida llega hospital rural gambo agotada bronquios obstruidos extenuada exprime pulmones tatuando reborde costilla piel negra músculos intercostales subcostales agotan fuerzas extiende cuello infinito intentando inhalar cantidad oxígeno posibletras trayecto llega hospital única hacinan pequeños cuerpos respirando límite colapsada sala espera hospital cabe entran golpe necesitan oxígeno hospitales rurales gambo etiopía escasorecuerdo residente pediatría hospital granollers barcelona girando ruedecita salía litros oxígeno conducto pared normalizado valoraba hospital sur adís abeba capital país auténtico milagro vi años españaen centro sanitario gambo mayoría hospitales país necesitan cilindros oxígeno pesan piedras problema vacían debemos transportarlos cientos kilómetros rellenarlos pensaba urgencias pediatría iba encontrar niños tuberculosis sida malaria enfermedades tropicales encontrado frecuente bronquiolitis bronquitis infecciones respiratorias aprendido valorar oxígeno medicinal sale paredes girando roscaen momentos epidemia bronquiolitis suficientes recursos escasez oxígeno niños necesitan concentradores cilindros vaciando rápidamenteaquí entra juego preciada llamada forma sencilla pieza plástico metal divide flujo oxígeno piezas puedes convertir ojalá hiciese multiplicar oxígeno divide permite llegar niños pagando precio bajar flujo recibe</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Salud_3.txt</t>
+        </is>
       </c>
     </row>
     <row r="60">
@@ -1205,11 +1500,16 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>resolución tramitación ley trans motivo principales incendios gobierno coalición diferencias psoe unidas mantienen libre autodeterminación género menores puedan cambiar voluntad nombre sexo dni quedado aparcada semanas socios coalición semanas margen cede posiciones socialistas mantienen enmiendas insisten refuerzan seguridad jurídica norma certeza pp vox recurrirán tribunal constitucional up rechaza modificar texto consejo ministros aprobó verano ambas fuerzas consensuaron remitirlo parlamentola expectación rodeado ponencia comisión igualdad celebrado sesión control gobierno cámara baja durado media corresponde resultado sesión falta acercamiento psoe up propiciado socios apuren plazos enmiendas continúan vivas trabajaremos cara comisión afirmado andrea fernández secretaria igualdad socialistas alusión enmiendas menores reversibilidad violencia intragéneropor socialistas retiran enmiendas up reitera norma saldrá recorte salido compromiso comisión igualdad acabe año ley sofía castañón unidas salida posición clara trámite parlamentario sirva mejorar ley caso retroceder consejo ministros compromiso seguir llevando remarcadopara ley choque socios ejecutivo resolverse socialistas mantienen vivas enmiendas exigir menores años cambio sexo registro requiera autorización judicial meses afirmaron tocarían up erc pnv eh bildu país suman votos niegan aceptarla única vía psoe apoyo populares supondría rechazo automático up aliados investidura ley quedar pausa forma indefinida psoe afirmar contemplaba presentar enmiendas autodeterminación género país adelantase estudiando plena bronca interna sectores feministas lgtbi partido finalmente hizosegún socialista andrea fernández ponencia trámite ordinario tranquilo vox venido dinamitar ponencia resto partidos trabajado normalidad enmiendas llegado dictamen prácticamente grupos parlamentarios pp vox comisión seguir trabajando enmiendas quedado vivas valoradoviolencia intragénero límites reversivilidadlas enmiendas psoe cuentan respaldo necesario versa autodeterminación menores eliminar concepto violencia intragénero miembros pareja sexo género exista analogía violencia machista cuestión reversibilidad cambio registral alguien cambiado sexo registro volver caso arrepienta cambie opinión texto ley libertad cambios reversión tercero recuperación sexo figuraba requiera aprobación judicial ley jurisdicción voluntaria psoe propone cambio necesario paso judicialpor miércoles aprobado enmiendas contando socialistas debatirán comisión igualdad semana diciembre producirá comparecencias expertos personal sanitario personas trans unidades género hospitales organizaciones feministas fuentes presentes daría calendario marcado gobierno cuyas previsiones idea norma apruebe añoeste martes patxi lópez alusión calendario legislación pendiente gobierno limita área igualdad creemos ley lgtbiq ley trans pleno semana diciembre aborto semana bienestar animal decreto hipotecas parando montón negociaciones abiertas portavoz socialistasin carmen calvoel contexto fácil ponencia empezó presidenta carmen calvo frecuente sucede ponencia ley norma generado batalla política torno ministerio igualdad rebajas penas excarcelaciones agresores entrada vigoruna batalla avivada mañana sesión control ministra irene montero respondió ataque pp vox acusaron ejercer violencia política norma promueven cultura violación bancada derecha tomó insulto presidenta congreso socialista meritxell batet pidió titular igualdad contención expresiones enturbiar convivencia cámara cultura violación concepto acuñado década teoriza creencias estereotipos conductas machistas generan alimentan idea mujeres cuerpos propiedad hombrecon eco mañana portavoces igualdad distintos partidos ponentes ley trans comisión reunieron cerrar flecos cerraron fuentes comisión ánimo negociador mayoría grupos</t>
+          <t>falta metodología científica perspectiva género única razón mujer sufre discriminación vacunación coronavirus puesto manifiesto invisibilidad cuerpo mujer medicina informe farmacovigilancia agencia española medicamentos productos sanitarios señala mujeres notificado efectos secundarios vacuna estudios centrados cuerpo femenino único campo mujer discriminada salud sexual menstrual centros atención primaria educación afectivosexual definitiva perspectiva género aspectos sociales médicos culturaleslas responsables igualdad psoe madrid comunidad madrid lorena morales beatriz gimeno loreto arenillas respectivamente atendido elpluralcom hablar carencias sociedad dominada patriarcado gobiernos reniegan feminismo caso isabel díaz ayusolas mujeres importábamos problemas mujeres tabú cuerpo femenino remarca lorena morales responsable igualdad psoe comunidad madrid comunidad madrileña tipo atención específica salud sexual menstrual reproductiva única comunidad gratuidad acceso píldora anticonceptivos modernos educación igualdad afectivosexual herramienta luchar violencia género cambio regiones tasa interrupciones voluntarias embarazo presenta experimentado aumento preocupante violencia sexual aumento violencia sexual medicina centrada hombrela mayoría estudios farmacológicos salud vacunas… cuerpos masculinos muestra reciente vacunas coronavirus estudiantes estudian sucede cuerpos masculinos femeninos infarto síntomas distintos hombres mujeres repitiendo partes síntomas masculinos explica beatriz gimeno responsable área igualdad exdirectora instituto mujermorales allá medicina centrada hombre machismo patriarcado estructuras vista menstruación menopausia climaterio siguen tabú medicina atención mujeres colegios edad adulta hablar funcionamiento cuerpo mujer mujeres hable cuerpos allá cuerpo sexual deseo pasa llegamos menopausia pasa cambios hormonales climaterio órganos genitales… añadeuna vista semejante ofrece loreto arenillas portavoz madrid comisión mujer cuyo grupo político presentado proposición ley solicitar gobierno realice estudio farmacovigilancia posibles efectos secundarios vacunas coronavirus salud mujeres problema estructural sesgo masculino sociedad mirada excesivamente masculina sociedadpolítica antifeministadesde medicina incorpora atención mujeres diferencias biológicas presentan prestando atención adecuada mitad ciudadanía educación educa niños niñas perspectiva género imposible erradicar violencia sexual machista tipos violenciasen gobierno isabel díaz ayuso comunidad madrid claras deficiencias notable desinterés desigualdad sucesivos gobiernos pp ido cerrando centros planificación familiar puso marcha psoe queda centro planificación familiar comunidad madrid puntilla año alcalde almeida cerró fines semana único centro atención sexual juventud precisamente semana suelen surgir problemas explica moralesel componente salud sexual reproductiva contempla ley aborto comunidades autónomas desarrollar competentes sanidad educación desoído equipo ayuso plan aprobó reconocía gratuidad píldora anticonceptivos modernos aprobar formalmente aplicado avanzado plan aplicado denuncia moralesno atención salud sexual centros atención primaria salud menstrual completamente desatendido niñas entiende menstruación ciclos… deterioro grande necesidad perspectiva género aspectos sociales médicos culturales comenta loreto arenillas beatriz gimeno añade comunidad madrid política haga perspectiva género poniendo comisión fomentar natalidad anunciado ayuso llena hombresayuso gobierno política antifeminista olviden feminismo antifeminista activa vox juega antifeminista asegura diputada podemospero comunidad madrid destinó igualdad dinero correspondía pacto violencia género consejería hacienda madrileña destinado consejería políticas sociales millones euros gobierno central transfirió madrid política violencia machista ayuso recortado mitad inversión políticas igualdad violencia machista añosel tabú menstruaciónson años tabú menstruación utilizado ejercer violencia desigualdad mujeres visto signo vida gimeno regla menopausia climaterio consecuencias parto incontinencia urinaria parto comenta morales arenillas remata niñas entienden menstruación ciclos siguen pasando tampones compresas escondidasla menstruación común mujeres vidas tema escabroso hora hablar anuncios publicitarios compresas siguen mostrando sangre azul sangre menstrual diese asco mujeres esconden hora pedir sacar tampón compresason mujeres problemas acceder productos higiene femenina acogidos iva impuesto tomarse café bar cine pobreza menstrual alcanza mujeres comunidad madrid razón madrid plantear gratuidad productos necesiten disponibles edificios públicos formación mónica garcía proposición ley salud menstrual proponen implementar línea educativo acabar tabús estigmala importancia educaciónla educación aspecto fundamental crear conciencia avanzar sociedad igualitaria afecta igualdad relacionado educación perspectiva género falta educación violencias desigualdad social brecha salarial brecha cuidados cuerpo mujer incorporado experimentación…por educación afectivosexual pilar lucha violencia género impartir niveles educativos adaptaciones edades ayuda explicación procesos transcendentales tales construcción identidad género relaciones afectivas sociedad diputadas consultadas coinciden educación fundamental igualdaden cambio comunidad madrid impulsa tipo educación comentan morales arenillas años taller educación igualdad incluía pequeña educación afectivosexual impartió meses alumnadogimeno contundente educación afectivosexual fundamental combatir desigualdad violencia cambiamos hombres ejercen violencia políticas públicas hagamos mujeres acabar violencia políticas conseguiremos proteger ayudar víctimas hombres cambia leyes cambia educación niños adolescentes forma cambia sociedaden ayuso fijado prioridad natalidad discurso pleno investidura natalidad criterio morales aspectos prioridad natalidad prioridad igualdad hombres mujeres impulsar tipo medidas conciliación ayudarán mujeres madres libertad ayudas conciliar flexibilicen condiciones laborales ayudas niños requieren educación especial necesidad atención temprana empezar apoyar mujeres niños sentencia</t>
         </is>
       </c>
       <c r="C60" t="n">
         <v>2</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Politica_13.txt</t>
+        </is>
       </c>
     </row>
     <row r="61">
@@ -1218,11 +1518,16 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>debate ley trans nivel nacional mantiene enfrentados socios gobierno encontrado homólogo comunidad madrid vox pide derogación normativa ámbito regional sostenida ley pp mantiene espera suceda congreso diputados pasopero jueves presidenta isabel díaz ayuso abierto vía inexplorada comprometido formación derecha radical eliminar autodeterminación género texto legal aprobado mandato popular cristina cifuentes pregunta portavoz vox rocío monasterio pensado cabo medida dirigente autonómica respondido escueto síposteriormente ayuso matizado gobierno esperará pergeñan gobierno central ley trans tomar decisión equivocada perder centro derogar completo legislación autonómica materia monasterio traería cámara próxima sesión plenaria asamblea falta pequeño matiz equivoca afirmado dirigente populares gobierno regional compromete eliminar autodeterminación género ley completa tramite nacional concepto autodeterminación género referencia posibilidad persona acudir registro civil cambiar sexo identificada declaración aportar informe médico psicológico acreditar condiciónese punto recoge apartado artículo ley comunidad madrid establece sistema sanitario público comunidad madrid atenderá personas trans conforme principios consentimiento informado libre autodeterminación género discriminación asistencia integral calidad especializada proximidad segregaciónla presidenta regional comprometido corregir excesos norma conscientes apuntado encargaremos comunidad madrid solucionar problemas agregado paso concreto gobierno autonómico esbozado anteriores ocasiones</t>
+          <t>annus horribilis año terrible emma raducanu circuito femenino tenis tocó martes wta ostrava cayó ronda rusa daria kasatkina derrota campeona us open temporada cerrará victorias lesión muñeca derecha permitirá competir torneos quedan iba jugar semana viene transilvania open clujnapoca torneo anunció jueves baja británica origen rumanoraducanu despide curso balance negativo top perder posiciones año empezó puesto mundo julio agosto finales septiembre tenis vivió repunte seúl jugando retirarse lesión pierna izquierda semifinales pleno partido jelena ostapenkola letona precisamente ejemplos brilló efímero sufrimiento posterior finalizó dominio serena williams grand slams campeona roland garros campaña semifinales wimbledon vuelto acercarse rondas finales major ocurrió sofia kenin ganadora open australia finalista roland garros desaparecida combate bianca andreescu llevó título us open cayó crisis podido salir logrado cuajar vencedora año parís barbora krejcikova consolida elena rybakina ganó meses wimbledon cayó ronda us openel caso raducanu cumplir años prueba estragos causa ocasiones alcanzar altas cotas notoriedad deportiva fama mundial edad temprana caso aprecia problema gestión destacó all england club entrenadores preparó nigel sears sustituyó andrew richardson triunfar york despidió periodo contó español esteban carril emma contrató torben beltz finales abril muchacha puso relación exentrenador angelique kerber puso órdenes técnico federación británica iain bates llamó ruso dimitry tursunov movimiento polémico pleno conflicto rusia ucraniahay gente probablemente cambiado podía quisiera dejarme rodean personas viene pienso adapté deporte quejo iniciar defensa título us open pasó partido cayó francesa cornet rutilante contundente triunfo unidos año balance acumulado resultado citadas semifinales corea sur negativo derrotas primeras cambio tantos torneos caída raducanu jovencísima millonaria contratos wilson nike firmó dior tiffany co british airways evian vodafone visto rentabilizadas aspecto deportivo inversiones recupera raducanu volverá jugar diciembre exhibición mubadala world tennis championship abu dabi enfrentará tunecina ons jabeur</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Deportes_17.txt</t>
+        </is>
       </c>
     </row>
     <row r="62">
@@ -1231,11 +1536,16 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>ansiedad respuesta fisiológica cognitiva conductual organismo experimentan serie síntomas físicos aumento tasa cardiaca sudoración cognitivos preocupaciones conductuales representan evitación determinadas situaciones resultan amenazantes provocar aparición síntomas acabamos comentar ansiedadpero pregunta ataque suele referencia psicología psiquiatría llama ataque pánico clasificaciones antiguas conocidos crisis angustia conocen ataques ansiedad empezar importante señalar afección llega considerarse trastorno ansiedad sufren personas población vida crisis pasa personas sufriendoun ataque pánico aparición súbita serie síntomas comunes aumento frecuencia cardiaca sudoración mareo sensación ahogo presión pecho produce síntoma cognitivo creencia pasando malo dando ataque corazón presencia inminente muerte ocurre forma rápida duración corta suele alcanzar pico máximo minutos remitelos síntomas fisiológicos producen ataque pánico realmente respuesta alarma organismo normalmente debería desencadenarse peligro ineludible síntomas preparan cuerpo reaccionar evitar peligro luchando huyendo respuesta orgánica adaptativa históricamente servido humano protegerseel problema ataques pánico organismo desencadena respuesta inapropiado falsa alarma activa mecanismo peligro real vista exposición estresores cotidianos crónicos exceso exceso responsabilidades dificultades económicas etc aumentar niveles ansiedad provoca presenten nervios personas den vueltas ideas preocupación logre descanso sueño interrumpa noche descansar niveles altos ansiedad sistema alarma active ausencia peligro real aparezca denominado ataque pánicoel principal problema ataques pánico interpretación síntomas físicos persona experimentando cree peligrosos ocasionar muerte persona capaz cuestionar interpretaciones erróneas consciente realmente síntomas peligrosos provocar muerte presión pecho sufriendo infarto simplemente presión muscular sintomatología física remite</t>
+          <t>pasan desapercibidas mayoría ocasiones hormonas tiroideas cumplen papel esencial organismo desequilibran aparecer graves problemas salud caso problemas cardiacos vinculación contrastada creciente investigadores clinic of ruhr university bochum alemania metaanálisis millones participantes concluye desviaciones leves función tiroidea aumentar riesgo enfermedades cardiovasculares graveses sobra conocido trastornos tiroideos afectan profundamente sistema cardiovascular incrementado morbilidad mortalidad dicha causa relación contrastada aparición arritmias cardiacas concretamente fibrilación auricular detectarse taquicardia sinusal inapropiada larga alta frecuencia cardiaca dañar músculo cardiaco producir miocardiopatía alta frecuencia detalla ana garcía martín vocal asociación cardiología clínica sociedad española cardiología sec cardióloga hospital universitario ramón cajal madrid advierte garcía martín llamativo estudio pequeñas variaciones hormonas tiroideas rango normalidad llamados estadios subclínicos producir alteración función cardiaca exceso eventos cardiovascularesante circunstancia cardiología norma solicitar perfil hormonas tiroideas evento cardiovascular casos hipotiroidismo comenzar tratamiento hormonal sustitutivo suele pedir colaboración compañeros endocrinología asegura garcía martínla desregulación tiroides pasa factura organismo diversas maneras menor producción hormonas hipotiroidismo produce cansancio intolerancia frío piel seca uñas quebradizas caída cabello voz ronca somnolencia lentitud mental pérdida memoria capacidad concentración alteraciones ánimo estreñimiento… alteración leve sintomatología aparece forma discreta explica elena navarro coordinadora área tiroides sociedad española endocrinología nutrición seen contrario exceso producción hipertiroidismo suele producir nerviosismo taquicardia dificultad dormir calor sudoración excesiva pérdida peso temblor manos diarreas cansancio síntomas fases iniciales confundirse estrés alteración leve ocasiona sintomatología personas edad determina frecuencia arritmias cardiacas añade navarroen escenario persona enfermedad tiroidea alimentación sana porciones frutas hortalizas legumbres frutos secos ingesta calórica azúcares libres ingesta calórica diaria procedente grasas prefiriéndose saturadas presentes pescados aguacates frutos secos aceites girasol soja canola oliva gramos debería yodada restricciones eliminaciones alimentación aconseja población asegura navarro matiza poblaciones exista déficit yodo alimentos verduras crucíferas col coliflor brócoli dificultar funcionamiento tiroidessin olvidar recuerda garcía martín hormonas tiroideas interfieren metabolismo colesterol hipercolesterolemia fuerte factor riesgo cardiovascular mensajes repetidos consulta resumen beneficios dieta mediterránea variada equilibrada importancia ejercicio físico regular mantener bienestar físico mental</t>
         </is>
       </c>
       <c r="C62" t="n">
         <v>1</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Salud_47.txt</t>
+        </is>
       </c>
     </row>
     <row r="63">
@@ -1244,11 +1554,16 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>guerra virus inmunodeficiencia humano vih historia éxito encontrado cura tratamientos antirretrovirales logrado mantenerlo raya diagnóstico infección vih deje sentencia muerte firmaba remedio años ochenta tratan pacientes viven mundo batallando erradicar virus diagnosticar tratar planeta triunfo parcial virus abierto años melón médicos pacientes envejecimiento supervivientes peaje convivir vih vejez prematura avisan expertos riesgo enfermedades tumores problemas neurológicos salud mental sufrimos personas recorrido aparte depresión ansiedad recorrido deterioro cognitivo pérdidas memoria pasa años pasar enumera carlos lópez años vih profesionales reclaman recursos psicosociales pacientes urgen formación generaciones sanitarios pesa carga viral mochila dolencias asociadas arrastra vihlópez conoció infección años describiesen casos unidos shock importante diagnóstico vih significaba ibas morir recuerda años oscuros incertidumbre estigma terror sabía temía medicación época azidotimidina tóxica rememora lópez efectos secundarios devastadores sabía hacía daño medicación virus gente dejaba tomarla ponía destrozaba estómago provocaba náuseas efectos nivel psíquico desorientación pérdidas memoriaen combinación tratamientos antirretrovirales tar eficaces agresivos carga viral negativizaba podía transmitir virus salud mejoraba gracias medicamentos apunta lópez personas infectadas época sobrevivido sombra vih larga carga viral adviertelos expertos coinciden acortando mínimo brecha esperanza vida infectados vih población envejecimiento prematuro personas vih causa virus factores adelanten años problemas salud asociados edad comunidad científica apunta repiten vih patrones producen envejecimiento fisiológico vejez natural causa agresiones paso especie inflamación persistente organismo alteración sistema inmune envejece capaz responder eficacia ataques externos vih virus circulando provoca inflamación carga viral controle virus seguir activándose reservorios infecte célula provocar inflamación obliga mantener activo forma crónica sistema inmune procesos cambios bacterias intestino paso bacterias torrente sanguíneo provocar inflamación persistente</t>
+          <t>fármaco lecanemab impacta forma moderada avance enfermedad alzheimer precoces resultados avanzó laboratorio meses consolidado publicación revista médica the new england journal of medicine presentación comunidad médica convección san francisco díasen octubre datos avanzaron estudio completo levantaron expectativas neurólogos campo noticias escasas apuntaron reducción deterioro cognitivo etapas iniciales cifra anunciada compañías farmacéuticas responsables desarrollo eisai japonesa estadounidense biogen acogió esperanza espera consolidara detalles investigación completo anticuerpo monoclonalahora ensayo publica nejm apunta fármaco redujo marcadores amiloide enfermedad alzheimer temprana resultó disminución modestamente menor medidas cognición función placebo meses asoció eventos adversos justifican ensayos largos determinar eficacia seguridadjuan fortea coordinador grupo estudio conducta demencias sociedad española neurología conversación publicación resultados definitivos advertía resultados anticuerpo monoclonal iban suponer cambiar campo radicalmente evidentemente tratamiento cura enfermedad ralentiza señalaba fases precoces neurodegeneración ofrece calidad vida pacientessegún cronograma ambas compañías fármaco llegar mercado solicitud agencia reguladora americana fda visto finales año principios viene solicitarán aprobación organismos japonés europeo ema trimestre autor inicial diseño fármaco décadas geriatra sueco lars lannfelt apuntaba mundo semanas idea atacar formas solubles betaamiloide llamamos protofibrillas vimos mutación ártica protofibrillas posteriormente crecen expanden forman placa impedir proteína dañina betaamiloide acumule cerebro forma pequeños bultos conocidos placaen marc suárezcalvet neurólogo investigador grupo investigación fisiología cognición prevención alzhéimer imimhospital mar apunta smc lecanemab diferencia anticuerpos antiamiloide especial afinidad protofibrillas solubles amiloide probablemente efecto tóxico cerebro característica posiblemente razones resultados fortea publicación resultados explica resultados consistentes recuerda eficacia modesta estudio demuestra menor declive cognitivo pacientes tratados lecanemab determinar relevancia clínica diferencia escala cdrsb valoración clínica demencia rango parecer menor pequeños cambios cognición impacto autonomía pacientes cuidadores cuidadoras debemos ensayo investiga efecto fármaco administrarlo meses cabo estudios larga duración determinar efecto plazo añade responsable grupo biomarcadores fluidos neurología traslacional barcelona beta brain research center fundación pasqual maragall</t>
         </is>
       </c>
       <c r="C63" t="n">
         <v>1</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Salud_8.txt</t>
+        </is>
       </c>
     </row>
     <row r="64">
@@ -1257,11 +1572,16 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>alima inspira profundamente respiración alima moviliza músculos cuerpo inspiración tomar máximo aire gestos batalla ganada aliento oxígeno prepararse inspiración batalla muerte asfixia bronquiolitis acecha robando aire cerrando vías respiratorias respiración dibujan costillas pecho muestra esfuerzo músculos abrir caja torácica expandir máximo pulmones alima meses vida llega hospital rural gambo agotada bronquios obstruidos extenuada exprime pulmones tatuando reborde costilla piel negra músculos intercostales subcostales agotan fuerzas extiende cuello infinito intentando inhalar cantidad oxígeno posibletras trayecto llega hospital única hacinan pequeños cuerpos respirando límite colapsada sala espera hospital cabe entran golpe necesitan oxígeno hospitales rurales gambo etiopía escasorecuerdo residente pediatría hospital granollers barcelona girando ruedecita salía litros oxígeno conducto pared normalizado valoraba hospital sur adís abeba capital país auténtico milagro vi años españaen centro sanitario gambo mayoría hospitales país necesitan cilindros oxígeno pesan piedras problema vacían debemos transportarlos cientos kilómetros rellenarlos pensaba urgencias pediatría iba encontrar niños tuberculosis sida malaria enfermedades tropicales encontrado frecuente bronquiolitis bronquitis infecciones respiratorias aprendido valorar oxígeno medicinal sale paredes girando roscaen momentos epidemia bronquiolitis suficientes recursos escasez oxígeno niños necesitan concentradores cilindros vaciando rápidamenteaquí entra juego preciada llamada forma sencilla pieza plástico metal divide flujo oxígeno piezas puedes convertir ojalá hiciese multiplicar oxígeno divide permite llegar niños pagando precio bajar flujo recibe</t>
+          <t>campaña maratoniana elecciones mitad mandato entra martes recta votantes georgia decidirán escaño senado unidos terminarán darle forma próxima fase presidencia joe bidensegún encuestas actual senador demócrata raphael warnock ligera ventaja rival republicano polémica estrella fútbol americano herschel walker gana warnock demócratas escaños senado mayoría sólida cámara senado dividido partes iguales voto desempate recae vicepresidenta kamala harrises años pelea senado pasa vuelta georgia candidatos consiguiera mayoría necesaria elecciones reglas aplican georgia muestra signos fatiga electoral autoridades números récord participación voto correolos demócratas georgia país disminuido intensidad apoyo warnock celebrado concierto dave matthews band acto campaña actrices tessa thompson america ferrera mitin jeannie mai jenkins daniel dae kim dirigido comunidad asiáticoestadounidense estadoel senador demócrata georgia raphael warnock jueves jessica mcgowanefeepawarnock pastor antigua iglesia martin luther king cerró semana mitin atlanta liderado barack obama estrella partido deciros aflojar presidente subirse escenario vítores cánticos deciros desconectar darnos satisfechos llegar línea meta podéis hicisteis antesel acto parecía sermón iglesia baptista multitud vitoreaba frase pronunciaba presidente respondía sur profundo país georgia suele llamar cinturón biblia devoción religiosa habitantesen campaña legislativas obama mostrado liberado incisivo socarrón destripando republicanos forma demócratas permitir señor walker hablado temas importancia gente georgia hombre lobo vampiro candidato republicano debate debo confesar años crecípor caso preguntando señor walker decidió quería hombre lobo perfecto concierne quiera senador unidos añadióun clavecon florida teñida rojo republicano georgia perfila disputa importantes país victoria biden obtuvo presidente donald trump georgia decisiva ascenso casa blanca warnock compañero demócrata jon ossoff lograron escaños senado vuelta electoral definió control demócrata cámaraobama elogió capacidad georgianos decidir panorama político nacional enumerando logros posteriores gasto infraestructuras leyes seguridad armas recortes precio medicinas receta inversión récord energías limpias ocurrió gracias georgia necesitamos volváis hacerlos demócratas confían intervención obama anime bases partidoestoy preparada llevo campaña comienzo elecciones campaña telefónica estudiante ashley davis asistentes mitin discurso animado parar juego georgia preparada demostrado fuerza cuentaa diferencia obama biden mantenido margen temores significar lastre warnock intención ayudar campaña estrategia demostró eficacia elecciones mitad mandato resultados demócratas superaron expectativasel presidente sumó viernes campaña llamadas telefónicas pedir voto warnock organizada hermandad internacional trabajadores electricidad boston massachusetts biden distinción importante candidato demócrata walker referéndum warnock elección elección hombres merece senado unidos falta veracidad persona decente honorableun polémico candidato republicanolos republicanos georgia ganaron papeletas votaban elecciones noviembre gobernador brian kemp reelegido apoya walker jugador fútbol americano haga victoria elecciones alto nivel participación votantes republicanospero walker demostrado razones entusiasmo demócrata respalda trump pedigrí político serie declaraciones daría vergüenza herschel walker senador pregunta panfleto enviado partido demócrata hogares georgiaa campaña mujeres acusaron walker abusado pagado abortos actual postura antiaborto supuestos tiempos enfrentado acusaciones mantener residencia principal texas georgia walker desmentido acusacionesel candidato republicano senado herschel walker loganville georgia domingo jim scalzoefeepaen elecciones noviembre warnock superó ligeramente walker votos frente republicano encuesta emerson college pollingthe hill warnock apoyo votantes georgia walker indecisossegún encuestador escritor john zogby warnock ganado impulso noviembre votantes afroamericanos parecen animados herschel walkerwalker lidiar serie problemas noviembre gestionado zogby siquiera ayuda kemp importante… instancia electores votan quiera gobernador diga votar candidatoel control senadolos demócratas garantizado control senado años mayoría dependiera vicepresidenta escaños aceleraría proceso confirmación cargos administrativos judiciales biden serviría colchón presidente caso demócrata rompa disciplina voto demócratas lograrían escaños recursos financieros comités senado presidentes comités necesitarían republicanos emitir citaciones obliguen declarar testigos investigacionessiempre situación necesitamos paridad comités importante simplemente número biden periodistas díassegún director centro política universidad virginia larry sabato distinción importante demócratas obtendrían mayoría comités nombramientos tribunales saldrán rapidísimo partido mayoría clara senado acceso hemiciclo fácil mirar cantidad senadores viejos queda libre escaño gente molesta biden acabar votando republicanos cualquiera indecisos</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Politica_31.txt</t>
+        </is>
       </c>
     </row>
     <row r="65">
@@ -1270,11 +1590,16 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>personas mayores años presentan enfermedad encías gingivitis periodontitis principal causa pérdida dientes adultos oms figura sexta patología crónica mundo cariessin mitad población adulta europea incluyendo alemania españa francia italia reino unido indica estudio presentado mes junio españa porcentaje desconocimiento alcanza observa ignorancia desciende niveles educativos socioeconómicos altosestá justificado empezar explicando diferencian dolencias citadas gingivitis inflamación encías provocada mayoría casos bacterias periodontitis genera pérdida hueso dientes población adulta padece infección inmunoinflamatoria causada bacterias sufre forma avanzada severaque media población ignore periodontitis deja sorprender afecta función masticatoria pérdida inicial dientes posteriores empeora aspecto estético síntomas recesiones pérdidas encía dientes desplazamiento comprometen sonrisa reducen autoestimapero consecuencias salud nivel inflamación crónica limita encías trasciende resto cuerpola evidencia científica especialmente años siglo constata pacientes periodontitis avanzada poseen riesgo elevado padecer enfermedades sistémicas importantes infarto agudo miocardio diabetes dificulta control neumonía aspirativa eleva probabilidades mujeres embarazadas parto prematuro recientemente lista aumentado demostrado asociaciones hipertensión alzhéimer tipo cánceren refiere diabetes periodontitis avanzada aumenta resistencia insulina provoca manejo enfermedad genera aumento niveles proteína reactiva marcador inflamación tensión arterial indican riesgo sufrir accidentes cardiovascularesrespecto moderada asociación alzhéimer importante detecta existencia porphyromonas gingivalis principal bacteria periodontitis cerebro asimismo observado elevada continuada presencia microorganismo fundamental desarrollo progresión dolencia fusobacterium nucleatum incrementar riesgo padecer cáncer gastrointestinal</t>
+          <t>imparables arrolladoras indestructibles aplastantes imbatibles seguramente unidos regaló exhibición ejercicio superioridad absoluta selección serbia campeona eurobasket valencia oposición partido asemejó labor gestión acelerar desacelerar continuo comprobando rival obrando consecuencia aires dream team escenario grito autoridad eligió guion acción golpes continuos principio podía anticipar aportaron apagaron puntos rebotes brittney griner breanna stewart tantos chelsea gray séptimas finales consecutivas bolsillo directas oro francia japón encuentran fórmula magistralestados unidos equipo especule necesita arrolla minuto riesgo supone seguridad tomarlo aplasta dominio innato difícilmente igualable martillear necesario descanso stanley sumaban triples sue bird inmaculada líder pista resto pesadilla pintura serbia gigante engulle jugada jugada piedad puntos estadounidenses zona serbios daban fe juego interior rebote ofensivo único abría vías anotación maljkovic imprecisas balón manos tiros campo triple misión imposible equipo natural roza perfección apartadosy rozó divirtió diana taurasi cuyos trucos pierden eternidad inventando pista años busca pase estético gesto técnico galería espíritu joven don genialidad stewart dirección canasta culminaba tabla balón llegaba rastro estelar pase taurasi daba vuelta grados baile público gradas levantado oh absoluto onomatopeya definir partidos selección tranquilidad diana reducir mínimo exponente atisbo riesgo inicio tercer cuarto salida bloqueo recibió golpe costado volvió disputar minuto decidido espalda diferencia llegado puntos cronómetro concedió minuto gloria rivales única resistencia serbia yvonne anderson puntos escolta nivel mejores anotadoras estadounidenses superaron número picos talento dispersos ocasión demanda tejido compacto alternativas anotación repartida jugadoras diez puntos roles asimilados letales mundo francia japón intentarán sobrevivir</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Deportes_39.txt</t>
+        </is>
       </c>
     </row>
     <row r="66">
@@ -1283,11 +1608,16 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>desórdenes mentales neurológicos afectan mundo millones personas mayoría cuentan atención psicosaniataria adecuada datos organización mundial salud oms mostrado intención subsanar situaciónla oms redactado borrador plan acción salud mental aprobado miembros asamblea mundial salud ams semana ginebra ams máximo órgano decisorio organización anualmente marca líneas directrices corto plazouna constataciones realizadas entidad enfermedades mentales neurológicas representan dolencias mundiales casos enfermedades transmisibles mundose estima millones personas mundo padecen depresión millones conviven desorden abuso sustancias millones padecen epilepsia millones sufren alzheimer demenciasla unión europea calcula enfermedades mentales provocan pérdida producto interno bruto mundial pib causa falta productividad foro económico mundial calcula coste mundial dolencias eleva millones dólaresa impacto social económico prevención tratamiento prioritario fecha situación oms pretende revertir presentar plan acción aprobado semanaotro tema debatido seguramente aprobado ams plan prevención control enfermedades transmisibles principal causa mortandad mundo responsables muertes latinoaméricala onu declaró guerra dolencias asamblea onu septiembre adoptó declaración luchar cáncer diabetes hipertensión males coronarios pulmonaresel plan pretende países establezcan medidas prevención poniendo énfasis importancia conocimiento público detección temprana refuerzo centros atención primaria opuesto encuentran llamadas enfermedades olvidadas mayoría transmisibles afectan mayoritariamente países desarrollo chagas dengue tuberculosis malaria debatidas amsel año tema generó polémica distintas versiones necesidad crear convención estableciese obligatoriedad contribuir producto interior bruto pib país investigación desarrollo id tipo enfermedadesdespués discusión países latinoamericanos lograron imponer criterio esencial mecanismo regule establezca objetivos id enfermedades olvidadas pospuso concreción debate añono obstante decisión revertida reuniones posteriores borrador resolución analizará ams aplaza debate ong médicos fronteras decisión muestra desconexión constatación escala urgencia problema posponga decisión añosla decisión decepcionante países desarrollo entender importancia tema preparar frente común efe katy athersuch msf recordando naciones sudamericanas china entendido trascendencia convención idun grupo expertos reunidos oms reveló informe anualmente invierten millones dólares investigación desarrollo id enfermedades abandonadas necesitaría doble millones enfermedades olvidadas afectan millones personas mundo mayoría pobres zonas rurales países desarrollados</t>
+          <t>acudir médico surge problema salud recoger resultado análisis habitual niños casa visitas pediatra recurrentes acercarse consulta conlleva desplazamiento ocasiones provocar interferencias agenda diaria fortuna telemedicina irrumpió vida pacientes ventajas numerosas amplía acceso cuadro médico extenso eliminar limitaciones geográficas ahorra dinero trayectos esperas… contribuye descarbonización planeta evitar desplazamientos reduce contaminación atmosféricael motivo sencillo comunicarse remoto médico pantalla usuario necesidad salir domicilio llegar centro médico palabras elegir modalidad videoconsulta evita desplazamiento casos coche reduce emisión gases efecto invernadero auténticos aceleradores cambio climático sucede revisar informe médico consultar resultados pruebas leer consentimiento app plataforma web recoger documentos físicamente consulta ahorra emisiones evitar desplazamientos consumo recursos naturales papelpara exactamente co evitar utilizar servicios médicos digitales videoconsulta sanitas desarrollado app misanitas portal clientes herramienta huella carbono usuarios conocen cantidad co neto dejado emitir atmósfera recurrir servicio asistencial formato online consultar histórico ahorro co acumulado año mostrar apuesta videoconsulta impacta forma positiva reducción emisiones carbono efecto positivo salud planeta explica directora sostenibilidad asuntos corporativos sanitas bupa europa latinoamérica yolanda erburupara marcha proyecto sanitas –que apostado atención híbrida combine ventajas digitalización atención personal– colaborado consultora especializada cambio climático the carbon trusttras calcular serie parámetros técnicos resultados significativos videoconsulta evita emisión neta kg dióxido carbono cantidad co absorber árboles acceso informe médico digital estadística indica recogida promedio casos estima emisión evitada kg co digitalización tipo servicios sanitas evitó emisión toneladas dióxido carbono equivalente liberada hogares españoles año datos instituto nacional estadística ine conclusiones refleja informe sanitas impacto telemedicina reducción co publicado prestigiosa revista científica nature scientifc reports</t>
         </is>
       </c>
       <c r="C66" t="n">
         <v>1</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Salud_6.txt</t>
+        </is>
       </c>
     </row>
     <row r="67">
@@ -1296,11 +1626,16 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>efectos secundarios cáncer atención presta probablemente enfermedades oncológicas siguen habituales personas mayores jóvenes médico escapa tratamientos habituales cáncer quimioterapia quema ovarios provoca infertilidad porcentaje desdeñable pacientes cáncer estudios cifran estudio publicado edición science traslacional medicine desvela mecanismo sucede allá apuntando molécula protegería reserva ovárica tratamiento fármaco probado indicación ratones hembra terminado tratamiento tasas fertilidad nacimientos sanos congéneres tratadaslos investigadores dirigidos lital kalichphilosoph chaim sheba medical center tel hashomer israel apuntan amplio abanico fármacos quimioterapia especialmente hábil hora quemar ovarios ciclofosfamida medicamento relativamente antiguo administrar vía oral intravenosa especialmente indicado cánceres sistema linfático neuroblastoma común niños retinoblastoma cáncer mama ovariospara explicar mecanismos ataque ciclofosfamida necesario pequeño repaso anatomía reproductiva femenina folículos ováricos grupos células envuelve ovocito precursor ovario mes pequeña cantidad folículos empieza crecer madurar alcanzará madurez ovulado quedan organismo serie folículos ováricos durmientes ovocitos disminuyendo mujer envejecelo describen revista estadounidense fármaco quimioterapéutico modifica equilibrio maduración folículos mes quedar esperando turno lucha multiplicación celular caracteriza cáncer mata folículos toca madurar mes activa silentes maduran folículos despertados susceptibles acción quimioterapiala explicación comúnmente aceptada quimioterapia destruía folículos mataba directamente células componen demuestra folículos durmientes destruidos quimio despierta mueren explica correo electrónico elmundoes dror meirow firmante trabajolos investigadores demostrado hallazgo modelo murino tratamiento ciclofosfamida viene acompañado noticias científicos visto molécula lograba revertir efecto administraba paralelamente quimioterapiase fármaco acción inmunomoduladora describió nature revela meirow fase ii desarrollo clínico distintos usos aprobado distintos usos destaca aplicación alopecia androgenética femenina estudio ratones aplicación inyecciones trabajos estudiando vía oral afirma investigador meirow importante demostrado administrar conjuntamente quimioterapia avalaría hallazgo demuestre humanos</t>
+          <t>juntero bildu bizkaia asier vega afirmado formación seguirá pidiendo representación real consejo administración kutxabank niega juego sucio intereses políticos partidistassegún indicado rueda prensa convocada postura rubricado pnv pp citado consejo preguntas periodistas seguir pidiendo correspondees triste pedir realmente corresponde representación real mesa juego sucio intereses políticos partidistas niega apartar asegurado vegapara petición bildu utilizará foros posibles evidentemente reivindicar corresponde indicado juntero vizcaíno apoderada bizkaia zurine gaintzadurante comparecencia representantes bildu leído comunicado formación bizkaia indicado reunión kutxabank coalición recibió noticia esperaba consejo administración banco quedará manos pnv ppel pnv dispuesto pactar cualquierasegún pnv dispuesto pactar cualquiera mantener cuota resultados elecciones mayo vuelto mirar intereses derecha comido pastelbildu bizkaia asegurado formación dispuesta negociar llegar composición consejo administración pnv vuelto espalda pueblo desea merece pactado derecha españolasabemos pnv acostumbrado gestionar años cambiado resulta vergonzoso reduzcan número consejeros kutxabank miembros seguir gestionando podersegún afirmado bildu bizkaia problema reparto consejeros responda situación política territorio problema sabiendo situación económica crítica vivimos den prioridad intereses partidistas olviden necesidades sociedadpara bildu bizkaia juego sucio pnv quedado hora renovar asamblea bbk ayuntamientos bizkaia votar consejeros pnv llevado votaciones pleno municipios mayoría absoluta evitado nombramiento personas interesanparece pnv bizkaia sabin etxea sinónimos suficiente dejar mesa juntas generales bizkaia bildu bbk kutxabank esconde pnv sospechamos perder centímetro amoldarse tiempos prefiere aplicar antiguas recetas concluido</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Politica_7.txt</t>
+        </is>
       </c>
     </row>
     <row r="68">
@@ -1309,11 +1644,16 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>agencia española medicamentos productos sanitarios aemps dependiente ministerio sanidad suspendido autorización comercialización medicamentos administración intranasal contienen calcitonina usados tratar osteoporosis publicado restricciones preparados inyectables indicados problemas óseosesta decisión toma consonancia decisión comisión europea medida solicitado actualización ficha técnica prospecto preparados inyectables calcitonina conocerse datos procedentes ensayos clínicos indican ligero incremento riesgo tumores asociado tratamientos prolongados hormona inhibe resorción óseapor dada existencia alternativas terapéuticas suspende comercialización solución pulverización intranasal únicamente indicada tratamiento osteoporosis postmenopáusica reducir riesgo fracturas vertebralesel mes julio espera decisión comisión europea atendiendo recomendaciones comité científico agencia europea medicamentos chmp desaconsejaba tratamientos prolongados recomendación mantiene caso preparados inyectables asimismo aemps recomendó iniciasen tratamientos indicación osteoporosis procediese revisión tratamientos curso valorando posibles alternativas terapéuticasla aemps solicitado prescriban dispensen preparados calcitonina intranasal devolución existencias disponibles oficinas farmacia almacenes distribución llevará cabo canales habitualeslos medicamentos calcitonina suspendido autorización comercialización calcitonina almirall unidades solución pulverización nasal calcitonina hubber unidades solución pulverización nasal envase unidosis calcitonina hubber unidades solución pulverización nasal multidosis osteobion unidades solución pulverización nasal calsynar unidades solución pulverización nasal miacalcic unidades solución pulverización nasal oseototal unidades solución pulverización nasal ospor unidades solución pulverización nasalen preparados calcitonina inyectable informa utilizarse periodos cortos dosis mínima eficaz indicaciones autorizadas prevención pérdida aguda masa ósea debida inmovilización repentina tratamiento enfermedad paget utilizar tratamientos alternativos resultado ineficaces tratamiento hipercalcemia cáncerla agencia española recuerda prevención pérdida aguda masa ósea debida inmovilización repentina caso pacientes fracturas osteoporóticas recientes recomienda dosis uidía ui semanas exceder semanas tratamientopara tratamiento enfermedad paget tratamiento prolongarse meses circunstancias excepcionales riesgo fractura patológica inminente prolongarse máximo recomendado mesespor aemps actualizando fichas técnicas prospectos preparados inyectables calcitonina asimismo recuerda sospechas reacciones adversas notificar centros autonómicos farmacovigilancia</t>
+          <t>efectos secundarios cáncer atención presta probablemente enfermedades oncológicas siguen habituales personas mayores jóvenes médico escapa tratamientos habituales cáncer quimioterapia quema ovarios provoca infertilidad porcentaje desdeñable pacientes cáncer estudios cifran estudio publicado edición science traslacional medicine desvela mecanismo sucede allá apuntando molécula protegería reserva ovárica tratamiento fármaco probado indicación ratones hembra terminado tratamiento tasas fertilidad nacimientos sanos congéneres tratadaslos investigadores dirigidos lital kalichphilosoph chaim sheba medical center tel hashomer israel apuntan amplio abanico fármacos quimioterapia especialmente hábil hora quemar ovarios ciclofosfamida medicamento relativamente antiguo administrar vía oral intravenosa especialmente indicado cánceres sistema linfático neuroblastoma común niños retinoblastoma cáncer mama ovariospara explicar mecanismos ataque ciclofosfamida necesario pequeño repaso anatomía reproductiva femenina folículos ováricos grupos células envuelve ovocito precursor ovario mes pequeña cantidad folículos empieza crecer madurar alcanzará madurez ovulado quedan organismo serie folículos ováricos durmientes ovocitos disminuyendo mujer envejecelo describen revista estadounidense fármaco quimioterapéutico modifica equilibrio maduración folículos mes quedar esperando turno lucha multiplicación celular caracteriza cáncer mata folículos toca madurar mes activa silentes maduran folículos despertados susceptibles acción quimioterapiala explicación comúnmente aceptada quimioterapia destruía folículos mataba directamente células componen demuestra folículos durmientes destruidos quimio despierta mueren explica correo electrónico elmundoes dror meirow firmante trabajolos investigadores demostrado hallazgo modelo murino tratamiento ciclofosfamida viene acompañado noticias científicos visto molécula lograba revertir efecto administraba paralelamente quimioterapiase fármaco acción inmunomoduladora describió nature revela meirow fase ii desarrollo clínico distintos usos aprobado distintos usos destaca aplicación alopecia androgenética femenina estudio ratones aplicación inyecciones trabajos estudiando vía oral afirma investigador meirow importante demostrado administrar conjuntamente quimioterapia avalaría hallazgo demuestre humanos</t>
         </is>
       </c>
       <c r="C68" t="n">
         <v>1</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Salud_41.txt</t>
+        </is>
       </c>
     </row>
     <row r="69">
@@ -1322,11 +1662,16 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>ocultó enfermedad datos tipo leucemia concha garcía campoy recibió pasos seguidos médicos terrible periodista indican debió leucemias graveslos tratamientos sometida presentadora habituales erradicar leucemia casos intervalo años caso pasaron meses completar opciones terapéuticas enfermedaden enero campoy anunció enfermedad twitter sometió quimioterapia eliminar células defectuosas originan enfermedad pacientes responden tratamiento casos leucemia aparece despuésel paso tratar recaída trasplante médula médula ósea enfermo responsable producción células malignas destruye medicamentos sustituye médula sana términos generales suele utilizar médula paciente trasplante recurre donante compatible enfermedad probablemente volvería aparecer médula compatible opta autotrasplante caso periodista ocurrió tenor josé carreras caso funcionó cambio pasó campoyel eslabón tratamiento trasplante alogénico trasplante persona ideal recibir médula hermano alguien compatible terapia idónea exenta riesgos mortalidad tóxica procedimiento caso trasplante alogénico torno ó aumentar función aparición paciente revisiones literatura médicasi donante compatible recurrir pasó caso campoy trasplante células cordón umbilicala tipo trasplantes ocurrir reacción injerto huesped células trasplantadas rechazan organismo reacción violenta combate fármacos tóxicosaunque médico presentadora compañero profesión manuel campo vidal señalado precisamente medicamentos generado fallo hepático destrucción masiva hígado producirse rápidamente casos transcurso proceso lento plantear trasplante hígado fracaso hepático podido derivar consecuencia infección pacientes suelen riesgos contraer patologías infecciosas reciben fármacos inmunosupresorescuando hígado deja cumplir funciones deja depurar sustancias fabricar componentes necesarios coagulación conllevar deterioro cognitivo denominado encefalopatía hepática termine coma finalmente paciente fallezca falta componentes coagulación complicaciones graves hemorragia</t>
+          <t>años células madre revolucionaron abordaje medicina forma trascendental extrañar cuentan propiedades regenerativas antiinflamatorias únicas significa diversas aplicaciones quedado únicamente laboratorio realidad práctica clínica patologías frecuentes enfermedad crohn afecta personas país caracteriza provocar inflamación tejidos tracto digestivo provocando dolor abdominal diarrea grave cansancio pérdida peso malnutricióna retahíla molestias suma pacientes enfermedad crohn presentan enfermedad perianal casos pudiendo alcanzar cifras enfermedad afecta colon recto detalla erica barreiro especialista unidad coloproctología complejo hospitalario universitario pontevedra fístulas perianales comunicaciones ano recto piel trayectos ocasionan frecuencia supuración purulenta dolor deterioro calidad vida casos severos incontinencia mayoría técnicas quirúrgicas empleamos recomienda pacientes enfermedad crohn resultados pobres altas tasas recidiva alternativas terapéuticas resultan escasas lamenta barreiro llegada terapia celular escenario resulta completamente técnica presenta tasa éxito cierre abra luz túnel pacientes mejoras importantes calidad vida reconoce especialistaen concreto células madre basa terapia proceden tejido adiposo donantes someten riguroso proceso científico convertidas terapia capaz potenciar capacidad regeneradora organismo proceso quirúrgico aplican paciente mecanismo acción terapia basa restauración inmunidad local curación daño tisular mediado inflamaciónpara resulte efectivo tratamiento multidisciplinar resulta fundamental coordinación distintos especialistas paso selección candidatos terapia celular casos solicita resonancia magnética pélvica colonoscopia completa detalla barreiro insiste experta coordinación necesaria paso proceso tratamiento prepara paciente proceso dura aproximadamenteen concreto seleccionado paciente programamos semanas administración cirugía preparación comprobamos anatomía fístula descartamos actividad rectal presencia abscesos legramos trayectos fistulosos eliminar fibrosis existente obtenemos biopsia tejidos casos colocamos sedales intervención salir quirófano siguen cumpliendo requisitos solicitamos terapia celular cumplimentarse datos plataforma valtermed ministerio sanidad evalúa terapéutico tratamientos novedosos alto impacto sanitario económico explica barreirolas células llegan hospital hora mañana cirugía lábiles cuidadosos transporte temperatura guardan preferimos minimizar riesgos fallar asegurar viabilidad células aplicación quirófano equipo especializado administración agitarlas error aguja calibre inadecuado administración provocarían disrupción celular consecuente fracaso tratamiento advierte barreiro</t>
         </is>
       </c>
       <c r="C69" t="n">
         <v>1</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Salud_46.txt</t>
+        </is>
       </c>
     </row>
     <row r="70">
@@ -1335,11 +1680,16 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>aprobado definitivamente apunta directiva europea dará luz verde venta cigarrillos electrónicos territorio europeo acaso lobbies industria tabaquera recelosos continúan desplegando armas asegurar dicha autorización llega puerto publicación trabajos teoría avalan beneficios producto difundido páginas revista plos onesegún estudio personas deja fumar gracias cigarrillos electrónicos año prolongó investigación grupo científicos universidad catania italia reunió fumadores intención abandonar hábito simplemente curiosidad producto electrónico parecido cigarrillo tradicional querían probarlo aseguran responsables artículose dividió grupos utilizaba ecigarrillos mg nicotina fumaba cigarrillos electrónicos mg recibieron cartuchos producto electrónico nicotina usado dosis altas nicotina fumar comparación grupo consumieron nicotinaaunque grupo control personas librado adicción investigadores creen dispositivo dejado fumar cabo año resultados afirma principal autor riccardo polosa demuestran importante abandono tabaco significativa reducción consumo participantes grupos redujeron mitad número cigarrillos agrega polosa traduce riesgos saludsin hallazgos comunidad científica debatiendo beneficios producto electrónico realmente estudios firmes serios demuestren ventajas importante seguridad señala francisco rodríguez lozano presidente comité nacional prevención tabaquismo cnptuna investigación publicada revista científica prestigiosa cirugía torácica chest describía lesiones pulmonares relacionadas ecigarrillo llevan nicotina etiquetados regulados afectan salud consumidor deberían autorizarse información seguridad argumenta experto españolel problema agrega intereses eeuu empresas tabaco tradicional empezando introducirse mundo cigarrillos electrónicos aparecen anuncios televisión nombres parecidos marcas habituales propaganda cigarro tradicional electrónico</t>
+          <t>debate ley trans nivel nacional mantiene enfrentados socios gobierno encontrado homólogo comunidad madrid vox pide derogación normativa ámbito regional sostenida ley pp mantiene espera suceda congreso diputados pasopero jueves presidenta isabel díaz ayuso abierto vía inexplorada comprometido formación derecha radical eliminar autodeterminación género texto legal aprobado mandato popular cristina cifuentes pregunta portavoz vox rocío monasterio pensado cabo medida dirigente autonómica respondido escueto síposteriormente ayuso matizado gobierno esperará pergeñan gobierno central ley trans tomar decisión equivocada perder centro derogar completo legislación autonómica materia monasterio traería cámara próxima sesión plenaria asamblea falta pequeño matiz equivoca afirmado dirigente populares gobierno regional compromete eliminar autodeterminación género ley completa tramite nacional concepto autodeterminación género referencia posibilidad persona acudir registro civil cambiar sexo identificada declaración aportar informe médico psicológico acreditar condiciónese punto recoge apartado artículo ley comunidad madrid establece sistema sanitario público comunidad madrid atenderá personas trans conforme principios consentimiento informado libre autodeterminación género discriminación asistencia integral calidad especializada proximidad segregaciónla presidenta regional comprometido corregir excesos norma conscientes apuntado encargaremos comunidad madrid solucionar problemas agregado paso concreto gobierno autonómico esbozado anteriores ocasiones</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Politica_9.txt</t>
+        </is>
       </c>
     </row>
     <row r="71">
@@ -1348,11 +1698,16 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>causas comunes infertilidad varones hombres hijos padecen azoospermia trastorno semen carezca espermatozoidesesta condición deberse obstrucción conductos llevan esperma exterior habitual problema secreción raíz genéticala infertilidad masculina estudiando permitido identificar genes implicados producción gametos relacionado previamente distintos síndromes oncológicos explica páginas revista fertility and sterility larry lipshultz principal autor querido analizar fondo relación trastorno fertilidad cáncersus datos preliminares sugieren hombres cuyo semen espermatozoides riesgo padecer cáncer población riesgo varón azoospermia similar varón sano años indican investigadores subrayando riesgo relativo significativo posibilidades desarrollar tumor vida siguen bajaslipshultz equipo realizaron seguimiento hombres infértiles acudido clínica texana especializada andrología cuya media edad rondaba años padecían azoospermia tipo secretorademás estudiar análisis semen investigadores recurrieron registro oficial texas refleja casos cáncer ocurridos años datos pacientes mano compararon tasas cáncer estimaciones población edadsu investigación encontró años seguimiento hombres infértiles desarrollado cáncer cifra superior casos preveían estadísticasal profundizar análisis científicos comprobaron realidad presentaban riesgo superior población únicamente varones presentaban azoospermia hombres acudido clínica infertilidad cumplir años producían espermatozoides parecían probabilidades presentar tumorlos cánceres detectados señalan investigadores testículo afectaban zonas cerebro próstata estómago intestino tumoresaunque podido determinar causas relación autores sugieren defectos adn provocan infertilidad varones distintos problemas oncológicosdado genoma varón relacionado reproducción probable procesos relacionados procreación vean afectados aberraciones adn explican revista médicaen conclusiones científicos reconocen ofrece hilo seguir tirando posteriores investigaciones trabajos sugerido hombres infértiles riesgo cáncer testicular investigación apoya hipótesis afectados población limitada procesos malignos implicados subrayan investigadores piden análisis pormenorizados</t>
+          <t>desórdenes mentales neurológicos afectan mundo millones personas mayoría cuentan atención psicosaniataria adecuada datos organización mundial salud oms mostrado intención subsanar situaciónla oms redactado borrador plan acción salud mental aprobado miembros asamblea mundial salud ams semana ginebra ams máximo órgano decisorio organización anualmente marca líneas directrices corto plazouna constataciones realizadas entidad enfermedades mentales neurológicas representan dolencias mundiales casos enfermedades transmisibles mundose estima millones personas mundo padecen depresión millones conviven desorden abuso sustancias millones padecen epilepsia millones sufren alzheimer demenciasla unión europea calcula enfermedades mentales provocan pérdida producto interno bruto mundial pib causa falta productividad foro económico mundial calcula coste mundial dolencias eleva millones dólaresa impacto social económico prevención tratamiento prioritario fecha situación oms pretende revertir presentar plan acción aprobado semanaotro tema debatido seguramente aprobado ams plan prevención control enfermedades transmisibles principal causa mortandad mundo responsables muertes latinoaméricala onu declaró guerra dolencias asamblea onu septiembre adoptó declaración luchar cáncer diabetes hipertensión males coronarios pulmonaresel plan pretende países establezcan medidas prevención poniendo énfasis importancia conocimiento público detección temprana refuerzo centros atención primaria opuesto encuentran llamadas enfermedades olvidadas mayoría transmisibles afectan mayoritariamente países desarrollo chagas dengue tuberculosis malaria debatidas amsel año tema generó polémica distintas versiones necesidad crear convención estableciese obligatoriedad contribuir producto interior bruto pib país investigación desarrollo id tipo enfermedadesdespués discusión países latinoamericanos lograron imponer criterio esencial mecanismo regule establezca objetivos id enfermedades olvidadas pospuso concreción debate añono obstante decisión revertida reuniones posteriores borrador resolución analizará ams aplaza debate ong médicos fronteras decisión muestra desconexión constatación escala urgencia problema posponga decisión añosla decisión decepcionante países desarrollo entender importancia tema preparar frente común efe katy athersuch msf recordando naciones sudamericanas china entendido trascendencia convención idun grupo expertos reunidos oms reveló informe anualmente invierten millones dólares investigación desarrollo id enfermedades abandonadas necesitaría doble millones enfermedades olvidadas afectan millones personas mundo mayoría pobres zonas rurales países desarrollados</t>
         </is>
       </c>
       <c r="C71" t="n">
         <v>1</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Salud_40.txt</t>
+        </is>
       </c>
     </row>
     <row r="72">
@@ -1361,11 +1716,16 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>años células madre revolucionaron abordaje medicina forma trascendental extrañar cuentan propiedades regenerativas antiinflamatorias únicas significa diversas aplicaciones quedado únicamente laboratorio realidad práctica clínica patologías frecuentes enfermedad crohn afecta personas país caracteriza provocar inflamación tejidos tracto digestivo provocando dolor abdominal diarrea grave cansancio pérdida peso malnutricióna retahíla molestias suma pacientes enfermedad crohn presentan enfermedad perianal casos pudiendo alcanzar cifras enfermedad afecta colon recto detalla erica barreiro especialista unidad coloproctología complejo hospitalario universitario pontevedra fístulas perianales comunicaciones ano recto piel trayectos ocasionan frecuencia supuración purulenta dolor deterioro calidad vida casos severos incontinencia mayoría técnicas quirúrgicas empleamos recomienda pacientes enfermedad crohn resultados pobres altas tasas recidiva alternativas terapéuticas resultan escasas lamenta barreiro llegada terapia celular escenario resulta completamente técnica presenta tasa éxito cierre abra luz túnel pacientes mejoras importantes calidad vida reconoce especialistaen concreto células madre basa terapia proceden tejido adiposo donantes someten riguroso proceso científico convertidas terapia capaz potenciar capacidad regeneradora organismo proceso quirúrgico aplican paciente mecanismo acción terapia basa restauración inmunidad local curación daño tisular mediado inflamaciónpara resulte efectivo tratamiento multidisciplinar resulta fundamental coordinación distintos especialistas paso selección candidatos terapia celular casos solicita resonancia magnética pélvica colonoscopia completa detalla barreiro insiste experta coordinación necesaria paso proceso tratamiento prepara paciente proceso dura aproximadamenteen concreto seleccionado paciente programamos semanas administración cirugía preparación comprobamos anatomía fístula descartamos actividad rectal presencia abscesos legramos trayectos fistulosos eliminar fibrosis existente obtenemos biopsia tejidos casos colocamos sedales intervención salir quirófano siguen cumpliendo requisitos solicitamos terapia celular cumplimentarse datos plataforma valtermed ministerio sanidad evalúa terapéutico tratamientos novedosos alto impacto sanitario económico explica barreirolas células llegan hospital hora mañana cirugía lábiles cuidadosos transporte temperatura guardan preferimos minimizar riesgos fallar asegurar viabilidad células aplicación quirófano equipo especializado administración agitarlas error aguja calibre inadecuado administración provocarían disrupción celular consecuente fracaso tratamiento advierte barreiro</t>
+          <t>chino wang jianping subjefe antiguo comandante policía armada investigado aceptación sobornos convierte altos cargos militares activo sucumbir campaña anticorrupción emprendida gobierno comunistasegún confirmó jueves portavoz ministerio defensa china yang yujun wang únicamente sospechoso recibido sobornos investigación llevada cabo ejército chinocon anuncio confirmaba información publicada agosto diario hongkonés south china morning post adelantó uniformado detenido mujer secretaria violar disciplina partido comunista chino pcch eufemismo empleado casos corrupción rumores torno figura crecido semanas raíz ausencia plenario celebrado octubre acontecimientos públicoscon arresto wang convierte activo investigado presidente xi jinping lanzó campaña anticorrupción llevado escrutinio millón miembros formación comunistalucha personalcomo líder ejército millones soldados xi lucha problema estamento militar prioridades colaboradores consideran lacra calado llegar socavar capacidad país librar guerra pekín proyectando fuerza influencia regiónen comparencia yang años ejército aplicado férrea normativas anticorrupción conducido procesamiento prominentes oficiales esforzamos práctica sistema atreva caer corrupción corromper construir fuerzas armadas fuertes declaróentre wang comandó policía armada fuerza paramilitar régimen trabajó estrecha colaboración todopoderoso zhou yongkang zar seguridad china xi cayó desgracia condenado cadena perpetua julio influyente estamento militar testigo condenaba cadena perpetua aceptar sobornos retirado guo boxiong vicepresidente comisión militar central máximo organismo militar país guo pasó responsable ejército alto rango condenado prisión chinamomento decisivoxu caihou vicepresidente comisión época guo investigado corrupción detenido año espera juicio falleció víctima cáncer procesado tercer arrestado anuncio tian xiusi comisario fuerzas aéreas ejército liberación popular chino aprehendido juliode partido comunista lucha corrupción país llegado decisivo conseguido importantes logros espera año siga dando resultados campaña goza amplia popularidad ciudadanos chinos observadores apuntan presidente utilizando librarse posibles rivales políticosen años registrado enormes progresos mejorado confianza pública campaña gobernar estrictamente partido luchar corrupción xinhua comunicado publicado miércoles cierre reunión celebrada buró político comité central pcch presidida xi corrupción existente debería reducida aumento contenidohoy temida comisión central control disciplinario pcch informaba procesamiento antiguos jefes espionaje viceministro seguridad pública ma jian acusado aceptar sobornos abuso interferir aplicación ley</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Politica_37.txt</t>
+        </is>
       </c>
     </row>
     <row r="73">
@@ -1374,11 +1734,16 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>pasan desapercibidas mayoría ocasiones hormonas tiroideas cumplen papel esencial organismo desequilibran aparecer graves problemas salud caso problemas cardiacos vinculación contrastada creciente investigadores clinic of ruhr university bochum alemania metaanálisis millones participantes concluye desviaciones leves función tiroidea aumentar riesgo enfermedades cardiovasculares graveses sobra conocido trastornos tiroideos afectan profundamente sistema cardiovascular incrementado morbilidad mortalidad dicha causa relación contrastada aparición arritmias cardiacas concretamente fibrilación auricular detectarse taquicardia sinusal inapropiada larga alta frecuencia cardiaca dañar músculo cardiaco producir miocardiopatía alta frecuencia detalla ana garcía martín vocal asociación cardiología clínica sociedad española cardiología sec cardióloga hospital universitario ramón cajal madrid advierte garcía martín llamativo estudio pequeñas variaciones hormonas tiroideas rango normalidad llamados estadios subclínicos producir alteración función cardiaca exceso eventos cardiovascularesante circunstancia cardiología norma solicitar perfil hormonas tiroideas evento cardiovascular casos hipotiroidismo comenzar tratamiento hormonal sustitutivo suele pedir colaboración compañeros endocrinología asegura garcía martínla desregulación tiroides pasa factura organismo diversas maneras menor producción hormonas hipotiroidismo produce cansancio intolerancia frío piel seca uñas quebradizas caída cabello voz ronca somnolencia lentitud mental pérdida memoria capacidad concentración alteraciones ánimo estreñimiento… alteración leve sintomatología aparece forma discreta explica elena navarro coordinadora área tiroides sociedad española endocrinología nutrición seen contrario exceso producción hipertiroidismo suele producir nerviosismo taquicardia dificultad dormir calor sudoración excesiva pérdida peso temblor manos diarreas cansancio síntomas fases iniciales confundirse estrés alteración leve ocasiona sintomatología personas edad determina frecuencia arritmias cardiacas añade navarroen escenario persona enfermedad tiroidea alimentación sana porciones frutas hortalizas legumbres frutos secos ingesta calórica azúcares libres ingesta calórica diaria procedente grasas prefiriéndose saturadas presentes pescados aguacates frutos secos aceites girasol soja canola oliva gramos debería yodada restricciones eliminaciones alimentación aconseja población asegura navarro matiza poblaciones exista déficit yodo alimentos verduras crucíferas col coliflor brócoli dificultar funcionamiento tiroidessin olvidar recuerda garcía martín hormonas tiroideas interfieren metabolismo colesterol hipercolesterolemia fuerte factor riesgo cardiovascular mensajes repetidos consulta resumen beneficios dieta mediterránea variada equilibrada importancia ejercicio físico regular mantener bienestar físico mental</t>
+          <t>jimmy butler heat equipo brindis obviedades sirve titular dejar spoelstra equipo temible parecido espartano butler regresaba partidos problema rodilla convirtiendo acción importante minutos finales prórroga heat ganaron garden celtics perdían octubre derrota partidos verdes extraordinarios humanosbutler diferencia sustancial repetición revancha acabara signo contrario partido ligero ofensivo miércoles batalla parecida tremenda serie decidió representante finales salsa butler acabó puntos rebotes momentos calientes bam adebayo sumó puntos rebotes acabó duelo tremendo estrellas cara perro jaylen brown réplicas flojo jayson tatum tiros venía reforzar candidatura mvp puntos heat guerrerosquienes pensaran cetlics iban perder jamás seguramente reafirmaron canastón butler horford siguió falta segundos triple tablero brown logo resurrección graznido vida locales prórrogas temporada tiraron acostumbran torno triples apilaron pérdidas facilitaron puntos heat necesario baño autoestima butler adebayo jugaron nivel lowry puntos asistencias tyler herro sixers aguantan ritmo grizzliesdespués perder forma estrepitosa cleveland sixers intentaron memphis pudieron sumar vuelven rondar punto recuperar james harden tyrese maxey tardará volver diferencia partido ohio pelearon convirtieron cuarto falta minutos acabó quedándose corto lavó cara equipo impulsado joel embiid puntos rebotes asistencias inicio tobias harris cuarto grizzlies tomaron mando sensaciones marcador ja morant jugó acabó puntos tiros jaren jackson jr sumó rebotes tapones actividad frontcourt rebotes tapones tennessee decisiva puntos rebotes asistencias tapones steven adams brandon clarke asistencias par triples anotados santi aldama jugó partido grizzlies cuartos oeste partidos cabeza pese altibajos baja duración desmond banelos cavaliers ascienden esteen jornada perdieron celtics bucks cosa rara cavs zancadita partido wisconsin victoria permitir sorpresas orlando magic derrotas seguidas récord nba florida siguen lastrados bajas faltaban wendell carter jr jalen suggs chuma okeke gary harris mo bamba jonathan isaac… número draft paolo banchero nivel puntos rebotes asistencias temporada volverá reconstrucción ojos draft orlando proceso duro cavs felices pista ganaron jugaron jarrett allen donovan mitchell anotó puntos minutos darius garland dirigió asistencias evan mobley rival apocado kevin love volvió lesión cavs mantienen mejores equipos realidaduna noche trae hawkslos hawks cuartos noche fantástica ganaron forma convincente gallos oeste denver nuggets pese jugaron trae young john collins deandre hunter pese nuggets espabilaron tercer cuarto convirtieron nikola jokic anotó puntos acabó rebotes asistencias jamal murray sumó asistencias nuggets descolgaron definitivamente minutos sometido presión dejounte murray puntos asistencias puntos rookie aj griffin tiros jugadores dobles figuras anotación hawks colectivos duros mantienen mejores conferencia nuggets segundos oeste desperdiciaron ocasión propicia sumar victoriaa pacers duro oesteduelo revelaciones salt lake city equipos profunda reconstrucción esperaba carrera victor wembanyama positivo duelo utah jazz indiana pacers perdido partidos oeste evitaron pleno patinazos remontada milagrosa cuarto lakers partido pérdidas jazz eficaces lados pista escaparon acierto ofensivo tramos defensa golpearon pacers empataron abrió brecha bestial lauri markkanen partido puntos rebotes jordan clarkson puntos asistencias collin sexton manejaron dirección sufre mike conley banquillo sumaron beasley pívot rookie kessler hallazgo puntos tiros campo rebotes tapones pacers haliburton puntos asistencias pérdidas mathurin wizards pierden mil ocasiones ganarcinco derrotas partidos wizards vuelven negativo ocasiones romper mala racha charlotte hornets sumaron séptima victoria toque poltergeist puntos ventaja tercer cuarto llegaron sirve parcial locales anotaron marcador puso falta minutos movió wizards perdieron ataques tomar mando bradley beal apiló minuto pérdidas tiro fallado canasta ganadora hornets volado tiros salvaron pelos rozier sumó puntos oubre pj washington asistencias wizards puntos rebotes asistencias beal porzingis puntos kuzma capital jugaron engancharon partido quintetos control rebote quedaron cortos</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Deportes_33.txt</t>
+        </is>
       </c>
     </row>
     <row r="74">
@@ -1387,11 +1752,16 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>erróneo antibióticos problemas graves enfrenta sanidad datos dejan dudas diez españoles guardan antibiótico sobra tratamiento utilizarlo caso urgencia revela análisis observatorio tendencias cofares titulado abuso antibióticos peligro resistencia bacterianaesta conclusión pone manifiesto tipo fármacos únicamente tomarse prescripción médica siguiendo indicaciones específicas profesional sanitario contribuyendo resistencia antimicrobianos ram análisis elaborado motivo semana mundial concienciación antimicrobianos iniciativa organización mundial salud año celebra noviembre lema prevengamos juntos resistencia antimicrobianospara desarrollo observatorio tendencias cofares análisis evolución demanda farmacias medicamentos antibióticos años investigación sociológica descubrir conocimiento población española relación antibióticos resistencia bacteriana resultados obtenidos desprende tercio población española desconoce resistencia bacteriana antibióticos paralelo preguntados impacto porcentaje similar resta importancia resistencia problema grave cambio problema serio salud púbica graves consecuencias análisis refleja mitad españoles consumido meses población joven señala haberlo porcentaje respecta percepción población resistencia encuestados antibiótico efecto mayoría opina cuerpo habituado antibióticos actuales preparados frente bacterias restante creen antibióticos efecto reconoce toma siguiendo pauta estricta médico farmacéuticoa mayoría encuestados farmacéutico profesional sanitario clave resolver preguntas medicamentos antibióticos concreto recurre dudas respectoeste baladí calcula murieron millones personas mundo infecciones resistentes antibióticos prevé cifra multiplique diez determina observatorio tendencias años previos irrupción pandemia covid existía patrón estacional demanda antibióticos contemplaba volúmenes significativos doce meses año máximos absolutos relativos estaciones otoño invierno patrón vio alterado temporada registrarse significativa disminución demanda consecuencia llegada pandemia correspondientes medidas protección instauradas confinamiento domiciliario distancia social sistemático mascarilla higiene manos relajación restricciones vuelve aparecer otoño patrón similar prepandémico alcanzar fecha niveles demanda comportamiento nivel nacional replica comunidades</t>
+          <t>teresa perales recupera luxación vuelve diplomasla nadadora sufrió lesión hombro izquierdo mayo estrenó juegos diplomas metros libres relevo metros libresno obstáculo frene siquiera lesión teresa perales sufrió luxación hombro izquierdo europeo madeira mayo parecía sueño tokio disipaba meses nadando brazo punto oficializaban nombres representantes juegos aragonesa confesaba difícil verla finalsin teresa rindió erre erre car sierra nevada mes rumbo tierras niponas probó quitarse cabestrillo nadar brazos sensaciones tiempos corroboró tokyo aquatics centre participó finales metros libres relevo mixto metros libres firmando quintos puestos diplomasme encuentro currado muchísimo contenta llegado mentir llegué soñar poquito viendo venía mes empecé nadar brazos izquierdo guerra vuelva paso quirófano nadadora años consciente conseguido rozando milagro compitiendo disfrutado salido sonriendo especialmente nerviosa merecía ganas másla flamante premio princesa asturias deporte atesora medallas juegos paralímpicos ido ganando confianza movimientos probado viraje fuerte competición movimientos peligrosos brazo izquierdo mañana vi mantenía sitio tirado miedo cuerpo aguante parada tocar agua mes pico quince nadé brazo duro podido contenta icónica sirena volverá piscina lunes</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Deportes_53.txt</t>
+        </is>
       </c>
     </row>
     <row r="75">
@@ -1400,11 +1770,16 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>organización mundial salud oms anunció lunes viruela mono denominará mpox raíz informes lenguaje racista estigmatizante rodea nombre enfermedadla decisión produce serie consultas expertos mundo agencia onu indicado términos utilizarán simultáneamente año elimine nombre viruela monoesto sirve mitigar preocupaciones planteadas expertos confusión causada cambio nombre brote mundial oms comunicadola viruela mono enfermedad vírica rara zonas selva tropical áfrica central occidental año surgido brotes partes mundo mediados noviembre extendía países casos confirmados laboratorios registrado muertescuando brote actual extendió diversas zonas mundo organización mundial salud recibió denuncias lenguaje racista estigmatizante produjo internet entornos comunidadesen reuniones públicas privadas personas países plantearon preocupación pidieron organización propusiera camino cambiar nombre agenciael nombre viruela mono años descubriera virus causa enfermedad monos cautivosesto agencia onu publicara mejores prácticas nombrar enfermedades directrices recomiendan nombres enfermedades tratar minimizar impactos negativos innecesarios comercio viajes turismo bienestar animalestambién evitar ofender grupo cultural social nacional regional profesional étnicola oms asigna nombres enfermedades excepcionalmente existentes proceso consultivose invitó expertos médicos científicos representantes autoridades gubernamentales países público presentar sugerenciasa consultas discusiones posteriores director organización tedros adhanom ghebreyesus agencia recomendado adopción sinónimo mpoxpara cambio nombre justificación idoneidad científica alcance actual pronunciación facilidad idiomas ausencia referencias geográficas zoológicas facilidad recuperación información científica históricala oms adoptará término mpox comunicaciones anima seguir</t>
+          <t>informe organización mundial salud higiene bucodental muestra mitad población mundial millones personas padecen enfermedades tipo viven países ingresos bajos mediosdurante años casos mundiales enfermedades bucodentales aumentado mil millones agencia onu entiende clara señal alto número personas disponen métodos acceso prevención tratamientolas enfermedades bucodentales frecuentes caries estima afecta millones personas cáncer bucal casos anuales periodontitis grave enfermedad causas principales pérdida dientes afecta mil millones personas mundoel informe subraya flagrantes desigualdades acceso servicios salud bucodental inmensa cantidad enfermedades afecciones bucodentales afectan poblaciones vulnerables desfavorecidaslos grupos poblacionales incidencia enfermedades bucodentales personas bajos ingresos viven discapacidad edad avanzada viven residencias personas habitan comunidades rurales remotaslos factores riesgo comunes enfermedades transmisibles ingesta elevada azúcares formas consumo tabaco nocivo alcoholla agencia sanitaria recuerda pequeño porcentaje población mundial cobertura servicios esenciales salud bucodental personas necesitan frecuentemente cuentan menor acceso sistemasentre múltiples soluciones mejorar situación mundial salud bucodental organización recomiendaadoptar planteamiento salud pública aborde factores riesgo comunes promoviendo dieta equilibrada baja azúcares abandonando tipo tabaco reduciendo consumo alcohol mejorando acceso pasta dientes flúor eficaz asequibleplanificar servicios salud bucodental sistema nacional salud mejorar integración servicios salud bucodental atención primaria cobertura sanitaria universalredefinir métodos salud bucodental responder necesidades población ampliar competencias trabajadores sanitarios dentales expandir cobertura tipo serviciosfortalecer sistemas información recopilando integrando datos salud bucodental sistemas nacionales vigilancia sanitariala directora enfermedades transmisibles organización doctora bente mikkelsen destacó reporte punto partida ofrece información referencia ayudar países monitorizar progresos realizados proporciona observaciones relevantes oportuna responsables toma decisiones nivel nacional</t>
         </is>
       </c>
       <c r="C75" t="n">
         <v>1</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Salud_51.txt</t>
+        </is>
       </c>
     </row>
     <row r="76">
@@ -1413,11 +1788,16 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>deja sorprendernos capacidad personas soportar adversidad infortunio soportarlo pasara hundiría moriría frases pensado razonamos situación perdido hijo conviven dura enfermedad afrontan pareja violenta educan adolescentes irresponsables pierden deja pareja sufren políticos frecuentes reprimendas insultos alcanzan familia relevantes ejemploslo infortunio alcanza personalmente morimos aprendemos soportarlo naturaleza evolución biológica programado sobrevivir vida deja cambiarla principal poderosa capacidad cerebro mente humana razonar reducir sentimientos negativos proponernos metas objetivos enraizados situación vivimos palabras resistiraun constatamos personas resisten malestar estrés provocan adversidades sufre recupera personas acusan tardan estabilizar físico mental víctima circunstancia anteriormente mencionadas referirse capacidad recuperación personas psicología asumido término resiliencia tomado física ingenieríaen origen término refiere capacidad material cuerpo físico recuperar normal sufrido presión mecánica doblado modificado goma material resiliente doblamos vuelve normal metales contrario presentan menor resiliencia grados psicología persona resiliencia resiliente capaz superar prontitud situación adversa evitando ansiedad depresión volviendo físico mental normalesas diferencias resiliencia personas vienen determinadas factores genéticos educativos huella dejan individuo experiencias personales resiliencia condicionada experiencia estresante contexto particular individuo afronta tratado grupo investigadores instituto neurociencias departamento psicología universidad princeton new jersey eeuu experimento ratones cuyos resultados recientemente publicados prestigiosa revista natureaunque objetarse resultados observado humanos demostrada conservación mecanismos fisiológicos evolución mamíferos sospechar darse especie camino explicar personas capaces afrontar resistir situaciones generalmente estresantes miedo enfermedad oficios empresario educador político</t>
+          <t>australia puertas éxito finales copa davis caer torneo canadá título puesto sequía país copa davis australia gana título derrotase españa preguntan australia torneo copa davis jugado principal raqueta australiana ranking nick kyrgiosmientras canadá logró reunir figuras felix augeraliassime denis shapovalov australia afrontar encuentros individuales alex miñaur thanasi kokkinakis ausencia kyrgiossobre renuncia kyrgios preguntaron capitán australiano lleyton hewitt preguntarle pude convencerle venido equipo podíamos presentar respuesta similar alex miñaur número australiano ausencia kyrgios intente convencerle sersin kyrgios confesó razones acudió finales copa davis publicación instagram usuario preguntó kyrgios jugaba davis australiano corto perezoso respondió ocupado jugar arabia saudi cifrasel viaje kyrgios arabia saudí participar diriyah tennis cup disputará país diciembre competirán jugadores talla stefanos tsitsipas daniil medvedev alexander zverev hará reaparición pistas grave lesión tobillo sufrió semifinales roland garroskyrgios juega torneo individuales abandonase tokio octubre presente thanasi kokkinakis nitto atp finals modalidad dobles previsto jugar torneo exhibición world tnenis league diciembre dubai espera vuelva competir torneo oficial próxima united cup diciembre enero enfrentarse rafa nadal españa australia quedado encuadradas grupo</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Deportes_13.txt</t>
+        </is>
       </c>
     </row>
     <row r="77">
@@ -1426,11 +1806,16 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>récord millones niños recibieron dosis vacuna sarampión millones niños recibieron dosis millones recibieron dosis publicación conjunta organización mundial salud oms centros control prevención enfermedades cdc unidosese déficit cobertura vacunación sarampión disminuido constantemente comienzo covid millones dosis vacunas sarampión pospusieron perdieron retrasos relacionados pandemia campañas inmunización paíseseste descenso inmunización supone importante retroceso avance mundial consecución mantenimiento eliminación sarampión deja millones niños expuestos infecciónen estima nueve millones casos muertes sarampión mundo veintidós países experimentaron brotes perturbadoresla agencia onu asegura disminución cobertura vacunal debilitamiento vigilancia sarampión continuas interrupciones retrasos actividades inmunización covid persistencia brotes sarampión amenaza inminente regiones mundola paradoja pandemia vacunas covid desarrollaron récord desplegaron campaña vacunación historia programas inmunización rutinarios vieron gravemente perturbados millones niños quedaron recibir vacunas salvan vidas enfermedades mortales sarampión doctor tedros adhanom ghebreyesus director organización mundial saludvolver marcha programas inmunización absolutamente crítico estadística informe niño riesgo contraer enfermedad prevenible añadióel sarampión virus humanos contagiosos prevenir completo vacunaciónsin necesita cobertura niños dosis vacunas crear inmunidad grupo permita proteger comunidades lograr eliminación sarampiónel mundo niños reciben dosis vacuna sarampión niños reciben segundaestas tasas bajas cobertura mundial dosis vacuna sarampión cobertura varía paísel sarampión amenaza virus propagarse rápidamente múltiples comunidades fronteras internacionalesninguna región logrado mantener eliminación sarampión diez países previamente erradicado vuelto experimentar brotes vuelto restablecer transmisiónel número récord niños susceptibles sarampión muestra profundo daño sufrido sistemas inmunización pandemia covid directora centros control prevención enfermedades doctora rochelle walenskyy brotes sarampión producen actualidad ilustran precisamente debilidades programas inmunización obstante funcionarios salud pública utilizar respuesta brotes identificar comunidades riesgo comprender causas falta vacunación ayudar ofrecer soluciones adaptadas localmente garantizar vacunas disponibles mundo agencia onu estandounidense instan acción coordinada colaboración socios nivel mundial regional nacional local priorizar esfuerzos búsqueda inmunización niños desprotegidostambién recomiendad mitigar riesgo brotes países inviertan sistemas vigilancia sólidos</t>
+          <t>urgencias pediátricas atraviesan peores momentos alta incidencia produciendo año pequeños virus respiratorio sincitial vrs expertos piensan aumento casos daño colateral pandemia covid años vrs circulado niños cuentan inmunidad necesaria urgencias atendiendo pacientes pandemia explica artículo españollos síntomas virus intensos dependiendo casos preocupa especial bronquiolitis suele condición niños necesiten atendidos servicio urgencias consiste enfermedad bronquiolitis infección pulmones produce comúnmente bebés niños presencia meses invierno producida virus explican página clínica mayoel principal efecto infección inflamación bronquiolos vías aéreas pulmón pequeñas mucosidad acumula pequeños conductos impide aire salga normalidad órgano principio bronquiolitis apariencia simple catarro síntomas congestión tos fiebre siguientes complicándose presentar efectos gravesuno signos alerta medida sanitarios niño afectado virus presenta sibilancias respirar dificultad respirar acompañada especie sonido silbido casos necesario niños afectados atendidos experto observarse respiraciones rápidas superficiales dificultosas niño encuentre aletargado niegue beber suficiente aguaen peores casos niños presentar cianosis piel labios uñas adquieran tono azulado niños sufrir insuficiencia respiratoria deshidratación apneas riesgo niños años especialmente alto niños menores meses formas exposición humo tabaco afecciones corazón pulmones aumentar riesgo niños síntomas graves niños reciben respiración asistida introduciendo tubo tráquea síntomas infección remitan caso mayoría casos bronquiolitis recuperan enfermedad problemas cuidados reciben casa formas importante tomar medidas prevención evitar pequeños contagien especialmente urgencias pediátricas presentan saturación pacientespara expertos piden adultos cuidado tratemos niños portar vrs contagiárselo querer caso adultos vrs suele sintomatología leve suele pasar desapercibida debemos reducir visitas niños pequeños pequeños convivimos niño corta edad debemos aplicar medidas higiene aprendidas pandemia lavado manos superficies presentamos catarro leve alejarnos utilizar mascarillas</t>
         </is>
       </c>
       <c r="C77" t="n">
         <v>1</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Salud_60.txt</t>
+        </is>
       </c>
     </row>
     <row r="78">
@@ -1439,11 +1824,16 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>informe organización mundial salud higiene bucodental muestra mitad población mundial millones personas padecen enfermedades tipo viven países ingresos bajos mediosdurante años casos mundiales enfermedades bucodentales aumentado mil millones agencia onu entiende clara señal alto número personas disponen métodos acceso prevención tratamientolas enfermedades bucodentales frecuentes caries estima afecta millones personas cáncer bucal casos anuales periodontitis grave enfermedad causas principales pérdida dientes afecta mil millones personas mundoel informe subraya flagrantes desigualdades acceso servicios salud bucodental inmensa cantidad enfermedades afecciones bucodentales afectan poblaciones vulnerables desfavorecidaslos grupos poblacionales incidencia enfermedades bucodentales personas bajos ingresos viven discapacidad edad avanzada viven residencias personas habitan comunidades rurales remotaslos factores riesgo comunes enfermedades transmisibles ingesta elevada azúcares formas consumo tabaco nocivo alcoholla agencia sanitaria recuerda pequeño porcentaje población mundial cobertura servicios esenciales salud bucodental personas necesitan frecuentemente cuentan menor acceso sistemasentre múltiples soluciones mejorar situación mundial salud bucodental organización recomiendaadoptar planteamiento salud pública aborde factores riesgo comunes promoviendo dieta equilibrada baja azúcares abandonando tipo tabaco reduciendo consumo alcohol mejorando acceso pasta dientes flúor eficaz asequibleplanificar servicios salud bucodental sistema nacional salud mejorar integración servicios salud bucodental atención primaria cobertura sanitaria universalredefinir métodos salud bucodental responder necesidades población ampliar competencias trabajadores sanitarios dentales expandir cobertura tipo serviciosfortalecer sistemas información recopilando integrando datos salud bucodental sistemas nacionales vigilancia sanitariala directora enfermedades transmisibles organización doctora bente mikkelsen destacó reporte punto partida ofrece información referencia ayudar países monitorizar progresos realizados proporciona observaciones relevantes oportuna responsables toma decisiones nivel nacional</t>
+          <t>españa reina mundo selección sub conquistó mundial consecutivo mantener hegemonía imponer dictadura rojita campeona sub sub planetaria intenso complicado españa superó colombia gracias gol guzmán puerta minutos finales olían penaltis rojita marcó gol definitivo daba título planetariokenio gonzalo salió corrales amezaga acompañando carla camacho vicky lópez libertad medular barcelona jugadora vigilada rojita linda caicedo peligro cafeteras minutos colombianas salieron mordiendo presionando caicedo activa rodríguez probar sofía obús falta meta sacó seguridad minuto españa asentarse balón dominando correr cafeteras ′ españa probó luisa zapatazo área kenio siguiendo plan perfección presión alta pérdida balón dominio estéril superar entramado defensivo colombiano fácil conectaban vicky carla podían llegar claridad inmediaciones área luisa natalia intentó colombia caicedo internada izquierda peligro sensación paniagua peligrosas partido dominado españa ′ punto llegar gol falta sacó vicky artero tocó centro balón paseó línea gol entrase librán intentó mejores minutos españa descuento mitad artero remate blocó segura luisacon empate ciento posesión minutos españa salió mitad idea empezar internada amezaga sirvió librán llegando atrás tiró rechace balón alojó red colegiada var revisarlo toma asegurar diera mano diera interpretó rechace brazo librán cadera gol anulado seguía gol animó cafeteras noquedas españa veía colombia balón llegadas pasaba intensa batalla balón choques golpes ritmo ocasiones intensidad movió banquillo kenio oxígeno olaya noe alguacil vicky derecha forma conectar caicedo conducto cafeteras daño susto cuerpo ′ salida sofía chocó viancha balón salió tiro franco área colombiana céspedllegaba tramo partido españa desenvuelve salieron martret partido campo velocidad funcionó internada real madrid derecha centró barcelona remate tocó guzmán balón entró llorando portería luisa gol éxtasis quedaba colombia pudiera forzar penaltis apareció vicky espacios jugada hilada centro campo martret mandó balón palo acto seguido vicky encontró larguero jugada personal minutos descuento eternos colombia empujando llegando españa achicando balonescon pitido desbordó alegría grupo amigas historia españa gana mundial sub seguido selección logrado mantiene hegemonía categorías inferiores conquistar mundial sub mes españa reina mundo</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Deportes_29.txt</t>
+        </is>
       </c>
     </row>
     <row r="79">
@@ -1452,11 +1842,16 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>visitado centros tratamiento cólera barrios afectados puerto príncipe visto escenas desgarradoras niños desnutridos difícil introducirles catéter brazos piernas adultos claramente enfermoslo impresionó inmediato intenso olor cloro desinfectante utiliza esterilizar entorno inmediato claramente señal centro dirigido profesionales sanitarios prevenir tratar enfermedad vi personal limpiar continuamente suelo superficies asegurarse bacteria cólera propagarse másme impresionó conmovió profundamente compromiso dedicación trabajadores sanitarios conocido personas inspiradoras encarnan alto profesionalismo demostrado humanidad enorme empatía pacientes tratamiento haitianos uniendo superar difícil momentohasta aumento casos cólera gradual viendo aumento preocupante situación vuelto difícil importante recordar cólera mortal prevenible tratable rapidez esencial contener brote salvar vidas respuesta sanidad pública autoridades haitianas ong locales internacionales apoyo onu inmediata decisiva escasez agua potable combustible necesario suministrar energía instalaciones sanitarias permitir personal trabajarse crearon rápidamente centros tratamiento cólera atender enfermos haitianos vivido cólera conocimientos experiencia valiosos evitar brote salga manoslos mensajes salud pública ministerio salud radio mensajes texto onu apoya subrayan importancia medidas preventivas lavado manos desinfecciónla imposibilidad gente mueva libremente especialmente capital puerto príncipe situación inseguridad imperante falta combustible contribuido contener propagación inseguridad complicado respuesta cóleradesde brote onu haití socios nacionales internacionales trabajado ministerio saludla organización panamericana salud ops apoyado socios abrir centros tratamiento cólera estableciendo puntos rehidratación oral especialmente comunidades difícil acceso tratar casos leves remitir centros hospitalización prestado asistencia formar trabajadores sanitarios comunitarios trabajadores cruciales comunidades aisladas violencia bandas armadasel fondo naciones unidas infancia organización internacional migraciones oim apoyando autoridades haitianas organizaciones aliadas cloro tabletas purificar agua kits higiene suministros médicos sales rehidratación oral unicef socios desplegando clínicas móviles salud cité soleil barrio afectado capitalla situación humanitaria haití desesperada cólera desafíos urgentes aumento hambre enfrentan demasiados haitianos preocupaciones frente programa mundial alimentos reanudado distribución alimentos cité soleil llegando personas vulnerables mediados octubre</t>
+          <t>alavés abandonó farolillo rojo gracias victoria temporada babazorras ganaron betis puntos descenso empezar cogerle pulso liga granadilla rompió mala racha partidos ganar venciendo valencia llegaba alza gracias mari joséalavés betisiñigo juaristi conseguido cambiar cara alavés babazorras sumen victoria temporada paso abandonar farolillo rojo retorna alhama cayó real madrid vitorianas reaccionado mano técnico vio empezar partido locales adelantaron sanadri asistencia ane miren pase muerte alas babazorras quitado presión obligó béticas paso francis díaz pasan derrota copera granada cortado racha verdiblanca parecía mejorada victorias seguidas derbilas francis clarísima tablas testarazo quiles larguero balón ángela sosa locales auñón recuperó encontró ane miren ganó nana definió alto malena gol tranquilidad banazorras querían partido escapase betis paso gracias cambios mejoró prestaciones centro ángela sosa encontró dorine mandó balón fondo red betis volcó alavés defendía uñas dientes resultado esperando sentenciar larqué volvió firmar partido desesperar béticas descuento aby manou acababa salir remató gol asistencia sanadri parecía juego inicio jugada victoria importantísima alavés sale descenso coge aire retoma sensacionesreal sociedad levante planasla real sociedad ganó levante planas continuar lucha champions partido marcado expulsión nuria garrote descanso txuriurdin quintas punto champions natalia arroyo empezaron intención control juego costaba daño bacic minuto ′ franssi internaba área nuria garrote agarró evitar mano mano colegiada penalti mostró amarilla garrote conjunto catalán quedaba diez descanso veía amaiur convertía pena máxima txuriurdintras reanudación real dueña partido tocaba mandaba necesitaba gol sentencia llegar botas franssi tiro área alto cecilia marcos guilly amaiur encontrase jensen pusiera mirari tercer donostiarras victoria seguir pensando championsgranadilla valenciacuatro partidos granadilla volvió ganar sufriendo puntos gloria valencia pasaba forma tinerfeñas colocan décimas dejan valencianas séptimas partido empezó locales señalaron penalti fiamma cogió responsabilidad encontró parada noelia ramos mantenía encuentro daba varapalo andrea estebanel granadilla intentaba activa koko incombustible mari josé tinerfeña precisamente abrió marcador córner pisco rechazó guardamenta valenciana veterana delantera empalmó área gol daba aire locales obligaba valencianas preparadora bastantes cambios metió arsenal anita marcos alguacil dinamitar partido granadilla iba opción llevó puntos oxígeno confianza josé herrera</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Deportes_27.txt</t>
+        </is>
       </c>
     </row>
     <row r="80">
@@ -1465,11 +1860,16 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>calcula año mueren millón personas envenenamiento plomo millones niños expuestos bajos niveles metal causándoles problemas salud vida anemia hipertensión efectos adversos sistema inmunitario lunes organización mundial salud omscon motivo semana internacional acción prevención tipo intoxicación agencia sanitaria advirtió efectos neurológicos comportamiento causados irreversiblesla organización mundial salud recomienda identificar fuentes exposición metal tomar medidas necesarias disminuirlas acabar personas nivel plomo sangre superior microgramos decilitrounicef calcula niños millones mundo posee niveles plomo sangre superiores necesario tomar medidas inmediatas nivel mundial solucionar problema nivel seguro exposición plomo especialmente niñosla directora departamento ambiente cambio climático salud organización advirtió exposición plomo especialmente peligrosa cerebro desarrollo niños provocar reducción cociente intelectual capacidad atención aprendizaje riesgo problemas comportamientola doctora maría neira daño evitable cerebro niños supone trágica pérdida potencialel plomo tóxico sistemas cuerpo nervioso central cerebro reproductor riñones cardiovascular sanguíneo inmunitariola agencia sanitaria estima discapacidad intelectual causa desconocida enfermedades cardiovasculares enfermedades renales crónicas atribuirse exposición plomodebido efectos plazo salud calcula exposición plomo responsable millones años perdidos discapacidad muerte mundoentre múltiples fuentes exposición tóxico metal contextos industriales encontrar minería fundición reciclaje residuos electrónicos baterías plomo fontanería munición entornos exposición niños adolescentes especialmente economías desarrollola contaminación producirse pintura plomo hogares escuelas hospitales parques infantiles niños ingerir escamas polvo procedentes juguetes superficies pintadas plomo expuestos cerámica vidriada plomo medicamentos cosméticos tradicionales jefa unidad seguridad química departamento ambiente cambio climático salud destacó avances producidos diez años países cuentan controles legalmente vinculantes limitar producción importación venta pinturas plomolesley onyon destacó pese prohibición gasolina plomo mundo queda intoxicación plomo totalmente prevenible serie medidas restringir usos controlar gestionar exposición año ampliamos alcance prevenir fuentes exposición plomolas fuentes exposición importantes sonla contaminación ambiental derivada reciclaje baterías plomo operaciones extracción fundición plomo controladas remedios tradicionales contienen plomo esmaltes cerámicos plomo utilizados envases alimentos tuberías plomo componentes contienen plomo sistemas distribución agua pintura plomola organización llama países prohibir pintura plomo identificar eliminar fuentes exposición menores informar público peligros indebido productos contienen plomo</t>
+          <t>kim jongun recuperó atención desarrollo arsenal militar corea norte asistir ensayo arma táctica ultramoderna difundió viernes agencia oficial país semeja explícito gesto desencanto pyongyang parálisis sumido proceso negociación unidossin pyongyang anunció deportación estadounidense arrestado mes octubre entrar ilegalmente país china gesto inusual asiático exigido visita altos dignatarios eeuu libertad presos nacionalidad incluido caso reos estadounidenses entregó secretario mike pompeo mes mayoambas decisiones parecen constituir cuidada coreografía política régimen norcoreano oculta desencanto negativa washington flexibilizar clausurar definitivamente diálogo adversarioaunque agencia kcna dato tipo arma prueba instalaciones academia ciencia defensa institución contribuyó fabricación misiles intercontinentales hwasong hwasongsegún agencia yonhap citó fuentes estamento militar surcoreano tratarse modelo artillería alcancela agencia oficial norcoreana máximo dirigente agradeció emocionado científicos participado desarrollo sistema armamento sirve muestra región rápido crecimiento capacidades defensivas arma objetivos prioritarios padre kim jongillas palabras kim jongun constituyen giro dialéctica pyongyang parecía abandonado tono militarista principios año mandatario decidió centrarse progreso económico dejar visitas instalaciones militares alusiones tono bélicohace jornadas diario japonés choson sinbo vinculado pyongyang recordó negociación nación basa principio acción simultánea fases implicaría entender destrucción centro pruebas nucleares cese ensayos misiles turno estadounidense concesión significativawashington suspensión maniobras militares suele ejército corea sur cumplido protocoloel alto cargo norcoreano ministerio asuntos exteriores volvió repetir tesis insistir mejora relaciones sanciones incompatibles funcionario advertir eeuu comportándose forma arrogante cambiar postura corea norte replantearse regreso llamada política byungjin siguió basada desarrollo mutuo programa nuclear misiles progreso económicocorea norte canceló encuentro debía mantener york delegación alto nivel país secretario eeuu mike pompeo pensaba debía antesala encuentro presidente donald trump kim jongunesa cita esperaba registrara presente año quedado relegada año viene aclaró vicepresidente estadounidense mike pence entrevista televisivaes absolutamente imperativo salga próxima cumbre plan identificar armamento cuestión lugares desarrolla permita inspección instalaciones establezca plan desmantelar armas nucleares resultados número trumppence reiteró implemente hipotético plan washington mantendrá presión sancionesel estancamiento conversaciones norcoreanos estadounidenses ralentizando dinámica aproximación mantenía seúl pyongyang visita kim jongun capital surcoreana prevista año concretarse proyectos colaboración desarrollo líneas férreas carreteras país norteñoel presidente surcoreano moon jaein principal valedor estrategia acercamiento vecino continúa apostando intercambio cultural deportivo ve atrapado estricto marco establecen sanciones internacionales</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Politica_41.txt</t>
+        </is>
       </c>
     </row>
     <row r="81">
@@ -1484,6 +1884,11 @@
       <c r="C81" t="n">
         <v>1</v>
       </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Salud_54.txt</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -1491,11 +1896,16 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>actividad física mejora salud física mental social bienestar ayuda prevenir enfermedades reduce carga sistemas salud responsables organización mundial salud evitar millones muertes año población mundial activalos responsables agencia onu aseguran cifras actividad física considerar componente bonito incluir política públicay añaden práctica deporte componente esencial salud credo organización mundial salud lograr poblaciones sanas planeta saludable resumen velar actividad física imprescindiblesin personas viven zonas acceso espacios puedan caminar correr bicicleta actividades físicas forma segura opciones desarrollado satisfacer necesidades adultos mayores personas discapacidadlas estadísticas muestran adultos mundo realiza actividad física suficiente permita aprovechar beneficios revelan países mujeres grupos étnicos minoritarios comunidades desfavorecidas personas discapacidades enfermedades crónicas probabilidades permanecer inactivaspor mujeres activas hombres diferencia nivel mundial hombres frente mujeres países renta alta inactivos comparación renta media renta baja directrices organización mundial salud recomiendan mundo activo regularidad obtener beneficios salud mental física adultos minutos actividad aeróbica moderada vigorosa semana media minutos niños adolescenteslos niveles inactividad adolescentes alarmantes cuartas partes observan directrices proporción mayoría países muchachas propensas inactividad muchachosla pandemia covid puesto manifiesto desigualdades existentes agravándolas personas comunidades vulnerables responsables organización mundial salud recuerdan demasiadas personas viven comunidades calles inseguras peatones ciclistas acceso deficiente espacios públicos abiertos programas instalaciones inasequibles ejercicios practicar deportesesto injusto cambiar aseguranpor agencia onu pedido responsables toma decisiones sectores salud deporte educación transporte aumenten urgentemente oferta programas servicios inclusivos entornos seguros promuevan actividad física comunidadesen documento promocionar práctica ejercicio físico titulado juego limpio crear sólido sistema actividad física personas activas expertos salud pública oms explican lograrse objetivohay necesidad urgente ofrecer personas mejores oportunidades vida activa saludable actualidad posibilidades personas participen actividad física desiguales injustas desigualdad empeorar pandemia covid señalado doctora zsuzsanna jakab directora adjunta organización motivo presentación documento</t>
+          <t>noviembre agencia española medicamentos productos sanitarios comunicó problemas suministro amoxicilina antibiótico conocido principales fabricantes casualidad retraso suministro prospectos normon problema línea etiquetado sandoz coincidieran hicieran situación auge casos infecciones respiratorias niños otoño alcanzando niveles intensidad recordaban covidla presentación amoxicilina fallado miligramos suspensión oral sobres disuelven agua laboratorios solucionado problemas continuado producción agencia señalado incremento demanda alta incidencia infecciones respiratorias coincidencia problemas producción laboratorios retrasar normalización suministro farmacias prevé normalidad vuelva díasla falta antibiótico –que dando países portugal francia unidos– crecimiento imparable infecciones respiratorias disparado alarmas padres creen afectar devenir resfriados catarros evolución formas graves enfermedadambos hechos escasez amoxicilina auge infecciones respiratorias infantiles sensación emparentados creando tormenta perfecta salud niños realidad antibiótico sirve curar infecciones siquiera tratarlasla amoxicilina antibiótico antibióticos sirven tratar virus resume roi piñeiro miembro comité medicamentos asociación española pediatría problema disponibilidad amoxicilina afecta tratamiento infección respiratoria originadas virus vrs virus respiratorio sincitialel problema suministro solventado agencia medicamento solicitó laboratorios fabricantes aumentar producción normalidad regrese farmacias pediatra explica cambiar forma farmacéutica optar antibiótico espectro acción similarel problema amoxicilina grave efectos secundarios reacción hipersensibilidad inmediata diarreas náuseas erupciones cutáneasla cuestión inadecuado antibióticos generado problemas resistencias bacterias organismos evolucionan rápido dividen velocidades probabilidad aparición mutaciones resistentes aumenta utilización indiscriminada incorrectaeste problema serio bacterias resistentes antibióticos causaron muertes sida malaria advirtió estudio reciente publicado the lancet millones fallecimentos mundo debieron infecciones tratablesson clases antibióticos afectadas resistencias adquiridas patógenos fluoroquinolonas antibióticos betalactámicos relacionan muertes amoxicilina pertenece grupolas resistencias antibióticas principales problemas salud pública organización mundial salud estima provocar millones muertes anuales fallecimientos infantiles relacionado ellaspor importante amoxicilina receta medicamento disponible prescripción médica normalmente consumen sobres comprimidos caja tratamiento existir tentación usarlos infecciones posteriores pasar profesional sanitario acudir médico consumo fundamental sobren medicamentos casa</t>
         </is>
       </c>
       <c r="C82" t="n">
         <v>1</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Salud_59.txt</t>
+        </is>
       </c>
     </row>
     <row r="83">
@@ -1504,11 +1914,16 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>organización mundial salud oms recomendó miércoles vacuna malaria niños viven regiones alto riesgo transmisión enfermedad áfrica subsaharianala vacuna desarrollada áfrica científicos africanos inmunización enfermedad parasitaria viral elaboración tomó añosel director agencia onu calificó histórico afirmando deseada inmunización segura salvar vidasesta esperada vacuna malaria representa avance ciencia salud infantil control malaria vacuna herramientas existentes prevenir enfermedad salvar decenas miles vidas jóvenes año tedros adhanom ghebreyesus conferencia prensa ginebrainformó recomendación viene programa piloto años niños ghana kenya malawi países agradeció participación ensayostedros destacó programa mostró inocuidad vacuna detuvo pese pandemia coviddel programa continuó aprendimos vacuna segura reduce significativamente casos malaria grave peligro muerte estimamos costo asequibleal referencia avances logrados lucha paludismo subrayó decesos disminuido mitad padecimiento eliminado lugares nivel global progreso estancado nivel inaceptablemente alto recalcóla malaria paludismo enfermedad transmitida mosquito año afecta millones personas causa muertes tercios niños africanos menores añostedros enfatizó pese llegada vacuna gente bajar guardiaesta herramienta poderosa vacunas covid única herramienta vacunación malaria reemplaza reduce necesidad medidas incluidos mosquiteros atención médica fiebre enfatizóel responsable oms advirtió paso dirección correcta queda camino recorreresta vacuna regalo mundo sentirá áfrica carga malaria apuntóel desarrollo inmunización apoyo farmacéutica glaxosmithkline fundación bill and melinda gates gavi alianza vacunas actoresen conferencia prensa participaron expertos oms sumaron doctor tedros resaltando inocuidad vacunacon efectos secundarios observados indicaron benignos citando niños fiebrepor agregaron determinado necesaria dosis refuerzo requiere observacióncoincidieron vacuna abre puerta elaboración otrassabemos vacunas desarrollo apuntó doctor alejandro cravioto presidente grupo estratégico expertos inmunización organización mundial salud encargado analizar procesos emitir recomendaciones vacunascravioto positivo proyectos vacuna lleven cabo llegado grupo evaluar fases desarrollo recomendarlaslos científicos hincapié importancia única vacuna malaria manufacture distintos lugares suficiente abasto acotaronel entusiasmo generado vacuna mantiene nivel contar fondos necesarios beneficios verdaderamente masivosel director programa global malaria oms meses críticos definir mecanismos financiamiento garanticen capacidad producción existente niños puedan vacunadosse requerirán recursos financieros oportunidad mostrar éxito vacuna malaria oportunidad solidaridad mundial generen recursos aseguren niños africanos beneficiarse vacuna hagan futuro lejano puntualizó pedro alonso</t>
+          <t>raptors masai ujiri nick nurse gerente entrenador intentaron reinventar baloncesto moderno convirtieron toronto franquicia liderando deporte aposicional fluido jugadores cumplían parámetro común aleros altos envergadura capacidad generarse tiro defender posiciones intercambiar defensivamente jugadores polivalentes físicamente parecidos masai ujiri tipo definidoen plantilla actual diez jugadores metros centímetros orden altura og anunoby otto porter jr precious achiuwa thaddeus young khem birch pascal siakam juancho hernangómez dalano banton chris boucher scottie barnes ponerlo jugadores metros malachi flynn fred vanvleet gary trent jr rookie christian kolokodesde salida jonas valanciunas cambio marc gasol catalán serge ibaka año toronto referencia interior apostaron reforzar alas eligiendo barnes trayendo thad porter jr juancho problema nba ritmo rápido anotaciones altas triples aparecido generación interiores forward raptors indefendible nick nurse empezando marcha atrás proyectosiakam necesita compañía pintura raptorsdesde temporada interiores españoles pascal siakam convirtió titular equipo año jugó minutos cifra subió año ambas ocasiones raptors mejores camerunés pívot año pese seguido jugando minutos referencia interior toronto puntos rival posesiones siakam pívotel camerunés jugando nivel all star rendimiento llegando referencia interior mejores alineaciones jugadores raptors temporada siakam pista orden achiuwa boucher koloko birch net rating jugado minutos power forward cifra alta carrera partidos nurse decidido apostar interior siakam dejar gary trent jr sexto hombre raptorsdesde principio temporada planteado debate especialmente destrozo joel embiid ronda pasados playoffs opción original achiuwa lesiones nivel koloko titularidad sanos raptors vanvleet anunoby defensores posiciones capaz detener pívots rivales embiid nikola jokic giannis antetokounmpo rivales conferencia tendencia moviéndose nbamilwaukee campeón temporadas juega brook lopez giannis boston sano usará horford rob williams cleveland pareja evan mobley jarrett allen lista abierto polivalente capaz defender exterior rival fuerte atlético siakam defender pintura necesita pareja baile evitar situaciones vucevic embiid paschall jokic myles turner demarcus cousins metieron diez puntos tirando temporada bajas lesión ausencias enfermedad jugadores adaptándose sistema nick nurse jugado minutos pívot pista achiuwa boucher birch koloko thad young tendencia aleros multifuncionales menor cuestiona proyecto raptors presente siakam futuro scottie barnes piezas parecidaseso quita nurse siga usando quinteto favorito gary trent interior turno cerrando partidos siakam barnes anunoby vanvleet mejores hombres pista hora pegarse pívot rival siakam raptors necesitan músculo altura</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Deportes_31.txt</t>
+        </is>
       </c>
     </row>
     <row r="84">
@@ -1517,11 +1932,16 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>órgano función cuerpo tratase piezas puzle caso riñones encargan eliminar desechos exceso líquidos encuentran organismo proceso conoce filtración glomerular falla provocar insuficiencia renal crónica enfermedad afecta población adulta españa mayores años estudio epidemiológico insuficiencia renal españa epircela insuficiencia renal crónica ocurre riñones pierden repentina capacidad filtrar desechos sangre filtración acumulan niveles nocivos deshechos llegar desequilibrar composición química sangrese enfermedad desarrolla regla suele gravedad patología dependerá salud paciente persona padece anomalía llegar recuperar función renal normalaunque personas hospitalizadas situación reversible insuficiencia renal aguda fatal requiere tratamiento intensivo trate evitar mayoría síntomas presentan enfermedadhay enfermedades duda afectan género margen explican cuestiones biológicas patologías pudiendo presentarse géneros aparecen hombres mujeres dimorfismo sexual insuficiencia renal cuya recuperación machos hembrasun reciente estudio publicado revista cell reports planteado posibilidad nrf aproveche terapéuticamente inhibir enfermedad proteína demuestra resiliencia femenina insuficiencia renal epirce reflejaba diferencia géneros insuficiencia renal crónica frecuente varones mujeres respectivamenteeste dimorfismo sexual explica covid acabado vida hombres mujeres hipótesis expertos apuntaban fumar hombres propensos lavarse manos allá cuestiones puramente biológicas caso insuficiencia renal causa cuente amplio consenso científico expresidente asociación renal europea siglas inglés ziad massy reconocía podía especular acerca razonesel registro coincidía datos epirce pacientes produjo reemplazo renal hombres tratamiento aplica enfermedad etapa terminal estudio planteaba efectos dañinos testosterona función renal disminuya rápidamente hombres mujeresel diagnóstico insuficiencia renal aguda resulta complejo determinadas ocasiones provoque señal alerta única forma detectar enfermedad pruebas laboratorio realicen motivos médicos advierten posibles síntomas patología disminución volumen orina excretadola retención líquidos provoca insuficiencia renal afectar piernas tobillos pies produzcan hinchazones síntomas falta aire acompañada desorientación fatiga pacienteconforme función renal disminuye persona sienta cansada problemas dormir noche dolor localiza articulaciones encontrar zonas cercanas pecholos síntomas insuficiencia renal comienzan lentamente paciente nota inmediato deberá pendiente insuficiencia renal aguda llegar provocar convulsiones coma</t>
+          <t>tregua israel movimiento islamista hamás gobierna franja gaza cumple año residentes territorio palestino cambiado situación continúa desesperadael alto fuego logrado mediación egipcia puso cruenta guerra comprometió israel alivio bloqueo expansión zona permite pesca millas entrada materias primas construcción industria agriculturatambién negociaciones mediación cairo construcción puerto aeropuerto enclave costerosin percepción franja cambiado difíciles condiciones vida continúan férreo bloqueo israelí apoyado egipto mantienela reconstrucción comenzado barrios enteros gaza shuhaiya permanecen llenos escombrosaquí vida gaza insoportable interminable sitio israelí impuesto nueve años falta electricidad tasas pobreza desempleo creciendo quejó efe hasan ahmad parado años gaza capitalla población vive prisión aislada abandonada mundo persona hundida busca rama paja océano sobrevivir añade pesimistahamás asegura llevando cabo negociaciones indirectas israel ayuda exenviado cuarteto paz oriente ministro británico tony blair lograr alto fuego plazo incluiría pasaje marítimo gaza chipre noticia autoridades israelíes desmentido logrado generar esperanza franjasegún datos ministerio sanidad gaza guerra año atrás gazatíes muertos heridos tercios mujeres niños israelí murieron soldados civilesademás territorio sufrió grave destrucción casas totalmente destrozadas daños distinta consideración año personas siguen desplazadas hogaresal capital barrio tufah kilómetros frontera israel levantaba casa um mohamed saudí cincuenta años madre hijos pisos piedra convirtieron escombros alcanzados misiles israelíesnos costó treinta años pudimos construir casa convirtió montaña cascotes lamenta efe mujer explica tanques israelíes dispararon azar casas barrioen tufah tanques aviación israelíes destruyeron casashasta cambiado casa reconstruida prometieron queja um mohamed añade escapar vivimos meses escuelas refugiaron desplazados alquilamos pequeño apartamento gaza capitaltodos ministerio vivienda controlado hamás prometen donación kuwait llegar reconstruir casas lamenta promesas concreten hechosen octubre donantes internacionales reunieron cairo conferencia comprometieron entregar millones dólares reconstrucción gaza secretario onu ban kimoon visitó franja anunció comienzo reconstrucción mes levantado casalos gazatíes culpan consideran lento humillante mecanismo reconstrucción acordado israel onu entender permite acelerar procesopero culpan división hamás movimiento nacionalista fatah gobierna cisjordania difícil transferencia fondos internacionales negociaciones entrada materialesel analista político gazatí talal oukal advierte bloqueo continua división palestina temer establezca entidad aislada mine sueño establecer palestino independiente acusa israel separar gaza resto palestinala solución problemas franja habitantes bloqueo israelí desunión política palestina vista</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Politica_36.txt</t>
+        </is>
       </c>
     </row>
     <row r="85">
@@ -1530,11 +1950,16 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>cáncer próstata tumores diagnosticados mundo año españa estima afectará hombres cifras informe sociedad española oncología médica seom problemas próstata relacionados aparición cáncer afecta conocida hiperplasia prostática benigna riesgo cáncer próstata provoca obstrucción afecta considerablemente flujo orinacuando síntomas leves tratamiento frecuente suele medicamentos síntomas tolerables hombres afección aliviarse paso signos enfermedad aumento frecuencia urinaria imposibilidad vaciar vejiga completo goteo orinarel tratamiento farmacológico consiste alfabloquantes efectos secundarios provocan hipotensión pérdida libido eyaculación retrógrada semen redirige vegija salir uretra casos afirma carlos suárez fonseca grupo urología avanzada complejo hospitalario ruber juan bravo madrid motivo incorporado tratamientos avanzados hiperplasia benigna próstata enucleación prostática láser holmio holep siglas inglésel doctor eduardo martín jefe servicio urología complejo hospitalario ruber juan bravo reconoce principales ventajas ofrece técnica permite tratamiento próstatas tamaños necesidad incisiones externas holep ofrece mejores resultados técnicas próstatas procesamiento mínimamente invasivo paciente uretra incorporación complejo hospitalario ruber juan bravo destaca quirúrgico menor evita reintervenciones crecimiento tejido residual encontrar técnicasademás menor riesgo sangrado importante holep caracteriza precoz recuperación permite rápido alivio síntomas urinarios tejido responsable síntomas hiperplasia benigna próstata conoce adenoma tejido prostático crece uretra provocar tipo incisión forma láser separa tejido enucleado cápsula prostática succiona instrumento llamado morcelador adenomalas técnicas tradicionales alcanzan holep reducción tejido prostático glándula prostática queda vacía queda formada únicamente cápsula éxito tratamiento láser superior anteriormente conocido capacidad corte coagulación permite extraer tejido crecido próstata intacto totalidad explica josé ángel gómez pascual urólogo hospital quirónsalud málaga cuentan láser generaciónno láser utilizado tratamiento hiperplasia benigna próstata enucleación prostática láser holmio capaz análisis patológico tejido eliminado descartar existencia cáncer casos material analizado tumoral importante detalle pase desapercibido advierte doctor gómezademás técnica complejo hospitalario ruber juan bravo técnica mínimamente invasiva realiza abordaje transuretral sistema reciente holep sistema revolucionado cirugía próstata técnica rezum inyecta vapor agua lóbulos prostáticos máxima presión separan vasos sanguíneos provoca muerte celular tejido prostáticocon paso reduce tamaño próstata cuerpo elimina forma natural tejido necrosado técnica logra alivio inmediato síntomas harían cirugías convencionales tejido tarda meses desaparecer dependerá tamaño próstataaunque recurrir tipo técnicas especialistas recomiendan revisiones anuales años enfermedad padecen varones mayores años alcanza caso mayores</t>
+          <t>causas comunes infertilidad varones hombres hijos padecen azoospermia trastorno semen carezca espermatozoidesesta condición deberse obstrucción conductos llevan esperma exterior habitual problema secreción raíz genéticala infertilidad masculina estudiando permitido identificar genes implicados producción gametos relacionado previamente distintos síndromes oncológicos explica páginas revista fertility and sterility larry lipshultz principal autor querido analizar fondo relación trastorno fertilidad cáncersus datos preliminares sugieren hombres cuyo semen espermatozoides riesgo padecer cáncer población riesgo varón azoospermia similar varón sano años indican investigadores subrayando riesgo relativo significativo posibilidades desarrollar tumor vida siguen bajaslipshultz equipo realizaron seguimiento hombres infértiles acudido clínica texana especializada andrología cuya media edad rondaba años padecían azoospermia tipo secretorademás estudiar análisis semen investigadores recurrieron registro oficial texas refleja casos cáncer ocurridos años datos pacientes mano compararon tasas cáncer estimaciones población edadsu investigación encontró años seguimiento hombres infértiles desarrollado cáncer cifra superior casos preveían estadísticasal profundizar análisis científicos comprobaron realidad presentaban riesgo superior población únicamente varones presentaban azoospermia hombres acudido clínica infertilidad cumplir años producían espermatozoides parecían probabilidades presentar tumorlos cánceres detectados señalan investigadores testículo afectaban zonas cerebro próstata estómago intestino tumoresaunque podido determinar causas relación autores sugieren defectos adn provocan infertilidad varones distintos problemas oncológicosdado genoma varón relacionado reproducción probable procesos relacionados procreación vean afectados aberraciones adn explican revista médicaen conclusiones científicos reconocen ofrece hilo seguir tirando posteriores investigaciones trabajos sugerido hombres infértiles riesgo cáncer testicular investigación apoya hipótesis afectados población limitada procesos malignos implicados subrayan investigadores piden análisis pormenorizados</t>
         </is>
       </c>
       <c r="C85" t="n">
         <v>1</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Salud_45.txt</t>
+        </is>
       </c>
     </row>
     <row r="86">
@@ -1543,11 +1968,16 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>noviembre agencia española medicamentos productos sanitarios comunicó problemas suministro amoxicilina antibiótico conocido principales fabricantes casualidad retraso suministro prospectos normon problema línea etiquetado sandoz coincidieran hicieran situación auge casos infecciones respiratorias niños otoño alcanzando niveles intensidad recordaban covidla presentación amoxicilina fallado miligramos suspensión oral sobres disuelven agua laboratorios solucionado problemas continuado producción agencia señalado incremento demanda alta incidencia infecciones respiratorias coincidencia problemas producción laboratorios retrasar normalización suministro farmacias prevé normalidad vuelva díasla falta antibiótico –que dando países portugal francia unidos– crecimiento imparable infecciones respiratorias disparado alarmas padres creen afectar devenir resfriados catarros evolución formas graves enfermedadambos hechos escasez amoxicilina auge infecciones respiratorias infantiles sensación emparentados creando tormenta perfecta salud niños realidad antibiótico sirve curar infecciones siquiera tratarlasla amoxicilina antibiótico antibióticos sirven tratar virus resume roi piñeiro miembro comité medicamentos asociación española pediatría problema disponibilidad amoxicilina afecta tratamiento infección respiratoria originadas virus vrs virus respiratorio sincitialel problema suministro solventado agencia medicamento solicitó laboratorios fabricantes aumentar producción normalidad regrese farmacias pediatra explica cambiar forma farmacéutica optar antibiótico espectro acción similarel problema amoxicilina grave efectos secundarios reacción hipersensibilidad inmediata diarreas náuseas erupciones cutáneasla cuestión inadecuado antibióticos generado problemas resistencias bacterias organismos evolucionan rápido dividen velocidades probabilidad aparición mutaciones resistentes aumenta utilización indiscriminada incorrectaeste problema serio bacterias resistentes antibióticos causaron muertes sida malaria advirtió estudio reciente publicado the lancet millones fallecimentos mundo debieron infecciones tratablesson clases antibióticos afectadas resistencias adquiridas patógenos fluoroquinolonas antibióticos betalactámicos relacionan muertes amoxicilina pertenece grupolas resistencias antibióticas principales problemas salud pública organización mundial salud estima provocar millones muertes anuales fallecimientos infantiles relacionado ellaspor importante amoxicilina receta medicamento disponible prescripción médica normalmente consumen sobres comprimidos caja tratamiento existir tentación usarlos infecciones posteriores pasar profesional sanitario acudir médico consumo fundamental sobren medicamentos casa</t>
+          <t>dolor síntoma señal alertaba enfermedad acercado mano fuego daño levantando nieto debíamos parar cuerpo reparase lesión asociación internacional estudio dolor cambió definición incluir naturaleza subjetiva experiencia dolorosa describirla experiencia sensorial emocional desagradable asociada similar asociada lesión real potencial descrita términos daño documento afirma relato persona experiencia dolor debería respetado personas sufren dolor cuyo origen localizar daño físico juzgaba sufrimiento inventado sintieron reconocidasel dolor casos enfermedad eliminar atacando origen afrontar experiencia personal factores biológicos influyen psicológicos sociales experiencia subjetiva real españa informe ministerio sanidad estimaba personas sufre dolor crónico profesionales tratan pacientes intervenciones físicas psicológicas científicos desentrañar secretos dolor punto coincidencia dedican recursos entender tratar problema importantepese prejuicio sociedad dolor buscan pastillas línea ataque dolores persistentes farmacológica artículo the lancet recomendaba dolor crónico espalda tratamiento inicial medicamentos marco biopsicosocial incluyese educación dolor ayuda ajustar expectativas reanudar actividades normales ejercicio entorno social paciente incluya programas apoyo psicológico personas síntomas persistentes recuerda beatriz rodríguez vega jefa psiquiatría psicología clínica salud mental hospital universitario paz madrid centro control prevención enfermedades unidos cdc reconoció mindfulness atención plena alternativa recomendable tratamiento farmacológico opiáceos dolor</t>
         </is>
       </c>
       <c r="C86" t="n">
         <v>1</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Salud_7.txt</t>
+        </is>
       </c>
     </row>
     <row r="87">
@@ -1556,11 +1986,16 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>acudir médico surge problema salud recoger resultado análisis habitual niños casa visitas pediatra recurrentes acercarse consulta conlleva desplazamiento ocasiones provocar interferencias agenda diaria fortuna telemedicina irrumpió vida pacientes ventajas numerosas amplía acceso cuadro médico extenso eliminar limitaciones geográficas ahorra dinero trayectos esperas… contribuye descarbonización planeta evitar desplazamientos reduce contaminación atmosféricael motivo sencillo comunicarse remoto médico pantalla usuario necesidad salir domicilio llegar centro médico palabras elegir modalidad videoconsulta evita desplazamiento casos coche reduce emisión gases efecto invernadero auténticos aceleradores cambio climático sucede revisar informe médico consultar resultados pruebas leer consentimiento app plataforma web recoger documentos físicamente consulta ahorra emisiones evitar desplazamientos consumo recursos naturales papelpara exactamente co evitar utilizar servicios médicos digitales videoconsulta sanitas desarrollado app misanitas portal clientes herramienta huella carbono usuarios conocen cantidad co neto dejado emitir atmósfera recurrir servicio asistencial formato online consultar histórico ahorro co acumulado año mostrar apuesta videoconsulta impacta forma positiva reducción emisiones carbono efecto positivo salud planeta explica directora sostenibilidad asuntos corporativos sanitas bupa europa latinoamérica yolanda erburupara marcha proyecto sanitas –que apostado atención híbrida combine ventajas digitalización atención personal– colaborado consultora especializada cambio climático the carbon trusttras calcular serie parámetros técnicos resultados significativos videoconsulta evita emisión neta kg dióxido carbono cantidad co absorber árboles acceso informe médico digital estadística indica recogida promedio casos estima emisión evitada kg co digitalización tipo servicios sanitas evitó emisión toneladas dióxido carbono equivalente liberada hogares españoles año datos instituto nacional estadística ine conclusiones refleja informe sanitas impacto telemedicina reducción co publicado prestigiosa revista científica nature scientifc reports</t>
+          <t>médicos enteramos afirma jaume padrós presidente consejo colegios médicos cataluña ccmc corporación barcelona comb volumen facultativos colegiados madrid defendiendo realicen cambios sanidad catalana conjunto sistema nacional salud sns precisamente médicosaporta dato facultativos colegiados barcelona extranjeros extracomunitarios formado sistemas homologables español especialidad plantean dilema ético descapitaliza profesionales medicina respectivos países niega médicos españoles marchando españa ejercer países ofrecen mejores condiciones salarios barcelona ido extranjeros volvían países origenno médicos sistema sanitario público privado necesitamos añade declaraciones diario padrós presidente colegio analiza anualmente demografía médica provincia viene solicitando instrumento análisis permanente tipo observatorio necesidades cataluña conjunto españael problema falta médicos señala abordarlo formando profesionales requiere cambio organizativo desplegando ley ordenación profesiones sanitarias lops especialmente tocante troncalidad especialidades desburocratizando desnormativizando sistema salud flexiblesobre atención primaria nacional presidente ccmc precisa modelo totalmente homologable resto unión europea culpa excesiva rigidez impide médicos puedan tomar decisiones agenda pone modelo autogestión pediatras pirineos aumentar salarios logrado atractivo zonas rurales cree extender experiencia contribuir solucionar problema sanitario llamada españa vaciada</t>
         </is>
       </c>
       <c r="C87" t="n">
         <v>1</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Salud_9.txt</t>
+        </is>
       </c>
     </row>
     <row r="88">
@@ -1569,11 +2004,16 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>urgencias pediátricas atraviesan peores momentos alta incidencia produciendo año pequeños virus respiratorio sincitial vrs expertos piensan aumento casos daño colateral pandemia covid años vrs circulado niños cuentan inmunidad necesaria urgencias atendiendo pacientes pandemia explica artículo españollos síntomas virus intensos dependiendo casos preocupa especial bronquiolitis suele condición niños necesiten atendidos servicio urgencias ¿en consiste enfermedad bronquiolitis infección pulmones produce comúnmente bebés niños presencia meses invierno producida virus explican página clínica mayoel principal efecto infección inflamación bronquiolos vías aéreas pulmón pequeñas mucosidad acumula pequeños conductos impide aire salga normalidad órgano principio bronquiolitis apariencia simple catarro síntomas congestión tos fiebre siguientes complicándose presentar efectos gravesuno signos alerta medida sanitarios niño afectado virus presenta sibilancias respirar dificultad respirar acompañada especie sonido silbido casos necesario niños afectados atendidos experto observarse respiraciones rápidas superficiales dificultosas niño encuentre aletargado niegue beber suficiente aguaen peores casos niños presentar cianosis piel labios uñas adquieran tono azulado niños sufrir insuficiencia respiratoria deshidratación apneas riesgo niños años especialmente alto niños menores meses formas exposición humo tabaco afecciones corazón pulmones aumentar riesgo niños síntomas graves niños reciben respiración asistida introduciendo tubo tráquea síntomas infección remitan caso mayoría casos bronquiolitis recuperan enfermedad problemas cuidados reciben casa formas importante tomar medidas prevención evitar pequeños contagien especialmente urgencias pediátricas presentan saturación pacientespara expertos piden adultos cuidado tratemos niños portar vrs contagiárselo querer caso adultos vrs suele sintomatología leve suele pasar desapercibida debemos reducir visitas niños pequeños pequeños convivimos niño corta edad debemos aplicar medidas higiene aprendidas pandemia lavado manos superficies presentamos catarro leve alejarnos utilizar mascarillas</t>
+          <t>paula otero cuarta ángela martínez sexta colaron fiesta emulando mítica canción mecano emperatriz simona quadarella amagó récord europa actuación abre par par puertas futuro nadadoras nacidas margen mejora capacidad enormeestoy contenta cuarto puesto podio comtemplaba año europeo júnior hice bajando marca absolutas increíble guay italianas españolas pequeñas contenta salido paula oterocon puesto sexta contenta regular carrera dura larga centrame aguas abiertas piscina ángela martínezademás relevo mixto × libre octavo europa récord españa luis domínguez sergio celis lidón muñoz carmen weiler tope fijado comenzó jessica vall nadaba quinta consecutiva metros braza salía calle mantuvo posición carrera hectómetro temporada regalo esfuerzo dulce sexta jessica esperar ciclo olímpico quédese dato apreciado lector oro suiza mamie vale actual récord españa jess londres esoturno lidón muñoz apretada castellonense calle semifinal busca complicado top libre intentarlo jornada relevo × libre mixto tela… queda reserva peleó relevo acabo octavo cayendo nochearbidel gonzález puso turbo mariposa puertas europea absoluta éxito joven décimas corte seguir creciendo joanllu pons pesó marca eliminatorias mañana historial merece créditomientras mariposa femeninos alba vázquez mireia belmonte calles exteriores podían progresar complicada continental comentamos pons vale obviamente mireia merece reconocmiento increíble carrera deportiva sensaciones competición parecía imposible arrancó entrenamientos febrero mireia belmonte campeona olímpica río espalda retospara relevo titular récord españa puesto paula ángela titular natatorio alcanzaron techo podio firmado priori quadarellaita myhalyvarihun caramignoliita aparato</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Deportes_55.txt</t>
+        </is>
       </c>
     </row>
     <row r="89">
@@ -1582,11 +2022,16 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>dolor síntoma señal alertaba enfermedad acercado mano fuego daño levantando nieto debíamos parar cuerpo reparase lesión asociación internacional estudio dolor cambió definición incluir naturaleza subjetiva experiencia dolorosa describirla experiencia sensorial emocional desagradable asociada similar asociada lesión real potencial descrita términos daño documento afirma relato persona experiencia dolor debería respetado personas sufren dolor cuyo origen localizar daño físico juzgaba sufrimiento inventado sintieron reconocidasel dolor casos enfermedad eliminar atacando origen afrontar experiencia personal factores biológicos influyen psicológicos sociales experiencia subjetiva real españa informe ministerio sanidad estimaba personas sufre dolor crónico profesionales tratan pacientes intervenciones físicas psicológicas científicos desentrañar secretos dolor punto coincidencia dedican recursos entender tratar problema importantepese prejuicio sociedad dolor buscan pastillas línea ataque dolores persistentes farmacológica artículo the lancet recomendaba dolor crónico espalda tratamiento inicial medicamentos marco biopsicosocial incluyese educación dolor ayuda ajustar expectativas reanudar actividades normales ejercicio entorno social paciente incluya programas apoyo psicológico personas síntomas persistentes recuerda beatriz rodríguez vega jefa psiquiatría psicología clínica salud mental hospital universitario paz madrid centro control prevención enfermedades unidos cdc reconoció mindfulness atención plena alternativa recomendable tratamiento farmacológico opiáceos dolor</t>
+          <t>gobierno vetado tramitación proposición ley psoe suprimir tasas judiciales alegando aprobación haría perder millones euros año mesa congreso votos pp ciudadanos aceptado veto decimoséptimo presenta ejecutivo legislatura iniciativa llegará debatirsela propuesta psoe pretendía eximir pago tasas judiciales entidades fines lucrativos supuestos excepcionales entender mantener pagos supone debilitamiento mecanismo valer derechos constitucionales estatutarios papel entidades vitalen escrito veto acceso europa press gobierno replica ampliar exenciones pago tasas provocaría minoración recaudación anual concretamente pérdida aproximada millones euros anuales millones supone recaudación totalel ejecutivo añade recaudación tasas judiciales forma presupuesto ingresos reducirse conllevaría desequilibrio gastos ingresos efecto directo déficit públicorecuerda iniciativa psoe fija enero fecha entrada vigor presupuestos vigentes prorrogados hacienda resuelve permiso tramitar iniciativa provoca disminución ingresos presupuestarios previstosel escrito veto decimoséptimo registrado gobierno llegado martes mesa congreso aceptado mayoría pp ciudadanos explicaciones ejecutivo psoe unidos votado pedían ignorar vetose cuarta iniciativa oposición supresión tasas judiciales viene vetando gobierno une similares unidos ciudadanos grupo mixto casos mesa congreso acabado aceptando argumentos gobiernode vetos presentado gobierno congreso rechazado relativos iniciativas psoe paralizar ley orgánica mejora calidad enseñanza lomce igualar condiciones laborales trabajadores subcontratasambas iniciativas podido seguir tramitación superaron votación pleno congreso toma consideración gobierno mantenido disconformidad apunta acabará presentando conflicto atribuciones tribunal constitucional</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Politica_11.txt</t>
+        </is>
       </c>
     </row>
     <row r="90">
@@ -1595,11 +2040,16 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>fármaco lecanemab impacta forma moderada avance enfermedad alzheimer precoces resultados avanzó laboratorio meses consolidado publicación revista médica the new england journal of medicine presentación comunidad médica convección san francisco díasen octubre datos avanzaron estudio completo levantaron expectativas neurólogos campo noticias escasas apuntaron reducción deterioro cognitivo etapas iniciales cifra anunciada compañías farmacéuticas responsables desarrollo eisai japonesa estadounidense biogen acogió esperanza espera consolidara detalles investigación completo anticuerpo monoclonalahora ensayo publica nejm apunta fármaco redujo marcadores amiloide enfermedad alzheimer temprana resultó disminución modestamente menor medidas cognición función placebo meses asoció eventos adversos justifican ensayos largos determinar eficacia seguridadjuan fortea coordinador grupo estudio conducta demencias sociedad española neurología conversación publicación resultados definitivos advertía resultados anticuerpo monoclonal iban suponer cambiar campo radicalmente evidentemente tratamiento cura enfermedad ralentiza señalaba fases precoces neurodegeneración ofrece calidad vida pacientessegún cronograma ambas compañías fármaco llegar mercado solicitud agencia reguladora americana fda visto finales año principios viene solicitarán aprobación organismos japonés europeo ema trimestre autor inicial diseño fármaco décadas geriatra sueco lars lannfelt apuntaba mundo semanas idea atacar formas solubles betaamiloide llamamos protofibrillas vimos mutación ártica protofibrillas posteriormente crecen expanden forman placa impedir proteína dañina betaamiloide acumule cerebro forma pequeños bultos conocidos placaen marc suárezcalvet neurólogo investigador grupo investigación fisiología cognición prevención alzhéimer imimhospital mar apunta smc lecanemab diferencia anticuerpos antiamiloide especial afinidad protofibrillas solubles amiloide probablemente efecto tóxico cerebro característica posiblemente razones resultados fortea publicación resultados explica resultados consistentes recuerda eficacia modesta estudio demuestra menor declive cognitivo pacientes tratados lecanemab determinar relevancia clínica diferencia escala cdrsb valoración clínica demencia rango parecer menor pequeños cambios cognición impacto autonomía pacientes cuidadores cuidadoras debemos ensayo investiga efecto fármaco administrarlo meses cabo estudios larga duración determinar efecto plazo añade responsable grupo biomarcadores fluidos neurología traslacional barcelona beta brain research center fundación pasqual maragall</t>
+          <t>andalucía convertido rompeolas clima entendimiento haberse instalado psoe pp despeñaperros productiva inercia pactos permitido desbloquear investidura rajoy subir salario mínimo interprofesional frenar implantación lomce garantizar aprobación cuentas asturias rompe llega comunidad andaluza psoe encontrado ciudadanos socio incondicional permite ignorar sistemáticamente llegue resto oposición derecha izquierdael pacto psoecs fraguado finalmente rodillo parlamentario laminado partido popular izquierda unida introducir tipo enmienda presupuesto andalucía sesión pleno presupuestos celebrada jueves consumado venía pronosticando meses partido socialista ciudadanos anunciaran alcanzado marco luz verde cuentas ejercicio suma votos psoe cs rechazado jornadas pleno sistemáticamente bloque bloque sección sección mil enmiendas presentadas resto partidos representación cámarasusana díaz lanza mensajes ciudadanía adversarios pese gobernar minoría ejecutivo sabido encontrar fórmula garantiza ansiada estabilidad política frente antipp andalucíay izquierda unida acusan susana díaz conseguido estabilidad costa sacrificar políticas sociales izquierdas negociación ciudadanos jacta enmiendas carga fiscal andaluces livianalos portavoces parlamentarios pp iu rechazado presupuestos regresivos revertir recortes educación sanidad ahondar desigualdad andaluces resto españoles informa efecon andalucía convierte jueves comunidad autónoma disponer visto parlamento cuentas ascienden millones euros segundos presupuestos legislatura presidencia susana díazla consejera andaluza hacienda administración pública maría jesús montero defendido proyecto sirve afianzar recuperación económica crecimiento andalucía ciudadanos comunidad noten personaen cuentas destaca partida millones euros educación supone incremento ciento presente ejerciciola sanidad partida presupuestaria peso millones euros asignados incremento ciento recogido políticas sociales millones euros destinados apartado subraya incremento gasto sostener políticas dependencia objetivo gobierno andaluz aumentar gasto conjunto legislaturala consejera hacienda destacado millones euros destinarán fomento subida cientoen apartado administración pública subraya compromiso recuperar jornada semanales funcionarios aplicará forma uniforme inmediata colectivos devolución ciento paga extra subida salarial proyecto millones euros destinan pago deuda inversión pública incrementa ascendiendo millones euros</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Politica_14.txt</t>
+        </is>
       </c>
     </row>
     <row r="91">
@@ -1608,11 +2058,16 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>médicos enteramos afirma jaume padrós presidente consejo colegios médicos cataluña ccmc corporación barcelona comb volumen facultativos colegiados madrid defendiendo realicen cambios sanidad catalana conjunto sistema nacional salud sns precisamente médicosaporta dato facultativos colegiados barcelona extranjeros extracomunitarios formado sistemas homologables español especialidad plantean dilema ético descapitaliza profesionales medicina respectivos países niega médicos españoles marchando españa ejercer países ofrecen mejores condiciones salarios barcelona ido extranjeros volvían países origenno médicos sistema sanitario público privado necesitamos añade declaraciones diario padrós presidente colegio analiza anualmente demografía médica provincia viene solicitando instrumento análisis permanente tipo observatorio necesidades cataluña conjunto españael problema falta médicos señala abordarlo formando profesionales requiere cambio organizativo desplegando ley ordenación profesiones sanitarias lops especialmente tocante troncalidad especialidades desburocratizando desnormativizando sistema salud flexiblesobre atención primaria nacional presidente ccmc precisa modelo totalmente homologable resto unión europea culpa excesiva rigidez impide médicos puedan tomar decisiones agenda pone modelo autogestión pediatras pirineos aumentar salarios logrado atractivo zonas rurales cree extender experiencia contribuir solucionar problema sanitario llamada españa vaciada</t>
+          <t>calcula año mueren millón personas envenenamiento plomo millones niños expuestos bajos niveles metal causándoles problemas salud vida anemia hipertensión efectos adversos sistema inmunitario lunes organización mundial salud omscon motivo semana internacional acción prevención tipo intoxicación agencia sanitaria advirtió efectos neurológicos comportamiento causados irreversiblesla organización mundial salud recomienda identificar fuentes exposición metal tomar medidas necesarias disminuirlas acabar personas nivel plomo sangre superior microgramos decilitrounicef calcula niños millones mundo posee niveles plomo sangre superiores necesario tomar medidas inmediatas nivel mundial solucionar problema nivel seguro exposición plomo especialmente niñosla directora departamento ambiente cambio climático salud organización advirtió exposición plomo especialmente peligrosa cerebro desarrollo niños provocar reducción cociente intelectual capacidad atención aprendizaje riesgo problemas comportamientola doctora maría neira daño evitable cerebro niños supone trágica pérdida potencialel plomo tóxico sistemas cuerpo nervioso central cerebro reproductor riñones cardiovascular sanguíneo inmunitariola agencia sanitaria estima discapacidad intelectual causa desconocida enfermedades cardiovasculares enfermedades renales crónicas atribuirse exposición plomodebido efectos plazo salud calcula exposición plomo responsable millones años perdidos discapacidad muerte mundoentre múltiples fuentes exposición tóxico metal contextos industriales encontrar minería fundición reciclaje residuos electrónicos baterías plomo fontanería munición entornos exposición niños adolescentes especialmente economías desarrollola contaminación producirse pintura plomo hogares escuelas hospitales parques infantiles niños ingerir escamas polvo procedentes juguetes superficies pintadas plomo expuestos cerámica vidriada plomo medicamentos cosméticos tradicionales jefa unidad seguridad química departamento ambiente cambio climático salud destacó avances producidos diez años países cuentan controles legalmente vinculantes limitar producción importación venta pinturas plomolesley onyon destacó pese prohibición gasolina plomo mundo queda intoxicación plomo totalmente prevenible serie medidas restringir usos controlar gestionar exposición año ampliamos alcance prevenir fuentes exposición plomolas fuentes exposición importantes sonla contaminación ambiental derivada reciclaje baterías plomo operaciones extracción fundición plomo controladas remedios tradicionales contienen plomo esmaltes cerámicos plomo utilizados envases alimentos tuberías plomo componentes contienen plomo sistemas distribución agua pintura plomola organización llama países prohibir pintura plomo identificar eliminar fuentes exposición menores informar público peligros indebido productos contienen plomo</t>
         </is>
       </c>
       <c r="C91" t="n">
         <v>1</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Salud_53.txt</t>
+        </is>
       </c>
     </row>
   </sheetData>
